--- a/models/dissertation-model/modelo-ithink/dados_ithink_excel_stocks.xlsx
+++ b/models/dissertation-model/modelo-ithink/dados_ithink_excel_stocks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Months</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>Final</t>
+  </si>
+  <si>
+    <t>SmoothCapacity1[1]</t>
+  </si>
+  <si>
+    <t>SmoothCapacity2[1]</t>
+  </si>
+  <si>
+    <t>SmoothCapacity3[1]</t>
   </si>
 </sst>
 </file>
@@ -445,6 +454,15 @@
       <c r="J1" t="s">
         <v>6</v>
       </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -475,7 +493,16 @@
         <v>10000000</v>
       </c>
       <c r="J2">
-        <v>1000000</v>
+        <v>50952</v>
+      </c>
+      <c r="K2">
+        <v>50952</v>
+      </c>
+      <c r="L2">
+        <v>50952</v>
+      </c>
+      <c r="M2">
+        <v>50952</v>
       </c>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
@@ -488,7 +515,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-26587272.227272999</v>
+        <v>-5017999.5</v>
       </c>
       <c r="C3">
         <v>6369000.5</v>
@@ -500,7 +527,7 @@
         <v>35994</v>
       </c>
       <c r="F3">
-        <v>882.96124999999995</v>
+        <v>1025.9375</v>
       </c>
       <c r="G3">
         <v>71988</v>
@@ -512,7 +539,16 @@
         <v>10006369</v>
       </c>
       <c r="J3">
-        <v>550000</v>
+        <v>75476</v>
+      </c>
+      <c r="K3">
+        <v>69345</v>
+      </c>
+      <c r="L3">
+        <v>50952</v>
+      </c>
+      <c r="M3">
+        <v>50952</v>
       </c>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
@@ -523,22 +559,22 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-49864657.037184998</v>
+        <v>-6840719.0654910002</v>
       </c>
       <c r="C4">
-        <v>3581766.5904060001</v>
+        <v>14666214.972686</v>
       </c>
       <c r="D4">
-        <v>6818.9250000000002</v>
+        <v>17560.436829999999</v>
       </c>
       <c r="E4">
         <v>41913.074999999997</v>
       </c>
       <c r="F4">
-        <v>824.31642699999998</v>
+        <v>1044.0447260000001</v>
       </c>
       <c r="G4">
-        <v>71988</v>
+        <v>93471.023660000006</v>
       </c>
       <c r="H4">
         <v>101904</v>
@@ -547,7 +583,16 @@
         <v>10012738</v>
       </c>
       <c r="J4">
-        <v>325000</v>
+        <v>87738</v>
+      </c>
+      <c r="K4">
+        <v>80840.63</v>
+      </c>
+      <c r="L4">
+        <v>57849.37</v>
+      </c>
+      <c r="M4">
+        <v>50952</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
@@ -558,31 +603,40 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-72622432.29039</v>
+        <v>-6539169.9162060004</v>
       </c>
       <c r="C5">
-        <v>2222753.7480489998</v>
+        <v>22506635.062013999</v>
       </c>
       <c r="D5">
-        <v>3933.3759369999998</v>
+        <v>23795.986787000002</v>
       </c>
       <c r="E5">
-        <v>44798.624062000003</v>
+        <v>47758.161562000001</v>
       </c>
       <c r="F5">
-        <v>791.17168900000001</v>
+        <v>1112.0399130000001</v>
       </c>
       <c r="G5">
-        <v>71988</v>
+        <v>117632.296699</v>
       </c>
       <c r="H5">
-        <v>78227.7</v>
+        <v>101904</v>
       </c>
       <c r="I5">
-        <v>10016147.4625</v>
+        <v>10019107</v>
       </c>
       <c r="J5">
-        <v>212500</v>
+        <v>93869</v>
+      </c>
+      <c r="K5">
+        <v>88025.39</v>
+      </c>
+      <c r="L5">
+        <v>66471.09</v>
+      </c>
+      <c r="M5">
+        <v>53538.515625</v>
       </c>
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
@@ -593,31 +647,40 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-95071141.139537007</v>
+        <v>-5492838.2530530002</v>
       </c>
       <c r="C6">
-        <v>1554419.4123</v>
+        <v>31948990.899962999</v>
       </c>
       <c r="D6">
-        <v>2526.6707700000002</v>
+        <v>31286.667529999999</v>
       </c>
       <c r="E6">
-        <v>46205.329230000003</v>
+        <v>53853.498996000002</v>
       </c>
       <c r="F6">
-        <v>772.73095499999999</v>
+        <v>1208.1695769999999</v>
       </c>
       <c r="G6">
-        <v>71988</v>
+        <v>144804.33305300001</v>
       </c>
       <c r="H6">
-        <v>54847.353750000002</v>
+        <v>104490.515625</v>
       </c>
       <c r="I6">
-        <v>10018114.150469</v>
+        <v>10025799.314453</v>
       </c>
       <c r="J6">
-        <v>156250</v>
+        <v>96934.5</v>
+      </c>
+      <c r="K6">
+        <v>92515.87</v>
+      </c>
+      <c r="L6">
+        <v>74553.960000000006</v>
+      </c>
+      <c r="M6">
+        <v>58388.232422000001</v>
       </c>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
@@ -628,31 +691,40 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-117315625.675079</v>
+        <v>-3816406.244529</v>
       </c>
       <c r="C7">
-        <v>1223513.3086349999</v>
+        <v>43767811.732502997</v>
       </c>
       <c r="D7">
-        <v>1840.902</v>
+        <v>39939.422575999997</v>
       </c>
       <c r="E7">
-        <v>46891.097999999998</v>
+        <v>60478.859311</v>
       </c>
       <c r="F7">
-        <v>762.59411599999999</v>
+        <v>1313.043302</v>
       </c>
       <c r="G7">
-        <v>71988</v>
+        <v>175360.56377400001</v>
       </c>
       <c r="H7">
-        <v>37530.359952999999</v>
+        <v>110633.490234</v>
       </c>
       <c r="I7">
-        <v>10019377.485854</v>
+        <v>10033097.843505999</v>
       </c>
       <c r="J7">
-        <v>128125</v>
+        <v>98467.25</v>
+      </c>
+      <c r="K7">
+        <v>95322.42</v>
+      </c>
+      <c r="L7">
+        <v>81289.67</v>
+      </c>
+      <c r="M7">
+        <v>64450.378418</v>
       </c>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
@@ -663,31 +735,40 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-139406571.97839099</v>
+        <v>-1386001.7675719999</v>
       </c>
       <c r="C8">
-        <v>1058742.59724</v>
+        <v>58489815.261619002</v>
       </c>
       <c r="D8">
-        <v>1506.589725</v>
+        <v>49818.966635999997</v>
       </c>
       <c r="E8">
-        <v>47225.410275000002</v>
+        <v>67779.170872000002</v>
       </c>
       <c r="F8">
-        <v>757.07310700000005</v>
+        <v>1417.534465</v>
       </c>
       <c r="G8">
-        <v>71988</v>
+        <v>209720.275016</v>
       </c>
       <c r="H8">
-        <v>26128.787977</v>
+        <v>119767.12353500001</v>
       </c>
       <c r="I8">
-        <v>10020297.936853999</v>
+        <v>10041154.140807999</v>
       </c>
       <c r="J8">
-        <v>114062.5</v>
+        <v>99233.625</v>
+      </c>
+      <c r="K8">
+        <v>97076.51</v>
+      </c>
+      <c r="L8">
+        <v>86551.95</v>
+      </c>
+      <c r="M8">
+        <v>70765.113830999995</v>
       </c>
       <c r="AP8" s="1"/>
       <c r="AQ8" s="1"/>
@@ -698,31 +779,40 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-161368012.50006801</v>
+        <v>1943226.9445480001</v>
       </c>
       <c r="C9">
-        <v>976284.89941700001</v>
+        <v>76688009.842045993</v>
       </c>
       <c r="D9">
-        <v>1343.6124910000001</v>
+        <v>61137.487592999998</v>
       </c>
       <c r="E9">
-        <v>47388.387509</v>
+        <v>75777.570464999997</v>
       </c>
       <c r="F9">
-        <v>754.08611199999996</v>
+        <v>1522.0495599999999</v>
       </c>
       <c r="G9">
-        <v>71988</v>
+        <v>248354.116117</v>
       </c>
       <c r="H9">
-        <v>19090.752888999999</v>
+        <v>130648.675598</v>
       </c>
       <c r="I9">
-        <v>10021051.231716</v>
+        <v>10049999.780037001</v>
       </c>
       <c r="J9">
-        <v>107031.25</v>
+        <v>99616.8125</v>
+      </c>
+      <c r="K9">
+        <v>98172.82</v>
+      </c>
+      <c r="L9">
+        <v>90498.66</v>
+      </c>
+      <c r="M9">
+        <v>76685.178279999993</v>
       </c>
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1"/>
@@ -733,31 +823,40 @@
         <v>1000</v>
       </c>
       <c r="B10">
-        <v>-183211228.817761</v>
+        <v>6279585.1267400002</v>
       </c>
       <c r="C10">
-        <v>934829.01076800004</v>
+        <v>99161900.748632997</v>
       </c>
       <c r="D10">
-        <v>1264.1610889999999</v>
+        <v>74217.120209999994</v>
       </c>
       <c r="E10">
-        <v>47467.838910999999</v>
+        <v>84415.998118999996</v>
       </c>
       <c r="F10">
-        <v>752.47633699999994</v>
+        <v>1629.9596449999999</v>
       </c>
       <c r="G10">
-        <v>71988</v>
+        <v>291790.23665799998</v>
       </c>
       <c r="H10">
-        <v>14919.826408000001</v>
+        <v>142009.51607899999</v>
       </c>
       <c r="I10">
-        <v>10021723.037962001</v>
+        <v>10059585.427322</v>
       </c>
       <c r="J10">
-        <v>103515.625</v>
+        <v>104688.459454</v>
+      </c>
+      <c r="K10">
+        <v>102518.05</v>
+      </c>
+      <c r="L10">
+        <v>93376.47</v>
+      </c>
+      <c r="M10">
+        <v>81865.234672999999</v>
       </c>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
@@ -768,31 +867,40 @@
         <v>1125</v>
       </c>
       <c r="B11">
-        <v>-204941544.60130101</v>
+        <v>11693343.224214001</v>
       </c>
       <c r="C11">
-        <v>913894.82474800001</v>
+        <v>127005441.585391</v>
       </c>
       <c r="D11">
-        <v>1225.428531</v>
+        <v>89454.605290000007</v>
       </c>
       <c r="E11">
-        <v>47506.571469000002</v>
+        <v>93593.952476999999</v>
       </c>
       <c r="F11">
-        <v>751.60889699999996</v>
+        <v>1746.5066469999999</v>
       </c>
       <c r="G11">
-        <v>71988</v>
+        <v>340621.11553299997</v>
       </c>
       <c r="H11">
-        <v>12516.557562</v>
+        <v>152869.99271200001</v>
       </c>
       <c r="I11">
-        <v>10022355.118505999</v>
+        <v>10069818.581656</v>
       </c>
       <c r="J11">
-        <v>101757.8125</v>
+        <v>123686.89316000001</v>
+      </c>
+      <c r="K11">
+        <v>117580.78</v>
+      </c>
+      <c r="L11">
+        <v>96804.56</v>
+      </c>
+      <c r="M11">
+        <v>86181.948334000001</v>
       </c>
       <c r="AP11" s="1"/>
       <c r="AQ11" s="1"/>
@@ -803,31 +911,40 @@
         <v>1250</v>
       </c>
       <c r="B12">
-        <v>-226561562.50699499</v>
+        <v>18230064.290849999</v>
       </c>
       <c r="C12">
-        <v>903276.93482800003</v>
+        <v>161686750.90035501</v>
       </c>
       <c r="D12">
-        <v>1206.546409</v>
+        <v>107296.80284</v>
       </c>
       <c r="E12">
-        <v>47525.453590999998</v>
+        <v>103196.771613</v>
       </c>
       <c r="F12">
-        <v>751.13881500000002</v>
+        <v>1886.338763</v>
       </c>
       <c r="G12">
-        <v>71988</v>
+        <v>395511.14890500001</v>
       </c>
       <c r="H12">
-        <v>11159.992904999999</v>
+        <v>162616.94469</v>
       </c>
       <c r="I12">
-        <v>10022967.832772</v>
+        <v>10080591.325198</v>
       </c>
       <c r="J12">
-        <v>100878.90625</v>
+        <v>143328.73753700001</v>
+      </c>
+      <c r="K12">
+        <v>134601.96</v>
+      </c>
+      <c r="L12">
+        <v>104595.65</v>
+      </c>
+      <c r="M12">
+        <v>90165.429208999994</v>
       </c>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
@@ -838,31 +955,40 @@
         <v>1375</v>
       </c>
       <c r="B13">
-        <v>-248072673.39386699</v>
+        <v>25973628.164099</v>
       </c>
       <c r="C13">
-        <v>897866.12883900001</v>
+        <v>205323955.06322101</v>
       </c>
       <c r="D13">
-        <v>1197.3413740000001</v>
+        <v>128163.04302500001</v>
       </c>
       <c r="E13">
-        <v>47534.658625999997</v>
+        <v>113177.490619</v>
       </c>
       <c r="F13">
-        <v>750.88018</v>
+        <v>2050.8298329999998</v>
       </c>
       <c r="G13">
-        <v>71988</v>
+        <v>457205.06728800002</v>
       </c>
       <c r="H13">
-        <v>10406.182088</v>
+        <v>171473.90155400001</v>
       </c>
       <c r="I13">
-        <v>10023571.105976</v>
+        <v>10091862.003849</v>
       </c>
       <c r="J13">
-        <v>100439.453125</v>
+        <v>162188.62054199999</v>
+      </c>
+      <c r="K13">
+        <v>152019.41</v>
+      </c>
+      <c r="L13">
+        <v>115848.01</v>
+      </c>
+      <c r="M13">
+        <v>95576.760154999996</v>
       </c>
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
@@ -873,31 +999,40 @@
         <v>1500</v>
       </c>
       <c r="B14">
-        <v>-269475744.73691499</v>
+        <v>35221924.619102001</v>
       </c>
       <c r="C14">
-        <v>895093.47740099998</v>
+        <v>260179684.79429501</v>
       </c>
       <c r="D14">
-        <v>1192.85392</v>
+        <v>152296.760232</v>
       </c>
       <c r="E14">
-        <v>47539.146079999999</v>
+        <v>123709.86700499999</v>
       </c>
       <c r="F14">
-        <v>750.73349299999995</v>
+        <v>2226.734633</v>
       </c>
       <c r="G14">
-        <v>71988</v>
+        <v>526537.25447399996</v>
       </c>
       <c r="H14">
-        <v>9992.4565409999996</v>
+        <v>181313.71093199999</v>
       </c>
       <c r="I14">
-        <v>10024169.776663</v>
+        <v>10103809.098867999</v>
       </c>
       <c r="J14">
-        <v>100219.726563</v>
+        <v>180337.001701</v>
+      </c>
+      <c r="K14">
+        <v>169444.15</v>
+      </c>
+      <c r="L14">
+        <v>129412.29</v>
+      </c>
+      <c r="M14">
+        <v>103178.479448</v>
       </c>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
@@ -908,31 +1043,40 @@
         <v>1625</v>
       </c>
       <c r="B15">
-        <v>-290771426.879363</v>
+        <v>46453179.835037999</v>
       </c>
       <c r="C15">
-        <v>893662.10360999999</v>
+        <v>328326275.35984099</v>
       </c>
       <c r="D15">
-        <v>1190.6662859999999</v>
+        <v>179898.217539</v>
       </c>
       <c r="E15">
-        <v>47541.333714</v>
+        <v>135060.80359900001</v>
       </c>
       <c r="F15">
-        <v>750.64581499999997</v>
+        <v>2398.6732510000002</v>
       </c>
       <c r="G15">
-        <v>71988</v>
+        <v>604442.04227600002</v>
       </c>
       <c r="H15">
-        <v>9767.643951</v>
+        <v>193835.33491400001</v>
       </c>
       <c r="I15">
-        <v>10024766.203623001</v>
+        <v>10116706.408799</v>
       </c>
       <c r="J15">
-        <v>100109.863281</v>
+        <v>196636.637158</v>
+      </c>
+      <c r="K15">
+        <v>185753.7</v>
+      </c>
+      <c r="L15">
+        <v>144424.24</v>
+      </c>
+      <c r="M15">
+        <v>113016.157077</v>
       </c>
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
@@ -943,31 +1087,40 @@
         <v>1750</v>
       </c>
       <c r="B16">
-        <v>-311960285.04264098</v>
+        <v>60245532.503849998</v>
       </c>
       <c r="C16">
-        <v>892914.84150600003</v>
+        <v>411562658.39245403</v>
       </c>
       <c r="D16">
-        <v>1189.5998139999999</v>
+        <v>211220.96410000001</v>
       </c>
       <c r="E16">
-        <v>47542.400185999999</v>
+        <v>147499.563188</v>
       </c>
       <c r="F16">
-        <v>750.58912099999998</v>
+        <v>2556.0418730000001</v>
       </c>
       <c r="G16">
-        <v>71988</v>
+        <v>691965.05457699997</v>
       </c>
       <c r="H16">
-        <v>9646.4871189999994</v>
+        <v>209933.82453400001</v>
       </c>
       <c r="I16">
-        <v>10025361.536766</v>
+        <v>10130833.428433999</v>
       </c>
       <c r="J16">
-        <v>100054.931641</v>
+        <v>212255.67062399999</v>
+      </c>
+      <c r="K16">
+        <v>201549.07</v>
+      </c>
+      <c r="L16">
+        <v>159922.78</v>
+      </c>
+      <c r="M16">
+        <v>124794.18648800001</v>
       </c>
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
@@ -978,31 +1131,40 @@
         <v>1875</v>
       </c>
       <c r="B17">
-        <v>-333042853.80051398</v>
+        <v>77202677.378306001</v>
       </c>
       <c r="C17">
-        <v>892517.52515700005</v>
+        <v>511523291.604774</v>
       </c>
       <c r="D17">
-        <v>1189.0799099999999</v>
+        <v>246620.743651</v>
       </c>
       <c r="E17">
-        <v>47542.92009</v>
+        <v>161255.09195999999</v>
       </c>
       <c r="F17">
-        <v>750.54864099999998</v>
+        <v>2695.8284509999999</v>
       </c>
       <c r="G17">
-        <v>71988</v>
+        <v>790275.67122100003</v>
       </c>
       <c r="H17">
-        <v>9581.6428169999999</v>
+        <v>229761.09875500001</v>
       </c>
       <c r="I17">
-        <v>10025956.336673999</v>
+        <v>10146432.701745</v>
       </c>
       <c r="J17">
-        <v>100027.46582</v>
+        <v>229989.08936000001</v>
+      </c>
+      <c r="K17">
+        <v>218864.11</v>
+      </c>
+      <c r="L17">
+        <v>175532.64</v>
+      </c>
+      <c r="M17">
+        <v>137967.410301</v>
       </c>
       <c r="AP17" s="1"/>
       <c r="AQ17" s="1"/>
@@ -1013,31 +1175,40 @@
         <v>2000</v>
       </c>
       <c r="B18">
-        <v>-354019658.10008901</v>
+        <v>97876367.007883996</v>
       </c>
       <c r="C18">
-        <v>892299.68836300005</v>
+        <v>630003439.40292394</v>
       </c>
       <c r="D18">
-        <v>1188.826456</v>
+        <v>286593.008462</v>
       </c>
       <c r="E18">
-        <v>47543.173543999997</v>
+        <v>176485.32959800001</v>
       </c>
       <c r="F18">
-        <v>750.51662099999999</v>
+        <v>2822.3867489999998</v>
       </c>
       <c r="G18">
-        <v>71988</v>
+        <v>900680.67611899995</v>
       </c>
       <c r="H18">
-        <v>9547.1410469999992</v>
+        <v>252847.95967899999</v>
       </c>
       <c r="I18">
-        <v>10026550.876628</v>
+        <v>10163678.628032001</v>
       </c>
       <c r="J18">
-        <v>100013.73291000001</v>
+        <v>252538.73728299999</v>
+      </c>
+      <c r="K18">
+        <v>239948.21</v>
+      </c>
+      <c r="L18">
+        <v>191781.94</v>
+      </c>
+      <c r="M18">
+        <v>152054.37234599999</v>
       </c>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
@@ -1048,31 +1219,40 @@
         <v>2125</v>
       </c>
       <c r="B19">
-        <v>-374891220.45398003</v>
+        <v>122737041.39893</v>
       </c>
       <c r="C19">
-        <v>892174.11859800003</v>
+        <v>769377466.14648199</v>
       </c>
       <c r="D19">
-        <v>1188.7028969999999</v>
+        <v>331771.51220400003</v>
       </c>
       <c r="E19">
-        <v>47543.297102999997</v>
+        <v>193286.05952099999</v>
       </c>
       <c r="F19">
-        <v>750.48900300000003</v>
+        <v>2943.3859990000001</v>
       </c>
       <c r="G19">
-        <v>71988</v>
+        <v>1024639.143449</v>
       </c>
       <c r="H19">
-        <v>9528.8763469999994</v>
+        <v>278478.35218500003</v>
       </c>
       <c r="I19">
-        <v>10027145.289856</v>
+        <v>10182685.424575999</v>
       </c>
       <c r="J19">
-        <v>100006.866455</v>
+        <v>281372.38826899999</v>
+      </c>
+      <c r="K19">
+        <v>266294.90000000002</v>
+      </c>
+      <c r="L19">
+        <v>209844.3</v>
+      </c>
+      <c r="M19">
+        <v>166952.21152499999</v>
       </c>
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1"/>
@@ -1083,31 +1263,40 @@
         <v>2250</v>
       </c>
       <c r="B20">
-        <v>-395658062.779378</v>
+        <v>152226269.839178</v>
       </c>
       <c r="C20">
-        <v>892096.07975699997</v>
+        <v>932864243.36904204</v>
       </c>
       <c r="D20">
-        <v>1188.642662</v>
+        <v>382888.289667</v>
       </c>
       <c r="E20">
-        <v>47543.357338000002</v>
+        <v>211739.01021800001</v>
       </c>
       <c r="F20">
-        <v>750.46367099999998</v>
+        <v>3064.6987559999998</v>
       </c>
       <c r="G20">
-        <v>71988</v>
+        <v>1163778.59977</v>
       </c>
       <c r="H20">
-        <v>9519.2497619999995</v>
+        <v>306191.38761799998</v>
       </c>
       <c r="I20">
-        <v>10027739.641305</v>
+        <v>10203554.451016</v>
       </c>
       <c r="J20">
-        <v>100003.43322799999</v>
+        <v>317059.41458699998</v>
+      </c>
+      <c r="K20">
+        <v>298714.23</v>
+      </c>
+      <c r="L20">
+        <v>231013.27</v>
+      </c>
+      <c r="M20">
+        <v>183036.74286100001</v>
       </c>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
@@ -1118,31 +1307,40 @@
         <v>2375</v>
       </c>
       <c r="B21">
-        <v>-416320706.394288</v>
+        <v>186867150.660725</v>
       </c>
       <c r="C21">
-        <v>892042.57059699995</v>
+        <v>1124483791.86063</v>
       </c>
       <c r="D21">
-        <v>1188.613298</v>
+        <v>440722.372867</v>
       </c>
       <c r="E21">
-        <v>47543.386702000003</v>
+        <v>231971.86544699999</v>
       </c>
       <c r="F21">
-        <v>750.43952300000001</v>
+        <v>3187.412828</v>
       </c>
       <c r="G21">
-        <v>71988</v>
+        <v>1319912.4766289999</v>
       </c>
       <c r="H21">
-        <v>9514.1955309999994</v>
+        <v>336132.43667000002</v>
       </c>
       <c r="I21">
-        <v>10028333.962636</v>
+        <v>10226434.043873999</v>
       </c>
       <c r="J21">
-        <v>100001.716614</v>
+        <v>360329.78462799999</v>
+      </c>
+      <c r="K21">
+        <v>338046.45</v>
+      </c>
+      <c r="L21">
+        <v>256401.13</v>
+      </c>
+      <c r="M21">
+        <v>201027.94108399999</v>
       </c>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
@@ -1153,31 +1351,40 @@
         <v>2500</v>
       </c>
       <c r="B22">
-        <v>-436879671.53441101</v>
+        <v>227373204.054681</v>
       </c>
       <c r="C22">
-        <v>892001.74063400005</v>
+        <v>1348743798.25843</v>
       </c>
       <c r="D22">
-        <v>1188.5989830000001</v>
+        <v>506066.70821800001</v>
       </c>
       <c r="E22">
-        <v>47543.401016999997</v>
+        <v>254200.70976500001</v>
       </c>
       <c r="F22">
-        <v>750.41598799999997</v>
+        <v>3308.1443250000002</v>
       </c>
       <c r="G22">
-        <v>71988</v>
+        <v>1495058.8359660001</v>
       </c>
       <c r="H22">
-        <v>9511.5509569999995</v>
+        <v>369094.15941899997</v>
       </c>
       <c r="I22">
-        <v>10028928.269285001</v>
+        <v>10251562.536509</v>
       </c>
       <c r="J22">
-        <v>100000.858307</v>
+        <v>411815.63913700002</v>
+      </c>
+      <c r="K22">
+        <v>385017.09</v>
+      </c>
+      <c r="L22">
+        <v>287018.12</v>
+      </c>
+      <c r="M22">
+        <v>221792.886853</v>
       </c>
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1"/>
@@ -1188,31 +1395,40 @@
         <v>2625</v>
       </c>
       <c r="B23">
-        <v>-457335476.86335599</v>
+        <v>274717157.66039699</v>
       </c>
       <c r="C23">
-        <v>891967.47348000004</v>
+        <v>1610228741.8931501</v>
       </c>
       <c r="D23">
-        <v>1188.5920040000001</v>
+        <v>579720.84172699996</v>
       </c>
       <c r="E23">
-        <v>47543.407996000002</v>
+        <v>278747.31174899999</v>
       </c>
       <c r="F23">
-        <v>750.39277100000004</v>
+        <v>3421.3210650000001</v>
       </c>
       <c r="G23">
-        <v>71988</v>
+        <v>1691460.3069529999</v>
       </c>
       <c r="H23">
-        <v>9510.1714100000008</v>
+        <v>406339.96656199999</v>
       </c>
       <c r="I23">
-        <v>10029522.568777001</v>
+        <v>10279286.647366</v>
       </c>
       <c r="J23">
-        <v>100000.429153</v>
+        <v>469595.27294200001</v>
+      </c>
+      <c r="K23">
+        <v>438401.27</v>
+      </c>
+      <c r="L23">
+        <v>323767.74</v>
+      </c>
+      <c r="M23">
+        <v>246252.35109800001</v>
       </c>
       <c r="AP23" s="1"/>
       <c r="AQ23" s="1"/>
@@ -1223,31 +1439,40 @@
         <v>2750</v>
       </c>
       <c r="B24">
-        <v>-477688639.10168999</v>
+        <v>330166180.42210603</v>
       </c>
       <c r="C24">
-        <v>891936.60746299999</v>
+        <v>1913244216.7322299</v>
       </c>
       <c r="D24">
-        <v>1188.588602</v>
+        <v>662496.04342100001</v>
       </c>
       <c r="E24">
-        <v>47543.411397999997</v>
+        <v>306044.51423999999</v>
       </c>
       <c r="F24">
-        <v>750.36971800000003</v>
+        <v>3520.2980739999998</v>
       </c>
       <c r="G24">
-        <v>71988</v>
+        <v>1911605.1153220001</v>
       </c>
       <c r="H24">
-        <v>9509.4537209999999</v>
+        <v>449422.33437900001</v>
       </c>
       <c r="I24">
-        <v>10030116.864778999</v>
+        <v>10310068.191253001</v>
       </c>
       <c r="J24">
-        <v>100000.21457700001</v>
+        <v>532385.41524</v>
+      </c>
+      <c r="K24">
+        <v>497191.63</v>
+      </c>
+      <c r="L24">
+        <v>366755.31</v>
+      </c>
+      <c r="M24">
+        <v>275320.62091100001</v>
       </c>
       <c r="AP24" s="1"/>
       <c r="AQ24" s="1"/>
@@ -1258,31 +1483,40 @@
         <v>2875</v>
       </c>
       <c r="B25">
-        <v>-497939672.77921802</v>
+        <v>395289966.89298701</v>
       </c>
       <c r="C25">
-        <v>891907.50615399994</v>
+        <v>2261452891.9480801</v>
       </c>
       <c r="D25">
-        <v>1188.586943</v>
+        <v>755228.47030000004</v>
       </c>
       <c r="E25">
-        <v>47543.413056999998</v>
+        <v>336634.03542600002</v>
       </c>
       <c r="F25">
-        <v>750.34675000000004</v>
+        <v>3599.1737090000001</v>
       </c>
       <c r="G25">
-        <v>71988</v>
+        <v>2158249.0114509999</v>
       </c>
       <c r="H25">
-        <v>9509.0812690000002</v>
+        <v>500031.78810000001</v>
       </c>
       <c r="I25">
-        <v>10030711.159080001</v>
+        <v>10344483.268866999</v>
       </c>
       <c r="J25">
-        <v>100000.107288</v>
+        <v>601321.735216</v>
+      </c>
+      <c r="K25">
+        <v>562091.54</v>
+      </c>
+      <c r="L25">
+        <v>415668.93</v>
+      </c>
+      <c r="M25">
+        <v>309608.63037899998</v>
       </c>
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
@@ -1293,31 +1527,40 @@
         <v>3000</v>
       </c>
       <c r="B26">
-        <v>-518089090.08205402</v>
+        <v>471877378.56184798</v>
       </c>
       <c r="C26">
-        <v>891879.32166799996</v>
+        <v>2657737330.2933898</v>
       </c>
       <c r="D26">
-        <v>1188.586135</v>
+        <v>858829.71535099996</v>
       </c>
       <c r="E26">
-        <v>47543.413865000002</v>
+        <v>371127.18878000003</v>
       </c>
       <c r="F26">
-        <v>750.32382800000005</v>
+        <v>3655.5149240000001</v>
       </c>
       <c r="G26">
-        <v>71988</v>
+        <v>2434437.8082619999</v>
       </c>
       <c r="H26">
-        <v>9508.8884080000007</v>
+        <v>559624.52442899998</v>
       </c>
       <c r="I26">
-        <v>10031305.452551</v>
+        <v>10383184.347665001</v>
       </c>
       <c r="J26">
-        <v>100000.053644</v>
+        <v>680140.67238</v>
+      </c>
+      <c r="K26">
+        <v>635917.06999999995</v>
+      </c>
+      <c r="L26">
+        <v>470577.41</v>
+      </c>
+      <c r="M26">
+        <v>349381.24327799998</v>
       </c>
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1"/>
@@ -1328,31 +1571,40 @@
         <v>3125</v>
       </c>
       <c r="B27">
-        <v>-538137400.76426697</v>
+        <v>561811262.86593902</v>
       </c>
       <c r="C27">
-        <v>891851.61430599994</v>
+        <v>3104491825.7083802</v>
       </c>
       <c r="D27">
-        <v>1188.5857410000001</v>
+        <v>974342.305803</v>
       </c>
       <c r="E27">
-        <v>47543.414258999997</v>
+        <v>410160.75433000003</v>
       </c>
       <c r="F27">
-        <v>750.300929</v>
+        <v>3691.0897770000001</v>
       </c>
       <c r="G27">
-        <v>71988</v>
+        <v>2743530.1202659998</v>
       </c>
       <c r="H27">
-        <v>9508.7887439999995</v>
+        <v>629193.50549300003</v>
       </c>
       <c r="I27">
-        <v>10031899.745619001</v>
+        <v>10426857.003074</v>
       </c>
       <c r="J27">
-        <v>100000.026822</v>
+        <v>774130.25386099995</v>
+      </c>
+      <c r="K27">
+        <v>722993.1</v>
+      </c>
+      <c r="L27">
+        <v>532579.78</v>
+      </c>
+      <c r="M27">
+        <v>394829.80551500001</v>
       </c>
       <c r="AP27" s="1"/>
       <c r="AQ27" s="1"/>
@@ -1363,31 +1615,40 @@
         <v>3250</v>
       </c>
       <c r="B28">
-        <v>-558085112.10069799</v>
+        <v>667001078.52438903</v>
       </c>
       <c r="C28">
-        <v>891824.155899</v>
+        <v>3604148814.6465702</v>
       </c>
       <c r="D28">
-        <v>1188.5855489999999</v>
+        <v>1102960.402976</v>
       </c>
       <c r="E28">
-        <v>47543.414450999997</v>
+        <v>454387.47058999998</v>
       </c>
       <c r="F28">
-        <v>750.27804400000002</v>
+        <v>3710.0127969999999</v>
       </c>
       <c r="G28">
-        <v>71988</v>
+        <v>3089219.7471329998</v>
       </c>
       <c r="H28">
-        <v>9508.7373349999998</v>
+        <v>709426.55826199998</v>
       </c>
       <c r="I28">
-        <v>10032494.038489001</v>
+        <v>10476210.728763999</v>
       </c>
       <c r="J28">
-        <v>100000.01341100001</v>
+        <v>888499.196276</v>
+      </c>
+      <c r="K28">
+        <v>827946.24</v>
+      </c>
+      <c r="L28">
+        <v>603984.78</v>
+      </c>
+      <c r="M28">
+        <v>446486.04605900001</v>
       </c>
       <c r="AP28" s="1"/>
       <c r="AQ28" s="1"/>
@@ -1398,31 +1659,40 @@
         <v>3375</v>
       </c>
       <c r="B29">
-        <v>-577932728.86491299</v>
+        <v>789443671.92461205</v>
       </c>
       <c r="C29">
-        <v>891796.82798099995</v>
+        <v>4159506052.08251</v>
       </c>
       <c r="D29">
-        <v>1188.5854549999999</v>
+        <v>1245998.099409</v>
       </c>
       <c r="E29">
-        <v>47543.414545</v>
+        <v>504518.382966</v>
       </c>
       <c r="F29">
-        <v>750.25516700000003</v>
+        <v>3715.9022669999999</v>
       </c>
       <c r="G29">
-        <v>71988</v>
+        <v>3475556.964749</v>
       </c>
       <c r="H29">
-        <v>9508.7108619999999</v>
+        <v>801199.32519</v>
       </c>
       <c r="I29">
-        <v>10033088.331263</v>
+        <v>10532021.484521</v>
       </c>
       <c r="J29">
-        <v>100000.006706</v>
+        <v>1027310.984893</v>
+      </c>
+      <c r="K29">
+        <v>954762.44</v>
+      </c>
+      <c r="L29">
+        <v>687970.33</v>
+      </c>
+      <c r="M29">
+        <v>505548.07006300002</v>
       </c>
       <c r="AP29" s="1"/>
       <c r="AQ29" s="1"/>
@@ -1433,31 +1703,40 @@
         <v>3500</v>
       </c>
       <c r="B30">
-        <v>-597680753.32205999</v>
+        <v>931405077.667786</v>
       </c>
       <c r="C30">
-        <v>891769.56902499998</v>
+        <v>4773522096.8037395</v>
       </c>
       <c r="D30">
-        <v>1188.585409</v>
+        <v>1404816.4732900001</v>
       </c>
       <c r="E30">
-        <v>47543.414591000001</v>
+        <v>561405.41193599999</v>
       </c>
       <c r="F30">
-        <v>750.23229400000002</v>
+        <v>3709.9521770000001</v>
       </c>
       <c r="G30">
-        <v>71988</v>
+        <v>3906967.770453</v>
       </c>
       <c r="H30">
-        <v>9508.6972509999996</v>
+        <v>906147.73265799996</v>
       </c>
       <c r="I30">
-        <v>10033682.623991</v>
+        <v>10595214.993279001</v>
       </c>
       <c r="J30">
-        <v>100000.00335299999</v>
+        <v>1193577.8294790001</v>
+      </c>
+      <c r="K30">
+        <v>1106668.28</v>
+      </c>
+      <c r="L30">
+        <v>788017.37</v>
+      </c>
+      <c r="M30">
+        <v>573956.41613000003</v>
       </c>
       <c r="AP30" s="1"/>
       <c r="AQ30" s="1"/>
@@ -1468,31 +1747,40 @@
         <v>3625</v>
       </c>
       <c r="B31">
-        <v>-617329685.23034596</v>
+        <v>1095641337.3608799</v>
       </c>
       <c r="C31">
-        <v>891742.347068</v>
+        <v>5448575104.8059797</v>
       </c>
       <c r="D31">
-        <v>1188.5853870000001</v>
+        <v>1580740.5408660001</v>
       </c>
       <c r="E31">
-        <v>47543.414613000001</v>
+        <v>626132.39630300005</v>
       </c>
       <c r="F31">
-        <v>750.20942500000001</v>
+        <v>3690.8061750000002</v>
       </c>
       <c r="G31">
-        <v>71988</v>
+        <v>4388269.8743390003</v>
       </c>
       <c r="H31">
-        <v>9508.6902630000004</v>
+        <v>1027030.282459</v>
       </c>
       <c r="I31">
-        <v>10034276.916696001</v>
+        <v>10666959.545295</v>
       </c>
       <c r="J31">
-        <v>100000.001676</v>
+        <v>1390403.5265250001</v>
+      </c>
+      <c r="K31">
+        <v>1286878.6299999999</v>
+      </c>
+      <c r="L31">
+        <v>907511.46</v>
+      </c>
+      <c r="M31">
+        <v>654229.27361200005</v>
       </c>
       <c r="AP31" s="1"/>
       <c r="AQ31" s="1"/>
@@ -1503,31 +1791,40 @@
         <v>3750</v>
       </c>
       <c r="B32">
-        <v>-636880021.84743404</v>
+        <v>1285559214.36062</v>
       </c>
       <c r="C32">
-        <v>891715.14550099999</v>
+        <v>6185483184.3137197</v>
       </c>
       <c r="D32">
-        <v>1188.585376</v>
+        <v>1774995.566591</v>
       </c>
       <c r="E32">
-        <v>47543.414623999997</v>
+        <v>700084.40055100003</v>
       </c>
       <c r="F32">
-        <v>750.18655899999999</v>
+        <v>3655.880658</v>
       </c>
       <c r="G32">
-        <v>71988</v>
+        <v>4924683.9342839997</v>
       </c>
       <c r="H32">
-        <v>9508.6866790000004</v>
+        <v>1167744.414842</v>
       </c>
       <c r="I32">
-        <v>10034871.209388999</v>
+        <v>10748738.204497</v>
       </c>
       <c r="J32">
-        <v>100000.00083800001</v>
+        <v>1622396.4043159999</v>
+      </c>
+      <c r="K32">
+        <v>1499695.13</v>
+      </c>
+      <c r="L32">
+        <v>1049774.1499999999</v>
+      </c>
+      <c r="M32">
+        <v>749210.09364700003</v>
       </c>
       <c r="AP32" s="1"/>
       <c r="AQ32" s="1"/>
@@ -1540,31 +1837,40 @@
         <v>3875</v>
       </c>
       <c r="B33">
-        <v>-656332257.93956101</v>
+        <v>1505263596.1798699</v>
       </c>
       <c r="C33">
-        <v>891687.95569800003</v>
+        <v>6982683573.8016195</v>
       </c>
       <c r="D33">
-        <v>1188.5853709999999</v>
+        <v>1988672.4931310001</v>
       </c>
       <c r="E33">
-        <v>47543.414628999999</v>
+        <v>784984.60725</v>
       </c>
       <c r="F33">
-        <v>750.16369599999996</v>
+        <v>3603.0648769999998</v>
       </c>
       <c r="G33">
-        <v>71988</v>
+        <v>5521838.2007619999</v>
       </c>
       <c r="H33">
-        <v>9508.6848439999994</v>
+        <v>1333082.301068</v>
       </c>
       <c r="I33">
-        <v>10035465.502077</v>
+        <v>10842389.466203</v>
       </c>
       <c r="J33">
-        <v>100000.000419</v>
+        <v>1896360.775381</v>
+      </c>
+      <c r="K33">
+        <v>1751181.38</v>
+      </c>
+      <c r="L33">
+        <v>1218494.52</v>
+      </c>
+      <c r="M33">
+        <v>861921.61481699999</v>
       </c>
       <c r="AP33" s="1"/>
       <c r="AQ33" s="1"/>
@@ -1573,35 +1879,44 @@
       <c r="FV33" s="1"/>
     </row>
     <row r="34" spans="1:178" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>18</v>
+      <c r="A34" s="2">
+        <v>4000</v>
       </c>
       <c r="B34">
-        <v>-675686885.792171</v>
+        <v>1759511444.55845</v>
       </c>
       <c r="C34">
-        <v>891660.77317499998</v>
+        <v>7835822024.3904305</v>
       </c>
       <c r="D34">
-        <v>1188.585368</v>
+        <v>2222707.6858319999</v>
       </c>
       <c r="E34">
-        <v>47543.414632</v>
+        <v>882912.50151199999</v>
       </c>
       <c r="F34">
-        <v>750.14083400000004</v>
+        <v>3531.7510160000002</v>
       </c>
       <c r="G34">
-        <v>71988</v>
+        <v>6185764.3746880004</v>
       </c>
       <c r="H34">
-        <v>9508.6839060000002</v>
+        <v>1528462.765351</v>
       </c>
       <c r="I34">
-        <v>10036059.794763001</v>
+        <v>10950129.668055</v>
       </c>
       <c r="J34">
-        <v>100000.00021</v>
+        <v>2221244.3085019998</v>
+      </c>
+      <c r="K34">
+        <v>2049286.31</v>
+      </c>
+      <c r="L34">
+        <v>1418252.09</v>
+      </c>
+      <c r="M34">
+        <v>995636.45284100005</v>
       </c>
       <c r="AP34" s="1"/>
       <c r="AQ34" s="1"/>
@@ -1610,6 +1925,45 @@
       <c r="FV34" s="1"/>
     </row>
     <row r="35" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>4125</v>
+      </c>
+      <c r="B35">
+        <v>2053641808.6752701</v>
+      </c>
+      <c r="C35">
+        <v>8737712158.4564304</v>
+      </c>
+      <c r="D35">
+        <v>2477848.3980789999</v>
+      </c>
+      <c r="E35">
+        <v>996330.65184800001</v>
+      </c>
+      <c r="F35">
+        <v>3442.8168759999999</v>
+      </c>
+      <c r="G35">
+        <v>6922882.0998529997</v>
+      </c>
+      <c r="H35">
+        <v>1759867.8355169999</v>
+      </c>
+      <c r="I35">
+        <v>11074584.22466</v>
+      </c>
+      <c r="J35">
+        <v>2609113.7037900002</v>
+      </c>
+      <c r="K35">
+        <v>2404672.6</v>
+      </c>
+      <c r="L35">
+        <v>1654889.92</v>
+      </c>
+      <c r="M35">
+        <v>1154117.3173779999</v>
+      </c>
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1"/>
       <c r="CA35" s="1"/>
@@ -1617,6 +1971,45 @@
       <c r="FV35" s="1"/>
     </row>
     <row r="36" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>4250</v>
+      </c>
+      <c r="B36">
+        <v>2393543296.6834998</v>
+      </c>
+      <c r="C36">
+        <v>9678405094.6474495</v>
+      </c>
+      <c r="D36">
+        <v>2754581.382309</v>
+      </c>
+      <c r="E36">
+        <v>1128141.183372</v>
+      </c>
+      <c r="F36">
+        <v>3338.0428019999999</v>
+      </c>
+      <c r="G36">
+        <v>7739969.1313619995</v>
+      </c>
+      <c r="H36">
+        <v>2034051.235136</v>
+      </c>
+      <c r="I36">
+        <v>11218848.889332</v>
+      </c>
+      <c r="J36">
+        <v>3076492.7357879998</v>
+      </c>
+      <c r="K36">
+        <v>2831872.29</v>
+      </c>
+      <c r="L36">
+        <v>1936058.43</v>
+      </c>
+      <c r="M36">
+        <v>1341907.0440499999</v>
+      </c>
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
       <c r="CA36" s="1"/>
@@ -1624,6 +2017,45 @@
       <c r="FV36" s="1"/>
     </row>
     <row r="37" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>4375</v>
+      </c>
+      <c r="B37">
+        <v>2785675966.7205501</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10645150000</v>
+      </c>
+      <c r="D37">
+        <v>3053017.1378879999</v>
+      </c>
+      <c r="E37">
+        <v>1281777.7990860001</v>
+      </c>
+      <c r="F37">
+        <v>3219.5222309999999</v>
+      </c>
+      <c r="G37">
+        <v>8644113.8739480004</v>
+      </c>
+      <c r="H37">
+        <v>2358932.6616179999</v>
+      </c>
+      <c r="I37">
+        <v>11386587.269838</v>
+      </c>
+      <c r="J37">
+        <v>3644990.079467</v>
+      </c>
+      <c r="K37">
+        <v>3349977.96</v>
+      </c>
+      <c r="L37">
+        <v>2271988.63</v>
+      </c>
+      <c r="M37">
+        <v>1564713.812777</v>
+      </c>
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
       <c r="CA37" s="1"/>
@@ -1631,6 +2063,45 @@
       <c r="FV37" s="1"/>
     </row>
     <row r="38" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>4500</v>
+      </c>
+      <c r="B38">
+        <v>3237163939.47297</v>
+      </c>
+      <c r="C38" s="1">
+        <v>11622160000</v>
+      </c>
+      <c r="D38">
+        <v>3372716.5533679998</v>
+      </c>
+      <c r="E38">
+        <v>1461344.8031949999</v>
+      </c>
+      <c r="F38">
+        <v>3089.2284129999998</v>
+      </c>
+      <c r="G38">
+        <v>9642646.7131249998</v>
+      </c>
+      <c r="H38">
+        <v>2744180.143586</v>
+      </c>
+      <c r="I38">
+        <v>11582176.496436</v>
+      </c>
+      <c r="J38">
+        <v>4340807.5299549997</v>
+      </c>
+      <c r="K38">
+        <v>3982470.6</v>
+      </c>
+      <c r="L38">
+        <v>2676234.63</v>
+      </c>
+      <c r="M38">
+        <v>1829941.8676529999</v>
+      </c>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="AP38" s="1"/>
@@ -1640,6 +2111,45 @@
       <c r="FV38" s="1"/>
     </row>
     <row r="39" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>4625</v>
+      </c>
+      <c r="B39">
+        <v>3755975810.2904701</v>
+      </c>
+      <c r="C39" s="1">
+        <v>12590050000</v>
+      </c>
+      <c r="D39">
+        <v>3712440.4868299998</v>
+      </c>
+      <c r="E39">
+        <v>1671820.726611</v>
+      </c>
+      <c r="F39">
+        <v>2948.752481</v>
+      </c>
+      <c r="G39">
+        <v>10743046.426883001</v>
+      </c>
+      <c r="H39">
+        <v>3202031.9394459999</v>
+      </c>
+      <c r="I39">
+        <v>11810919.229892001</v>
+      </c>
+      <c r="J39">
+        <v>5194051.4147469997</v>
+      </c>
+      <c r="K39">
+        <v>4756779.8600000003</v>
+      </c>
+      <c r="L39">
+        <v>3166073.12</v>
+      </c>
+      <c r="M39">
+        <v>2147301.6527570002</v>
+      </c>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="AP39" s="1"/>
@@ -1649,6 +2159,45 @@
       <c r="FV39" s="1"/>
     </row>
     <row r="40" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>4750</v>
+      </c>
+      <c r="B40">
+        <v>4351173936.2606001</v>
+      </c>
+      <c r="C40" s="1">
+        <v>13525060000</v>
+      </c>
+      <c r="D40">
+        <v>4069811.3465160001</v>
+      </c>
+      <c r="E40">
+        <v>1919335.6741229999</v>
+      </c>
+      <c r="F40">
+        <v>2799.2650440000002</v>
+      </c>
+      <c r="G40">
+        <v>11952818.041278001</v>
+      </c>
+      <c r="H40">
+        <v>3748317.6224799999</v>
+      </c>
+      <c r="I40">
+        <v>12079331.936487</v>
+      </c>
+      <c r="J40">
+        <v>6239475.551709</v>
+      </c>
+      <c r="K40">
+        <v>5704824.7999999998</v>
+      </c>
+      <c r="L40">
+        <v>3762588.14</v>
+      </c>
+      <c r="M40">
+        <v>2529340.951415</v>
+      </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="W40" s="1"/>
@@ -1662,6 +2211,45 @@
       <c r="FV40" s="1"/>
     </row>
     <row r="41" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>4875</v>
+      </c>
+      <c r="B41">
+        <v>5033152442.8653498</v>
+      </c>
+      <c r="C41" s="1">
+        <v>14398160000</v>
+      </c>
+      <c r="D41">
+        <v>4440895.8380129999</v>
+      </c>
+      <c r="E41">
+        <v>2211511.5971240001</v>
+      </c>
+      <c r="F41">
+        <v>2641.7241319999998</v>
+      </c>
+      <c r="G41">
+        <v>13279338.870271999</v>
+      </c>
+      <c r="H41">
+        <v>4403499.7626550002</v>
+      </c>
+      <c r="I41">
+        <v>12395499.555414001</v>
+      </c>
+      <c r="J41">
+        <v>7519777.4553789999</v>
+      </c>
+      <c r="K41">
+        <v>6865545.2599999998</v>
+      </c>
+      <c r="L41">
+        <v>4490926.8899999997</v>
+      </c>
+      <c r="M41">
+        <v>2991808.6489220001</v>
+      </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="W41" s="1"/>
@@ -1675,6 +2263,45 @@
       <c r="FV41" s="1"/>
     </row>
     <row r="42" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>5000</v>
+      </c>
+      <c r="B42">
+        <v>5813753249.1969299</v>
+      </c>
+      <c r="C42" s="1">
+        <v>15174380000</v>
+      </c>
+      <c r="D42">
+        <v>4819729.347054</v>
+      </c>
+      <c r="E42">
+        <v>2557843.7832749998</v>
+      </c>
+      <c r="F42">
+        <v>2477.2144149999999</v>
+      </c>
+      <c r="G42">
+        <v>14729670.260658</v>
+      </c>
+      <c r="H42">
+        <v>5193558.5302489996</v>
+      </c>
+      <c r="I42">
+        <v>12769475.636529</v>
+      </c>
+      <c r="J42">
+        <v>9091153.8920779992</v>
+      </c>
+      <c r="K42">
+        <v>8289414.6600000001</v>
+      </c>
+      <c r="L42">
+        <v>5381408.7800000003</v>
+      </c>
+      <c r="M42">
+        <v>3553977.9888769998</v>
+      </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="W42" s="1"/>
@@ -1688,6 +2315,45 @@
       <c r="FV42" s="1"/>
     </row>
     <row r="43" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>5125</v>
+      </c>
+      <c r="B43">
+        <v>6706189226.9368601</v>
+      </c>
+      <c r="C43" s="1">
+        <v>15812740000</v>
+      </c>
+      <c r="D43">
+        <v>5197786.9413930001</v>
+      </c>
+      <c r="E43">
+        <v>2970117.9845929998</v>
+      </c>
+      <c r="F43">
+        <v>2307.20793</v>
+      </c>
+      <c r="G43">
+        <v>16310333.851973001</v>
+      </c>
+      <c r="H43">
+        <v>6150757.254001</v>
+      </c>
+      <c r="I43">
+        <v>13213722.885137999</v>
+      </c>
+      <c r="J43">
+        <v>11029484.500120999</v>
+      </c>
+      <c r="K43">
+        <v>10043814.83</v>
+      </c>
+      <c r="L43">
+        <v>6471910.9800000004</v>
+      </c>
+      <c r="M43">
+        <v>4239264.5343549997</v>
+      </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="W43" s="1"/>
@@ -1701,6 +2367,45 @@
       <c r="FV43" s="1"/>
     </row>
     <row r="44" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>5250</v>
+      </c>
+      <c r="B44">
+        <v>7724791811.6430702</v>
+      </c>
+      <c r="C44" s="1">
+        <v>16266720000</v>
+      </c>
+      <c r="D44">
+        <v>5563364.9503119998</v>
+      </c>
+      <c r="E44">
+        <v>3462899.5765800001</v>
+      </c>
+      <c r="F44">
+        <v>2133.5977910000001</v>
+      </c>
+      <c r="G44">
+        <v>18027053.053785</v>
+      </c>
+      <c r="H44">
+        <v>7314643.1613560002</v>
+      </c>
+      <c r="I44">
+        <v>13743630.951933</v>
+      </c>
+      <c r="J44">
+        <v>13435602.248839</v>
+      </c>
+      <c r="K44">
+        <v>12218029.27</v>
+      </c>
+      <c r="L44">
+        <v>7811374.9199999999</v>
+      </c>
+      <c r="M44">
+        <v>5076506.9524349999</v>
+      </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="W44" s="1"/>
@@ -1714,6 +2419,45 @@
       <c r="FV44" s="1"/>
     </row>
     <row r="45" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>5375</v>
+      </c>
+      <c r="B45">
+        <v>8884661767.3815594</v>
+      </c>
+      <c r="C45" s="1">
+        <v>16485160000</v>
+      </c>
+      <c r="D45">
+        <v>5900792.7998829996</v>
+      </c>
+      <c r="E45">
+        <v>4054176.7009279998</v>
+      </c>
+      <c r="F45">
+        <v>1958.524625</v>
+      </c>
+      <c r="G45">
+        <v>19884463.001621</v>
+      </c>
+      <c r="H45">
+        <v>8733828.5331130009</v>
+      </c>
+      <c r="I45">
+        <v>14378194.320986999</v>
+      </c>
+      <c r="J45">
+        <v>16440098.599086</v>
+      </c>
+      <c r="K45">
+        <v>14927991.4</v>
+      </c>
+      <c r="L45">
+        <v>9463870.3000000007</v>
+      </c>
+      <c r="M45">
+        <v>6102082.441904</v>
+      </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="W45" s="1"/>
@@ -1727,6 +2471,45 @@
       <c r="FV45" s="1"/>
     </row>
     <row r="46" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>5500</v>
+      </c>
+      <c r="B46" s="1">
+        <v>10201260000</v>
+      </c>
+      <c r="C46" s="1">
+        <v>16413300000</v>
+      </c>
+      <c r="D46">
+        <v>6189375.9440310001</v>
+      </c>
+      <c r="E46">
+        <v>4766259.7974039996</v>
+      </c>
+      <c r="F46">
+        <v>1784.1444260000001</v>
+      </c>
+      <c r="G46">
+        <v>21885795.482870001</v>
+      </c>
+      <c r="H46">
+        <v>10468996.708461</v>
+      </c>
+      <c r="I46">
+        <v>15140954.626225</v>
+      </c>
+      <c r="J46">
+        <v>20210348.224157002</v>
+      </c>
+      <c r="K46">
+        <v>18322718.82</v>
+      </c>
+      <c r="L46">
+        <v>11512915.710000001</v>
+      </c>
+      <c r="M46">
+        <v>7362752.8896390004</v>
+      </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="W46" s="1"/>
@@ -1740,6 +2523,45 @@
       <c r="FV46" s="1"/>
     </row>
     <row r="47" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>5625</v>
+      </c>
+      <c r="B47" s="1">
+        <v>11689830000</v>
+      </c>
+      <c r="C47" s="1">
+        <v>15994040000</v>
+      </c>
+      <c r="D47">
+        <v>6401986.9083070001</v>
+      </c>
+      <c r="E47">
+        <v>5627025.6611409998</v>
+      </c>
+      <c r="F47">
+        <v>1612.4797120000001</v>
+      </c>
+      <c r="G47">
+        <v>24032549.138896</v>
+      </c>
+      <c r="H47">
+        <v>12597251.243869999</v>
+      </c>
+      <c r="I47">
+        <v>16061298.737430001</v>
+      </c>
+      <c r="J47">
+        <v>24961893.522627998</v>
+      </c>
+      <c r="K47">
+        <v>22594238.82</v>
+      </c>
+      <c r="L47">
+        <v>14066591.880000001</v>
+      </c>
+      <c r="M47">
+        <v>8919063.9484330006</v>
+      </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="W47" s="1"/>
@@ -1753,6 +2575,45 @@
       <c r="FV47" s="1"/>
     </row>
     <row r="48" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>5750</v>
+      </c>
+      <c r="B48" s="1">
+        <v>13364300000</v>
+      </c>
+      <c r="C48" s="1">
+        <v>15169740000</v>
+      </c>
+      <c r="D48">
+        <v>6503246.8860560004</v>
+      </c>
+      <c r="E48">
+        <v>6671570.833931</v>
+      </c>
+      <c r="F48">
+        <v>1445.3860099999999</v>
+      </c>
+      <c r="G48">
+        <v>26324159.439973999</v>
+      </c>
+      <c r="H48">
+        <v>15217689.570367999</v>
+      </c>
+      <c r="I48">
+        <v>17176181.730983999</v>
+      </c>
+      <c r="J48">
+        <v>30974616.646205999</v>
+      </c>
+      <c r="K48">
+        <v>27991651.68</v>
+      </c>
+      <c r="L48">
+        <v>17264459.48</v>
+      </c>
+      <c r="M48">
+        <v>10849386.921638999</v>
+      </c>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="W48" s="1"/>
@@ -1765,7 +2626,46 @@
       <c r="CF48" s="1"/>
       <c r="FV48" s="1"/>
     </row>
-    <row r="49" spans="19:178" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>5875</v>
+      </c>
+      <c r="B49" s="1">
+        <v>15235090000</v>
+      </c>
+      <c r="C49" s="1">
+        <v>13885510000</v>
+      </c>
+      <c r="D49">
+        <v>6447232.0049200002</v>
+      </c>
+      <c r="E49">
+        <v>7944349.5637119999</v>
+      </c>
+      <c r="F49">
+        <v>1284.5735549999999</v>
+      </c>
+      <c r="G49">
+        <v>28757687.137263998</v>
+      </c>
+      <c r="H49">
+        <v>18458231.706822999</v>
+      </c>
+      <c r="I49">
+        <v>18532355.096189</v>
+      </c>
+      <c r="J49">
+        <v>38613669.381834</v>
+      </c>
+      <c r="K49">
+        <v>34839553.090000004</v>
+      </c>
+      <c r="L49">
+        <v>21287156.550000001</v>
+      </c>
+      <c r="M49">
+        <v>13255039.131031999</v>
+      </c>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="W49" s="1"/>
@@ -1778,7 +2678,46 @@
       <c r="CF49" s="1"/>
       <c r="FV49" s="1"/>
     </row>
-    <row r="50" spans="19:178" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>6000</v>
+      </c>
+      <c r="B50" s="1">
+        <v>17304890000</v>
+      </c>
+      <c r="C50" s="1">
+        <v>12095210000</v>
+      </c>
+      <c r="D50">
+        <v>6174586.7177929999</v>
+      </c>
+      <c r="E50">
+        <v>9501925.0855439994</v>
+      </c>
+      <c r="F50">
+        <v>1131.6166679999999</v>
+      </c>
+      <c r="G50">
+        <v>31327547.606674001</v>
+      </c>
+      <c r="H50">
+        <v>22484154.984443001</v>
+      </c>
+      <c r="I50">
+        <v>20189234.987567998</v>
+      </c>
+      <c r="J50">
+        <v>48357320.328511</v>
+      </c>
+      <c r="K50">
+        <v>43562584.909999996</v>
+      </c>
+      <c r="L50">
+        <v>26369305.25</v>
+      </c>
+      <c r="M50">
+        <v>16267083.164346</v>
+      </c>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="W50" s="1"/>
@@ -1791,7 +2730,46 @@
       <c r="CF50" s="1"/>
       <c r="FV50" s="1"/>
     </row>
-    <row r="51" spans="19:178" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>6125</v>
+      </c>
+      <c r="B51" s="1">
+        <v>19560240000</v>
+      </c>
+      <c r="C51">
+        <v>9772894581.8382301</v>
+      </c>
+      <c r="D51">
+        <v>5608854.6151050003</v>
+      </c>
+      <c r="E51">
+        <v>11416536.417517999</v>
+      </c>
+      <c r="F51">
+        <v>987.92648499999996</v>
+      </c>
+      <c r="G51">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H51">
+        <v>27509160.656567998</v>
+      </c>
+      <c r="I51">
+        <v>22222620.383111</v>
+      </c>
+      <c r="J51">
+        <v>60837047.279336996</v>
+      </c>
+      <c r="K51">
+        <v>54720405.909999996</v>
+      </c>
+      <c r="L51">
+        <v>32816785.129999999</v>
+      </c>
+      <c r="M51">
+        <v>20055416.4483</v>
+      </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="W51" s="1"/>
@@ -1804,7 +2782,46 @@
       <c r="CF51" s="1"/>
       <c r="FV51" s="1"/>
     </row>
-    <row r="52" spans="19:178" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>6250</v>
+      </c>
+      <c r="B52" s="1">
+        <v>21954100000</v>
+      </c>
+      <c r="C52">
+        <v>5545796857.8370895</v>
+      </c>
+      <c r="D52">
+        <v>3244634.2642859998</v>
+      </c>
+      <c r="E52">
+        <v>13780756.768337</v>
+      </c>
+      <c r="F52">
+        <v>854.69829400000003</v>
+      </c>
+      <c r="G52">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H52">
+        <v>33809996.776583999</v>
+      </c>
+      <c r="I52">
+        <v>24729547.439149</v>
+      </c>
+      <c r="J52">
+        <v>76896417.869578004</v>
+      </c>
+      <c r="K52">
+        <v>69058674.359999999</v>
+      </c>
+      <c r="L52">
+        <v>41030642.920000002</v>
+      </c>
+      <c r="M52">
+        <v>24840929.702284001</v>
+      </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="AP52" s="1"/>
@@ -1815,7 +2832,46 @@
       <c r="CF52" s="1"/>
       <c r="FV52" s="1"/>
     </row>
-    <row r="53" spans="19:178" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>6375</v>
+      </c>
+      <c r="B53" s="1">
+        <v>23357150000</v>
+      </c>
+      <c r="C53">
+        <v>2920128295.1996002</v>
+      </c>
+      <c r="D53">
+        <v>1794576.5917470001</v>
+      </c>
+      <c r="E53">
+        <v>15230814.440876</v>
+      </c>
+      <c r="F53">
+        <v>710.87134800000001</v>
+      </c>
+      <c r="G53">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H53">
+        <v>29883535.445438001</v>
+      </c>
+      <c r="I53">
+        <v>26351864.571292002</v>
+      </c>
+      <c r="J53">
+        <v>97673585.779949993</v>
+      </c>
+      <c r="K53">
+        <v>87580704.109999999</v>
+      </c>
+      <c r="L53">
+        <v>51541154.710000001</v>
+      </c>
+      <c r="M53">
+        <v>30912072.158146001</v>
+      </c>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="AP53" s="1"/>
@@ -1826,7 +2882,46 @@
       <c r="CF53" s="1"/>
       <c r="FV53" s="1"/>
     </row>
-    <row r="54" spans="19:178" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>6500</v>
+      </c>
+      <c r="B54" s="1">
+        <v>23901960000</v>
+      </c>
+      <c r="C54">
+        <v>1595403517.4619601</v>
+      </c>
+      <c r="D54">
+        <v>1087673.4763849999</v>
+      </c>
+      <c r="E54">
+        <v>15937717.556239</v>
+      </c>
+      <c r="F54">
+        <v>605.24202300000002</v>
+      </c>
+      <c r="G54">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H54">
+        <v>22120074.089708999</v>
+      </c>
+      <c r="I54">
+        <v>27249152.867166001</v>
+      </c>
+      <c r="J54">
+        <v>80789621.742928997</v>
+      </c>
+      <c r="K54">
+        <v>78702561.709999993</v>
+      </c>
+      <c r="L54">
+        <v>65055985.740000002</v>
+      </c>
+      <c r="M54">
+        <v>38647978.115042001</v>
+      </c>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="AP54" s="1"/>
@@ -1837,7 +2932,46 @@
       <c r="CF54" s="1"/>
       <c r="FV54" s="1"/>
     </row>
-    <row r="55" spans="19:178" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>6625</v>
+      </c>
+      <c r="B55" s="1">
+        <v>23960970000</v>
+      </c>
+      <c r="C55">
+        <v>918278963.89071798</v>
+      </c>
+      <c r="D55">
+        <v>743058.20764499996</v>
+      </c>
+      <c r="E55">
+        <v>16282332.824978</v>
+      </c>
+      <c r="F55">
+        <v>536.99943299999995</v>
+      </c>
+      <c r="G55">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H55">
+        <v>15410730.950393001</v>
+      </c>
+      <c r="I55">
+        <v>27792989.605358001</v>
+      </c>
+      <c r="J55">
+        <v>55000367.502154998</v>
+      </c>
+      <c r="K55">
+        <v>60143268.539999999</v>
+      </c>
+      <c r="L55">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M55">
+        <v>48550980.972612999</v>
+      </c>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
       <c r="AP55" s="1"/>
@@ -1848,7 +2982,46 @@
       <c r="CF55" s="1"/>
       <c r="FV55" s="1"/>
     </row>
-    <row r="56" spans="19:178" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>6750</v>
+      </c>
+      <c r="B56" s="1">
+        <v>23710850000</v>
+      </c>
+      <c r="C56">
+        <v>568434525.69915605</v>
+      </c>
+      <c r="D56">
+        <v>575058.26413499995</v>
+      </c>
+      <c r="E56">
+        <v>16450332.768488999</v>
+      </c>
+      <c r="F56">
+        <v>495.76498600000002</v>
+      </c>
+      <c r="G56">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H56">
+        <v>10677598.305778001</v>
+      </c>
+      <c r="I56">
+        <v>28164518.709181</v>
+      </c>
+      <c r="J56">
+        <v>33391613.551610999</v>
+      </c>
+      <c r="K56">
+        <v>42008115.189999998</v>
+      </c>
+      <c r="L56">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M56">
+        <v>56659407.504903004</v>
+      </c>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="AP56" s="1"/>
@@ -1859,7 +3032,46 @@
       <c r="CF56" s="1"/>
       <c r="FV56" s="1"/>
     </row>
-    <row r="57" spans="19:178" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>6875</v>
+      </c>
+      <c r="B57" s="1">
+        <v>23272770000</v>
+      </c>
+      <c r="C57">
+        <v>386161000.29950601</v>
+      </c>
+      <c r="D57">
+        <v>493158.29167399998</v>
+      </c>
+      <c r="E57">
+        <v>16532232.74095</v>
+      </c>
+      <c r="F57">
+        <v>471.70895999999999</v>
+      </c>
+      <c r="G57">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H57">
+        <v>7639032.2094280003</v>
+      </c>
+      <c r="I57">
+        <v>28452047.841247998</v>
+      </c>
+      <c r="J57">
+        <v>19037060.376022</v>
+      </c>
+      <c r="K57">
+        <v>28011012.190000001</v>
+      </c>
+      <c r="L57">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M57">
+        <v>61727174.087583996</v>
+      </c>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="AP57" s="1"/>
@@ -1870,7 +3082,46 @@
       <c r="CF57" s="1"/>
       <c r="FV57" s="1"/>
     </row>
-    <row r="58" spans="19:178" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>7000</v>
+      </c>
+      <c r="B58" s="1">
+        <v>22730960000</v>
+      </c>
+      <c r="C58">
+        <v>290560529.08960003</v>
+      </c>
+      <c r="D58">
+        <v>453232.05509899999</v>
+      </c>
+      <c r="E58">
+        <v>16572158.977525</v>
+      </c>
+      <c r="F58">
+        <v>457.72588300000001</v>
+      </c>
+      <c r="G58">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H58">
+        <v>5792149.271408</v>
+      </c>
+      <c r="I58">
+        <v>28698626.987085</v>
+      </c>
+      <c r="J58">
+        <v>10506483.930404</v>
+      </c>
+      <c r="K58">
+        <v>18247847.93</v>
+      </c>
+      <c r="L58">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M58">
+        <v>64894528.201760001</v>
+      </c>
       <c r="AP58" s="1"/>
       <c r="AQ58" s="1"/>
       <c r="CA58" s="1"/>
@@ -1879,7 +3130,46 @@
       <c r="CF58" s="1"/>
       <c r="FV58" s="1"/>
     </row>
-    <row r="59" spans="19:178" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>7125</v>
+      </c>
+      <c r="B59" s="1">
+        <v>22132460000</v>
+      </c>
+      <c r="C59">
+        <v>240099090.80106899</v>
+      </c>
+      <c r="D59">
+        <v>433768.01476799999</v>
+      </c>
+      <c r="E59">
+        <v>16591623.017855</v>
+      </c>
+      <c r="F59">
+        <v>449.38615199999998</v>
+      </c>
+      <c r="G59">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H59">
+        <v>4709002.8560990002</v>
+      </c>
+      <c r="I59">
+        <v>28925243.014633998</v>
+      </c>
+      <c r="J59">
+        <v>5719528.5735590002</v>
+      </c>
+      <c r="K59">
+        <v>11754619.91</v>
+      </c>
+      <c r="L59">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M59">
+        <v>66874124.523120001</v>
+      </c>
       <c r="AP59" s="1"/>
       <c r="AQ59" s="1"/>
       <c r="CA59" s="1"/>
@@ -1888,7 +3178,46 @@
       <c r="CF59" s="1"/>
       <c r="FV59" s="1"/>
     </row>
-    <row r="60" spans="19:178" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>7250</v>
+      </c>
+      <c r="B60" s="1">
+        <v>21503800000</v>
+      </c>
+      <c r="C60">
+        <v>213250115.76186201</v>
+      </c>
+      <c r="D60">
+        <v>424279.29510699998</v>
+      </c>
+      <c r="E60">
+        <v>16601111.737516001</v>
+      </c>
+      <c r="F60">
+        <v>444.14543800000001</v>
+      </c>
+      <c r="G60">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H60">
+        <v>4089573.487123</v>
+      </c>
+      <c r="I60">
+        <v>29142127.022018999</v>
+      </c>
+      <c r="J60">
+        <v>3111665.6917280001</v>
+      </c>
+      <c r="K60">
+        <v>7535563.5</v>
+      </c>
+      <c r="L60">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M60">
+        <v>68111372.223969996</v>
+      </c>
       <c r="AP60" s="1"/>
       <c r="AQ60" s="1"/>
       <c r="CA60" s="1"/>
@@ -1897,7 +3226,46 @@
       <c r="CF60" s="1"/>
       <c r="FV60" s="1"/>
     </row>
-    <row r="61" spans="19:178" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>7375</v>
+      </c>
+      <c r="B61" s="1">
+        <v>20860080000</v>
+      </c>
+      <c r="C61">
+        <v>198791408.503564</v>
+      </c>
+      <c r="D61">
+        <v>419653.54427299998</v>
+      </c>
+      <c r="E61">
+        <v>16605737.488351</v>
+      </c>
+      <c r="F61">
+        <v>440.59045700000001</v>
+      </c>
+      <c r="G61">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H61">
+        <v>3741903.9239909998</v>
+      </c>
+      <c r="I61">
+        <v>29354266.669571999</v>
+      </c>
+      <c r="J61">
+        <v>1710415.559014</v>
+      </c>
+      <c r="K61">
+        <v>4825664.22</v>
+      </c>
+      <c r="L61">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M61">
+        <v>68884652.037001997</v>
+      </c>
       <c r="AP61" s="1"/>
       <c r="AQ61" s="1"/>
       <c r="CA61" s="1"/>
@@ -1906,7 +3274,46 @@
       <c r="CF61" s="1"/>
       <c r="FV61" s="1"/>
     </row>
-    <row r="62" spans="19:178" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>7500</v>
+      </c>
+      <c r="B62" s="1">
+        <v>20209940000</v>
+      </c>
+      <c r="C62">
+        <v>190849822.60927901</v>
+      </c>
+      <c r="D62">
+        <v>417398.49074099999</v>
+      </c>
+      <c r="E62">
+        <v>16607992.541882999</v>
+      </c>
+      <c r="F62">
+        <v>437.94969500000002</v>
+      </c>
+      <c r="G62">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H62">
+        <v>3549566.1390860002</v>
+      </c>
+      <c r="I62">
+        <v>29564093.441709001</v>
+      </c>
+      <c r="J62">
+        <v>1001628.759819</v>
+      </c>
+      <c r="K62">
+        <v>3125855.87</v>
+      </c>
+      <c r="L62">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M62">
+        <v>69367951.920146003</v>
+      </c>
       <c r="AP62" s="1"/>
       <c r="AQ62" s="1"/>
       <c r="CA62" s="1"/>
@@ -1915,7 +3322,46 @@
       <c r="CF62" s="1"/>
       <c r="FV62" s="1"/>
     </row>
-    <row r="63" spans="19:178" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>7625</v>
+      </c>
+      <c r="B63" s="1">
+        <v>19558380000</v>
+      </c>
+      <c r="C63">
+        <v>186343227.11672801</v>
+      </c>
+      <c r="D63">
+        <v>416299.15214399999</v>
+      </c>
+      <c r="E63">
+        <v>16609091.880480001</v>
+      </c>
+      <c r="F63">
+        <v>435.80622399999999</v>
+      </c>
+      <c r="G63">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H63">
+        <v>3444377.0325059998</v>
+      </c>
+      <c r="I63">
+        <v>29772792.687079001</v>
+      </c>
+      <c r="J63">
+        <v>678811.91572000005</v>
+      </c>
+      <c r="K63">
+        <v>2087158.07</v>
+      </c>
+      <c r="L63">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M63">
+        <v>69670014.347111002</v>
+      </c>
       <c r="AP63" s="1"/>
       <c r="AQ63" s="1"/>
       <c r="CA63" s="1"/>
@@ -1924,7 +3370,46 @@
       <c r="CF63" s="1"/>
       <c r="FV63" s="1"/>
     </row>
-    <row r="64" spans="19:178" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>7750</v>
+      </c>
+      <c r="B64" s="1">
+        <v>18908260000</v>
+      </c>
+      <c r="C64">
+        <v>183650933.767537</v>
+      </c>
+      <c r="D64">
+        <v>415763.22457800002</v>
+      </c>
+      <c r="E64">
+        <v>16609627.808045</v>
+      </c>
+      <c r="F64">
+        <v>433.93611299999998</v>
+      </c>
+      <c r="G64">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H64">
+        <v>3387385.1248280001</v>
+      </c>
+      <c r="I64">
+        <v>29980942.263151001</v>
+      </c>
+      <c r="J64">
+        <v>579979.66061499994</v>
+      </c>
+      <c r="K64">
+        <v>1484904.07</v>
+      </c>
+      <c r="L64">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M64">
+        <v>69858803.363965005</v>
+      </c>
       <c r="AP64" s="1"/>
       <c r="AQ64" s="1"/>
       <c r="CA64" s="1"/>
@@ -1933,7 +3418,46 @@
       <c r="CF64" s="1"/>
       <c r="FV64" s="1"/>
     </row>
-    <row r="65" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>7875</v>
+      </c>
+      <c r="B65" s="1">
+        <v>18261230000</v>
+      </c>
+      <c r="C65">
+        <v>181919433.397614</v>
+      </c>
+      <c r="D65">
+        <v>415501.95989</v>
+      </c>
+      <c r="E65">
+        <v>16609889.072734</v>
+      </c>
+      <c r="F65">
+        <v>430.75072999999998</v>
+      </c>
+      <c r="G65">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H65">
+        <v>3356745.4607259999</v>
+      </c>
+      <c r="I65">
+        <v>30188823.875440001</v>
+      </c>
+      <c r="J65">
+        <v>671638.51219799998</v>
+      </c>
+      <c r="K65">
+        <v>1214301.56</v>
+      </c>
+      <c r="L65">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M65">
+        <v>69976796.499497995</v>
+      </c>
       <c r="AP65" s="1"/>
       <c r="AQ65" s="1"/>
       <c r="CA65" s="1"/>
@@ -1942,501 +3466,1287 @@
       <c r="CF65" s="1"/>
       <c r="FV65" s="1"/>
     </row>
-    <row r="66" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>8000</v>
+      </c>
+      <c r="B66" s="1">
+        <v>17618240000</v>
+      </c>
+      <c r="C66">
+        <v>180393739.64644</v>
+      </c>
+      <c r="D66">
+        <v>415374.59335400001</v>
+      </c>
+      <c r="E66">
+        <v>16610016.439269001</v>
+      </c>
+      <c r="F66">
+        <v>426.94683700000002</v>
+      </c>
+      <c r="G66">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H66">
+        <v>3340380.5699209999</v>
+      </c>
+      <c r="I66">
+        <v>30396574.855385002</v>
+      </c>
+      <c r="J66">
+        <v>921888.71076799999</v>
+      </c>
+      <c r="K66">
+        <v>1198490.56</v>
+      </c>
+      <c r="L66">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M66">
+        <v>70050542.209206</v>
+      </c>
       <c r="AP66" s="1"/>
       <c r="AQ66" s="1"/>
       <c r="CE66" s="1"/>
       <c r="CF66" s="1"/>
       <c r="FV66" s="1"/>
     </row>
-    <row r="67" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>8125</v>
+      </c>
+      <c r="B67" s="1">
+        <v>16979720000</v>
+      </c>
+      <c r="C67">
+        <v>178841794.580681</v>
+      </c>
+      <c r="D67">
+        <v>415312.50216799998</v>
+      </c>
+      <c r="E67">
+        <v>16610078.530455999</v>
+      </c>
+      <c r="F67">
+        <v>424.69356099999999</v>
+      </c>
+      <c r="G67">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H67">
+        <v>3331688.6583759999</v>
+      </c>
+      <c r="I67">
+        <v>30604262.152061999</v>
+      </c>
+      <c r="J67">
+        <v>1204015.7535939999</v>
+      </c>
+      <c r="K67">
+        <v>1306360.1499999999</v>
+      </c>
+      <c r="L67">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M67">
+        <v>70096633.277774006</v>
+      </c>
       <c r="AP67" s="1"/>
       <c r="AQ67" s="1"/>
       <c r="CE67" s="1"/>
       <c r="CF67" s="1"/>
       <c r="FV67" s="1"/>
     </row>
-    <row r="68" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>8250</v>
+      </c>
+      <c r="B68" s="1">
+        <v>16345860000</v>
+      </c>
+      <c r="C68">
+        <v>177598314.69187301</v>
+      </c>
+      <c r="D68">
+        <v>415282.23271499999</v>
+      </c>
+      <c r="E68">
+        <v>16610108.799908999</v>
+      </c>
+      <c r="F68">
+        <v>423.37558000000001</v>
+      </c>
+      <c r="G68">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H68">
+        <v>3327094.3378599999</v>
+      </c>
+      <c r="I68">
+        <v>30811918.403145999</v>
+      </c>
+      <c r="J68">
+        <v>1473261.651081</v>
+      </c>
+      <c r="K68">
+        <v>1469915.43</v>
+      </c>
+      <c r="L68">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M68">
+        <v>70125440.195629001</v>
+      </c>
       <c r="AP68" s="1"/>
       <c r="AQ68" s="1"/>
       <c r="CE68" s="1"/>
       <c r="CF68" s="1"/>
       <c r="FV68" s="1"/>
     </row>
-    <row r="69" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>8375</v>
+      </c>
+      <c r="B69" s="1">
+        <v>15716860000</v>
+      </c>
+      <c r="C69">
+        <v>176703087.960554</v>
+      </c>
+      <c r="D69">
+        <v>415267.476356</v>
+      </c>
+      <c r="E69">
+        <v>16610123.556267001</v>
+      </c>
+      <c r="F69">
+        <v>422.55148800000001</v>
+      </c>
+      <c r="G69">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H69">
+        <v>3324676.0997879999</v>
+      </c>
+      <c r="I69">
+        <v>31019559.519503001</v>
+      </c>
+      <c r="J69">
+        <v>1691734.5977330001</v>
+      </c>
+      <c r="K69">
+        <v>1635024.97</v>
+      </c>
+      <c r="L69">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M69">
+        <v>70143444.519288003</v>
+      </c>
       <c r="AP69" s="1"/>
       <c r="AQ69" s="1"/>
       <c r="CE69" s="1"/>
       <c r="CF69" s="1"/>
       <c r="FV69" s="1"/>
     </row>
-    <row r="70" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>8500</v>
+      </c>
+      <c r="B70" s="1">
+        <v>15092900000</v>
+      </c>
+      <c r="C70">
+        <v>176084449.20513499</v>
+      </c>
+      <c r="D70">
+        <v>415260.28263099998</v>
+      </c>
+      <c r="E70">
+        <v>16610130.749992</v>
+      </c>
+      <c r="F70">
+        <v>421.89207399999998</v>
+      </c>
+      <c r="G70">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H70">
+        <v>3323407.9553189999</v>
+      </c>
+      <c r="I70">
+        <v>31227193.257681001</v>
+      </c>
+      <c r="J70">
+        <v>1846231.1220819999</v>
+      </c>
+      <c r="K70">
+        <v>1772163.47</v>
+      </c>
+      <c r="L70">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M70">
+        <v>70154697.221575007</v>
+      </c>
       <c r="AP70" s="1"/>
       <c r="AQ70" s="1"/>
       <c r="CE70" s="1"/>
       <c r="CF70" s="1"/>
       <c r="FV70" s="1"/>
     </row>
-    <row r="71" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>8625</v>
+      </c>
+      <c r="B71" s="1">
+        <v>14474070000</v>
+      </c>
+      <c r="C71">
+        <v>175638256.02137199</v>
+      </c>
+      <c r="D71">
+        <v>415256.77569099999</v>
+      </c>
+      <c r="E71">
+        <v>16610134.256933</v>
+      </c>
+      <c r="F71">
+        <v>421.18805400000002</v>
+      </c>
+      <c r="G71">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H71">
+        <v>3322745.1081849998</v>
+      </c>
+      <c r="I71">
+        <v>31434823.398997001</v>
+      </c>
+      <c r="J71">
+        <v>1944787.053665</v>
+      </c>
+      <c r="K71">
+        <v>1873855.79</v>
+      </c>
+      <c r="L71">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M71">
+        <v>70161730.160504997</v>
+      </c>
       <c r="AP71" s="1"/>
       <c r="AQ71" s="1"/>
       <c r="CE71" s="1"/>
       <c r="CF71" s="1"/>
       <c r="FV71" s="1"/>
     </row>
-    <row r="72" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>8750</v>
+      </c>
+      <c r="B72" s="1">
+        <v>13860420000</v>
+      </c>
+      <c r="C72">
+        <v>175269004.641799</v>
+      </c>
+      <c r="D72">
+        <v>415255.06605700002</v>
+      </c>
+      <c r="E72">
+        <v>16610135.966566</v>
+      </c>
+      <c r="F72">
+        <v>420.34517599999998</v>
+      </c>
+      <c r="G72">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H72">
+        <v>3322399.6568550002</v>
+      </c>
+      <c r="I72">
+        <v>31642451.786842</v>
+      </c>
+      <c r="J72">
+        <v>2003380.2465900001</v>
+      </c>
+      <c r="K72">
+        <v>1944399.91</v>
+      </c>
+      <c r="L72">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M72">
+        <v>70166125.747336</v>
+      </c>
       <c r="AP72" s="1"/>
       <c r="AQ72" s="1"/>
       <c r="CE72" s="1"/>
       <c r="CF72" s="1"/>
       <c r="FV72" s="1"/>
     </row>
-    <row r="73" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>8875</v>
+      </c>
+      <c r="B73" s="1">
+        <v>13251940000</v>
+      </c>
+      <c r="C73">
+        <v>174909383.938481</v>
+      </c>
+      <c r="D73">
+        <v>415254.23261100001</v>
+      </c>
+      <c r="E73">
+        <v>16610136.800013</v>
+      </c>
+      <c r="F73">
+        <v>419.349334</v>
+      </c>
+      <c r="G73">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H73">
+        <v>3322220.0926549998</v>
+      </c>
+      <c r="I73">
+        <v>31850079.319869999</v>
+      </c>
+      <c r="J73">
+        <v>2036663.066255</v>
+      </c>
+      <c r="K73">
+        <v>1991479.65</v>
+      </c>
+      <c r="L73">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M73">
+        <v>70168872.989105001</v>
+      </c>
       <c r="AP73" s="1"/>
       <c r="AQ73" s="1"/>
       <c r="FV73" s="1"/>
     </row>
-    <row r="74" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>9000</v>
+      </c>
+      <c r="B74" s="1">
+        <v>12648580000</v>
+      </c>
+      <c r="C74">
+        <v>174522814.61458099</v>
+      </c>
+      <c r="D74">
+        <v>415253.826305</v>
+      </c>
+      <c r="E74">
+        <v>16610137.206318</v>
+      </c>
+      <c r="F74">
+        <v>418.22577999999999</v>
+      </c>
+      <c r="G74">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H74">
+        <v>3322126.9767700001</v>
+      </c>
+      <c r="I74">
+        <v>32057706.436175998</v>
+      </c>
+      <c r="J74">
+        <v>2055031.1442249999</v>
+      </c>
+      <c r="K74">
+        <v>2022199.49</v>
+      </c>
+      <c r="L74">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M74">
+        <v>70170590.015211001</v>
+      </c>
       <c r="AP74" s="1"/>
       <c r="AQ74" s="1"/>
       <c r="FV74" s="1"/>
     </row>
-    <row r="75" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>9125</v>
+      </c>
+      <c r="B75" s="1">
+        <v>12050280000</v>
+      </c>
+      <c r="C75">
+        <v>174096252.16628999</v>
+      </c>
+      <c r="D75">
+        <v>415253.62823199999</v>
+      </c>
+      <c r="E75">
+        <v>16610137.404392</v>
+      </c>
+      <c r="F75">
+        <v>417.01063599999998</v>
+      </c>
+      <c r="G75">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H75">
+        <v>3322078.7936069998</v>
+      </c>
+      <c r="I75">
+        <v>32265333.349328</v>
+      </c>
+      <c r="J75">
+        <v>2064983.2067720001</v>
+      </c>
+      <c r="K75">
+        <v>2041975.41</v>
+      </c>
+      <c r="L75">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M75">
+        <v>70171663.156526998</v>
+      </c>
       <c r="AP75" s="1"/>
       <c r="AQ75" s="1"/>
       <c r="FV75" s="1"/>
     </row>
-    <row r="76" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>9250</v>
+      </c>
+      <c r="B76" s="1">
+        <v>11456990000</v>
+      </c>
+      <c r="C76">
+        <v>173630675.61719799</v>
+      </c>
+      <c r="D76">
+        <v>415253.531671</v>
+      </c>
+      <c r="E76">
+        <v>16610137.500953</v>
+      </c>
+      <c r="F76">
+        <v>415.73682600000001</v>
+      </c>
+      <c r="G76">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H76">
+        <v>3322053.90973</v>
+      </c>
+      <c r="I76">
+        <v>32472960.163444001</v>
+      </c>
+      <c r="J76">
+        <v>2070310.404602</v>
+      </c>
+      <c r="K76">
+        <v>2054598.73</v>
+      </c>
+      <c r="L76">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M76">
+        <v>70172333.869848996</v>
+      </c>
       <c r="AP76" s="1"/>
       <c r="AQ76" s="1"/>
       <c r="FV76" s="1"/>
     </row>
-    <row r="77" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>9375</v>
+      </c>
+      <c r="B77" s="1">
+        <v>10868640000</v>
+      </c>
+      <c r="C77">
+        <v>173133410.861716</v>
+      </c>
+      <c r="D77">
+        <v>415253.484597</v>
+      </c>
+      <c r="E77">
+        <v>16610137.548025999</v>
+      </c>
+      <c r="F77">
+        <v>414.42951699999998</v>
+      </c>
+      <c r="G77">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H77">
+        <v>3322041.0815480002</v>
+      </c>
+      <c r="I77">
+        <v>32680586.929280002</v>
+      </c>
+      <c r="J77">
+        <v>2073138.198542</v>
+      </c>
+      <c r="K77">
+        <v>2062611.45</v>
+      </c>
+      <c r="L77">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M77">
+        <v>70172753.065676004</v>
+      </c>
       <c r="AP77" s="1"/>
       <c r="AQ77" s="1"/>
       <c r="FV77" s="1"/>
     </row>
-    <row r="78" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>9500</v>
+      </c>
+      <c r="B78" s="1">
+        <v>10285150000</v>
+      </c>
+      <c r="C78">
+        <v>172613346.409134</v>
+      </c>
+      <c r="D78">
+        <v>415253.461649</v>
+      </c>
+      <c r="E78">
+        <v>16610137.570974</v>
+      </c>
+      <c r="F78">
+        <v>413.106156</v>
+      </c>
+      <c r="G78">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H78">
+        <v>3322034.4791629999</v>
+      </c>
+      <c r="I78">
+        <v>32888213.671578001</v>
+      </c>
+      <c r="J78">
+        <v>2074630.0948300001</v>
+      </c>
+      <c r="K78">
+        <v>2067677.91</v>
+      </c>
+      <c r="L78">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M78">
+        <v>70173015.063068002</v>
+      </c>
       <c r="AP78" s="1"/>
       <c r="AQ78" s="1"/>
       <c r="FV78" s="1"/>
     </row>
-    <row r="79" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>9625</v>
+      </c>
+      <c r="B79">
+        <v>9706480314.1704197</v>
+      </c>
+      <c r="C79">
+        <v>172078549.31703699</v>
+      </c>
+      <c r="D79">
+        <v>415253.45046199998</v>
+      </c>
+      <c r="E79">
+        <v>16610137.582162</v>
+      </c>
+      <c r="F79">
+        <v>411.778097</v>
+      </c>
+      <c r="G79">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H79">
+        <v>3322031.0861769998</v>
+      </c>
+      <c r="I79">
+        <v>33095840.402403001</v>
+      </c>
+      <c r="J79">
+        <v>2075413.4816429999</v>
+      </c>
+      <c r="K79">
+        <v>2070872.52</v>
+      </c>
+      <c r="L79">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M79">
+        <v>70173178.811436996</v>
+      </c>
       <c r="AP79" s="1"/>
       <c r="AQ79" s="1"/>
       <c r="FV79" s="1"/>
     </row>
-    <row r="80" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>9750</v>
+      </c>
+      <c r="B80">
+        <v>9132562803.0167599</v>
+      </c>
+      <c r="C80">
+        <v>171535410.20492399</v>
+      </c>
+      <c r="D80">
+        <v>415253.44500800001</v>
+      </c>
+      <c r="E80">
+        <v>16610137.587616</v>
+      </c>
+      <c r="F80">
+        <v>410.45238999999998</v>
+      </c>
+      <c r="G80">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H80">
+        <v>3322029.3449349999</v>
+      </c>
+      <c r="I80">
+        <v>33303467.127634</v>
+      </c>
+      <c r="J80">
+        <v>2075823.261003</v>
+      </c>
+      <c r="K80">
+        <v>2072882.71</v>
+      </c>
+      <c r="L80">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M80">
+        <v>70173281.154167995</v>
+      </c>
       <c r="AP80" s="1"/>
       <c r="AQ80" s="1"/>
       <c r="FV80" s="1"/>
     </row>
-    <row r="81" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>9875</v>
+      </c>
+      <c r="B81">
+        <v>8563344918.8439999</v>
+      </c>
+      <c r="C81">
+        <v>170988588.51155299</v>
+      </c>
+      <c r="D81">
+        <v>415253.44234900002</v>
+      </c>
+      <c r="E81">
+        <v>16610137.590274001</v>
+      </c>
+      <c r="F81">
+        <v>409.13325200000003</v>
+      </c>
+      <c r="G81">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H81">
+        <v>3322028.4524989999</v>
+      </c>
+      <c r="I81">
+        <v>33511093.850138001</v>
+      </c>
+      <c r="J81">
+        <v>2076036.9214319999</v>
+      </c>
+      <c r="K81">
+        <v>2074145.66</v>
+      </c>
+      <c r="L81">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M81">
+        <v>70173345.118375003</v>
+      </c>
       <c r="AP81" s="1"/>
       <c r="AQ81" s="1"/>
       <c r="FV81" s="1"/>
     </row>
-    <row r="82" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82">
+        <v>7998774231.6716995</v>
+      </c>
+      <c r="C82">
+        <v>170441289.32926399</v>
+      </c>
+      <c r="D82">
+        <v>415253.44105299999</v>
+      </c>
+      <c r="E82">
+        <v>16610137.591569999</v>
+      </c>
+      <c r="F82">
+        <v>407.82311199999998</v>
+      </c>
+      <c r="G82">
+        <v>34025306.065246999</v>
+      </c>
+      <c r="H82">
+        <v>3322027.9956459999</v>
+      </c>
+      <c r="I82">
+        <v>33718720.571312003</v>
+      </c>
+      <c r="J82">
+        <v>2076148.0146230001</v>
+      </c>
+      <c r="K82">
+        <v>2074938.21</v>
+      </c>
+      <c r="L82">
+        <v>70173451.730000004</v>
+      </c>
+      <c r="M82">
+        <v>70173385.096004993</v>
+      </c>
       <c r="AP82" s="1"/>
       <c r="AQ82" s="1"/>
       <c r="FV82" s="1"/>
     </row>
-    <row r="83" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
       <c r="AP83" s="1"/>
       <c r="AQ83" s="1"/>
       <c r="FV83" s="1"/>
     </row>
-    <row r="84" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
       <c r="AP84" s="1"/>
       <c r="AQ84" s="1"/>
       <c r="FV84" s="1"/>
     </row>
-    <row r="85" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
       <c r="AP85" s="1"/>
       <c r="AQ85" s="1"/>
       <c r="FV85" s="1"/>
     </row>
-    <row r="86" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
       <c r="AP86" s="1"/>
       <c r="AQ86" s="1"/>
       <c r="FV86" s="1"/>
     </row>
-    <row r="87" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
       <c r="AP87" s="1"/>
       <c r="AQ87" s="1"/>
       <c r="FV87" s="1"/>
     </row>
-    <row r="88" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
       <c r="AP88" s="1"/>
       <c r="AQ88" s="1"/>
       <c r="FV88" s="1"/>
     </row>
-    <row r="89" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
       <c r="AP89" s="1"/>
       <c r="AQ89" s="1"/>
       <c r="FV89" s="1"/>
     </row>
-    <row r="90" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
       <c r="AP90" s="1"/>
       <c r="AQ90" s="1"/>
       <c r="FV90" s="1"/>
     </row>
-    <row r="91" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
       <c r="AP91" s="1"/>
       <c r="AQ91" s="1"/>
       <c r="FV91" s="1"/>
     </row>
-    <row r="92" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
       <c r="AP92" s="1"/>
       <c r="AQ92" s="1"/>
       <c r="FV92" s="1"/>
     </row>
-    <row r="93" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
       <c r="AP93" s="1"/>
       <c r="AQ93" s="1"/>
       <c r="FV93" s="1"/>
     </row>
-    <row r="94" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
       <c r="AP94" s="1"/>
       <c r="AQ94" s="1"/>
       <c r="FV94" s="1"/>
     </row>
-    <row r="95" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
       <c r="AP95" s="1"/>
       <c r="AQ95" s="1"/>
       <c r="FV95" s="1"/>
     </row>
-    <row r="96" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
       <c r="AP96" s="1"/>
       <c r="AQ96" s="1"/>
       <c r="FV96" s="1"/>
     </row>
-    <row r="97" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
       <c r="AP97" s="1"/>
       <c r="AQ97" s="1"/>
       <c r="FV97" s="1"/>
     </row>
-    <row r="98" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
       <c r="AP98" s="1"/>
       <c r="AQ98" s="1"/>
       <c r="FV98" s="1"/>
     </row>
-    <row r="99" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
       <c r="AP99" s="1"/>
       <c r="AQ99" s="1"/>
       <c r="FV99" s="1"/>
     </row>
-    <row r="100" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
       <c r="AP100" s="1"/>
       <c r="AQ100" s="1"/>
       <c r="FV100" s="1"/>
     </row>
-    <row r="101" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
       <c r="AP101" s="1"/>
       <c r="AQ101" s="1"/>
       <c r="FV101" s="1"/>
     </row>
-    <row r="102" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
       <c r="AP102" s="1"/>
       <c r="AQ102" s="1"/>
       <c r="FV102" s="1"/>
     </row>
-    <row r="103" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
       <c r="AP103" s="1"/>
       <c r="AQ103" s="1"/>
       <c r="FV103" s="1"/>
     </row>
-    <row r="104" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
       <c r="AP104" s="1"/>
       <c r="AQ104" s="1"/>
       <c r="FV104" s="1"/>
     </row>
-    <row r="105" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
       <c r="AP105" s="1"/>
       <c r="AQ105" s="1"/>
       <c r="FV105" s="1"/>
     </row>
-    <row r="106" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
       <c r="AP106" s="1"/>
       <c r="AQ106" s="1"/>
       <c r="FV106" s="1"/>
     </row>
-    <row r="107" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
       <c r="AP107" s="1"/>
       <c r="AQ107" s="1"/>
       <c r="FV107" s="1"/>
     </row>
-    <row r="108" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
       <c r="AP108" s="1"/>
       <c r="AQ108" s="1"/>
       <c r="FV108" s="1"/>
     </row>
-    <row r="109" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
       <c r="AP109" s="1"/>
       <c r="AQ109" s="1"/>
       <c r="FV109" s="1"/>
     </row>
-    <row r="110" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
       <c r="AP110" s="1"/>
       <c r="AQ110" s="1"/>
       <c r="FV110" s="1"/>
     </row>
-    <row r="111" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A111" s="2"/>
       <c r="AP111" s="1"/>
       <c r="AQ111" s="1"/>
       <c r="FV111" s="1"/>
     </row>
-    <row r="112" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
       <c r="AP112" s="1"/>
       <c r="AQ112" s="1"/>
       <c r="FV112" s="1"/>
     </row>
-    <row r="113" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
       <c r="AP113" s="1"/>
       <c r="AQ113" s="1"/>
       <c r="FV113" s="1"/>
     </row>
-    <row r="114" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
       <c r="AP114" s="1"/>
       <c r="AQ114" s="1"/>
       <c r="FV114" s="1"/>
     </row>
-    <row r="115" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
       <c r="AP115" s="1"/>
       <c r="AQ115" s="1"/>
       <c r="FV115" s="1"/>
     </row>
-    <row r="116" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
       <c r="AP116" s="1"/>
       <c r="AQ116" s="1"/>
       <c r="FV116" s="1"/>
     </row>
-    <row r="117" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
       <c r="AP117" s="1"/>
       <c r="AQ117" s="1"/>
       <c r="FV117" s="1"/>
     </row>
-    <row r="118" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
       <c r="AP118" s="1"/>
       <c r="AQ118" s="1"/>
       <c r="FV118" s="1"/>
     </row>
-    <row r="119" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+      <c r="B119" s="1"/>
       <c r="AP119" s="1"/>
       <c r="AQ119" s="1"/>
       <c r="FV119" s="1"/>
     </row>
-    <row r="120" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+      <c r="B120" s="1"/>
       <c r="AP120" s="1"/>
       <c r="AQ120" s="1"/>
       <c r="FV120" s="1"/>
     </row>
-    <row r="121" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+      <c r="B121" s="1"/>
       <c r="AP121" s="1"/>
       <c r="AQ121" s="1"/>
       <c r="FV121" s="1"/>
     </row>
-    <row r="122" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+      <c r="B122" s="1"/>
       <c r="AP122" s="1"/>
       <c r="AQ122" s="1"/>
       <c r="FV122" s="1"/>
     </row>
-    <row r="123" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+      <c r="B123" s="1"/>
       <c r="AP123" s="1"/>
       <c r="AQ123" s="1"/>
       <c r="FV123" s="1"/>
     </row>
-    <row r="124" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+      <c r="B124" s="1"/>
       <c r="AP124" s="1"/>
       <c r="AQ124" s="1"/>
       <c r="FV124" s="1"/>
     </row>
-    <row r="125" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+      <c r="B125" s="1"/>
       <c r="AP125" s="1"/>
       <c r="AQ125" s="1"/>
       <c r="FV125" s="1"/>
     </row>
-    <row r="126" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+      <c r="B126" s="1"/>
       <c r="AP126" s="1"/>
       <c r="AQ126" s="1"/>
       <c r="FV126" s="1"/>
     </row>
-    <row r="127" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+      <c r="B127" s="1"/>
       <c r="AP127" s="1"/>
       <c r="AQ127" s="1"/>
       <c r="FV127" s="1"/>
     </row>
-    <row r="128" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+      <c r="B128" s="1"/>
       <c r="AP128" s="1"/>
       <c r="AQ128" s="1"/>
       <c r="FV128" s="1"/>
     </row>
-    <row r="129" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+      <c r="B129" s="1"/>
       <c r="AP129" s="1"/>
       <c r="AQ129" s="1"/>
       <c r="FV129" s="1"/>
     </row>
-    <row r="130" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+      <c r="B130" s="1"/>
       <c r="AP130" s="1"/>
       <c r="AQ130" s="1"/>
       <c r="FV130" s="1"/>
     </row>
-    <row r="131" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+      <c r="B131" s="1"/>
       <c r="AP131" s="1"/>
       <c r="AQ131" s="1"/>
       <c r="FV131" s="1"/>
     </row>
-    <row r="132" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+      <c r="B132" s="1"/>
       <c r="AP132" s="1"/>
       <c r="AQ132" s="1"/>
       <c r="FV132" s="1"/>
     </row>
-    <row r="133" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+      <c r="B133" s="1"/>
       <c r="AP133" s="1"/>
       <c r="AQ133" s="1"/>
       <c r="FV133" s="1"/>
     </row>
-    <row r="134" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+      <c r="B134" s="1"/>
       <c r="AP134" s="1"/>
       <c r="AQ134" s="1"/>
       <c r="FV134" s="1"/>
     </row>
-    <row r="135" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+      <c r="B135" s="1"/>
       <c r="AP135" s="1"/>
       <c r="AQ135" s="1"/>
       <c r="FV135" s="1"/>
     </row>
-    <row r="136" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+      <c r="B136" s="1"/>
       <c r="AP136" s="1"/>
       <c r="AQ136" s="1"/>
       <c r="FV136" s="1"/>
     </row>
-    <row r="137" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A137" s="2"/>
+      <c r="B137" s="1"/>
       <c r="AP137" s="1"/>
       <c r="AQ137" s="1"/>
       <c r="FV137" s="1"/>
     </row>
-    <row r="138" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A138" s="2"/>
+      <c r="B138" s="1"/>
       <c r="AP138" s="1"/>
       <c r="AQ138" s="1"/>
       <c r="FV138" s="1"/>
     </row>
-    <row r="139" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A139" s="2"/>
+      <c r="B139" s="1"/>
       <c r="AP139" s="1"/>
       <c r="AQ139" s="1"/>
       <c r="FV139" s="1"/>
     </row>
-    <row r="140" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A140" s="2"/>
+      <c r="B140" s="1"/>
       <c r="AP140" s="1"/>
       <c r="AQ140" s="1"/>
       <c r="FV140" s="1"/>
     </row>
-    <row r="141" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A141" s="2"/>
+      <c r="B141" s="1"/>
       <c r="AP141" s="1"/>
       <c r="AQ141" s="1"/>
       <c r="FV141" s="1"/>
     </row>
-    <row r="142" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+      <c r="B142" s="1"/>
       <c r="AP142" s="1"/>
       <c r="AQ142" s="1"/>
       <c r="FV142" s="1"/>
     </row>
-    <row r="143" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A143" s="2"/>
+      <c r="B143" s="1"/>
       <c r="AP143" s="1"/>
       <c r="AQ143" s="1"/>
       <c r="FV143" s="1"/>
     </row>
-    <row r="144" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+      <c r="B144" s="1"/>
       <c r="AP144" s="1"/>
       <c r="AQ144" s="1"/>
       <c r="FV144" s="1"/>
     </row>
-    <row r="145" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+      <c r="B145" s="1"/>
       <c r="AP145" s="1"/>
       <c r="AQ145" s="1"/>
       <c r="FV145" s="1"/>
     </row>
-    <row r="146" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A146" s="2"/>
+      <c r="B146" s="1"/>
       <c r="AP146" s="1"/>
       <c r="AQ146" s="1"/>
       <c r="FV146" s="1"/>
     </row>
-    <row r="147" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A147" s="2"/>
+      <c r="B147" s="1"/>
       <c r="AP147" s="1"/>
       <c r="AQ147" s="1"/>
       <c r="FV147" s="1"/>
     </row>
-    <row r="148" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+      <c r="B148" s="1"/>
       <c r="AP148" s="1"/>
       <c r="AQ148" s="1"/>
       <c r="FV148" s="1"/>
     </row>
-    <row r="149" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+      <c r="B149" s="1"/>
       <c r="AP149" s="1"/>
       <c r="AQ149" s="1"/>
       <c r="FV149" s="1"/>
     </row>
-    <row r="150" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
+      <c r="B150" s="1"/>
       <c r="AP150" s="1"/>
       <c r="AQ150" s="1"/>
       <c r="FV150" s="1"/>
     </row>
-    <row r="151" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A151" s="2"/>
+      <c r="B151" s="1"/>
       <c r="AP151" s="1"/>
       <c r="AQ151" s="1"/>
       <c r="FV151" s="1"/>
     </row>
-    <row r="152" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A152" s="2"/>
+      <c r="B152" s="1"/>
       <c r="AP152" s="1"/>
       <c r="AQ152" s="1"/>
       <c r="FV152" s="1"/>
     </row>
-    <row r="153" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A153" s="2"/>
+      <c r="B153" s="1"/>
       <c r="AP153" s="1"/>
       <c r="AQ153" s="1"/>
       <c r="FV153" s="1"/>
     </row>
-    <row r="154" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A154" s="2"/>
+      <c r="B154" s="1"/>
       <c r="AP154" s="1"/>
       <c r="AQ154" s="1"/>
       <c r="FV154" s="1"/>
     </row>
-    <row r="155" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A155" s="2"/>
+      <c r="B155" s="1"/>
       <c r="AP155" s="1"/>
       <c r="AQ155" s="1"/>
       <c r="FV155" s="1"/>
     </row>
-    <row r="156" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A156" s="2"/>
+      <c r="B156" s="1"/>
       <c r="AP156" s="1"/>
       <c r="AQ156" s="1"/>
       <c r="FV156" s="1"/>
     </row>
-    <row r="157" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A157" s="2"/>
+      <c r="B157" s="1"/>
       <c r="AP157" s="1"/>
       <c r="AQ157" s="1"/>
       <c r="FV157" s="1"/>
     </row>
-    <row r="158" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A158" s="2"/>
+      <c r="B158" s="1"/>
       <c r="AP158" s="1"/>
       <c r="AQ158" s="1"/>
       <c r="FV158" s="1"/>
     </row>
-    <row r="159" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A159" s="2"/>
+      <c r="B159" s="1"/>
       <c r="AP159" s="1"/>
       <c r="AQ159" s="1"/>
       <c r="FV159" s="1"/>
     </row>
-    <row r="160" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+      <c r="B160" s="1"/>
       <c r="AP160" s="1"/>
       <c r="AQ160" s="1"/>
       <c r="FV160" s="1"/>
     </row>
-    <row r="161" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A161" s="2"/>
+      <c r="B161" s="1"/>
       <c r="AP161" s="1"/>
       <c r="AQ161" s="1"/>
       <c r="FV161" s="1"/>
     </row>
-    <row r="162" spans="42:178" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="B162" s="1"/>
       <c r="AP162" s="1"/>
       <c r="AQ162" s="1"/>
       <c r="FV162" s="1"/>

--- a/models/dissertation-model/modelo-ithink/dados_ithink_excel_stocks.xlsx
+++ b/models/dissertation-model/modelo-ithink/dados_ithink_excel_stocks.xlsx
@@ -406,9 +406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FV162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3017,7 +3015,7 @@
         <v>42008115.189999998</v>
       </c>
       <c r="L56">
-        <v>70173451.730000004</v>
+        <v>66412133.030000001</v>
       </c>
       <c r="M56">
         <v>56659407.504903004</v>
@@ -3067,10 +3065,10 @@
         <v>28011012.190000001</v>
       </c>
       <c r="L57">
-        <v>70173451.730000004</v>
+        <v>57260626.340000004</v>
       </c>
       <c r="M57">
-        <v>61727174.087583996</v>
+        <v>60316679.577298999</v>
       </c>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
@@ -3087,7 +3085,7 @@
         <v>7000</v>
       </c>
       <c r="B58" s="1">
-        <v>22730960000</v>
+        <v>22745180000</v>
       </c>
       <c r="C58">
         <v>290560529.08960003</v>
@@ -3099,7 +3097,7 @@
         <v>16572158.977525</v>
       </c>
       <c r="F58">
-        <v>457.72588300000001</v>
+        <v>457.794062</v>
       </c>
       <c r="G58">
         <v>34025306.065246999</v>
@@ -3117,10 +3115,10 @@
         <v>18247847.93</v>
       </c>
       <c r="L58">
-        <v>70173451.730000004</v>
+        <v>46292021.039999999</v>
       </c>
       <c r="M58">
-        <v>64894528.201760001</v>
+        <v>59170659.613417998</v>
       </c>
       <c r="AP58" s="1"/>
       <c r="AQ58" s="1"/>
@@ -3135,10 +3133,10 @@
         <v>7125</v>
       </c>
       <c r="B59" s="1">
-        <v>22132460000</v>
+        <v>22203830000</v>
       </c>
       <c r="C59">
-        <v>240099090.80106899</v>
+        <v>240113214.17312399</v>
       </c>
       <c r="D59">
         <v>433768.01476799999</v>
@@ -3147,7 +3145,7 @@
         <v>16591623.017855</v>
       </c>
       <c r="F59">
-        <v>449.38615199999998</v>
+        <v>449.66569700000002</v>
       </c>
       <c r="G59">
         <v>34025306.065246999</v>
@@ -3165,10 +3163,10 @@
         <v>11754619.91</v>
       </c>
       <c r="L59">
-        <v>70173451.730000004</v>
+        <v>35775456.119999997</v>
       </c>
       <c r="M59">
-        <v>66874124.523120001</v>
+        <v>54341170.146536998</v>
       </c>
       <c r="AP59" s="1"/>
       <c r="AQ59" s="1"/>
@@ -3183,10 +3181,10 @@
         <v>7250</v>
       </c>
       <c r="B60" s="1">
-        <v>21503800000</v>
+        <v>21699190000</v>
       </c>
       <c r="C60">
-        <v>213250115.76186201</v>
+        <v>213315153.73992199</v>
       </c>
       <c r="D60">
         <v>424279.29510699998</v>
@@ -3195,7 +3193,7 @@
         <v>16601111.737516001</v>
       </c>
       <c r="F60">
-        <v>444.14543800000001</v>
+        <v>444.82651700000002</v>
       </c>
       <c r="G60">
         <v>34025306.065246999</v>
@@ -3213,10 +3211,10 @@
         <v>7535563.5</v>
       </c>
       <c r="L60">
-        <v>70173451.730000004</v>
+        <v>26767642.539999999</v>
       </c>
       <c r="M60">
-        <v>68111372.223969996</v>
+        <v>47379027.386477001</v>
       </c>
       <c r="AP60" s="1"/>
       <c r="AQ60" s="1"/>
@@ -3231,10 +3229,10 @@
         <v>7375</v>
       </c>
       <c r="B61" s="1">
-        <v>20860080000</v>
+        <v>21258830000</v>
       </c>
       <c r="C61">
-        <v>198791408.503564</v>
+        <v>198965260.80836099</v>
       </c>
       <c r="D61">
         <v>419653.54427299998</v>
@@ -3243,7 +3241,7 @@
         <v>16605737.488351</v>
       </c>
       <c r="F61">
-        <v>440.59045700000001</v>
+        <v>441.913523</v>
       </c>
       <c r="G61">
         <v>34025306.065246999</v>
@@ -3261,10 +3259,10 @@
         <v>4825664.22</v>
       </c>
       <c r="L61">
-        <v>70173451.730000004</v>
+        <v>19555612.899999999</v>
       </c>
       <c r="M61">
-        <v>68884652.037001997</v>
+        <v>39649758.069578998</v>
       </c>
       <c r="AP61" s="1"/>
       <c r="AQ61" s="1"/>
@@ -3279,10 +3277,10 @@
         <v>7500</v>
       </c>
       <c r="B62" s="1">
-        <v>20209940000</v>
+        <v>20893000000</v>
       </c>
       <c r="C62">
-        <v>190849822.60927901</v>
+        <v>191211379.85448599</v>
       </c>
       <c r="D62">
         <v>417398.49074099999</v>
@@ -3291,7 +3289,7 @@
         <v>16607992.541882999</v>
       </c>
       <c r="F62">
-        <v>437.94969500000002</v>
+        <v>440.22431699999999</v>
       </c>
       <c r="G62">
         <v>34025306.065246999</v>
@@ -3309,10 +3307,10 @@
         <v>3125855.87</v>
       </c>
       <c r="L62">
-        <v>70173451.730000004</v>
+        <v>14031882.15</v>
       </c>
       <c r="M62">
-        <v>69367951.920146003</v>
+        <v>32114453.631042</v>
       </c>
       <c r="AP62" s="1"/>
       <c r="AQ62" s="1"/>
@@ -3327,10 +3325,10 @@
         <v>7625</v>
       </c>
       <c r="B63" s="1">
-        <v>19558380000</v>
+        <v>20600640000</v>
       </c>
       <c r="C63">
-        <v>186343227.11672801</v>
+        <v>186996217.07768899</v>
       </c>
       <c r="D63">
         <v>416299.15214399999</v>
@@ -3339,7 +3337,7 @@
         <v>16609091.880480001</v>
       </c>
       <c r="F63">
-        <v>435.80622399999999</v>
+        <v>439.44097900000003</v>
       </c>
       <c r="G63">
         <v>34025306.065246999</v>
@@ -3357,10 +3355,10 @@
         <v>2087158.07</v>
       </c>
       <c r="L63">
-        <v>70173451.730000004</v>
+        <v>9942122.2899999991</v>
       </c>
       <c r="M63">
-        <v>69670014.347111002</v>
+        <v>25333489.323971</v>
       </c>
       <c r="AP63" s="1"/>
       <c r="AQ63" s="1"/>
@@ -3375,10 +3373,10 @@
         <v>7750</v>
       </c>
       <c r="B64" s="1">
-        <v>18908260000</v>
+        <v>20374430000</v>
       </c>
       <c r="C64">
-        <v>183650933.767537</v>
+        <v>184732053.468256</v>
       </c>
       <c r="D64">
         <v>415763.22457800002</v>
@@ -3387,7 +3385,7 @@
         <v>16609627.808045</v>
       </c>
       <c r="F64">
-        <v>433.93611299999998</v>
+        <v>439.48162300000001</v>
       </c>
       <c r="G64">
         <v>34025306.065246999</v>
@@ -3405,10 +3403,10 @@
         <v>1484904.07</v>
       </c>
       <c r="L64">
-        <v>70173451.730000004</v>
+        <v>6996510.71</v>
       </c>
       <c r="M64">
-        <v>69858803.363965005</v>
+        <v>19561726.687541001</v>
       </c>
       <c r="AP64" s="1"/>
       <c r="AQ64" s="1"/>
@@ -3423,10 +3421,10 @@
         <v>7875</v>
       </c>
       <c r="B65" s="1">
-        <v>18261230000</v>
+        <v>20204330000</v>
       </c>
       <c r="C65">
-        <v>181919433.397614</v>
+        <v>183611354.13210899</v>
       </c>
       <c r="D65">
         <v>415501.95989</v>
@@ -3435,7 +3433,7 @@
         <v>16609889.072734</v>
       </c>
       <c r="F65">
-        <v>430.75072999999998</v>
+        <v>438.922259</v>
       </c>
       <c r="G65">
         <v>34025306.065246999</v>
@@ -3453,10 +3451,10 @@
         <v>1214301.56</v>
       </c>
       <c r="L65">
-        <v>70173451.730000004</v>
+        <v>4929658.22</v>
       </c>
       <c r="M65">
-        <v>69976796.499497995</v>
+        <v>14849770.696232</v>
       </c>
       <c r="AP65" s="1"/>
       <c r="AQ65" s="1"/>
@@ -3471,10 +3469,10 @@
         <v>8000</v>
       </c>
       <c r="B66" s="1">
-        <v>17618240000</v>
+        <v>20079790000</v>
       </c>
       <c r="C66">
-        <v>180393739.64644</v>
+        <v>182936302.458969</v>
       </c>
       <c r="D66">
         <v>415374.59335400001</v>
@@ -3483,7 +3481,7 @@
         <v>16610016.439269001</v>
       </c>
       <c r="F66">
-        <v>426.94683700000002</v>
+        <v>438.72909600000003</v>
       </c>
       <c r="G66">
         <v>34025306.065246999</v>
@@ -3501,10 +3499,10 @@
         <v>1198490.56</v>
       </c>
       <c r="L66">
-        <v>70173451.730000004</v>
+        <v>3536399.47</v>
       </c>
       <c r="M66">
-        <v>70050542.209206</v>
+        <v>11129728.518169999</v>
       </c>
       <c r="AP66" s="1"/>
       <c r="AQ66" s="1"/>
@@ -3517,10 +3515,10 @@
         <v>8125</v>
       </c>
       <c r="B67" s="1">
-        <v>16979720000</v>
+        <v>19990970000</v>
       </c>
       <c r="C67">
-        <v>178841794.580681</v>
+        <v>182559369.957499</v>
       </c>
       <c r="D67">
         <v>415312.50216799998</v>
@@ -3529,7 +3527,7 @@
         <v>16610078.530455999</v>
       </c>
       <c r="F67">
-        <v>424.69356099999999</v>
+        <v>441.527421</v>
       </c>
       <c r="G67">
         <v>34025306.065246999</v>
@@ -3547,10 +3545,10 @@
         <v>1306360.1499999999</v>
       </c>
       <c r="L67">
-        <v>70173451.730000004</v>
+        <v>2659683.63</v>
       </c>
       <c r="M67">
-        <v>70096633.277774006</v>
+        <v>8282230.1259160005</v>
       </c>
       <c r="AP67" s="1"/>
       <c r="AQ67" s="1"/>
@@ -3563,10 +3561,10 @@
         <v>8250</v>
       </c>
       <c r="B68" s="1">
-        <v>16345860000</v>
+        <v>19929300000</v>
       </c>
       <c r="C68">
-        <v>177598314.69187301</v>
+        <v>182952249.21228099</v>
       </c>
       <c r="D68">
         <v>415282.23271499999</v>
@@ -3575,7 +3573,7 @@
         <v>16610108.799908999</v>
       </c>
       <c r="F68">
-        <v>423.37558000000001</v>
+        <v>447.193307</v>
       </c>
       <c r="G68">
         <v>34025306.065246999</v>
@@ -3593,10 +3591,10 @@
         <v>1469915.43</v>
       </c>
       <c r="L68">
-        <v>70173451.730000004</v>
+        <v>2152187.33</v>
       </c>
       <c r="M68">
-        <v>70125440.195629001</v>
+        <v>6173775.1905439999</v>
       </c>
       <c r="AP68" s="1"/>
       <c r="AQ68" s="1"/>
@@ -3609,10 +3607,10 @@
         <v>8375</v>
       </c>
       <c r="B69" s="1">
-        <v>15716860000</v>
+        <v>19887830000</v>
       </c>
       <c r="C69">
-        <v>176703087.960554</v>
+        <v>184325243.21579099</v>
       </c>
       <c r="D69">
         <v>415267.476356</v>
@@ -3621,7 +3619,7 @@
         <v>16610123.556267001</v>
       </c>
       <c r="F69">
-        <v>422.55148800000001</v>
+        <v>455.80818900000003</v>
       </c>
       <c r="G69">
         <v>34025306.065246999</v>
@@ -3639,10 +3637,10 @@
         <v>1635024.97</v>
       </c>
       <c r="L69">
-        <v>70173451.730000004</v>
+        <v>1896335.3600000001</v>
       </c>
       <c r="M69">
-        <v>70143444.519288003</v>
+        <v>4665679.741498</v>
       </c>
       <c r="AP69" s="1"/>
       <c r="AQ69" s="1"/>
@@ -3655,10 +3653,10 @@
         <v>8500</v>
       </c>
       <c r="B70" s="1">
-        <v>15092900000</v>
+        <v>19861120000</v>
       </c>
       <c r="C70">
-        <v>176084449.20513499</v>
+        <v>186800500.85694501</v>
       </c>
       <c r="D70">
         <v>415260.28263099998</v>
@@ -3667,7 +3665,7 @@
         <v>16610130.749992</v>
       </c>
       <c r="F70">
-        <v>421.89207399999998</v>
+        <v>467.40036700000002</v>
       </c>
       <c r="G70">
         <v>34025306.065246999</v>
@@ -3685,10 +3683,10 @@
         <v>1772163.47</v>
       </c>
       <c r="L70">
-        <v>70173451.730000004</v>
+        <v>1798343.97</v>
       </c>
       <c r="M70">
-        <v>70154697.221575007</v>
+        <v>3627175.5997319999</v>
       </c>
       <c r="AP70" s="1"/>
       <c r="AQ70" s="1"/>
@@ -3701,10 +3699,10 @@
         <v>8625</v>
       </c>
       <c r="B71" s="1">
-        <v>14474070000</v>
+        <v>19845090000</v>
       </c>
       <c r="C71">
-        <v>175638256.02137199</v>
+        <v>190445015.519485</v>
       </c>
       <c r="D71">
         <v>415256.77569099999</v>
@@ -3713,7 +3711,7 @@
         <v>16610134.256933</v>
       </c>
       <c r="F71">
-        <v>421.18805400000002</v>
+        <v>481.612685</v>
       </c>
       <c r="G71">
         <v>34025306.065246999</v>
@@ -3731,10 +3729,10 @@
         <v>1873855.79</v>
       </c>
       <c r="L71">
-        <v>70173451.730000004</v>
+        <v>1788526.28</v>
       </c>
       <c r="M71">
-        <v>70161730.160504997</v>
+        <v>2941363.7370310002</v>
       </c>
       <c r="AP71" s="1"/>
       <c r="AQ71" s="1"/>
@@ -3747,10 +3745,10 @@
         <v>8750</v>
       </c>
       <c r="B72" s="1">
-        <v>13860420000</v>
+        <v>19836830000</v>
       </c>
       <c r="C72">
-        <v>175269004.641799</v>
+        <v>195218149.65699399</v>
       </c>
       <c r="D72">
         <v>415255.06605700002</v>
@@ -3759,7 +3757,7 @@
         <v>16610135.966566</v>
       </c>
       <c r="F72">
-        <v>420.34517599999998</v>
+        <v>497.38042999999999</v>
       </c>
       <c r="G72">
         <v>34025306.065246999</v>
@@ -3777,10 +3775,10 @@
         <v>1944399.91</v>
       </c>
       <c r="L72">
-        <v>70173451.730000004</v>
+        <v>1820524.85</v>
       </c>
       <c r="M72">
-        <v>70166125.747336</v>
+        <v>2509049.6911169998</v>
       </c>
       <c r="AP72" s="1"/>
       <c r="AQ72" s="1"/>
@@ -3793,10 +3791,10 @@
         <v>8875</v>
       </c>
       <c r="B73" s="1">
-        <v>13251940000</v>
+        <v>19834380000</v>
       </c>
       <c r="C73">
-        <v>174909383.938481</v>
+        <v>200878531.971953</v>
       </c>
       <c r="D73">
         <v>415254.23261100001</v>
@@ -3805,7 +3803,7 @@
         <v>16610136.800013</v>
       </c>
       <c r="F73">
-        <v>419.349334</v>
+        <v>512.95925199999999</v>
       </c>
       <c r="G73">
         <v>34025306.065246999</v>
@@ -3823,10 +3821,10 @@
         <v>1991479.65</v>
       </c>
       <c r="L73">
-        <v>70173451.730000004</v>
+        <v>1866978</v>
       </c>
       <c r="M73">
-        <v>70168872.989105001</v>
+        <v>2250852.8746520001</v>
       </c>
       <c r="AP73" s="1"/>
       <c r="AQ73" s="1"/>
@@ -3837,10 +3835,10 @@
         <v>9000</v>
       </c>
       <c r="B74" s="1">
-        <v>12648580000</v>
+        <v>19836440000</v>
       </c>
       <c r="C74">
-        <v>174522814.61458099</v>
+        <v>206943307.89325699</v>
       </c>
       <c r="D74">
         <v>415253.826305</v>
@@ -3849,7 +3847,7 @@
         <v>16610137.206318</v>
       </c>
       <c r="F74">
-        <v>418.22577999999999</v>
+        <v>526.49266799999998</v>
       </c>
       <c r="G74">
         <v>34025306.065246999</v>
@@ -3867,10 +3865,10 @@
         <v>2022199.49</v>
       </c>
       <c r="L74">
-        <v>70173451.730000004</v>
+        <v>1913666.12</v>
       </c>
       <c r="M74">
-        <v>70170590.015211001</v>
+        <v>2106899.7949049999</v>
       </c>
       <c r="AP74" s="1"/>
       <c r="AQ74" s="1"/>
@@ -3881,10 +3879,10 @@
         <v>9125</v>
       </c>
       <c r="B75" s="1">
-        <v>12050280000</v>
+        <v>19842070000</v>
       </c>
       <c r="C75">
-        <v>174096252.16628999</v>
+        <v>212785597.05355501</v>
       </c>
       <c r="D75">
         <v>415253.62823199999</v>
@@ -3893,7 +3891,7 @@
         <v>16610137.404392</v>
       </c>
       <c r="F75">
-        <v>417.01063599999998</v>
+        <v>536.73839699999996</v>
       </c>
       <c r="G75">
         <v>34025306.065246999</v>
@@ -3911,10 +3909,10 @@
         <v>2041975.41</v>
       </c>
       <c r="L75">
-        <v>70173451.730000004</v>
+        <v>1954366.13</v>
       </c>
       <c r="M75">
-        <v>70171663.156526998</v>
+        <v>2034437.1652869999</v>
       </c>
       <c r="AP75" s="1"/>
       <c r="AQ75" s="1"/>
@@ -3925,10 +3923,10 @@
         <v>9250</v>
       </c>
       <c r="B76" s="1">
-        <v>11456990000</v>
+        <v>19850560000</v>
       </c>
       <c r="C76">
-        <v>173630675.61719799</v>
+        <v>217834029.991862</v>
       </c>
       <c r="D76">
         <v>415253.531671</v>
@@ -3937,7 +3935,7 @@
         <v>16610137.500953</v>
       </c>
       <c r="F76">
-        <v>415.73682600000001</v>
+        <v>543.38576799999998</v>
       </c>
       <c r="G76">
         <v>34025306.065246999</v>
@@ -3955,10 +3953,10 @@
         <v>2054598.73</v>
       </c>
       <c r="L76">
-        <v>70173451.730000004</v>
+        <v>1987219.61</v>
       </c>
       <c r="M76">
-        <v>70172333.869848996</v>
+        <v>2004410.5274680001</v>
       </c>
       <c r="AP76" s="1"/>
       <c r="AQ76" s="1"/>
@@ -3969,10 +3967,10 @@
         <v>9375</v>
       </c>
       <c r="B77" s="1">
-        <v>10868640000</v>
+        <v>19861210000</v>
       </c>
       <c r="C77">
-        <v>173133410.861716</v>
+        <v>221738418.97236601</v>
       </c>
       <c r="D77">
         <v>415253.484597</v>
@@ -3981,7 +3979,7 @@
         <v>16610137.548025999</v>
       </c>
       <c r="F77">
-        <v>414.42951699999998</v>
+        <v>546.86214600000005</v>
       </c>
       <c r="G77">
         <v>34025306.065246999</v>
@@ -3999,10 +3997,10 @@
         <v>2062611.45</v>
       </c>
       <c r="L77">
-        <v>70173451.730000004</v>
+        <v>2012486.78</v>
       </c>
       <c r="M77">
-        <v>70172753.065676004</v>
+        <v>1997963.9332650001</v>
       </c>
       <c r="AP77" s="1"/>
       <c r="AQ77" s="1"/>
@@ -4013,10 +4011,10 @@
         <v>9500</v>
       </c>
       <c r="B78" s="1">
-        <v>10285150000</v>
+        <v>19873420000</v>
       </c>
       <c r="C78">
-        <v>172613346.409134</v>
+        <v>224412402.84659901</v>
       </c>
       <c r="D78">
         <v>415253.461649</v>
@@ -4025,7 +4023,7 @@
         <v>16610137.570974</v>
       </c>
       <c r="F78">
-        <v>413.106156</v>
+        <v>547.935339</v>
       </c>
       <c r="G78">
         <v>34025306.065246999</v>
@@ -4043,10 +4041,10 @@
         <v>2067677.91</v>
       </c>
       <c r="L78">
-        <v>70173451.730000004</v>
+        <v>2031283.53</v>
       </c>
       <c r="M78">
-        <v>70173015.063068002</v>
+        <v>2003410.0007420001</v>
       </c>
       <c r="AP78" s="1"/>
       <c r="AQ78" s="1"/>
@@ -4056,11 +4054,11 @@
       <c r="A79" s="2">
         <v>9625</v>
       </c>
-      <c r="B79">
-        <v>9706480314.1704197</v>
+      <c r="B79" s="1">
+        <v>19886650000</v>
       </c>
       <c r="C79">
-        <v>172078549.31703699</v>
+        <v>225972218.42643899</v>
       </c>
       <c r="D79">
         <v>415253.45046199998</v>
@@ -4069,7 +4067,7 @@
         <v>16610137.582162</v>
       </c>
       <c r="F79">
-        <v>411.778097</v>
+        <v>547.39213099999995</v>
       </c>
       <c r="G79">
         <v>34025306.065246999</v>
@@ -4087,10 +4085,10 @@
         <v>2070872.52</v>
       </c>
       <c r="L79">
-        <v>70173451.730000004</v>
+        <v>2044931.42</v>
       </c>
       <c r="M79">
-        <v>70173178.811436996</v>
+        <v>2013862.575165</v>
       </c>
       <c r="AP79" s="1"/>
       <c r="AQ79" s="1"/>
@@ -4100,11 +4098,11 @@
       <c r="A80" s="2">
         <v>9750</v>
       </c>
-      <c r="B80">
-        <v>9132562803.0167599</v>
+      <c r="B80" s="1">
+        <v>19900450000</v>
       </c>
       <c r="C80">
-        <v>171535410.20492399</v>
+        <v>226639341.796444</v>
       </c>
       <c r="D80">
         <v>415253.44500800001</v>
@@ -4113,7 +4111,7 @@
         <v>16610137.587616</v>
       </c>
       <c r="F80">
-        <v>410.45238999999998</v>
+        <v>545.875764</v>
       </c>
       <c r="G80">
         <v>34025306.065246999</v>
@@ -4131,10 +4129,10 @@
         <v>2072882.71</v>
       </c>
       <c r="L80">
-        <v>70173451.730000004</v>
+        <v>2054659.33</v>
       </c>
       <c r="M80">
-        <v>70173281.154167995</v>
+        <v>2025513.3928340001</v>
       </c>
       <c r="AP80" s="1"/>
       <c r="AQ80" s="1"/>
@@ -4144,11 +4142,11 @@
       <c r="A81" s="2">
         <v>9875</v>
       </c>
-      <c r="B81">
-        <v>8563344918.8439999</v>
+      <c r="B81" s="1">
+        <v>19914520000</v>
       </c>
       <c r="C81">
-        <v>170988588.51155299</v>
+        <v>226658065.27634701</v>
       </c>
       <c r="D81">
         <v>415253.44234900002</v>
@@ -4157,7 +4155,7 @@
         <v>16610137.590274001</v>
       </c>
       <c r="F81">
-        <v>409.13325200000003</v>
+        <v>543.84523200000001</v>
       </c>
       <c r="G81">
         <v>34025306.065246999</v>
@@ -4175,10 +4173,10 @@
         <v>2074145.66</v>
       </c>
       <c r="L81">
-        <v>70173451.730000004</v>
+        <v>2061493.1</v>
       </c>
       <c r="M81">
-        <v>70173345.118375003</v>
+        <v>2036443.1202400001</v>
       </c>
       <c r="AP81" s="1"/>
       <c r="AQ81" s="1"/>
@@ -4188,11 +4186,11 @@
       <c r="A82" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B82">
-        <v>7998774231.6716995</v>
+      <c r="B82" s="1">
+        <v>19928630000</v>
       </c>
       <c r="C82">
-        <v>170441289.32926399</v>
+        <v>226245834.36312199</v>
       </c>
       <c r="D82">
         <v>415253.44105299999</v>
@@ -4201,7 +4199,7 @@
         <v>16610137.591569999</v>
       </c>
       <c r="F82">
-        <v>407.82311199999998</v>
+        <v>541.59652900000003</v>
       </c>
       <c r="G82">
         <v>34025306.065246999</v>
@@ -4219,10 +4217,10 @@
         <v>2074938.21</v>
       </c>
       <c r="L82">
-        <v>70173451.730000004</v>
+        <v>2066237.81</v>
       </c>
       <c r="M82">
-        <v>70173385.096004993</v>
+        <v>2045836.8627249999</v>
       </c>
       <c r="AP82" s="1"/>
       <c r="AQ82" s="1"/>

--- a/models/dissertation-model/modelo-ithink/dados_ithink_excel_stocks.xlsx
+++ b/models/dissertation-model/modelo-ithink/dados_ithink_excel_stocks.xlsx
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>2098400.1735149999</v>
+        <v>2082554.5641409999</v>
       </c>
       <c r="C3">
         <v>50361604.164357997</v>
@@ -592,7 +592,7 @@
         <v>1417.1652730000001</v>
       </c>
       <c r="F3">
-        <v>200000</v>
+        <v>200015.51280999999</v>
       </c>
       <c r="G3">
         <v>2834.3305449999998</v>
@@ -624,19 +624,19 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>4194949.5142710004</v>
+        <v>4163265.4339620001</v>
       </c>
       <c r="C4">
-        <v>50397357.181084998</v>
+        <v>50398256.596965</v>
       </c>
       <c r="D4">
-        <v>251.986786</v>
+        <v>251.98638600000001</v>
       </c>
       <c r="E4">
         <v>1450.593001</v>
       </c>
       <c r="F4">
-        <v>200233.73006599999</v>
+        <v>200261.11073700001</v>
       </c>
       <c r="G4">
         <v>2904.1199489999999</v>
@@ -668,19 +668,19 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>6296975.3539420003</v>
+        <v>6249680.5272519998</v>
       </c>
       <c r="C5">
-        <v>50463196.551147997</v>
+        <v>50465438.491393</v>
       </c>
       <c r="D5">
-        <v>252.242063</v>
+        <v>252.24094199999999</v>
       </c>
       <c r="E5">
-        <v>1483.3690099999999</v>
+        <v>1483.3689099999999</v>
       </c>
       <c r="F5">
-        <v>200542.47461</v>
+        <v>200578.92364699999</v>
       </c>
       <c r="G5">
         <v>2975.4494840000002</v>
@@ -689,7 +689,7 @@
         <v>2046.733602</v>
       </c>
       <c r="I5">
-        <v>100188.90070699999</v>
+        <v>100188.900607</v>
       </c>
       <c r="J5">
         <v>1555.3424889999999</v>
@@ -712,19 +712,19 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>8411237.3501379993</v>
+        <v>8348664.7302249996</v>
       </c>
       <c r="C6">
-        <v>50613118.553856</v>
+        <v>50616857.664786004</v>
       </c>
       <c r="D6">
-        <v>252.83749499999999</v>
+        <v>252.83534499999999</v>
       </c>
       <c r="E6">
-        <v>1515.5260049999999</v>
+        <v>1515.525627</v>
       </c>
       <c r="F6">
-        <v>200836.161792</v>
+        <v>200879.533154</v>
       </c>
       <c r="G6">
         <v>3048.348105</v>
@@ -733,7 +733,7 @@
         <v>2073.926532</v>
       </c>
       <c r="I6">
-        <v>100251.96122300001</v>
+        <v>100251.96084299999</v>
       </c>
       <c r="J6">
         <v>1621.4018579999999</v>
@@ -756,19 +756,19 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>10560922.900150999</v>
+        <v>10483430.731086001</v>
       </c>
       <c r="C7">
-        <v>50912019.178191997</v>
+        <v>50917235.553172</v>
       </c>
       <c r="D7">
-        <v>254.11939599999999</v>
+        <v>254.11586700000001</v>
       </c>
       <c r="E7">
-        <v>1547.16192</v>
+        <v>1547.1610129999999</v>
       </c>
       <c r="F7">
-        <v>201097.47284199999</v>
+        <v>201146.11021799999</v>
       </c>
       <c r="G7">
         <v>3122.845073</v>
@@ -777,7 +777,7 @@
         <v>2106.22298</v>
       </c>
       <c r="I7">
-        <v>100315.170596</v>
+        <v>100315.169679</v>
       </c>
       <c r="J7">
         <v>1683.114163</v>
@@ -800,19 +800,19 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>12787209.539549001</v>
+        <v>12695129.147833001</v>
       </c>
       <c r="C8">
-        <v>51401834.436310999</v>
+        <v>51408408.688359</v>
       </c>
       <c r="D8">
-        <v>256.317972</v>
+        <v>256.31266599999998</v>
       </c>
       <c r="E8">
-        <v>1578.4592290000001</v>
+        <v>1578.4574580000001</v>
       </c>
       <c r="F8">
-        <v>201360.53586</v>
+        <v>201413.14037499999</v>
       </c>
       <c r="G8">
         <v>3198.9699409999998</v>
@@ -821,7 +821,7 @@
         <v>2142.4921559999998</v>
       </c>
       <c r="I8">
-        <v>100378.70044499999</v>
+        <v>100378.698646</v>
       </c>
       <c r="J8">
         <v>1744.05843</v>
@@ -844,19 +844,19 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>15142013.25598</v>
+        <v>15035618.801077999</v>
       </c>
       <c r="C9">
-        <v>52085419.925444998</v>
+        <v>52093181.624128997</v>
       </c>
       <c r="D9">
-        <v>259.45147100000003</v>
+        <v>259.44399299999998</v>
       </c>
       <c r="E9">
-        <v>1609.6541549999999</v>
+        <v>1609.6510949999999</v>
       </c>
       <c r="F9">
-        <v>201681.69364000001</v>
+        <v>201737.227232</v>
       </c>
       <c r="G9">
         <v>3276.7525500000002</v>
@@ -865,7 +865,7 @@
         <v>2181.9131299999999</v>
       </c>
       <c r="I9">
-        <v>100442.77993800001</v>
+        <v>100442.776812</v>
       </c>
       <c r="J9">
         <v>1806.5000150000001</v>
@@ -888,19 +888,19 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>17677303.219250999</v>
+        <v>17556798.516578998</v>
       </c>
       <c r="C10">
-        <v>52926800.906427003</v>
+        <v>52935558.095628001</v>
       </c>
       <c r="D10">
-        <v>263.324321</v>
+        <v>263.31434400000001</v>
       </c>
       <c r="E10">
-        <v>1640.982561</v>
+        <v>1640.977695</v>
       </c>
       <c r="F10">
-        <v>202113.17316599999</v>
+        <v>202170.79679399999</v>
       </c>
       <c r="G10">
         <v>3356.2230129999998</v>
@@ -909,7 +909,7 @@
         <v>2223.8908919999999</v>
       </c>
       <c r="I10">
-        <v>100507.642806</v>
+        <v>100507.63781</v>
       </c>
       <c r="J10">
         <v>1871.8427320000001</v>
@@ -932,19 +932,19 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>20435056.163405001</v>
+        <v>20300573.874968</v>
       </c>
       <c r="C11">
-        <v>53863136.448422998</v>
+        <v>53872690.703296997</v>
       </c>
       <c r="D11">
-        <v>267.59275700000001</v>
+        <v>267.58006599999999</v>
       </c>
       <c r="E11">
-        <v>1672.626505</v>
+        <v>1672.619246</v>
       </c>
       <c r="F11">
-        <v>202685.03435999999</v>
+        <v>202744.07354499999</v>
       </c>
       <c r="G11">
         <v>3437.4117080000001</v>
@@ -953,7 +953,7 @@
         <v>2267.9951430000001</v>
       </c>
       <c r="I11">
-        <v>100573.47388600001</v>
+        <v>100573.466396</v>
       </c>
       <c r="J11">
         <v>1940.9329720000001</v>
@@ -976,19 +976,19 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>23440414.008421998</v>
+        <v>23292022.406845</v>
       </c>
       <c r="C12">
-        <v>54822300.387505002</v>
+        <v>54832450.682957001</v>
       </c>
       <c r="D12">
-        <v>271.86384900000002</v>
+        <v>271.84832699999998</v>
       </c>
       <c r="E12">
-        <v>1704.6783089999999</v>
+        <v>1704.668028</v>
       </c>
       <c r="F12">
-        <v>203396.99268699999</v>
+        <v>203456.918687</v>
       </c>
       <c r="G12">
         <v>3520.3492630000001</v>
@@ -997,7 +997,7 @@
         <v>2313.915657</v>
       </c>
       <c r="I12">
-        <v>100640.372076</v>
+        <v>100640.36141300001</v>
       </c>
       <c r="J12">
         <v>2014.26349</v>
@@ -1020,19 +1020,19 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>26699096.205063999</v>
+        <v>26536808.768374</v>
       </c>
       <c r="C13">
-        <v>55740327.197393999</v>
+        <v>55750866.059184998</v>
       </c>
       <c r="D13">
-        <v>275.79473100000001</v>
+        <v>275.776295</v>
       </c>
       <c r="E13">
-        <v>1737.1301390000001</v>
+        <v>1737.116192</v>
       </c>
       <c r="F13">
-        <v>204219.31792199999</v>
+        <v>204279.73284899999</v>
       </c>
       <c r="G13">
         <v>3605.0665429999999</v>
@@ -1041,7 +1041,7 @@
         <v>2361.4297299999998</v>
       </c>
       <c r="I13">
-        <v>100708.338038</v>
+        <v>100708.323494</v>
       </c>
       <c r="J13">
         <v>2092.109046</v>
@@ -1064,19 +1064,19 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>30198859.12872</v>
+        <v>30022642.770507999</v>
       </c>
       <c r="C14">
-        <v>56574485.351521999</v>
+        <v>56585191.257913001</v>
       </c>
       <c r="D14">
-        <v>279.16653200000002</v>
+        <v>279.14503200000001</v>
       </c>
       <c r="E14">
-        <v>1769.8886110000001</v>
+        <v>1769.870345</v>
       </c>
       <c r="F14">
-        <v>205100.550319</v>
+        <v>205161.16805000001</v>
       </c>
       <c r="G14">
         <v>3691.594638</v>
@@ -1085,7 +1085,7 @@
         <v>2410.3784380000002</v>
       </c>
       <c r="I14">
-        <v>100777.286721</v>
+        <v>100777.267568</v>
       </c>
       <c r="J14">
         <v>2174.6158340000002</v>
@@ -1108,19 +1108,19 @@
         <v>26</v>
       </c>
       <c r="B15">
-        <v>33913944.713237002</v>
+        <v>33723723.654477999</v>
       </c>
       <c r="C15">
-        <v>57309658.679853998</v>
+        <v>57320288.770741999</v>
       </c>
       <c r="D15">
-        <v>281.91880300000003</v>
+        <v>281.89391999999998</v>
       </c>
       <c r="E15">
-        <v>1802.807564</v>
+        <v>1802.784304</v>
       </c>
       <c r="F15">
-        <v>205978.982907</v>
+        <v>206039.60268099999</v>
       </c>
       <c r="G15">
         <v>3779.9648430000002</v>
@@ -1129,7 +1129,7 @@
         <v>2460.649324</v>
       </c>
       <c r="I15">
-        <v>100847.078354</v>
+        <v>100847.053826</v>
       </c>
       <c r="J15">
         <v>2261.8596309999998</v>
@@ -1152,19 +1152,19 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>37811037.83027</v>
+        <v>37606691.850559004</v>
       </c>
       <c r="C16">
-        <v>57957590.878234997</v>
+        <v>57967877.351430997</v>
       </c>
       <c r="D16">
-        <v>284.14237900000001</v>
+        <v>284.11355600000002</v>
       </c>
       <c r="E16">
-        <v>1835.7287739999999</v>
+        <v>1835.6997779999999</v>
       </c>
       <c r="F16">
-        <v>206794.666551</v>
+        <v>206855.140751</v>
       </c>
       <c r="G16">
         <v>3870.20865</v>
@@ -1173,7 +1173,7 @@
         <v>2512.1637639999999</v>
       </c>
       <c r="I16">
-        <v>100917.55805399999</v>
+        <v>100917.527306</v>
       </c>
       <c r="J16">
         <v>2353.8829270000001</v>
@@ -1196,19 +1196,19 @@
         <v>28</v>
       </c>
       <c r="B17">
-        <v>41855207.695235997</v>
+        <v>41636565.369365998</v>
       </c>
       <c r="C17">
-        <v>58550219.632656001</v>
+        <v>58559871.646394998</v>
       </c>
       <c r="D17">
-        <v>286.03915999999998</v>
+        <v>286.00558699999999</v>
       </c>
       <c r="E17">
-        <v>1868.5200199999999</v>
+        <v>1868.484422</v>
       </c>
       <c r="F17">
-        <v>207499.114229</v>
+        <v>207559.314958</v>
       </c>
       <c r="G17">
         <v>3962.35772</v>
@@ -1217,7 +1217,7 @@
         <v>2564.8677520000001</v>
       </c>
       <c r="I17">
-        <v>100988.593649</v>
+        <v>100988.555695</v>
       </c>
       <c r="J17">
         <v>2450.7179980000001</v>
@@ -1240,19 +1240,19 @@
         <v>10000</v>
       </c>
       <c r="B18">
-        <v>46014585.839888997</v>
+        <v>45781414.835864998</v>
       </c>
       <c r="C18">
-        <v>59129572.938575998</v>
+        <v>59138283.721589997</v>
       </c>
       <c r="D18">
-        <v>287.86418099999997</v>
+        <v>287.82482099999999</v>
       </c>
       <c r="E18">
-        <v>1901.1023090000001</v>
+        <v>1901.05906</v>
       </c>
       <c r="F18">
-        <v>208060.865942</v>
+        <v>208120.65599900001</v>
       </c>
       <c r="G18">
         <v>4056.4438770000002</v>
@@ -1261,7 +1261,7 @@
         <v>2618.7251740000002</v>
       </c>
       <c r="I18">
-        <v>101060.103439</v>
+        <v>101060.057092</v>
       </c>
       <c r="J18">
         <v>2552.4007040000001</v>
@@ -1284,19 +1284,19 @@
         <v>10625</v>
       </c>
       <c r="B19">
-        <v>50263047.050094999</v>
+        <v>50015044.200492002</v>
       </c>
       <c r="C19">
-        <v>59737198.253422</v>
+        <v>59744655.188400999</v>
       </c>
       <c r="D19">
-        <v>289.866964</v>
+        <v>289.82063299999999</v>
       </c>
       <c r="E19">
-        <v>1933.4620560000001</v>
+        <v>1933.409868</v>
       </c>
       <c r="F19">
-        <v>208466.40053799999</v>
+        <v>208525.61352099999</v>
       </c>
       <c r="G19">
         <v>4152.4990770000004</v>
@@ -1305,7 +1305,7 @@
         <v>2673.7129020000002</v>
       </c>
       <c r="I19">
-        <v>101132.06948400001</v>
+        <v>101132.013297</v>
       </c>
       <c r="J19">
         <v>2658.9782500000001</v>
@@ -1328,19 +1328,19 @@
         <v>11250</v>
       </c>
       <c r="B20">
-        <v>54580765.995998003</v>
+        <v>54317549.540733002</v>
       </c>
       <c r="C20">
-        <v>60405717.731271997</v>
+        <v>60411612.105637997</v>
       </c>
       <c r="D20">
-        <v>292.245949</v>
+        <v>292.191394</v>
       </c>
       <c r="E20">
-        <v>1965.648338</v>
+        <v>1965.585654</v>
       </c>
       <c r="F20">
-        <v>208717.15725300001</v>
+        <v>208775.58923899999</v>
       </c>
       <c r="G20">
         <v>4250.5553989999999</v>
@@ -1349,7 +1349,7 @@
         <v>2729.8172039999999</v>
       </c>
       <c r="I20">
-        <v>101204.536225</v>
+        <v>101204.468456</v>
       </c>
       <c r="J20">
         <v>2770.5130829999998</v>
@@ -1372,19 +1372,19 @@
         <v>11875</v>
       </c>
       <c r="B21">
-        <v>58953049.596720003</v>
+        <v>58674154.969966002</v>
       </c>
       <c r="C21">
-        <v>61154081.563116997</v>
+        <v>61158114.712545998</v>
       </c>
       <c r="D21">
-        <v>295.12356299999999</v>
+        <v>295.05953599999998</v>
       </c>
       <c r="E21">
-        <v>1997.758818</v>
+        <v>1997.683802</v>
       </c>
       <c r="F21">
-        <v>208842.48001299999</v>
+        <v>208899.89731100001</v>
       </c>
       <c r="G21">
         <v>4350.6450130000003</v>
@@ -1393,7 +1393,7 @@
         <v>2787.0311230000002</v>
       </c>
       <c r="I21">
-        <v>101277.597713</v>
+        <v>101277.516304</v>
       </c>
       <c r="J21">
         <v>2882.3974929999999</v>
@@ -1416,19 +1416,19 @@
         <v>12500</v>
       </c>
       <c r="B22">
-        <v>63368165.435929999</v>
+        <v>63073044.667332999</v>
       </c>
       <c r="C22">
-        <v>61981326.405500002</v>
+        <v>61983206.816358</v>
       </c>
       <c r="D22">
-        <v>298.50975599999998</v>
+        <v>298.43504799999999</v>
       </c>
       <c r="E22">
-        <v>2029.919733</v>
+        <v>2029.830273</v>
       </c>
       <c r="F22">
-        <v>208861.39039099999</v>
+        <v>208917.536525</v>
       </c>
       <c r="G22">
         <v>4452.8001670000003</v>
@@ -1437,7 +1437,7 @@
         <v>2845.3525639999998</v>
       </c>
       <c r="I22">
-        <v>101351.378603</v>
+        <v>101351.28118799999</v>
       </c>
       <c r="J22">
         <v>2991.9745119999998</v>
@@ -1460,19 +1460,19 @@
         <v>13125</v>
       </c>
       <c r="B23">
-        <v>67813917.372163996</v>
+        <v>67501941.287453994</v>
       </c>
       <c r="C23">
-        <v>62874564.330917001</v>
+        <v>62874001.558775</v>
       </c>
       <c r="D23">
-        <v>302.34856400000001</v>
+        <v>302.262001</v>
       </c>
       <c r="E23">
-        <v>2062.2571779999998</v>
+        <v>2062.150905</v>
       </c>
       <c r="F23">
-        <v>208783.596846</v>
+        <v>208838.20666</v>
       </c>
       <c r="G23">
         <v>4557.0531570000003</v>
@@ -1481,7 +1481,7 @@
         <v>2904.7828869999998</v>
       </c>
       <c r="I23">
-        <v>101426.00604199999</v>
+        <v>101425.88995</v>
       </c>
       <c r="J23">
         <v>3097.9199229999999</v>
@@ -1504,19 +1504,19 @@
         <v>13750</v>
       </c>
       <c r="B24">
-        <v>72276773.531802997</v>
+        <v>71947235.250542998</v>
       </c>
       <c r="C24">
-        <v>63816755.888479002</v>
+        <v>63813449.838535003</v>
       </c>
       <c r="D24">
-        <v>306.56095199999999</v>
+        <v>306.46135299999997</v>
       </c>
       <c r="E24">
-        <v>2094.8806279999999</v>
+        <v>2094.7549279999998</v>
       </c>
       <c r="F24">
-        <v>208613.653012</v>
+        <v>208666.46719</v>
       </c>
       <c r="G24">
         <v>4663.4363030000004</v>
@@ -1525,7 +1525,7 @@
         <v>2965.3258740000001</v>
       </c>
       <c r="I24">
-        <v>101501.593183</v>
+        <v>101501.455451</v>
       </c>
       <c r="J24">
         <v>3199.7767829999998</v>
@@ -1548,19 +1548,19 @@
         <v>14375</v>
       </c>
       <c r="B25">
-        <v>76742513.258579001</v>
+        <v>76394630.834877998</v>
       </c>
       <c r="C25">
-        <v>64792326.452154003</v>
+        <v>64785953.146682002</v>
       </c>
       <c r="D25">
-        <v>311.074365</v>
+        <v>310.960465</v>
       </c>
       <c r="E25">
-        <v>2127.8775190000001</v>
+        <v>2127.729538</v>
       </c>
       <c r="F25">
-        <v>208355.475045</v>
+        <v>208406.24962799999</v>
       </c>
       <c r="G25">
         <v>4771.9819269999998</v>
@@ -1569,7 +1569,7 @@
         <v>3026.986973</v>
       </c>
       <c r="I25">
-        <v>101578.233422</v>
+        <v>101578.070789</v>
       </c>
       <c r="J25">
         <v>3297.6203369999998</v>
@@ -1592,19 +1592,19 @@
         <v>15000</v>
       </c>
       <c r="B26">
-        <v>81197548.318715006</v>
+        <v>80830464.770644993</v>
       </c>
       <c r="C26">
-        <v>65789994.514853001</v>
+        <v>65780191.345100001</v>
       </c>
       <c r="D26">
-        <v>315.83660099999997</v>
+        <v>315.70696600000002</v>
       </c>
       <c r="E26">
-        <v>2161.315329</v>
+        <v>2161.1419559999999</v>
       </c>
       <c r="F26">
-        <v>208015.62435699999</v>
+        <v>208064.13288799999</v>
       </c>
       <c r="G26">
         <v>4882.7223199999999</v>
@@ -1613,7 +1613,7 @@
         <v>3089.7727399999999</v>
       </c>
       <c r="I26">
-        <v>101656.002013</v>
+        <v>101655.81090500001</v>
       </c>
       <c r="J26">
         <v>3391.8263969999998</v>
@@ -1636,19 +1636,19 @@
         <v>15625</v>
       </c>
       <c r="B27">
-        <v>85630269.942512006</v>
+        <v>85243049.911899999</v>
       </c>
       <c r="C27">
-        <v>66803185.572103001</v>
+        <v>66789539.468998998</v>
       </c>
       <c r="D27">
-        <v>320.81676900000002</v>
+        <v>320.66972399999997</v>
       </c>
       <c r="E27">
-        <v>2195.247077</v>
+        <v>2195.044907</v>
       </c>
       <c r="F27">
-        <v>207604.75132099999</v>
+        <v>207650.78034100001</v>
       </c>
       <c r="G27">
         <v>4995.6897200000003</v>
@@ -1657,7 +1657,7 @@
         <v>3153.6904159999999</v>
       </c>
       <c r="I27">
-        <v>101734.961163</v>
+        <v>101734.737647</v>
       </c>
       <c r="J27">
         <v>3482.917512</v>
@@ -1680,19 +1680,19 @@
         <v>16250</v>
       </c>
       <c r="B28">
-        <v>90032006.958593994</v>
+        <v>89623630.321384996</v>
       </c>
       <c r="C28">
-        <v>67828941.377058998</v>
+        <v>67810982.376350999</v>
       </c>
       <c r="D28">
-        <v>325.99863900000003</v>
+        <v>325.83222899999998</v>
       </c>
       <c r="E28">
-        <v>2229.7169549999999</v>
+        <v>2229.4822349999999</v>
       </c>
       <c r="F28">
-        <v>207137.332788</v>
+        <v>207180.67344099999</v>
       </c>
       <c r="G28">
         <v>5110.9162740000002</v>
@@ -1701,7 +1701,7 @@
         <v>3218.7476270000002</v>
       </c>
       <c r="I28">
-        <v>101815.165355</v>
+        <v>101814.905078</v>
       </c>
       <c r="J28">
         <v>3571.465193</v>
@@ -1724,19 +1724,19 @@
         <v>16875</v>
       </c>
       <c r="B29">
-        <v>94397421.957846001</v>
+        <v>93966775.467565998</v>
       </c>
       <c r="C29">
-        <v>68866310.116662994</v>
+        <v>68843511.044946</v>
       </c>
       <c r="D29">
-        <v>331.37179800000001</v>
+        <v>331.183785</v>
       </c>
       <c r="E29">
-        <v>2264.7641779999999</v>
+        <v>2264.4927459999999</v>
       </c>
       <c r="F29">
-        <v>206630.261271</v>
+        <v>206670.70028799999</v>
       </c>
       <c r="G29">
         <v>5228.4340160000002</v>
@@ -1745,7 +1745,7 @@
         <v>3284.952139</v>
       </c>
       <c r="I29">
-        <v>101896.66501500001</v>
+        <v>101896.36313500001</v>
       </c>
       <c r="J29">
         <v>3658.0311200000001</v>
@@ -1768,19 +1768,19 @@
         <v>17500</v>
       </c>
       <c r="B30">
-        <v>98724374.295991004</v>
+        <v>98270242.606784001</v>
       </c>
       <c r="C30">
-        <v>69914960.388315007</v>
+        <v>69886741.637416005</v>
       </c>
       <c r="D30">
-        <v>336.924555</v>
+        <v>336.712446</v>
       </c>
       <c r="E30">
-        <v>2300.42454</v>
+        <v>2300.1117599999998</v>
       </c>
       <c r="F30">
-        <v>206100.964916</v>
+        <v>206138.27762099999</v>
       </c>
       <c r="G30">
         <v>5348.2748279999996</v>
@@ -1789,7 +1789,7 @@
         <v>3352.3116879999998</v>
       </c>
       <c r="I30">
-        <v>101979.507964</v>
+        <v>101979.15908100001</v>
       </c>
       <c r="J30">
         <v>3743.1345729999998</v>
@@ -1812,19 +1812,19 @@
         <v>18125</v>
       </c>
       <c r="B31">
-        <v>103013406.099126</v>
+        <v>102534463.315631</v>
       </c>
       <c r="C31">
-        <v>70974391.752349004</v>
+        <v>70940128.940303996</v>
       </c>
       <c r="D31">
-        <v>342.64045499999997</v>
+        <v>342.40154799999999</v>
       </c>
       <c r="E31">
-        <v>2336.730168</v>
+        <v>2336.3708769999998</v>
       </c>
       <c r="F31">
-        <v>205565.63661099999</v>
+        <v>205599.583251</v>
       </c>
       <c r="G31">
         <v>5470.4704099999999</v>
@@ -1833,7 +1833,7 @@
         <v>3420.8338389999999</v>
       </c>
       <c r="I31">
-        <v>102063.739103</v>
+        <v>102063.337193</v>
       </c>
       <c r="J31">
         <v>3827.236883</v>
@@ -1856,19 +1856,19 @@
         <v>18750</v>
       </c>
       <c r="B32">
-        <v>107267052.475898</v>
+        <v>106761854.89101</v>
       </c>
       <c r="C32">
-        <v>72043776.702408999</v>
+        <v>72002808.685606003</v>
       </c>
       <c r="D32">
-        <v>348.49847199999999</v>
+        <v>348.22990700000003</v>
       </c>
       <c r="E32">
-        <v>2373.7084030000001</v>
+        <v>2373.2968700000001</v>
       </c>
       <c r="F32">
-        <v>205037.93884700001</v>
+        <v>205068.26431900001</v>
       </c>
       <c r="G32">
         <v>5595.0522430000001</v>
@@ -1877,7 +1877,7 @@
         <v>3490.5258749999998</v>
       </c>
       <c r="I32">
-        <v>102149.399217</v>
+        <v>102148.93758</v>
       </c>
       <c r="J32">
         <v>3910.7365180000002</v>
@@ -1902,19 +1902,19 @@
         <v>19375</v>
       </c>
       <c r="B33">
-        <v>111489155.96482199</v>
+        <v>110956136.089421</v>
       </c>
       <c r="C33">
-        <v>73122250.855427995</v>
+        <v>73073885.968842</v>
       </c>
       <c r="D33">
-        <v>354.47573799999998</v>
+        <v>354.174531</v>
       </c>
       <c r="E33">
-        <v>2411.3807619999998</v>
+        <v>2410.9106619999998</v>
       </c>
       <c r="F33">
-        <v>204528.32544399999</v>
+        <v>204554.76153600001</v>
       </c>
       <c r="G33">
         <v>5722.0515530000002</v>
@@ -1923,7 +1923,7 @@
         <v>3561.3947159999998</v>
       </c>
       <c r="I33">
-        <v>102236.523835</v>
+        <v>102235.99505699999</v>
       </c>
       <c r="J33">
         <v>3993.9704390000002</v>
@@ -1948,19 +1948,19 @@
         <v>20000</v>
       </c>
       <c r="B34">
-        <v>115684306.09092601</v>
+        <v>115121767.628289</v>
       </c>
       <c r="C34">
-        <v>74209387.105912998</v>
+        <v>74152906.374552995</v>
       </c>
       <c r="D34">
-        <v>360.55126200000001</v>
+        <v>360.21433300000001</v>
       </c>
       <c r="E34">
-        <v>2449.7625979999998</v>
+        <v>2449.2269900000001</v>
       </c>
       <c r="F34">
-        <v>204043.942542</v>
+        <v>204066.2114</v>
       </c>
       <c r="G34">
         <v>5851.4992769999999</v>
@@ -1969,7 +1969,7 @@
         <v>3633.4468409999999</v>
       </c>
       <c r="I34">
-        <v>102325.142769</v>
+        <v>102324.53869</v>
       </c>
       <c r="J34">
         <v>4077.2188639999999</v>
@@ -1994,19 +1994,19 @@
         <v>20625</v>
       </c>
       <c r="B35">
-        <v>119857456.056455</v>
+        <v>119263569.22448</v>
       </c>
       <c r="C35">
-        <v>75305616.154824004</v>
+        <v>75240273.197334006</v>
       </c>
       <c r="D35">
-        <v>366.70925199999999</v>
+        <v>366.33342499999998</v>
       </c>
       <c r="E35">
-        <v>2488.8636919999999</v>
+        <v>2488.2550110000002</v>
       </c>
       <c r="F35">
-        <v>203588.96350000001</v>
+        <v>203606.78110600001</v>
       </c>
       <c r="G35">
         <v>5983.4260180000001</v>
@@ -2015,7 +2015,7 @@
         <v>3706.6882300000002</v>
       </c>
       <c r="I35">
-        <v>102415.28058399999</v>
+        <v>102414.592273</v>
       </c>
       <c r="J35">
         <v>4160.7116150000002</v>
@@ -2040,19 +2040,19 @@
         <v>21250</v>
       </c>
       <c r="B36">
-        <v>124013710.675595</v>
+        <v>123386507.24624</v>
       </c>
       <c r="C36">
-        <v>76412442.529073</v>
+        <v>76337460.686106995</v>
       </c>
       <c r="D36">
-        <v>372.94112799999999</v>
+        <v>372.52311800000001</v>
       </c>
       <c r="E36">
-        <v>2528.6896780000002</v>
+        <v>2527.9997210000001</v>
       </c>
       <c r="F36">
-        <v>203165.173132</v>
+        <v>203178.25191399999</v>
       </c>
       <c r="G36">
         <v>6117.8620110000002</v>
@@ -2061,7 +2061,7 @@
         <v>3781.124311</v>
       </c>
       <c r="I36">
-        <v>102506.957897</v>
+        <v>102506.175629</v>
       </c>
       <c r="J36">
         <v>4244.6349019999998</v>
@@ -2086,19 +2086,19 @@
         <v>21875</v>
       </c>
       <c r="B37">
-        <v>128158243.113625</v>
+        <v>127495610.674521</v>
       </c>
       <c r="C37" s="1">
-        <v>77532406.619280994</v>
+        <v>77446974.326979995</v>
       </c>
       <c r="D37">
-        <v>379.24591199999998</v>
+        <v>378.78230100000002</v>
       </c>
       <c r="E37">
-        <v>2569.2439250000002</v>
+        <v>2568.463839</v>
       </c>
       <c r="F37">
-        <v>202772.62930599999</v>
+        <v>202780.679485</v>
       </c>
       <c r="G37">
         <v>6254.8370770000001</v>
@@ -2107,7 +2107,7 @@
         <v>3856.759912</v>
       </c>
       <c r="I37">
-        <v>102600.19317899999</v>
+        <v>102599.306408</v>
       </c>
       <c r="J37">
         <v>4329.137909</v>
@@ -2132,19 +2132,19 @@
         <v>22500</v>
       </c>
       <c r="B38">
-        <v>132296284.23540901</v>
+        <v>131595959.40667599</v>
       </c>
       <c r="C38" s="1">
-        <v>78668827.323721007</v>
+        <v>78572092.882320002</v>
       </c>
       <c r="D38">
-        <v>385.62916799999999</v>
+        <v>385.11638099999999</v>
       </c>
       <c r="E38">
-        <v>2610.5294880000001</v>
+        <v>2609.6497509999999</v>
       </c>
       <c r="F38">
-        <v>202410.27302399999</v>
+        <v>202413.00273599999</v>
       </c>
       <c r="G38">
         <v>6394.3805830000001</v>
@@ -2153,7 +2153,7 @@
         <v>3933.5992209999999</v>
       </c>
       <c r="I38">
-        <v>102695.00465800001</v>
+        <v>102694.00198299999</v>
       </c>
       <c r="J38">
         <v>4414.3388150000001</v>
@@ -2180,19 +2180,19 @@
         <v>23125</v>
       </c>
       <c r="B39">
-        <v>136433132.84377599</v>
+        <v>135692693.42482099</v>
       </c>
       <c r="C39" s="1">
-        <v>79825410.626958996</v>
+        <v>79716477.347238004</v>
       </c>
       <c r="D39">
-        <v>392.10099300000002</v>
+        <v>391.53527100000002</v>
       </c>
       <c r="E39">
-        <v>2652.550749</v>
+        <v>2651.5611429999999</v>
       </c>
       <c r="F39">
-        <v>202076.41214900001</v>
+        <v>202073.52669100001</v>
       </c>
       <c r="G39">
         <v>6536.5213979999999</v>
@@ -2201,7 +2201,7 @@
         <v>4011.6457409999998</v>
       </c>
       <c r="I39">
-        <v>102791.41194999999</v>
+        <v>102790.28107899999</v>
       </c>
       <c r="J39">
         <v>4500.3301099999999</v>
@@ -2228,19 +2228,19 @@
         <v>23750</v>
       </c>
       <c r="B40">
-        <v>140574150.52441001</v>
+        <v>139791006.739638</v>
       </c>
       <c r="C40" s="1">
-        <v>81005824.716790006</v>
+        <v>80883747.077203006</v>
       </c>
       <c r="D40">
-        <v>398.67363699999999</v>
+        <v>398.05102199999999</v>
       </c>
       <c r="E40">
-        <v>2695.3145239999999</v>
+        <v>2694.2041039999999</v>
       </c>
       <c r="F40">
-        <v>201769.05398</v>
+        <v>201760.25465399999</v>
       </c>
       <c r="G40">
         <v>6681.2878440000004</v>
@@ -2249,7 +2249,7 @@
         <v>4090.9022580000001</v>
       </c>
       <c r="I40">
-        <v>102889.437198</v>
+        <v>102888.164896</v>
       </c>
       <c r="J40">
         <v>4587.1831560000001</v>
@@ -2280,19 +2280,19 @@
         <v>24375</v>
       </c>
       <c r="B41">
-        <v>144724723.89100301</v>
+        <v>143896109.015735</v>
       </c>
       <c r="C41" s="1">
-        <v>82213329.151356995</v>
+        <v>82077110.192965001</v>
       </c>
       <c r="D41">
-        <v>405.35930000000002</v>
+        <v>404.67562199999998</v>
       </c>
       <c r="E41">
-        <v>2738.830547</v>
+        <v>2737.5876069999999</v>
       </c>
       <c r="F41">
-        <v>201486.09933200001</v>
+        <v>201471.08235099999</v>
       </c>
       <c r="G41">
         <v>6828.7076559999996</v>
@@ -2301,7 +2301,7 @@
         <v>4171.3708020000004</v>
       </c>
       <c r="I41">
-        <v>102989.105607</v>
+        <v>102987.677652</v>
       </c>
       <c r="J41">
         <v>4674.9520279999997</v>
@@ -2332,19 +2332,19 @@
         <v>25000</v>
       </c>
       <c r="B42">
-        <v>148890194.05421799</v>
+        <v>148013154.72623199</v>
       </c>
       <c r="C42" s="1">
-        <v>83450515.563005999</v>
+        <v>83299105.395245999</v>
       </c>
       <c r="D42">
-        <v>412.16846800000002</v>
+        <v>411.41933899999998</v>
       </c>
       <c r="E42">
-        <v>2783.111402</v>
+        <v>2781.723438</v>
       </c>
       <c r="F42">
-        <v>201225.43230799999</v>
+        <v>201203.88808800001</v>
       </c>
       <c r="G42">
         <v>6978.8079289999996</v>
@@ -2353,7 +2353,7 @@
         <v>4253.0526099999997</v>
       </c>
       <c r="I42">
-        <v>103090.44543199999</v>
+        <v>103088.846558</v>
       </c>
       <c r="J42">
         <v>4763.6766980000002</v>
@@ -2384,19 +2384,19 @@
         <v>25625</v>
       </c>
       <c r="B43">
-        <v>153075764.77692699</v>
+        <v>152147151.250449</v>
       </c>
       <c r="C43" s="1">
-        <v>84719182.136331007</v>
+        <v>84551477.193215996</v>
       </c>
       <c r="D43">
-        <v>419.108947</v>
+        <v>418.28976</v>
       </c>
       <c r="E43">
-        <v>2828.1720319999999</v>
+        <v>2826.6257009999999</v>
       </c>
       <c r="F43">
-        <v>200984.94673200001</v>
+        <v>200956.55972300001</v>
       </c>
       <c r="G43">
         <v>7131.6150719999996</v>
@@ -2405,7 +2405,7 @@
         <v>4335.9480960000001</v>
       </c>
       <c r="I43">
-        <v>103193.487549</v>
+        <v>103191.701392</v>
       </c>
       <c r="J43">
         <v>4853.3856450000003</v>
@@ -2436,19 +2436,19 @@
         <v>26250</v>
       </c>
       <c r="B44">
-        <v>157286405.98218599</v>
+        <v>156302862.48829699</v>
       </c>
       <c r="C44" s="1">
-        <v>86020332.933743998</v>
+        <v>85835175.532394007</v>
       </c>
       <c r="D44">
-        <v>426.18559099999999</v>
+        <v>425.29152099999999</v>
       </c>
       <c r="E44">
-        <v>2874.0290180000002</v>
+        <v>2872.310105</v>
       </c>
       <c r="F44">
-        <v>200762.545939</v>
+        <v>200726.994978</v>
       </c>
       <c r="G44">
         <v>7287.1547559999999</v>
@@ -2457,7 +2457,7 @@
         <v>4420.0568160000003</v>
       </c>
       <c r="I44">
-        <v>103298.264786</v>
+        <v>103296.27383200001</v>
       </c>
       <c r="J44">
         <v>4944.0979699999998</v>
@@ -2488,19 +2488,19 @@
         <v>26875</v>
       </c>
       <c r="B45">
-        <v>161526768.78275901</v>
+        <v>160484724.05480301</v>
       </c>
       <c r="C45" s="1">
-        <v>87354271.718923002</v>
+        <v>87150449.515983</v>
       </c>
       <c r="D45">
-        <v>433.40056199999998</v>
+        <v>432.42656399999998</v>
       </c>
       <c r="E45">
-        <v>2920.699811</v>
+        <v>2918.7931920000001</v>
       </c>
       <c r="F45">
-        <v>200556.14204999999</v>
+        <v>200513.10109000001</v>
       </c>
       <c r="G45">
         <v>7445.451865</v>
@@ -2509,7 +2509,7 @@
         <v>4505.3774329999997</v>
       </c>
       <c r="I45">
-        <v>103404.81118400001</v>
+        <v>103402.59671300001</v>
       </c>
       <c r="J45">
         <v>5035.8250950000001</v>
@@ -2540,19 +2540,19 @@
         <v>27500</v>
       </c>
       <c r="B46" s="1">
-        <v>165801123.78727001</v>
+        <v>164696781.71897101</v>
       </c>
       <c r="C46" s="1">
-        <v>88720750.170863003</v>
+        <v>88496995.246224001</v>
       </c>
       <c r="D46">
-        <v>440.753916</v>
+        <v>439.69471900000002</v>
       </c>
       <c r="E46">
-        <v>2968.2020389999998</v>
+        <v>2966.091641</v>
       </c>
       <c r="F46">
-        <v>200363.66836800001</v>
+        <v>200312.80737900001</v>
       </c>
       <c r="G46">
         <v>7606.530444</v>
@@ -2561,7 +2561,7 @@
         <v>4591.9076869999999</v>
       </c>
       <c r="I46">
-        <v>103513.16132499999</v>
+        <v>103510.703354</v>
       </c>
       <c r="J46">
         <v>5128.5721210000002</v>
@@ -2592,19 +2592,19 @@
         <v>28125</v>
       </c>
       <c r="B47" s="1">
-        <v>170113328.23253101</v>
+        <v>168942658.57772201</v>
       </c>
       <c r="C47" s="1">
-        <v>90119131.191064</v>
+        <v>89874118.659743994</v>
       </c>
       <c r="D47">
-        <v>448.24429900000001</v>
+        <v>447.094402</v>
       </c>
       <c r="E47">
-        <v>3016.5529759999999</v>
+        <v>3014.2217449999998</v>
       </c>
       <c r="F47">
-        <v>200183.10760399999</v>
+        <v>200124.093437</v>
       </c>
       <c r="G47">
         <v>7770.4136449999996</v>
@@ -2613,7 +2613,7 @@
         <v>4679.6443630000003</v>
       </c>
       <c r="I47">
-        <v>103623.349803</v>
+        <v>103620.627033</v>
       </c>
       <c r="J47">
         <v>5222.3389029999998</v>
@@ -2644,19 +2644,19 @@
         <v>28750</v>
       </c>
       <c r="B48" s="1">
-        <v>174466821.39672199</v>
+        <v>173225550.398866</v>
       </c>
       <c r="C48" s="1">
-        <v>91548536.368238002</v>
+        <v>91280882.580562994</v>
       </c>
       <c r="D48">
-        <v>455.86958700000002</v>
+        <v>454.62324599999999</v>
       </c>
       <c r="E48">
-        <v>3065.7691970000001</v>
+        <v>3063.199059</v>
       </c>
       <c r="F48">
-        <v>200012.53106099999</v>
+        <v>199945.02812999999</v>
       </c>
       <c r="G48">
         <v>7937.1236710000003</v>
@@ -2665,7 +2665,7 @@
         <v>4768.5832600000003</v>
       </c>
       <c r="I48">
-        <v>103735.410878</v>
+        <v>103732.40063400001</v>
       </c>
       <c r="J48">
         <v>5317.1208969999998</v>
@@ -2696,19 +2696,19 @@
         <v>29375</v>
       </c>
       <c r="B49" s="1">
-        <v>178864643.099967</v>
+        <v>177548243.95297199</v>
       </c>
       <c r="C49" s="1">
-        <v>93007958.813372001</v>
+        <v>92716219.314844996</v>
       </c>
       <c r="D49">
-        <v>463.62734599999999</v>
+        <v>462.27856500000001</v>
       </c>
       <c r="E49">
-        <v>3115.8664020000001</v>
+        <v>3113.0382239999999</v>
       </c>
       <c r="F49">
-        <v>199850.140411</v>
+        <v>199773.81109500001</v>
       </c>
       <c r="G49">
         <v>8106.6817259999998</v>
@@ -2717,7 +2717,7 @@
         <v>4858.7191579999999</v>
       </c>
       <c r="I49">
-        <v>103849.378275</v>
+        <v>103846.05644499999</v>
       </c>
       <c r="J49">
         <v>5412.9098260000001</v>
@@ -2748,19 +2748,19 @@
         <v>30000</v>
       </c>
       <c r="B50" s="1">
-        <v>183309467.54330701</v>
+        <v>181913150.62151599</v>
       </c>
       <c r="C50" s="1">
-        <v>94496334.987336993</v>
+        <v>94179002.455916002</v>
       </c>
       <c r="D50">
-        <v>471.51509800000002</v>
+        <v>470.057614</v>
       </c>
       <c r="E50">
-        <v>3166.8593550000001</v>
+        <v>3163.7529020000002</v>
       </c>
       <c r="F50">
-        <v>199694.30355499999</v>
+        <v>199608.80833299999</v>
       </c>
       <c r="G50">
         <v>8279.1079570000002</v>
@@ -2769,7 +2769,7 @@
         <v>4950.0457919999999</v>
       </c>
       <c r="I50">
-        <v>103965.285112</v>
+        <v>103961.626087</v>
       </c>
       <c r="J50">
         <v>5509.6941999999999</v>
@@ -2800,19 +2800,19 @@
         <v>30625</v>
       </c>
       <c r="B51" s="1">
-        <v>187803644.286432</v>
+        <v>186322347.12723401</v>
       </c>
       <c r="C51">
-        <v>96012579.196126997</v>
+        <v>95668081.558073997</v>
       </c>
       <c r="D51">
-        <v>479.53039000000001</v>
+        <v>477.95766500000002</v>
       </c>
       <c r="E51">
-        <v>3218.7618929999999</v>
+        <v>3215.355787</v>
       </c>
       <c r="F51">
-        <v>199543.57845599999</v>
+        <v>199448.57580799999</v>
       </c>
       <c r="G51">
         <v>8454.4213980000004</v>
@@ -2821,7 +2821,7 @@
         <v>5042.5558179999998</v>
       </c>
       <c r="I51">
-        <v>104083.16388599999</v>
+        <v>104079.14049000001</v>
       </c>
       <c r="J51">
         <v>5607.4597130000002</v>
@@ -2852,19 +2852,19 @@
         <v>31250</v>
       </c>
       <c r="B52" s="1">
-        <v>192349239.37227499</v>
+        <v>190777616.436524</v>
       </c>
       <c r="C52">
-        <v>97555590.716766</v>
+        <v>97182289.579289004</v>
       </c>
       <c r="D52">
-        <v>487.67073599999998</v>
+        <v>485.97594500000002</v>
       </c>
       <c r="E52">
-        <v>3271.5869510000002</v>
+        <v>3267.858624</v>
       </c>
       <c r="F52">
-        <v>199396.72214500001</v>
+        <v>199291.86832899999</v>
       </c>
       <c r="G52">
         <v>8632.6399110000002</v>
@@ -2873,7 +2873,7 @@
         <v>5136.2407890000004</v>
       </c>
       <c r="I52">
-        <v>104203.04648400001</v>
+        <v>104198.629906</v>
       </c>
       <c r="J52">
         <v>5706.1895640000002</v>
@@ -2902,19 +2902,19 @@
         <v>31875</v>
       </c>
       <c r="B53" s="1">
-        <v>196948071.79014</v>
+        <v>195280484.05433801</v>
       </c>
       <c r="C53">
-        <v>99124245.808704004</v>
+        <v>98720435.262439996</v>
       </c>
       <c r="D53">
-        <v>495.933491</v>
+        <v>494.10951599999999</v>
       </c>
       <c r="E53">
-        <v>3325.3465740000001</v>
+        <v>3321.2722220000001</v>
       </c>
       <c r="F53">
-        <v>199252.685482</v>
+        <v>199137.634254</v>
       </c>
       <c r="G53">
         <v>8813.7801330000002</v>
@@ -2923,7 +2923,7 @@
         <v>5231.0911260000003</v>
       </c>
       <c r="I53">
-        <v>104324.96416800001</v>
+        <v>104320.123892</v>
       </c>
       <c r="J53">
         <v>5805.8646909999998</v>
@@ -2952,19 +2952,19 @@
         <v>32500</v>
       </c>
       <c r="B54" s="1">
-        <v>201601742.922214</v>
+        <v>199832247.367901</v>
       </c>
       <c r="C54">
-        <v>100717385.83582599</v>
+        <v>100281291.597279</v>
       </c>
       <c r="D54">
-        <v>504.315719</v>
+        <v>502.35514499999999</v>
       </c>
       <c r="E54">
-        <v>3380.0518929999998</v>
+        <v>3375.6064299999998</v>
       </c>
       <c r="F54">
-        <v>199110.59667500001</v>
+        <v>198984.999056</v>
       </c>
       <c r="G54">
         <v>8997.8574150000004</v>
@@ -2973,7 +2973,7 @@
         <v>5327.0960880000002</v>
       </c>
       <c r="I54">
-        <v>104448.94753999999</v>
+        <v>104443.651271</v>
       </c>
       <c r="J54">
         <v>5906.4639580000003</v>
@@ -3002,19 +3002,19 @@
         <v>33125</v>
       </c>
       <c r="B55" s="1">
-        <v>206311658.76913801</v>
+        <v>204433997.82997799</v>
       </c>
       <c r="C55">
-        <v>102333809.562521</v>
+        <v>101863588.36509</v>
       </c>
       <c r="D55">
-        <v>512.81410800000003</v>
+        <v>510.70921800000002</v>
       </c>
       <c r="E55">
-        <v>3435.7130750000001</v>
+        <v>3430.8700819999999</v>
       </c>
       <c r="F55">
-        <v>198969.73789700001</v>
+        <v>198833.24201399999</v>
       </c>
       <c r="G55">
         <v>9184.8857650000009</v>
@@ -3023,7 +3023,7 @@
         <v>5424.2437529999997</v>
       </c>
       <c r="I55">
-        <v>104575.02647</v>
+        <v>104569.240058</v>
       </c>
       <c r="J55">
         <v>6007.9642970000004</v>
@@ -3052,19 +3052,19 @@
         <v>33750</v>
       </c>
       <c r="B56" s="1">
-        <v>211079046.24760401</v>
+        <v>209086637.25765499</v>
       </c>
       <c r="C56">
-        <v>103972273.702602</v>
+        <v>103466012.815055</v>
       </c>
       <c r="D56">
-        <v>521.424937</v>
+        <v>519.16770899999995</v>
       </c>
       <c r="E56">
-        <v>3492.339246</v>
+        <v>3487.0709270000002</v>
       </c>
       <c r="F56">
-        <v>198829.51942</v>
+        <v>198681.77044600001</v>
       </c>
       <c r="G56">
         <v>9374.8777900000005</v>
@@ -3073,7 +3073,7 @@
         <v>5522.5209889999996</v>
       </c>
       <c r="I56">
-        <v>104703.229997</v>
+        <v>104696.91736199999</v>
       </c>
       <c r="J56">
         <v>6110.3408200000003</v>
@@ -3102,19 +3102,19 @@
         <v>34375</v>
       </c>
       <c r="B57" s="1">
-        <v>215904965.58093399</v>
+        <v>213790890.244874</v>
       </c>
       <c r="C57">
-        <v>105631502.106745</v>
+        <v>105087218.86091401</v>
       </c>
       <c r="D57">
-        <v>530.14411199999995</v>
+        <v>527.72621600000002</v>
       </c>
       <c r="E57">
-        <v>3549.9384129999999</v>
+        <v>3544.2155429999998</v>
       </c>
       <c r="F57">
-        <v>198689.454937</v>
+        <v>198530.09511600001</v>
       </c>
       <c r="G57">
         <v>9567.8446390000008</v>
@@ -3123,7 +3123,7 @@
         <v>5621.9134329999997</v>
       </c>
       <c r="I57">
-        <v>104833.58623099999</v>
+        <v>104826.70928900001</v>
       </c>
       <c r="J57">
         <v>6213.5669029999999</v>
@@ -3152,19 +3152,19 @@
         <v>35000</v>
       </c>
       <c r="B58" s="1">
-        <v>220790320.841259</v>
+        <v>218547314.72539401</v>
       </c>
       <c r="C58">
-        <v>107310201.306678</v>
+        <v>106725842.544898</v>
       </c>
       <c r="D58">
-        <v>538.96724500000005</v>
+        <v>536.38004000000001</v>
       </c>
       <c r="E58">
-        <v>3608.5173909999999</v>
+        <v>3602.3092729999998</v>
       </c>
       <c r="F58">
-        <v>198549.140472</v>
+        <v>198377.809198</v>
       </c>
       <c r="G58">
         <v>9763.7959389999996</v>
@@ -3173,7 +3173,7 @@
         <v>5722.4054690000003</v>
       </c>
       <c r="I58">
-        <v>104966.122259</v>
+        <v>104958.640843</v>
       </c>
       <c r="J58">
         <v>6317.6142499999996</v>
@@ -3200,19 +3200,19 @@
         <v>35625</v>
       </c>
       <c r="B59" s="1">
-        <v>225735870.25260901</v>
+        <v>223356312.27908999</v>
       </c>
       <c r="C59">
-        <v>109007078.793505</v>
+        <v>108380520.189418</v>
       </c>
       <c r="D59">
-        <v>547.88975700000003</v>
+        <v>545.12428399999999</v>
       </c>
       <c r="E59">
-        <v>3668.081756</v>
+        <v>3661.3561730000001</v>
       </c>
       <c r="F59">
-        <v>198408.23795899999</v>
+        <v>198224.57187000001</v>
       </c>
       <c r="G59">
         <v>9962.7397440000004</v>
@@ -3221,7 +3221,7 @@
         <v>5823.9802090000003</v>
       </c>
       <c r="I59">
-        <v>105100.864071</v>
+        <v>105092.73585300001</v>
       </c>
       <c r="J59">
         <v>6422.4529510000002</v>
@@ -3248,19 +3248,19 @@
         <v>36250</v>
       </c>
       <c r="B60" s="1">
-        <v>230742237.17625999</v>
+        <v>228218139.09491199</v>
       </c>
       <c r="C60">
-        <v>110720860.31695899</v>
+        <v>110049905.56840301</v>
       </c>
       <c r="D60">
-        <v>556.90697799999998</v>
+        <v>553.95395799999994</v>
       </c>
       <c r="E60">
-        <v>3728.6358260000002</v>
+        <v>3721.3589900000002</v>
       </c>
       <c r="F60">
-        <v>198266.463395</v>
+        <v>198070.096452</v>
       </c>
       <c r="G60">
         <v>10164.682475</v>
@@ -3269,7 +3269,7 @@
         <v>5926.6194740000001</v>
       </c>
       <c r="I60">
-        <v>105237.83650999999</v>
+        <v>105229.016924</v>
       </c>
       <c r="J60">
         <v>6528.0515189999996</v>
@@ -3296,19 +3296,19 @@
         <v>36875</v>
       </c>
       <c r="B61" s="1">
-        <v>235809922.000826</v>
+        <v>233132917.813436</v>
       </c>
       <c r="C61">
-        <v>112450303.32079101</v>
+        <v>111732683.250081</v>
       </c>
       <c r="D61">
-        <v>566.01423599999998</v>
+        <v>562.86406499999998</v>
       </c>
       <c r="E61">
-        <v>3790.1826569999998</v>
+        <v>3782.319168</v>
       </c>
       <c r="F61">
-        <v>198123.57874999999</v>
+        <v>197914.14227800001</v>
       </c>
       <c r="G61">
         <v>10369.628859</v>
@@ -3317,7 +3317,7 @@
         <v>6030.3037800000002</v>
       </c>
       <c r="I61">
-        <v>105377.063255</v>
+        <v>105367.505414</v>
       </c>
       <c r="J61">
         <v>6634.3769329999996</v>
@@ -3344,19 +3344,19 @@
         <v>37500</v>
       </c>
       <c r="B62" s="1">
-        <v>240939314.613233</v>
+        <v>238100649.93244699</v>
       </c>
       <c r="C62">
-        <v>114194204.934846</v>
+        <v>113427576.553579</v>
       </c>
       <c r="D62">
-        <v>575.20691199999999</v>
+        <v>571.84965</v>
       </c>
       <c r="E62">
-        <v>3852.7240769999999</v>
+        <v>3844.236868</v>
       </c>
       <c r="F62">
-        <v>197979.386447</v>
+        <v>197756.50912599999</v>
       </c>
       <c r="G62">
         <v>10577.581878000001</v>
@@ -3365,7 +3365,7 @@
         <v>6135.0123219999996</v>
       </c>
       <c r="I62">
-        <v>105518.56681400001</v>
+        <v>105508.22143000001</v>
       </c>
       <c r="J62">
         <v>6741.3946649999998</v>
@@ -3392,19 +3392,19 @@
         <v>38125</v>
       </c>
       <c r="B63" s="1">
-        <v>246130706.81495401</v>
+        <v>243121228.15115401</v>
       </c>
       <c r="C63">
-        <v>115951404.301915</v>
+        <v>115133349.90274499</v>
       </c>
       <c r="D63">
-        <v>584.48046699999998</v>
+        <v>580.90583700000002</v>
       </c>
       <c r="E63">
-        <v>3916.2607200000002</v>
+        <v>3907.1110119999998</v>
       </c>
       <c r="F63">
-        <v>197833.725236</v>
+        <v>197597.033054</v>
       </c>
       <c r="G63">
         <v>10788.542707000001</v>
@@ -3413,7 +3413,7 @@
         <v>6240.7229600000001</v>
       </c>
       <c r="I63">
-        <v>105662.368542</v>
+        <v>105651.183842</v>
       </c>
       <c r="J63">
         <v>6849.0687150000003</v>
@@ -3440,19 +3440,19 @@
         <v>38750</v>
       </c>
       <c r="B64" s="1">
-        <v>251384303.97679099</v>
+        <v>248194447.958345</v>
       </c>
       <c r="C64">
-        <v>117720780.108688</v>
+        <v>116848806.43771701</v>
       </c>
       <c r="D64">
-        <v>593.83043899999996</v>
+        <v>590.02781900000002</v>
       </c>
       <c r="E64">
-        <v>3980.7920720000002</v>
+        <v>3970.9393249999998</v>
       </c>
       <c r="F64">
-        <v>197686.46656500001</v>
+        <v>197435.58273699999</v>
       </c>
       <c r="G64">
         <v>11002.510663999999</v>
@@ -3461,7 +3461,7 @@
         <v>6347.4122150000003</v>
       </c>
       <c r="I64">
-        <v>105808.488658</v>
+        <v>105796.410302</v>
       </c>
       <c r="J64">
         <v>6957.3616330000004</v>
@@ -3488,19 +3488,19 @@
         <v>39375</v>
       </c>
       <c r="B65" s="1">
-        <v>256700235.34550199</v>
+        <v>253320017.88802099</v>
       </c>
       <c r="C65">
-        <v>119501244.843104</v>
+        <v>118572782.388716</v>
       </c>
       <c r="D65">
-        <v>603.25242700000001</v>
+        <v>599.21084399999995</v>
       </c>
       <c r="E65">
-        <v>4046.3165140000001</v>
+        <v>4035.7183770000001</v>
       </c>
       <c r="F65">
-        <v>197537.51087299999</v>
+        <v>197272.05574899999</v>
       </c>
       <c r="G65">
         <v>11219.483152999999</v>
@@ -3509,7 +3509,7 @@
         <v>6455.0552559999996</v>
       </c>
       <c r="I65">
-        <v>105956.946268</v>
+        <v>105943.917256</v>
       </c>
       <c r="J65">
         <v>7066.234555</v>
@@ -3536,19 +3536,19 @@
         <v>40000</v>
       </c>
       <c r="B66" s="1">
-        <v>262078562.64846301</v>
+        <v>258497568.09542599</v>
       </c>
       <c r="C66">
-        <v>121291737.48724</v>
+        <v>120304139.900389</v>
       </c>
       <c r="D66">
-        <v>612.74205800000004</v>
+        <v>608.45018800000003</v>
       </c>
       <c r="E66">
-        <v>4112.8313600000001</v>
+        <v>4101.4436219999998</v>
       </c>
       <c r="F66">
-        <v>197386.783631</v>
+        <v>197106.374602</v>
       </c>
       <c r="G66">
         <v>11439.455613</v>
@@ -3557,7 +3557,7 @@
         <v>6563.6258969999999</v>
       </c>
       <c r="I66">
-        <v>106107.75937499999</v>
+        <v>106093.719967</v>
       </c>
       <c r="J66">
         <v>7175.6472309999999</v>
@@ -3582,19 +3582,19 @@
         <v>40625</v>
       </c>
       <c r="B67" s="1">
-        <v>267519286.906611</v>
+        <v>263726657.16651601</v>
       </c>
       <c r="C67">
-        <v>123091216.157416</v>
+        <v>122041759.80000401</v>
       </c>
       <c r="D67">
-        <v>622.29496200000006</v>
+        <v>617.74112100000002</v>
       </c>
       <c r="E67">
-        <v>4180.3328879999999</v>
+        <v>4168.1094270000003</v>
       </c>
       <c r="F67">
-        <v>197234.231172</v>
+        <v>196938.48259900001</v>
       </c>
       <c r="G67">
         <v>11662.421464999999</v>
@@ -3603,7 +3603,7 @@
         <v>6673.0965960000003</v>
       </c>
       <c r="I67">
-        <v>106260.94489</v>
+        <v>106245.83251399999</v>
       </c>
       <c r="J67">
         <v>7285.5580529999997</v>
@@ -3628,19 +3628,19 @@
         <v>41250</v>
       </c>
       <c r="B68" s="1">
-        <v>273022353.59514898</v>
+        <v>269006777.29969698</v>
       </c>
       <c r="C68">
-        <v>124898651.765072</v>
+        <v>123784535.37074</v>
       </c>
       <c r="D68">
-        <v>631.906745</v>
+        <v>627.078889</v>
       </c>
       <c r="E68">
-        <v>4248.8163599999998</v>
+        <v>4235.7090950000002</v>
       </c>
       <c r="F68">
-        <v>197079.816575</v>
+        <v>196768.33972700001</v>
       </c>
       <c r="G68">
         <v>11888.372063000001</v>
@@ -3649,7 +3649,7 @@
         <v>6783.4384520000003</v>
       </c>
       <c r="I68">
-        <v>106416.51863000001</v>
+        <v>106400.26779500001</v>
       </c>
       <c r="J68">
         <v>7395.9240980000004</v>
@@ -3674,19 +3674,19 @@
         <v>41875</v>
       </c>
       <c r="B69" s="1">
-        <v>278587656.44577003</v>
+        <v>274337358.15057498</v>
       </c>
       <c r="C69">
-        <v>126713023.249321</v>
+        <v>125531367.676378</v>
       </c>
       <c r="D69">
-        <v>641.57297100000005</v>
+        <v>636.45869100000004</v>
       </c>
       <c r="E69">
-        <v>4318.2760390000003</v>
+        <v>4304.2348769999999</v>
       </c>
       <c r="F69">
-        <v>196923.51584899999</v>
+        <v>196595.91886999999</v>
       </c>
       <c r="G69">
         <v>12117.296646000001</v>
@@ -3695,7 +3695,7 @@
         <v>6894.6212130000004</v>
       </c>
       <c r="I69">
-        <v>106574.495316</v>
+        <v>106557.037517</v>
       </c>
       <c r="J69">
         <v>7506.7011540000003</v>
@@ -3720,19 +3720,19 @@
         <v>42500</v>
       </c>
       <c r="B70" s="1">
-        <v>284215040.25039703</v>
+        <v>279717769.69592798</v>
       </c>
       <c r="C70">
-        <v>128533314.45673899</v>
+        <v>127281162.515264</v>
       </c>
       <c r="D70">
-        <v>651.28915800000004</v>
+        <v>645.87567999999999</v>
       </c>
       <c r="E70">
-        <v>4388.7051970000002</v>
+        <v>4373.6779900000001</v>
       </c>
       <c r="F70">
-        <v>196765.314652</v>
+        <v>196421.20254599999</v>
       </c>
       <c r="G70">
         <v>12349.182292</v>
@@ -3741,7 +3741,7 @@
         <v>7006.613276</v>
       </c>
       <c r="I70">
-        <v>106734.888559</v>
+        <v>106716.15218999999</v>
       </c>
       <c r="J70">
         <v>7617.8437729999996</v>
@@ -3766,19 +3766,19 @@
         <v>43125</v>
       </c>
       <c r="B71" s="1">
-        <v>289904303.01448202</v>
+        <v>285147324.46148002</v>
       </c>
       <c r="C71">
-        <v>130358512.40064</v>
+        <v>129032828.743268</v>
       </c>
       <c r="D71">
-        <v>661.05077500000004</v>
+        <v>655.32495200000005</v>
       </c>
       <c r="E71">
-        <v>4460.0961289999996</v>
+        <v>4444.0286189999997</v>
       </c>
       <c r="F71">
-        <v>196605.20568700001</v>
+        <v>196244.180311</v>
       </c>
       <c r="G71">
         <v>12584.013874</v>
@@ -3787,7 +3787,7 @@
         <v>7119.3817019999997</v>
       </c>
       <c r="I71">
-        <v>106897.710849</v>
+        <v>106877.62110999999</v>
       </c>
       <c r="J71">
         <v>7729.3053040000004</v>
@@ -3812,19 +3812,19 @@
         <v>43750</v>
       </c>
       <c r="B72" s="1">
-        <v>295655197.741216</v>
+        <v>290625279.39274001</v>
       </c>
       <c r="C72">
-        <v>132187606.454092</v>
+        <v>130785277.52955601</v>
       </c>
       <c r="D72">
-        <v>670.85324300000002</v>
+        <v>664.801559</v>
       </c>
       <c r="E72">
-        <v>4532.4401529999996</v>
+        <v>4515.2759269999997</v>
       </c>
       <c r="F72">
-        <v>196443.186781</v>
+        <v>196064.84684000001</v>
       </c>
       <c r="G72">
         <v>12821.774017</v>
@@ -3833,7 +3833,7 @@
         <v>7232.8922240000002</v>
       </c>
       <c r="I72">
-        <v>107062.97354200001</v>
+        <v>107041.45234800001</v>
       </c>
       <c r="J72">
         <v>7841.037945</v>
@@ -3858,19 +3858,19 @@
         <v>44375</v>
       </c>
       <c r="B73" s="1">
-        <v>301467434.03537297</v>
+        <v>296150837.55723298</v>
       </c>
       <c r="C73">
-        <v>134019588.006495</v>
+        <v>132537422.084242</v>
       </c>
       <c r="D73">
-        <v>680.69194500000003</v>
+        <v>674.30050800000004</v>
       </c>
       <c r="E73">
-        <v>4605.7276270000002</v>
+        <v>4587.4080679999997</v>
       </c>
       <c r="F73">
-        <v>196279.25958499999</v>
+        <v>195883.20063400001</v>
       </c>
       <c r="G73">
         <v>13062.443062</v>
@@ -3879,7 +3879,7 @@
         <v>7347.1092650000001</v>
       </c>
       <c r="I73">
-        <v>107230.68685300001</v>
+        <v>107207.652737</v>
       </c>
       <c r="J73">
         <v>7952.9927960000005</v>
@@ -3902,19 +3902,19 @@
         <v>45000</v>
       </c>
       <c r="B74" s="1">
-        <v>307340679.622881</v>
+        <v>301723149.77548099</v>
       </c>
       <c r="C74">
-        <v>135853450.20185199</v>
+        <v>134288177.482784</v>
       </c>
       <c r="D74">
-        <v>690.56222600000001</v>
+        <v>683.81676800000002</v>
       </c>
       <c r="E74">
-        <v>4679.9479540000002</v>
+        <v>4660.4121940000005</v>
       </c>
       <c r="F74">
-        <v>196113.42877500001</v>
+        <v>195699.24320600001</v>
       </c>
       <c r="G74">
         <v>13305.999027</v>
@@ -3923,7 +3923,7 @@
         <v>7461.9959559999998</v>
       </c>
       <c r="I74">
-        <v>107400.859839</v>
+        <v>107376.227864</v>
       </c>
       <c r="J74">
         <v>8065.1199100000003</v>
@@ -3946,19 +3946,19 @@
         <v>45625</v>
       </c>
       <c r="B75" s="1">
-        <v>313274561.80823398</v>
+        <v>307341316.20522499</v>
       </c>
       <c r="C75">
-        <v>137688187.52451399</v>
+        <v>136036460.356197</v>
       </c>
       <c r="D75">
-        <v>700.45939799999996</v>
+        <v>693.34527300000002</v>
       </c>
       <c r="E75">
-        <v>4755.0895950000004</v>
+        <v>4734.2744650000004</v>
       </c>
       <c r="F75">
-        <v>195945.70158699999</v>
+        <v>195512.978622</v>
       </c>
       <c r="G75">
         <v>13552.417573000001</v>
@@ -3967,7 +3967,7 @@
         <v>7577.5141560000002</v>
       </c>
       <c r="I75">
-        <v>107573.500396</v>
+        <v>107547.18205600001</v>
       </c>
       <c r="J75">
         <v>8177.3683520000004</v>
@@ -3990,19 +3990,19 @@
         <v>46250</v>
       </c>
       <c r="B76" s="1">
-        <v>319268668.84564698</v>
+        <v>313004387.85777903</v>
       </c>
       <c r="C76">
-        <v>139522795.154787</v>
+        <v>137781188.369232</v>
       </c>
       <c r="D76">
-        <v>710.37873999999999</v>
+        <v>702.88092300000005</v>
       </c>
       <c r="E76">
-        <v>4831.1400780000004</v>
+        <v>4808.9800649999997</v>
       </c>
       <c r="F76">
-        <v>195776.087562</v>
+        <v>195324.41323000001</v>
       </c>
       <c r="G76">
         <v>13801.671974999999</v>
@@ -4011,7 +4011,7 @@
         <v>7693.6244820000002</v>
       </c>
       <c r="I76">
-        <v>107748.61524499999</v>
+        <v>107720.518375</v>
       </c>
       <c r="J76">
         <v>8289.6862669999991</v>
@@ -4034,19 +4034,19 @@
         <v>46875</v>
       </c>
       <c r="B77" s="1">
-        <v>325322551.18214101</v>
+        <v>318711368.007604</v>
       </c>
       <c r="C77">
-        <v>141356268.1446</v>
+        <v>139521279.53371599</v>
       </c>
       <c r="D77">
-        <v>720.31549600000005</v>
+        <v>712.41858000000002</v>
       </c>
       <c r="E77">
-        <v>4908.0860119999998</v>
+        <v>4884.5132110000004</v>
       </c>
       <c r="F77">
-        <v>195604.598371</v>
+        <v>195133.55549200001</v>
       </c>
       <c r="G77">
         <v>14053.733095</v>
@@ -4055,7 +4055,7 @@
         <v>7810.2863340000004</v>
       </c>
       <c r="I77">
-        <v>107926.20993</v>
+        <v>107896.23860500001</v>
       </c>
       <c r="J77">
         <v>8402.0209379999997</v>
@@ -4078,19 +4078,19 @@
         <v>47500</v>
       </c>
       <c r="B78" s="1">
-        <v>331435722.53586102</v>
+        <v>324461213.46073002</v>
       </c>
       <c r="C78">
-        <v>143187600.542153</v>
+        <v>141255651.48141399</v>
       </c>
       <c r="D78">
-        <v>730.26487199999997</v>
+        <v>721.95307100000002</v>
       </c>
       <c r="E78">
-        <v>4985.9130939999995</v>
+        <v>4960.857164</v>
       </c>
       <c r="F78">
-        <v>195431.24766399999</v>
+        <v>194940.41582699999</v>
       </c>
       <c r="G78">
         <v>14308.569357</v>
@@ -4099,7 +4099,7 @@
         <v>7927.4579279999998</v>
       </c>
       <c r="I78">
-        <v>108106.288804</v>
+        <v>108074.34325000001</v>
       </c>
       <c r="J78">
         <v>8514.3188640000008</v>
@@ -4122,19 +4122,19 @@
         <v>48125</v>
       </c>
       <c r="B79" s="1">
-        <v>337607660.79202098</v>
+        <v>330252835.66595</v>
       </c>
       <c r="C79">
-        <v>145015784.62047201</v>
+        <v>142983220.84646201</v>
       </c>
       <c r="D79">
-        <v>740.22203300000001</v>
+        <v>731.47918300000003</v>
       </c>
       <c r="E79">
-        <v>5064.6061220000001</v>
+        <v>5037.9942410000003</v>
       </c>
       <c r="F79">
-        <v>195256.050892</v>
+        <v>194745.00644299999</v>
       </c>
       <c r="G79">
         <v>14566.146726999999</v>
@@ -4143,7 +4143,7 @@
         <v>8045.0963350000002</v>
       </c>
       <c r="I79">
-        <v>108288.855022</v>
+        <v>108254.83151800001</v>
       </c>
       <c r="J79">
         <v>8626.5258269999995</v>
@@ -4166,19 +4166,19 @@
         <v>48750</v>
       </c>
       <c r="B80" s="1">
-        <v>343837808.72277302</v>
+        <v>336085101.67572403</v>
       </c>
       <c r="C80">
-        <v>146839810.34708399</v>
+        <v>144702902.89047399</v>
       </c>
       <c r="D80">
-        <v>750.18210399999998</v>
+        <v>740.99166200000002</v>
       </c>
       <c r="E80">
-        <v>5144.1490030000004</v>
+        <v>5115.9058240000004</v>
       </c>
       <c r="F80">
-        <v>195079.025115</v>
+        <v>194547.341147</v>
       </c>
       <c r="G80">
         <v>14826.428696000001</v>
@@ -4187,7 +4187,7 @@
         <v>8163.1575169999996</v>
       </c>
       <c r="I80">
-        <v>108473.91052999999</v>
+        <v>108437.70131400001</v>
       </c>
       <c r="J80">
         <v>8738.5869770000008</v>
@@ -4210,19 +4210,19 @@
         <v>49375</v>
       </c>
       <c r="B81" s="1">
-        <v>350125574.55850703</v>
+        <v>341956834.98425901</v>
       </c>
       <c r="C81">
-        <v>148658665.18667099</v>
+        <v>146413611.459465</v>
       </c>
       <c r="D81">
-        <v>760.14016600000002</v>
+        <v>750.48521200000005</v>
       </c>
       <c r="E81">
-        <v>5224.5247579999996</v>
+        <v>5194.5723680000001</v>
       </c>
       <c r="F81">
-        <v>194900.18879300001</v>
+        <v>194347.43514300001</v>
       </c>
       <c r="G81">
         <v>15089.376267</v>
@@ -4231,7 +4231,7 @@
         <v>8281.5963709999996</v>
       </c>
       <c r="I81">
-        <v>108661.456056</v>
+        <v>108622.94923</v>
       </c>
       <c r="J81">
         <v>8850.4469069999996</v>
@@ -4254,19 +4254,19 @@
         <v>50000</v>
       </c>
       <c r="B82" s="1">
-        <v>356470332.452039</v>
+        <v>347866816.28363699</v>
       </c>
       <c r="C82">
-        <v>150471334.27306601</v>
+        <v>148114259.30783701</v>
       </c>
       <c r="D82">
-        <v>770.09125900000004</v>
+        <v>759.95449900000006</v>
       </c>
       <c r="E82">
-        <v>5305.7155339999999</v>
+        <v>5273.9734129999997</v>
       </c>
       <c r="F82">
-        <v>194719.56159</v>
+        <v>194145.30484500001</v>
       </c>
       <c r="G82">
         <v>15354.94795</v>
@@ -4275,7 +4275,7 @@
         <v>8400.3667769999993</v>
       </c>
       <c r="I82">
-        <v>108851.491098</v>
+        <v>108810.570532</v>
       </c>
       <c r="J82">
         <v>8962.0497400000004</v>
@@ -4298,19 +4298,19 @@
         <v>50625</v>
       </c>
       <c r="B83">
-        <v>362871422.88212198</v>
+        <v>353813784.18372202</v>
       </c>
       <c r="C83">
-        <v>152276800.93613601</v>
+        <v>149803758.77520299</v>
       </c>
       <c r="D83">
-        <v>780.03038500000002</v>
+        <v>769.39415499999996</v>
       </c>
       <c r="E83">
-        <v>5387.7026079999996</v>
+        <v>5354.0875919999999</v>
       </c>
       <c r="F83">
-        <v>194537.164212</v>
+        <v>193940.96772300001</v>
       </c>
       <c r="G83">
         <v>15623.099751</v>
@@ -4319,7 +4319,7 @@
         <v>8519.4216450000004</v>
       </c>
       <c r="I83">
-        <v>109044.013913</v>
+        <v>109000.559157</v>
       </c>
       <c r="J83">
         <v>9073.3392170000006</v>
@@ -4342,19 +4342,19 @@
         <v>51250</v>
       </c>
       <c r="B84">
-        <v>369328153.03970098</v>
+        <v>359796435.93854898</v>
       </c>
       <c r="C84">
-        <v>154074047.53250599</v>
+        <v>151481022.76614699</v>
       </c>
       <c r="D84">
-        <v>789.95250999999996</v>
+        <v>778.79877899999997</v>
       </c>
       <c r="E84">
-        <v>5470.4664000000002</v>
+        <v>5434.8926389999997</v>
       </c>
       <c r="F84">
-        <v>194353.01828399999</v>
+        <v>193734.44218000001</v>
       </c>
       <c r="G84">
         <v>15893.785178</v>
@@ -4363,7 +4363,7 @@
         <v>8638.712974</v>
       </c>
       <c r="I84">
-        <v>109239.021509</v>
+        <v>109192.90769599999</v>
       </c>
       <c r="J84">
         <v>9184.2587860000003</v>
@@ -4386,19 +4386,19 @@
         <v>51875</v>
       </c>
       <c r="B85">
-        <v>375839797.23161203</v>
+        <v>365813428.21340698</v>
       </c>
       <c r="C85">
-        <v>155862056.510483</v>
+        <v>153144965.964789</v>
       </c>
       <c r="D85">
-        <v>799.85257300000001</v>
+        <v>788.16294800000003</v>
       </c>
       <c r="E85">
-        <v>5553.9864770000004</v>
+        <v>5516.3654040000001</v>
       </c>
       <c r="F85">
-        <v>194167.14627100001</v>
+        <v>193525.74748699999</v>
       </c>
       <c r="G85">
         <v>16166.955243</v>
@@ -4407,7 +4407,7 @@
         <v>8758.1919020000005</v>
       </c>
       <c r="I85">
-        <v>109436.509636</v>
+        <v>109387.607391</v>
       </c>
       <c r="J85">
         <v>9294.7516959999994</v>
@@ -4430,19 +4430,19 @@
         <v>52500</v>
       </c>
       <c r="B86">
-        <v>382405597.32514101</v>
+        <v>371863377.91577899</v>
       </c>
       <c r="C86">
-        <v>157639811.63792399</v>
+        <v>154794506.21416599</v>
       </c>
       <c r="D86">
-        <v>809.72549100000003</v>
+        <v>797.481222</v>
       </c>
       <c r="E86">
-        <v>5638.2415689999998</v>
+        <v>5598.4818619999996</v>
       </c>
       <c r="F86">
-        <v>193979.571448</v>
+        <v>193314.90374899999</v>
       </c>
       <c r="G86">
         <v>16442.558467999999</v>
@@ -4451,7 +4451,7 @@
         <v>8877.808771</v>
       </c>
       <c r="I86">
-        <v>109636.47278</v>
+        <v>109584.648128</v>
       </c>
       <c r="J86">
         <v>9404.7610939999995</v>
@@ -4474,19 +4474,19 @@
         <v>53125</v>
       </c>
       <c r="B87">
-        <v>389024763.24561101</v>
+        <v>377944863.10228401</v>
       </c>
       <c r="C87">
-        <v>159406299.33254299</v>
+        <v>156428566.000709</v>
       </c>
       <c r="D87">
-        <v>819.56616499999996</v>
+        <v>806.74814800000001</v>
       </c>
       <c r="E87">
-        <v>5723.2095760000002</v>
+        <v>5681.2171280000002</v>
       </c>
       <c r="F87">
-        <v>193790.31789199999</v>
+        <v>193101.93190299999</v>
       </c>
       <c r="G87">
         <v>16720.540905000002</v>
@@ -4495,7 +4495,7 @@
         <v>8997.5131870000005</v>
       </c>
       <c r="I87">
-        <v>109838.904152</v>
+        <v>109784.018433</v>
       </c>
       <c r="J87">
         <v>9514.2301210000005</v>
@@ -4518,19 +4518,19 @@
         <v>53750</v>
       </c>
       <c r="B88">
-        <v>395696473.53007001</v>
+        <v>384056423.96479303</v>
       </c>
       <c r="C88">
-        <v>161160510.05167401</v>
+        <v>158046074.00087401</v>
       </c>
       <c r="D88">
-        <v>829.36948600000005</v>
+        <v>815.95827299999996</v>
       </c>
       <c r="E88">
-        <v>5808.8675839999996</v>
+        <v>5764.5454749999999</v>
       </c>
       <c r="F88">
-        <v>193599.410496</v>
+        <v>192886.853745</v>
       </c>
       <c r="G88">
         <v>17000.846150000001</v>
@@ -4539,7 +4539,7 @@
         <v>9117.2540900000004</v>
       </c>
       <c r="I88">
-        <v>110043.795694</v>
+        <v>109985.70547</v>
       </c>
       <c r="J88">
         <v>9623.1020150000004</v>
@@ -4562,19 +4562,19 @@
         <v>54375</v>
       </c>
       <c r="B89">
-        <v>402419875.93410498</v>
+        <v>390196563.89284402</v>
       </c>
       <c r="C89">
-        <v>162901439.71709999</v>
+        <v>159645966.664906</v>
       </c>
       <c r="D89">
-        <v>839.13034300000004</v>
+        <v>825.10614999999996</v>
       </c>
       <c r="E89">
-        <v>5895.1918809999997</v>
+        <v>5848.4403460000003</v>
       </c>
       <c r="F89">
-        <v>193406.87499499999</v>
+        <v>192669.69194300001</v>
       </c>
       <c r="G89">
         <v>17283.415366000001</v>
@@ -4583,7 +4583,7 @@
         <v>9236.9798210000008</v>
       </c>
       <c r="I89">
-        <v>110251.13806500001</v>
+        <v>110189.695039</v>
       </c>
       <c r="J89">
         <v>9731.3202089999995</v>
@@ -4606,19 +4606,19 @@
         <v>55000</v>
       </c>
       <c r="B90">
-        <v>409194088.08597201</v>
+        <v>396363750.60655898</v>
       </c>
       <c r="C90">
-        <v>164628091.16613901</v>
+        <v>161227189.827775</v>
       </c>
       <c r="D90">
-        <v>848.84363299999995</v>
+        <v>834.18634199999997</v>
       </c>
       <c r="E90">
-        <v>5982.1579689999999</v>
+        <v>5932.8743759999998</v>
       </c>
       <c r="F90">
-        <v>193212.737979</v>
+        <v>192450.47007400001</v>
       </c>
       <c r="G90">
         <v>17568.187312999999</v>
@@ -4627,7 +4627,7 @@
         <v>9356.6381920000003</v>
       </c>
       <c r="I90">
-        <v>110460.92065099999</v>
+        <v>110395.971576</v>
       </c>
       <c r="J90">
         <v>9838.8284380000005</v>
@@ -4650,19 +4650,19 @@
         <v>55625</v>
       </c>
       <c r="B91">
-        <v>416018198.18200302</v>
+        <v>402556417.35380298</v>
       </c>
       <c r="C91">
-        <v>166339475.63042501</v>
+        <v>162788700.34727001</v>
       </c>
       <c r="D91">
-        <v>858.50426200000004</v>
+        <v>843.19343700000002</v>
       </c>
       <c r="E91">
-        <v>6069.7405870000002</v>
+        <v>6017.8194130000002</v>
       </c>
       <c r="F91">
-        <v>193017.02690600001</v>
+        <v>192229.21262599999</v>
       </c>
       <c r="G91">
         <v>17855.098382</v>
@@ -4671,7 +4671,7 @@
         <v>9476.1765680000008</v>
       </c>
       <c r="I91">
-        <v>110673.131559</v>
+        <v>110604.51816199999</v>
       </c>
       <c r="J91">
         <v>9945.570839</v>
@@ -4694,19 +4694,19 @@
         <v>56250</v>
       </c>
       <c r="B92">
-        <v>422891265.718683</v>
+        <v>408772964.16656899</v>
       </c>
       <c r="C92">
-        <v>168034614.24820599</v>
+        <v>164329467.77361801</v>
       </c>
       <c r="D92">
-        <v>868.10715900000002</v>
+        <v>852.12204799999995</v>
       </c>
       <c r="E92">
-        <v>6157.9137229999997</v>
+        <v>6103.2465339999999</v>
       </c>
       <c r="F92">
-        <v>192819.770097</v>
+        <v>192005.94501200001</v>
       </c>
       <c r="G92">
         <v>18144.082628</v>
@@ -4715,7 +4715,7 @@
         <v>9595.541937</v>
       </c>
       <c r="I92">
-        <v>110887.757625</v>
+        <v>110815.316521</v>
       </c>
       <c r="J92">
         <v>10051.492061000001</v>
@@ -4738,19 +4738,19 @@
         <v>56875</v>
       </c>
       <c r="B93">
-        <v>429812322.258973</v>
+        <v>415011759.17344397</v>
       </c>
       <c r="C93">
-        <v>169712539.615439</v>
+        <v>165848476.054539</v>
       </c>
       <c r="D93">
-        <v>877.64727600000003</v>
+        <v>860.96682899999996</v>
       </c>
       <c r="E93">
-        <v>6246.6506440000003</v>
+        <v>6189.1260769999999</v>
       </c>
       <c r="F93">
-        <v>192620.99672600001</v>
+        <v>191780.69355900001</v>
       </c>
       <c r="G93">
         <v>18435.071822000002</v>
@@ -4759,7 +4759,7 @@
         <v>9714.6809919999996</v>
       </c>
       <c r="I93">
-        <v>111104.784415</v>
+        <v>111028.347033</v>
       </c>
       <c r="J93">
         <v>10156.537366</v>
@@ -4782,19 +4782,19 @@
         <v>57500</v>
       </c>
       <c r="B94">
-        <v>436780372.23244298</v>
+        <v>421271139.96687597</v>
       </c>
       <c r="C94">
-        <v>171372297.37714899</v>
+        <v>167344725.276144</v>
       </c>
       <c r="D94">
-        <v>887.11960499999998</v>
+        <v>869.72247700000003</v>
       </c>
       <c r="E94">
-        <v>6335.9239079999998</v>
+        <v>6275.4276570000002</v>
       </c>
       <c r="F94">
-        <v>192420.73679600001</v>
+        <v>191553.48549299999</v>
       </c>
       <c r="G94">
         <v>18727.995489000001</v>
@@ -4803,7 +4803,7 @@
         <v>9833.5402130000002</v>
       </c>
       <c r="I94">
-        <v>111324.196234</v>
+        <v>111243.58874000001</v>
       </c>
       <c r="J94">
         <v>10260.652737</v>
@@ -4826,19 +4826,19 @@
         <v>58125</v>
       </c>
       <c r="B95">
-        <v>443794393.77022898</v>
+        <v>427549415.02512503</v>
       </c>
       <c r="C95">
-        <v>173012947.85528401</v>
+        <v>168817233.435119</v>
       </c>
       <c r="D95">
-        <v>896.51917800000001</v>
+        <v>878.38374699999997</v>
       </c>
       <c r="E95">
-        <v>6425.7053939999996</v>
+        <v>6362.1202000000003</v>
       </c>
       <c r="F95">
-        <v>192219.02110700001</v>
+        <v>191324.348914</v>
       </c>
       <c r="G95">
         <v>19022.780968999999</v>
@@ -4847,7 +4847,7 @@
         <v>9952.0659529999994</v>
       </c>
       <c r="I95">
-        <v>111545.976135</v>
+        <v>111461.019359</v>
       </c>
       <c r="J95">
         <v>10363.784981000001</v>
@@ -4870,19 +4870,19 @@
         <v>58750</v>
       </c>
       <c r="B96">
-        <v>450853339.57632899</v>
+        <v>433844865.189273</v>
       </c>
       <c r="C96">
-        <v>174633567.70433801</v>
+        <v>170265038.232903</v>
       </c>
       <c r="D96">
-        <v>905.84108100000003</v>
+        <v>886.94545700000003</v>
       </c>
       <c r="E96">
-        <v>6515.9663259999998</v>
+        <v>6449.1719659999999</v>
       </c>
       <c r="F96">
-        <v>192015.881226</v>
+        <v>191093.312772</v>
       </c>
       <c r="G96">
         <v>19319.353470999999</v>
@@ -4891,7 +4891,7 @@
         <v>10070.204518</v>
       </c>
       <c r="I96">
-        <v>111770.105929</v>
+        <v>111680.615296</v>
       </c>
       <c r="J96">
         <v>10465.881834</v>
@@ -4914,19 +4914,19 @@
         <v>59375</v>
       </c>
       <c r="B97">
-        <v>457956137.83651298</v>
+        <v>440155745.19526303</v>
       </c>
       <c r="C97">
-        <v>176233251.58227101</v>
+        <v>171687198.87904501</v>
       </c>
       <c r="D97">
-        <v>915.08046000000002</v>
+        <v>895.40249700000004</v>
       </c>
       <c r="E97">
-        <v>6606.6772979999996</v>
+        <v>6536.5505810000004</v>
       </c>
       <c r="F97">
-        <v>191811.34944799999</v>
+        <v>190860.406839</v>
       </c>
       <c r="G97">
         <v>19617.636138999998</v>
@@ -4935,7 +4935,7 @@
         <v>10187.902259</v>
       </c>
       <c r="I97">
-        <v>111996.5662</v>
+        <v>111902.35166</v>
       </c>
       <c r="J97">
         <v>10566.892064</v>
@@ -4958,19 +4958,19 @@
         <v>60000</v>
       </c>
       <c r="B98">
-        <v>465101693.16526997</v>
+        <v>446480285.26007998</v>
       </c>
       <c r="C98">
-        <v>177811113.822404</v>
+        <v>173082797.88907701</v>
       </c>
       <c r="D98">
-        <v>924.232529</v>
+        <v>903.74984099999995</v>
       </c>
       <c r="E98">
-        <v>6697.8083029999998</v>
+        <v>6624.2230680000002</v>
       </c>
       <c r="F98">
-        <v>191605.45876000001</v>
+        <v>190625.661673</v>
       </c>
       <c r="G98">
         <v>19917.550116999999</v>
@@ -4979,7 +4979,7 @@
         <v>10305.105654999999</v>
       </c>
       <c r="I98">
-        <v>112225.33631499999</v>
+        <v>112126.20228500001</v>
       </c>
       <c r="J98">
         <v>10666.765574999999</v>
@@ -5002,19 +5002,19 @@
         <v>60625</v>
       </c>
       <c r="B99">
-        <v>472288887.59007198</v>
+        <v>452816692.719993</v>
       </c>
       <c r="C99">
-        <v>179366290.09176499</v>
+        <v>174450942.86207399</v>
       </c>
       <c r="D99">
-        <v>933.29258000000004</v>
+        <v>911.98255500000005</v>
       </c>
       <c r="E99">
-        <v>6789.3287620000001</v>
+        <v>6712.1558809999997</v>
       </c>
       <c r="F99">
-        <v>191398.24280099999</v>
+        <v>190389.10859300001</v>
       </c>
       <c r="G99">
         <v>20219.014620999998</v>
@@ -5023,7 +5023,7 @@
         <v>10421.761404999999</v>
       </c>
       <c r="I99">
-        <v>112456.394447</v>
+        <v>112352.13974499999</v>
       </c>
       <c r="J99">
         <v>10765.453501</v>
@@ -5046,19 +5046,19 @@
         <v>61250</v>
       </c>
       <c r="B100">
-        <v>479516581.571055</v>
+        <v>459163153.71755803</v>
       </c>
       <c r="C100">
-        <v>180897939.022576</v>
+        <v>175790768.22417799</v>
       </c>
       <c r="D100">
-        <v>942.25599299999999</v>
+        <v>920.09580600000004</v>
       </c>
       <c r="E100">
-        <v>6881.2075580000001</v>
+        <v>6800.3149389999999</v>
       </c>
       <c r="F100">
-        <v>191189.73582500001</v>
+        <v>190150.779641</v>
       </c>
       <c r="G100">
         <v>20521.947022</v>
@@ -5067,7 +5067,7 @@
         <v>10537.816516999999</v>
       </c>
       <c r="I100">
-        <v>112689.717592</v>
+        <v>112580.13538399999</v>
       </c>
       <c r="J100">
         <v>10862.908308</v>
@@ -5090,19 +5090,19 @@
         <v>61875</v>
       </c>
       <c r="B101">
-        <v>486783615.05328101</v>
+        <v>465517834.93308198</v>
       </c>
       <c r="C101">
-        <v>182405243.80551401</v>
+        <v>177101436.926211</v>
       </c>
       <c r="D101">
-        <v>951.11824200000001</v>
+        <v>928.08487200000002</v>
       </c>
       <c r="E101">
-        <v>6973.4130649999997</v>
+        <v>6888.6656629999998</v>
       </c>
       <c r="F101">
-        <v>190979.97266100001</v>
+        <v>189910.70755200001</v>
       </c>
       <c r="G101">
         <v>20826.262921000001</v>
@@ -5111,7 +5111,7 @@
         <v>10653.218396</v>
       </c>
       <c r="I101">
-        <v>112925.28159</v>
+        <v>112810.159335</v>
       </c>
       <c r="J101">
         <v>10959.083887000001</v>
@@ -5134,19 +5134,19 @@
         <v>62500</v>
       </c>
       <c r="B102">
-        <v>494088808.54803598</v>
+        <v>471878885.355497</v>
       </c>
       <c r="C102">
-        <v>183887413.735549</v>
+        <v>178382142.08560601</v>
       </c>
       <c r="D102">
-        <v>959.87490300000002</v>
+        <v>935.94514900000001</v>
       </c>
       <c r="E102">
-        <v>7065.9131870000001</v>
+        <v>6977.1730129999996</v>
       </c>
       <c r="F102">
-        <v>190768.98866599999</v>
+        <v>189668.92571700001</v>
       </c>
       <c r="G102">
         <v>21131.876239000001</v>
@@ -5155,7 +5155,7 @@
         <v>10767.914932</v>
       </c>
       <c r="I102">
-        <v>113163.06114999999</v>
+        <v>113042.180553</v>
       </c>
       <c r="J102">
         <v>11053.935647</v>
@@ -5178,19 +5178,19 @@
         <v>63125</v>
       </c>
       <c r="B103">
-        <v>501430964.239299</v>
+        <v>478244438.08717901</v>
       </c>
       <c r="C103">
-        <v>185343685.703107</v>
+        <v>179632108.564724</v>
       </c>
       <c r="D103">
-        <v>968.52166599999998</v>
+        <v>943.67216199999996</v>
       </c>
       <c r="E103">
-        <v>7158.6753879999997</v>
+        <v>7065.8015290000003</v>
       </c>
       <c r="F103">
-        <v>190556.81968499999</v>
+        <v>189425.46814300001</v>
       </c>
       <c r="G103">
         <v>21438.699305999999</v>
@@ -5199,7 +5199,7 @@
         <v>10881.854595999999</v>
       </c>
       <c r="I103">
-        <v>113403.029876</v>
+        <v>113276.166841</v>
       </c>
       <c r="J103">
         <v>11147.420599999999</v>
@@ -5222,19 +5222,19 @@
         <v>63750</v>
       </c>
       <c r="B104">
-        <v>508808867.11145598</v>
+        <v>484612612.17708701</v>
       </c>
       <c r="C104">
-        <v>186773325.62474701</v>
+        <v>180850594.479105</v>
       </c>
       <c r="D104">
-        <v>977.05434000000002</v>
+        <v>951.261573</v>
       </c>
       <c r="E104">
-        <v>7251.6667340000004</v>
+        <v>7154.5153710000004</v>
       </c>
       <c r="F104">
-        <v>190343.50199700001</v>
+        <v>189180.36941399999</v>
       </c>
       <c r="G104">
         <v>21746.642956</v>
@@ -5243,7 +5243,7 @@
         <v>10994.986521999999</v>
       </c>
       <c r="I104">
-        <v>113645.16029299999</v>
+        <v>113512.084881</v>
       </c>
       <c r="J104">
         <v>11239.497449</v>
@@ -5266,19 +5266,19 @@
         <v>64375</v>
       </c>
       <c r="B105">
-        <v>516221286.09446102</v>
+        <v>490981514.47667098</v>
       </c>
       <c r="C105">
-        <v>188175629.80843601</v>
+        <v>182036892.63007399</v>
       </c>
       <c r="D105">
-        <v>985.46886099999995</v>
+        <v>958.70919000000004</v>
       </c>
       <c r="E105">
-        <v>7344.8539280000005</v>
+        <v>7243.2783609999997</v>
       </c>
       <c r="F105">
-        <v>190129.07227100001</v>
+        <v>188933.664644</v>
       </c>
       <c r="G105">
         <v>22055.616624999999</v>
@@ -5287,7 +5287,7 @@
         <v>11107.260597</v>
       </c>
       <c r="I105">
-        <v>113889.423878</v>
+        <v>113749.900274</v>
       </c>
       <c r="J105">
         <v>11330.126668000001</v>
@@ -5310,19 +5310,19 @@
         <v>65000</v>
       </c>
       <c r="B106">
-        <v>523666975.22287703</v>
+        <v>497349241.51311201</v>
       </c>
       <c r="C106">
-        <v>189549926.24887401</v>
+        <v>183190331.856594</v>
       </c>
       <c r="D106">
-        <v>993.761301</v>
+        <v>966.01097100000004</v>
       </c>
       <c r="E106">
-        <v>7438.2033540000002</v>
+        <v>7332.0540259999998</v>
       </c>
       <c r="F106">
-        <v>189913.56750400001</v>
+        <v>188685.389433</v>
       </c>
       <c r="G106">
         <v>22365.528451999999</v>
@@ -5331,7 +5331,7 @@
         <v>11218.627549999999</v>
       </c>
       <c r="I106">
-        <v>114135.79109300001</v>
+        <v>113989.57757199999</v>
       </c>
       <c r="J106">
         <v>11419.270574</v>
@@ -5354,19 +5354,19 @@
         <v>65625</v>
       </c>
       <c r="B107">
-        <v>531144674.80551398</v>
+        <v>503713881.37469399</v>
       </c>
       <c r="C107">
-        <v>190895575.84838599</v>
+        <v>184310278.301384</v>
       </c>
       <c r="D107">
-        <v>1001.927872</v>
+        <v>973.16303700000003</v>
       </c>
       <c r="E107">
-        <v>7531.6811090000001</v>
+        <v>7420.8056429999997</v>
       </c>
       <c r="F107">
-        <v>189697.02497200001</v>
+        <v>188435.57981699999</v>
       </c>
       <c r="G107">
         <v>22676.285387</v>
@@ -5375,7 +5375,7 @@
         <v>11329.039033999999</v>
       </c>
       <c r="I107">
-        <v>114384.231418</v>
+        <v>114231.08031400001</v>
       </c>
       <c r="J107">
         <v>11506.893402</v>
@@ -5398,19 +5398,19 @@
         <v>66250</v>
       </c>
       <c r="B108">
-        <v>538653112.60255003</v>
+        <v>510073515.60322797</v>
       </c>
       <c r="C108">
-        <v>192211973.55875701</v>
+        <v>185396136.586294</v>
       </c>
       <c r="D108">
-        <v>1009.964938</v>
+        <v>980.16167600000006</v>
       </c>
       <c r="E108">
-        <v>7625.2530539999998</v>
+        <v>7509.4962839999998</v>
       </c>
       <c r="F108">
-        <v>189479.482169</v>
+        <v>188184.27221699999</v>
       </c>
       <c r="G108">
         <v>22987.793293999999</v>
@@ -5419,7 +5419,7 @@
         <v>11438.44771</v>
       </c>
       <c r="I108">
-        <v>114634.713386</v>
+        <v>114474.371073</v>
       </c>
       <c r="J108">
         <v>11592.961372</v>
@@ -5442,19 +5442,19 @@
         <v>66875</v>
       </c>
       <c r="B109">
-        <v>546191005.00723004</v>
+        <v>516426221.08857399</v>
       </c>
       <c r="C109">
-        <v>193498549.43929499</v>
+        <v>186447350.891913</v>
       </c>
       <c r="D109">
-        <v>1017.869018</v>
+        <v>987.00334999999995</v>
       </c>
       <c r="E109">
-        <v>7718.8848500000004</v>
+        <v>7598.0888640000003</v>
       </c>
       <c r="F109">
-        <v>189260.97675100001</v>
+        <v>187931.503387</v>
       </c>
       <c r="G109">
         <v>23299.957069</v>
@@ -5463,7 +5463,7 @@
         <v>11546.807333999999</v>
       </c>
       <c r="I109">
-        <v>114887.204621</v>
+        <v>114719.411492</v>
       </c>
       <c r="J109">
         <v>11677.442745</v>
@@ -5486,19 +5486,19 @@
         <v>67500</v>
       </c>
       <c r="B110">
-        <v>553757058.22926497</v>
+        <v>522770071.96040303</v>
       </c>
       <c r="C110">
-        <v>194754769.62639999</v>
+        <v>187463405.936472</v>
       </c>
       <c r="D110">
-        <v>1025.6367909999999</v>
+        <v>993.68470400000001</v>
       </c>
       <c r="E110">
-        <v>7812.5420029999996</v>
+        <v>7686.5461830000004</v>
       </c>
       <c r="F110">
-        <v>189041.54647299999</v>
+        <v>187677.310363</v>
       </c>
       <c r="G110">
         <v>23612.680748999999</v>
@@ -5507,7 +5507,7 @@
         <v>11654.072824999999</v>
       </c>
       <c r="I110">
-        <v>115141.671875</v>
+        <v>114966.16233000001</v>
       </c>
       <c r="J110">
         <v>11760.307885</v>
@@ -5530,19 +5530,19 @@
         <v>68125</v>
       </c>
       <c r="B111">
-        <v>561349969.47713697</v>
+        <v>529103141.47231197</v>
       </c>
       <c r="C111">
-        <v>195980137.210107</v>
+        <v>188443827.84937599</v>
       </c>
       <c r="D111">
-        <v>1033.2651080000001</v>
+        <v>1000.202569</v>
       </c>
       <c r="E111">
-        <v>7906.1899089999997</v>
+        <v>7774.8309810000001</v>
       </c>
       <c r="F111">
-        <v>188821.22913200001</v>
+        <v>187421.730408</v>
       </c>
       <c r="G111">
         <v>23925.867629</v>
@@ -5551,7 +5551,7 @@
         <v>11760.200355000001</v>
       </c>
       <c r="I111">
-        <v>115398.08107299999</v>
+        <v>115214.583506</v>
       </c>
       <c r="J111">
         <v>11841.529301</v>
@@ -5574,19 +5574,19 @@
         <v>68750</v>
       </c>
       <c r="B112">
-        <v>568968428.13648999</v>
+        <v>535423503.873469</v>
       </c>
       <c r="C112">
-        <v>197174193.01347399</v>
+        <v>189388184.93512601</v>
       </c>
       <c r="D112">
-        <v>1040.750988</v>
+        <v>1006.5539669999999</v>
       </c>
       <c r="E112">
-        <v>7999.7938960000001</v>
+        <v>7862.9059770000003</v>
       </c>
       <c r="F112">
-        <v>188600.062508</v>
+        <v>187164.80095999999</v>
       </c>
       <c r="G112">
         <v>24239.420382</v>
@@ -5595,7 +5595,7 @@
         <v>11865.14741</v>
       </c>
       <c r="I112">
-        <v>115656.39735</v>
+        <v>115464.634148</v>
       </c>
       <c r="J112">
         <v>11921.081695999999</v>
@@ -5618,19 +5618,19 @@
         <v>69375</v>
       </c>
       <c r="B113">
-        <v>576611116.94182503</v>
+        <v>541729236.26297498</v>
       </c>
       <c r="C113">
-        <v>198336516.27118</v>
+        <v>190296088.32396999</v>
       </c>
       <c r="D113">
-        <v>1048.0916340000001</v>
+        <v>1012.736119</v>
       </c>
       <c r="E113">
-        <v>8093.31927</v>
+        <v>7950.7339279999997</v>
       </c>
       <c r="F113">
-        <v>188378.08430399999</v>
+        <v>186906.55957799999</v>
       </c>
       <c r="G113">
         <v>24553.241177</v>
@@ -5639,7 +5639,7 @@
         <v>11968.872871</v>
       </c>
       <c r="I113">
-        <v>115916.585097</v>
+        <v>115716.27264</v>
       </c>
       <c r="J113">
         <v>11998.942005000001</v>
@@ -5662,19 +5662,19 @@
         <v>70000</v>
       </c>
       <c r="B114">
-        <v>584276713.13872695</v>
+        <v>548018420.42217004</v>
       </c>
       <c r="C114">
-        <v>199466725.204362</v>
+        <v>191167192.50632301</v>
       </c>
       <c r="D114">
-        <v>1055.2844259999999</v>
+        <v>1018.746451</v>
       </c>
       <c r="E114">
-        <v>8186.7313610000001</v>
+        <v>8038.2776679999997</v>
       </c>
       <c r="F114">
-        <v>188155.332085</v>
+        <v>186647.04389100001</v>
       </c>
       <c r="G114">
         <v>24867.231802999999</v>
@@ -5683,7 +5683,7 @@
         <v>12071.337073000001</v>
       </c>
       <c r="I114">
-        <v>116178.608005</v>
+        <v>115969.45667</v>
       </c>
       <c r="J114">
         <v>12075.089421000001</v>
@@ -5706,19 +5706,19 @@
         <v>70625</v>
       </c>
       <c r="B115">
-        <v>591963889.63392901</v>
+        <v>554289144.62024105</v>
       </c>
       <c r="C115">
-        <v>200564477.48939499</v>
+        <v>192001195.74870101</v>
       </c>
       <c r="D115">
-        <v>1062.326935</v>
+        <v>1024.5825890000001</v>
       </c>
       <c r="E115">
-        <v>8279.9955640000007</v>
+        <v>8125.5001620000003</v>
       </c>
       <c r="F115">
-        <v>187931.843223</v>
+        <v>186386.291543</v>
       </c>
       <c r="G115">
         <v>25181.293787999999</v>
@@ -5727,7 +5727,7 @@
         <v>12172.501872999999</v>
       </c>
       <c r="I115">
-        <v>116442.429112</v>
+        <v>116224.143282</v>
       </c>
       <c r="J115">
         <v>12149.505424000001</v>
@@ -5750,19 +5750,19 @@
         <v>71250</v>
       </c>
       <c r="B116">
-        <v>599671316.13063097</v>
+        <v>560539505.38860404</v>
       </c>
       <c r="C116">
-        <v>201629470.61897999</v>
+        <v>192797840.38965899</v>
       </c>
       <c r="D116">
-        <v>1069.216921</v>
+        <v>1030.2423739999999</v>
       </c>
       <c r="E116">
-        <v>8373.0773900000004</v>
+        <v>8212.3645560000004</v>
       </c>
       <c r="F116">
-        <v>187707.65483799999</v>
+        <v>186124.34014099999</v>
       </c>
       <c r="G116">
         <v>25495.328523</v>
@@ -5771,7 +5771,7 @@
         <v>12272.33071</v>
       </c>
       <c r="I116">
-        <v>116708.010846</v>
+        <v>116480.288929</v>
       </c>
       <c r="J116">
         <v>12222.1738</v>
@@ -5794,19 +5794,19 @@
         <v>71875</v>
       </c>
       <c r="B117">
-        <v>607397660.24660504</v>
+        <v>566767609.25972795</v>
       </c>
       <c r="C117">
-        <v>202661442.15458199</v>
+        <v>193556913.01491001</v>
       </c>
       <c r="D117">
-        <v>1075.9523360000001</v>
+        <v>1035.7238560000001</v>
       </c>
       <c r="E117">
-        <v>8465.9425080000001</v>
+        <v>8298.8342209999992</v>
       </c>
       <c r="F117">
-        <v>187482.803739</v>
+        <v>185861.227208</v>
       </c>
       <c r="G117">
         <v>25809.237389999998</v>
@@ -5815,7 +5815,7 @@
         <v>12370.788656999999</v>
       </c>
       <c r="I117">
-        <v>116975.315076</v>
+        <v>116737.849523</v>
       </c>
       <c r="J117">
         <v>12293.080649</v>
@@ -5838,19 +5838,19 @@
         <v>72500</v>
       </c>
       <c r="B118">
-        <v>615141588.61280704</v>
+        <v>572971574.46631098</v>
       </c>
       <c r="C118">
-        <v>203660169.86981401</v>
+        <v>194278244.511491</v>
       </c>
       <c r="D118">
-        <v>1082.53133</v>
+        <v>1041.0253009999999</v>
       </c>
       <c r="E118">
-        <v>8558.5567900000005</v>
+        <v>8384.8728059999994</v>
       </c>
       <c r="F118">
-        <v>187257.32637600001</v>
+        <v>185596.990127</v>
       </c>
       <c r="G118">
         <v>26122.921880000002</v>
@@ -5859,7 +5859,7 @@
         <v>12467.842474999999</v>
       </c>
       <c r="I118">
-        <v>117244.30316</v>
+        <v>116996.780487</v>
       </c>
       <c r="J118">
         <v>12362.214395000001</v>
@@ -5882,19 +5882,19 @@
         <v>73125</v>
       </c>
       <c r="B119" s="1">
-        <v>622901767.95038199</v>
+        <v>579149532.59691596</v>
       </c>
       <c r="C119">
-        <v>204625471.78493199</v>
+        <v>194961710.00139099</v>
       </c>
       <c r="D119">
-        <v>1088.9522469999999</v>
+        <v>1046.14519</v>
       </c>
       <c r="E119">
-        <v>8650.8863560000009</v>
+        <v>8470.444281</v>
       </c>
       <c r="F119">
-        <v>187031.25877700001</v>
+        <v>185331.66609799999</v>
       </c>
       <c r="G119">
         <v>26436.283719999999</v>
@@ -5903,7 +5903,7 @@
         <v>12563.460660999999</v>
       </c>
       <c r="I119">
-        <v>117514.935992</v>
+        <v>117257.03681200001</v>
       </c>
       <c r="J119">
         <v>12429.565782</v>
@@ -5926,19 +5926,19 @@
         <v>73750</v>
       </c>
       <c r="B120" s="1">
-        <v>630676866.12414801</v>
+        <v>585299630.20450199</v>
       </c>
       <c r="C120">
-        <v>205557206.09311399</v>
+        <v>195607228.65570199</v>
       </c>
       <c r="D120">
-        <v>1095.2136330000001</v>
+        <v>1051.082222</v>
       </c>
       <c r="E120">
-        <v>8742.8976180000009</v>
+        <v>8555.5129890000007</v>
       </c>
       <c r="F120">
-        <v>186804.636501</v>
+        <v>185065.29208300001</v>
       </c>
       <c r="G120">
         <v>26749.224997000001</v>
@@ -5947,7 +5947,7 @@
         <v>12657.613486</v>
       </c>
       <c r="I120">
-        <v>117787.174054</v>
+        <v>117518.573109</v>
       </c>
       <c r="J120">
         <v>12495.127866000001</v>
@@ -5970,19 +5970,19 @@
         <v>74375</v>
       </c>
       <c r="B121" s="1">
-        <v>638465553.17082095</v>
+        <v>591420030.36452103</v>
       </c>
       <c r="C121">
-        <v>206455270.979628</v>
+        <v>196214763.39083299</v>
       </c>
       <c r="D121">
-        <v>1101.3142319999999</v>
+        <v>1055.8353139999999</v>
       </c>
       <c r="E121">
-        <v>8834.5573260000001</v>
+        <v>8640.0436900000004</v>
       </c>
       <c r="F121">
-        <v>186577.49458900001</v>
+        <v>184797.90476800001</v>
       </c>
       <c r="G121">
         <v>27061.648277</v>
@@ -5991,7 +5991,7 @@
         <v>12750.273037999999</v>
       </c>
       <c r="I121">
-        <v>118060.977462</v>
+        <v>117781.34366499999</v>
       </c>
       <c r="J121">
         <v>12558.896005000001</v>
@@ -6014,19 +6014,19 @@
         <v>75000</v>
       </c>
       <c r="B122" s="1">
-        <v>646266502.30044997</v>
+        <v>597508914.17953897</v>
       </c>
       <c r="C122">
-        <v>207319604.33550599</v>
+        <v>196784320.44886199</v>
       </c>
       <c r="D122">
-        <v>1107.25299</v>
+        <v>1060.4035980000001</v>
       </c>
       <c r="E122">
-        <v>8925.8326070000003</v>
+        <v>8724.0016090000008</v>
       </c>
       <c r="F122">
-        <v>186349.867509</v>
+        <v>184529.54051300001</v>
       </c>
       <c r="G122">
         <v>27373.456727000001</v>
@@ -6035,7 +6035,7 @@
         <v>12841.41325</v>
       </c>
       <c r="I122">
-        <v>118336.30602</v>
+        <v>118045.302493</v>
       </c>
       <c r="J122">
         <v>12620.867833</v>
@@ -6058,19 +6058,19 @@
         <v>75625</v>
       </c>
       <c r="B123" s="1">
-        <v>654078390.86968994</v>
+        <v>603564482.22765994</v>
       </c>
       <c r="C123">
-        <v>208150183.36772501</v>
+        <v>197315948.86463699</v>
       </c>
       <c r="D123">
-        <v>1113.0290500000001</v>
+        <v>1064.786427</v>
       </c>
       <c r="E123">
-        <v>9016.6910079999998</v>
+        <v>8807.3524749999997</v>
       </c>
       <c r="F123">
-        <v>186121.78911700001</v>
+        <v>184260.23530900001</v>
       </c>
       <c r="G123">
         <v>27684.554237</v>
@@ -6079,7 +6079,7 @@
         <v>12931.009935</v>
       </c>
       <c r="I123">
-        <v>118613.11926799999</v>
+        <v>118310.403393</v>
       </c>
       <c r="J123">
         <v>12681.043240000001</v>
@@ -6102,19 +6102,19 @@
         <v>76250</v>
       </c>
       <c r="B124" s="1">
-        <v>661899901.32573903</v>
+        <v>609584955.95227098</v>
       </c>
       <c r="C124">
-        <v>208947024.10838899</v>
+        <v>197809739.822685</v>
       </c>
       <c r="D124">
-        <v>1118.6417570000001</v>
+        <v>1068.983365</v>
       </c>
       <c r="E124">
-        <v>9107.1005409999998</v>
+        <v>8890.0625710000004</v>
       </c>
       <c r="F124">
-        <v>185893.29260799999</v>
+        <v>183990.02474299999</v>
       </c>
       <c r="G124">
         <v>27994.845537000001</v>
@@ -6123,7 +6123,7 @@
         <v>13019.040799</v>
       </c>
       <c r="I124">
-        <v>118891.37652999999</v>
+        <v>118576.6</v>
       </c>
       <c r="J124">
         <v>12739.424335</v>
@@ -6146,19 +6146,19 @@
         <v>76875</v>
       </c>
       <c r="B125" s="1">
-        <v>669729722.11991203</v>
+        <v>615568578.99095702</v>
       </c>
       <c r="C125">
-        <v>209710180.82581601</v>
+        <v>198265825.90750501</v>
       </c>
       <c r="D125">
-        <v>1124.090651</v>
+        <v>1072.9941920000001</v>
       </c>
       <c r="E125">
-        <v>9197.0297190000001</v>
+        <v>8972.0987760000007</v>
       </c>
       <c r="F125">
-        <v>185664.41047800001</v>
+        <v>183718.94395399999</v>
       </c>
       <c r="G125">
         <v>28304.236309</v>
@@ -6167,7 +6167,7 @@
         <v>13105.48547</v>
       </c>
       <c r="I125">
-        <v>119171.03697</v>
+        <v>118843.845841</v>
       </c>
       <c r="J125">
         <v>12796.015412000001</v>
@@ -6190,19 +6190,19 @@
         <v>77500</v>
       </c>
       <c r="B126" s="1">
-        <v>677566548.59000695</v>
+        <v>621513618.44171095</v>
       </c>
       <c r="C126">
-        <v>210439745.340866</v>
+        <v>198684380.25129101</v>
       </c>
       <c r="D126">
-        <v>1129.37547</v>
+        <v>1076.8188970000001</v>
       </c>
       <c r="E126">
-        <v>9286.447596</v>
+        <v>9053.4285990000008</v>
       </c>
       <c r="F126">
-        <v>185435.17448300001</v>
+        <v>183447.0276</v>
       </c>
       <c r="G126">
         <v>28612.633306</v>
@@ -6211,7 +6211,7 @@
         <v>13190.325503</v>
       </c>
       <c r="I126">
-        <v>119452.059632</v>
+        <v>119112.09438900001</v>
       </c>
       <c r="J126">
         <v>12850.822902</v>
@@ -6234,19 +6234,19 @@
         <v>78125</v>
       </c>
       <c r="B127" s="1">
-        <v>685409083.81077099</v>
+        <v>627418366.06485903</v>
       </c>
       <c r="C127">
-        <v>211135846.25226301</v>
+        <v>199065615.583565</v>
       </c>
       <c r="D127">
-        <v>1134.4961430000001</v>
+        <v>1080.45768</v>
       </c>
       <c r="E127">
-        <v>9375.3238060000003</v>
+        <v>9134.0202279999994</v>
       </c>
       <c r="F127">
-        <v>185205.61560799999</v>
+        <v>183174.309824</v>
       </c>
       <c r="G127">
         <v>28919.944456000001</v>
@@ -6255,7 +6255,7 @@
         <v>13273.544395000001</v>
       </c>
       <c r="I127">
-        <v>119734.4035</v>
+        <v>119381.299113</v>
       </c>
       <c r="J127">
         <v>12903.855329</v>
@@ -6278,19 +6278,19 @@
         <v>78750</v>
       </c>
       <c r="B128" s="1">
-        <v>693256039.41193497</v>
+        <v>633281139.419415</v>
       </c>
       <c r="C128">
-        <v>211798648.075057</v>
+        <v>199409783.18763301</v>
       </c>
       <c r="D128">
-        <v>1139.452792</v>
+        <v>1083.9109430000001</v>
       </c>
       <c r="E128">
-        <v>9463.6285950000001</v>
+        <v>9213.8425599999991</v>
       </c>
       <c r="F128">
-        <v>184975.764027</v>
+        <v>182900.824222</v>
       </c>
       <c r="G128">
         <v>29226.078978000001</v>
@@ -6299,7 +6299,7 @@
         <v>13355.127581000001</v>
       </c>
       <c r="I128">
-        <v>120018.02753599999</v>
+        <v>119651.413533</v>
       </c>
       <c r="J128">
         <v>12955.123251999999</v>
@@ -6322,19 +6322,19 @@
         <v>79375</v>
       </c>
       <c r="B129" s="1">
-        <v>701106136.36344504</v>
+        <v>639100282.93288004</v>
       </c>
       <c r="C129">
-        <v>212428350.29671201</v>
+        <v>199717171.769162</v>
       </c>
       <c r="D129">
-        <v>1144.2457260000001</v>
+        <v>1087.1792889999999</v>
       </c>
       <c r="E129">
-        <v>9551.332864</v>
+        <v>9292.8652419999999</v>
       </c>
       <c r="F129">
-        <v>184745.64908100001</v>
+        <v>182626.603818</v>
       </c>
       <c r="G129">
         <v>29530.947476000001</v>
@@ -6343,7 +6343,7 @@
         <v>13435.062438999999</v>
       </c>
       <c r="I129">
-        <v>120302.890734</v>
+        <v>119922.391269</v>
       </c>
       <c r="J129">
         <v>13004.639209000001</v>
@@ -6366,19 +6366,19 @@
         <v>80000</v>
       </c>
       <c r="B130" s="1">
-        <v>708958105.72765696</v>
+        <v>644874168.90378106</v>
       </c>
       <c r="C130">
-        <v>213025186.35567299</v>
+        <v>199988106.24252701</v>
       </c>
       <c r="D130">
-        <v>1148.875436</v>
+        <v>1090.2635170000001</v>
       </c>
       <c r="E130">
-        <v>9638.4081939999996</v>
+        <v>9371.0587049999995</v>
       </c>
       <c r="F130">
-        <v>184515.29924600001</v>
+        <v>182351.681033</v>
       </c>
       <c r="G130">
         <v>29834.462049000002</v>
@@ -6387,7 +6387,7 @@
         <v>13513.338281</v>
       </c>
       <c r="I130">
-        <v>120588.952165</v>
+        <v>120194.186091</v>
       </c>
       <c r="J130">
         <v>13052.417653</v>
@@ -6410,19 +6410,19 @@
         <v>80625</v>
       </c>
       <c r="B131" s="1">
-        <v>716810689.37842798</v>
+        <v>650601198.436553</v>
       </c>
       <c r="C131">
-        <v>213589422.54750901</v>
+        <v>200222946.440882</v>
       </c>
       <c r="D131">
-        <v>1153.342594</v>
+        <v>1093.1646169999999</v>
       </c>
       <c r="E131">
-        <v>9724.8268829999997</v>
+        <v>9448.3941950000008</v>
       </c>
       <c r="F131">
-        <v>184284.74211299999</v>
+        <v>182076.087669</v>
       </c>
       <c r="G131">
         <v>30136.536383999999</v>
@@ -6431,7 +6431,7 @@
         <v>13589.946341999999</v>
       </c>
       <c r="I131">
-        <v>120876.171024</v>
+        <v>120466.75197</v>
       </c>
       <c r="J131">
         <v>13098.474883999999</v>
@@ -6454,19 +6454,19 @@
         <v>81250</v>
       </c>
       <c r="B132" s="1">
-        <v>724662640.68714404</v>
+        <v>656279802.30861294</v>
       </c>
       <c r="C132">
-        <v>214121356.86400801</v>
+        <v>200422085.75615701</v>
       </c>
       <c r="D132">
-        <v>1157.6480469999999</v>
+        <v>1095.883765</v>
       </c>
       <c r="E132">
-        <v>9810.5619709999992</v>
+        <v>9524.8438029999998</v>
       </c>
       <c r="F132">
-        <v>184054.00436799999</v>
+        <v>181799.85488500001</v>
       </c>
       <c r="G132">
         <v>30437.085846999998</v>
@@ -6475,7 +6475,7 @@
         <v>13664.879763999999</v>
       </c>
       <c r="I132">
-        <v>121164.506672</v>
+        <v>120740.043125</v>
       </c>
       <c r="J132">
         <v>13142.828981000001</v>
@@ -6498,19 +6498,19 @@
         <v>81875</v>
       </c>
       <c r="B133" s="1">
-        <v>732512725.17588603</v>
+        <v>661908441.76979303</v>
       </c>
       <c r="C133">
-        <v>214621317.770805</v>
+        <v>200585949.715446</v>
       </c>
       <c r="D133">
-        <v>1161.792811</v>
+        <v>1098.422315</v>
       </c>
       <c r="E133">
-        <v>9895.5872749999999</v>
+        <v>9600.3804990000008</v>
       </c>
       <c r="F133">
-        <v>183823.11177600001</v>
+        <v>181523.013179</v>
       </c>
       <c r="G133">
         <v>30736.027578000001</v>
@@ -6519,7 +6519,7 @@
         <v>13738.133575</v>
       </c>
       <c r="I133">
-        <v>121453.918684</v>
+        <v>121014.014066</v>
       </c>
       <c r="J133">
         <v>13185.499723999999</v>
@@ -6542,19 +6542,19 @@
         <v>82500</v>
       </c>
       <c r="B134" s="1">
-        <v>740359721.13803697</v>
+        <v>667485609.27451706</v>
       </c>
       <c r="C134">
-        <v>215089662.92929101</v>
+        <v>200714994.50035</v>
       </c>
       <c r="D134">
-        <v>1165.778067</v>
+        <v>1100.781796</v>
       </c>
       <c r="E134">
-        <v>9979.8774099999991</v>
+        <v>9674.9781500000008</v>
       </c>
       <c r="F134">
-        <v>183592.08916500001</v>
+        <v>181245.592378</v>
       </c>
       <c r="G134">
         <v>31033.280569999999</v>
@@ -6563,7 +6563,7 @@
         <v>13809.704669000001</v>
       </c>
       <c r="I134">
-        <v>121744.366887</v>
+        <v>121288.619645</v>
       </c>
       <c r="J134">
         <v>13226.508517</v>
@@ -6586,19 +6586,19 @@
         <v>83125</v>
       </c>
       <c r="B135" s="1">
-        <v>748202420.22674298</v>
+        <v>673009829.14738595</v>
       </c>
       <c r="C135">
-        <v>215526777.868682</v>
+        <v>200809705.41604599</v>
       </c>
       <c r="D135">
-        <v>1169.605155</v>
+        <v>1102.963904</v>
       </c>
       <c r="E135">
-        <v>10063.407814</v>
+        <v>9748.6115539999992</v>
       </c>
       <c r="F135">
-        <v>183360.96041900001</v>
+        <v>180967.62162399999</v>
       </c>
       <c r="G135">
         <v>31328.765753</v>
@@ -6607,7 +6607,7 @@
         <v>13879.591770000001</v>
       </c>
       <c r="I135">
-        <v>122035.81140399999</v>
+        <v>121563.81509400001</v>
       </c>
       <c r="J135">
         <v>13265.878309</v>
@@ -6630,19 +6630,19 @@
         <v>83750</v>
       </c>
       <c r="B136" s="1">
-        <v>756039628.01175499</v>
+        <v>678479658.183056</v>
       </c>
       <c r="C136">
-        <v>215933074.614243</v>
+        <v>200870595.31688499</v>
       </c>
       <c r="D136">
-        <v>1173.275566</v>
+        <v>1104.970493</v>
       </c>
       <c r="E136">
-        <v>10146.154773</v>
+        <v>9821.2564559999992</v>
       </c>
       <c r="F136">
-        <v>183129.74847200001</v>
+        <v>180689.12936600001</v>
       </c>
       <c r="G136">
         <v>31622.406067</v>
@@ -6651,7 +6651,7 @@
         <v>13947.795405000001</v>
       </c>
       <c r="I136">
-        <v>122328.21269299999</v>
+        <v>121839.556069</v>
       </c>
       <c r="J136">
         <v>13303.633511</v>
@@ -6674,19 +6674,19 @@
         <v>84375</v>
       </c>
       <c r="B137" s="1">
-        <v>763870164.50524402</v>
+        <v>683893686.18151104</v>
       </c>
       <c r="C137">
-        <v>216308990.27768499</v>
+        <v>200898202.99538499</v>
       </c>
       <c r="D137">
-        <v>1176.790939</v>
+        <v>1106.803572</v>
       </c>
       <c r="E137">
-        <v>10228.095439999999</v>
+        <v>9892.8895699999994</v>
       </c>
       <c r="F137">
-        <v>182898.47530200001</v>
+        <v>180410.14335500001</v>
       </c>
       <c r="G137">
         <v>31914.126536</v>
@@ -6695,7 +6695,7 @@
         <v>14014.317865999999</v>
       </c>
       <c r="I137">
-        <v>122621.531584</v>
+        <v>122115.798693</v>
       </c>
       <c r="J137">
         <v>13339.799908999999</v>
@@ -6718,19 +6718,19 @@
         <v>85000</v>
       </c>
       <c r="B138" s="1">
-        <v>771692864.65728199</v>
+        <v>689250536.42005002</v>
       </c>
       <c r="C138">
-        <v>216654985.615825</v>
+        <v>200893091.54149401</v>
       </c>
       <c r="D138">
-        <v>1180.153055</v>
+        <v>1108.4652940000001</v>
       </c>
       <c r="E138">
-        <v>10309.207853</v>
+        <v>9963.4885969999996</v>
       </c>
       <c r="F138">
-        <v>182667.161937</v>
+        <v>180130.69063999999</v>
       </c>
       <c r="G138">
         <v>32203.854329999998</v>
@@ -6739,7 +6739,7 @@
         <v>14079.163168999999</v>
       </c>
       <c r="I138">
-        <v>122915.72931900001</v>
+        <v>122392.49958600001</v>
       </c>
       <c r="J138">
         <v>13374.404579</v>
@@ -6762,19 +6762,19 @@
         <v>85625</v>
       </c>
       <c r="B139" s="1">
-        <v>779506578.82173598</v>
+        <v>694548866.06348801</v>
       </c>
       <c r="C139">
-        <v>216971543.563537</v>
+        <v>200855846.678951</v>
       </c>
       <c r="D139">
-        <v>1183.363824</v>
+        <v>1109.9579510000001</v>
       </c>
       <c r="E139">
-        <v>10389.470953</v>
+        <v>10033.032241000001</v>
       </c>
       <c r="F139">
-        <v>182435.82845100001</v>
+        <v>179850.79757299999</v>
       </c>
       <c r="G139">
         <v>32491.518830000001</v>
@@ -6783,7 +6783,7 @@
         <v>14142.337009999999</v>
       </c>
       <c r="I139">
-        <v>123210.76758299999</v>
+        <v>122669.615909</v>
       </c>
       <c r="J139">
         <v>13407.475801000001</v>
@@ -6806,19 +6806,19 @@
         <v>86250</v>
       </c>
       <c r="B140" s="1">
-        <v>787310173.19337106</v>
+        <v>699787366.51423395</v>
       </c>
       <c r="C140">
-        <v>217259167.74703801</v>
+        <v>200787075.08550099</v>
       </c>
       <c r="D140">
-        <v>1186.425285</v>
+        <v>1111.2839630000001</v>
       </c>
       <c r="E140">
-        <v>10468.864598</v>
+        <v>10101.500223999999</v>
       </c>
       <c r="F140">
-        <v>182204.49397899999</v>
+        <v>179570.48980400001</v>
       </c>
       <c r="G140">
         <v>32777.051682999998</v>
@@ -6827,7 +6827,7 @@
         <v>14203.846721</v>
       </c>
       <c r="I140">
-        <v>123506.60853899999</v>
+        <v>122947.10539700001</v>
       </c>
       <c r="J140">
         <v>13439.042966999999</v>
@@ -6850,19 +6850,19 @@
         <v>86875</v>
       </c>
       <c r="B141" s="1">
-        <v>795102530.21703506</v>
+        <v>704964763.70407701</v>
       </c>
       <c r="C141">
-        <v>217518380.98341799</v>
+        <v>200687402.70361701</v>
       </c>
       <c r="D141">
-        <v>1189.339596</v>
+        <v>1112.445874</v>
       </c>
       <c r="E141">
-        <v>10547.369573</v>
+        <v>10168.873293000001</v>
       </c>
       <c r="F141">
-        <v>181973.176721</v>
+        <v>179289.79229300001</v>
       </c>
       <c r="G141">
         <v>33060.386851000003</v>
@@ -6871,7 +6871,7 @@
         <v>14263.701215999999</v>
       </c>
       <c r="I141">
-        <v>123803.21485999999</v>
+        <v>123224.926387</v>
       </c>
       <c r="J141">
         <v>13469.136490999999</v>
@@ -6894,19 +6894,19 @@
         <v>87500</v>
       </c>
       <c r="B142" s="1">
-        <v>802882548.96978796</v>
+        <v>710079818.32963896</v>
       </c>
       <c r="C142">
-        <v>217749723.77225599</v>
+        <v>200557473.04821399</v>
       </c>
       <c r="D142">
-        <v>1192.109025</v>
+        <v>1113.446342</v>
       </c>
       <c r="E142">
-        <v>10624.967606</v>
+        <v>10235.133234999999</v>
       </c>
       <c r="F142">
-        <v>181741.89395699999</v>
+        <v>179008.72931600001</v>
       </c>
       <c r="G142">
         <v>33341.460658999997</v>
@@ -6915,7 +6915,7 @@
         <v>14321.910942</v>
       </c>
       <c r="I142">
-        <v>124100.549759</v>
+        <v>123503.037856</v>
       </c>
       <c r="J142">
         <v>13497.787722999999</v>
@@ -6938,19 +6938,19 @@
         <v>88125</v>
       </c>
       <c r="B143" s="1">
-        <v>810649145.51691496</v>
+        <v>715131326.03357399</v>
       </c>
       <c r="C143">
-        <v>217953752.78501901</v>
+        <v>200397945.51769</v>
       </c>
       <c r="D143">
-        <v>1194.735948</v>
+        <v>1114.2881279999999</v>
       </c>
       <c r="E143">
-        <v>10701.641371</v>
+        <v>10300.262878</v>
       </c>
       <c r="F143">
-        <v>181510.662064</v>
+        <v>178727.32447299999</v>
       </c>
       <c r="G143">
         <v>33620.211834000002</v>
@@ -6959,7 +6959,7 @@
         <v>14378.487822999999</v>
       </c>
       <c r="I143">
-        <v>124398.577015</v>
+        <v>123781.399441</v>
       </c>
       <c r="J143">
         <v>13525.028858</v>
@@ -6982,19 +6982,19 @@
         <v>88750</v>
       </c>
       <c r="B144" s="1">
-        <v>818401253.24274099</v>
+        <v>720118117.53369403</v>
       </c>
       <c r="C144">
-        <v>218131039.357759</v>
+        <v>200209493.71438599</v>
       </c>
       <c r="D144">
-        <v>1197.222835</v>
+        <v>1114.9740919999999</v>
       </c>
       <c r="E144">
-        <v>10777.374496</v>
+        <v>10364.2461</v>
       </c>
       <c r="F144">
-        <v>181279.49653199999</v>
+        <v>178445.600706</v>
       </c>
       <c r="G144">
         <v>33896.581545000001</v>
@@ -7003,7 +7003,7 @@
         <v>14433.445204</v>
       </c>
       <c r="I144">
-        <v>124697.261002</v>
+        <v>124059.971473</v>
       </c>
       <c r="J144">
         <v>13550.892844</v>
@@ -7026,19 +7026,19 @@
         <v>89375</v>
       </c>
       <c r="B145" s="1">
-        <v>826137823.15720201</v>
+        <v>725039058.70229399</v>
       </c>
       <c r="C145">
-        <v>218282167.99244899</v>
+        <v>199992803.78033099</v>
       </c>
       <c r="D145">
-        <v>1199.5722479999999</v>
+        <v>1115.5071849999999</v>
       </c>
       <c r="E145">
-        <v>10852.151569</v>
+        <v>10427.067829</v>
       </c>
       <c r="F145">
-        <v>181048.41198899999</v>
+        <v>178163.58030599999</v>
       </c>
       <c r="G145">
         <v>34170.513426999998</v>
@@ -7047,7 +7047,7 @@
         <v>14486.797788</v>
       </c>
       <c r="I145">
-        <v>124996.56671100001</v>
+        <v>124338.714996</v>
       </c>
       <c r="J145">
         <v>13575.413297999999</v>
@@ -7070,19 +7070,19 @@
         <v>90000</v>
       </c>
       <c r="B146" s="1">
-        <v>833857824.179111</v>
+        <v>729893050.597996</v>
       </c>
       <c r="C146">
-        <v>218407734.87207299</v>
+        <v>199748572.75387499</v>
       </c>
       <c r="D146">
-        <v>1201.786828</v>
+        <v>1115.890437</v>
       </c>
       <c r="E146">
-        <v>10925.958140000001</v>
+        <v>10488.714045999999</v>
       </c>
       <c r="F146">
-        <v>180817.42222000001</v>
+        <v>177881.284938</v>
       </c>
       <c r="G146">
         <v>34441.953611999998</v>
@@ -7091,7 +7091,7 @@
         <v>14538.561581</v>
       </c>
       <c r="I146">
-        <v>125296.459773</v>
+        <v>124617.591793</v>
       </c>
       <c r="J146">
         <v>13598.624411999999</v>
@@ -7114,19 +7114,19 @@
         <v>90625</v>
       </c>
       <c r="B147" s="1">
-        <v>841560243.39707506</v>
+        <v>734679029.45250797</v>
       </c>
       <c r="C147">
-        <v>218508346.39435199</v>
+        <v>199477506.95250499</v>
       </c>
       <c r="D147">
-        <v>1203.8692940000001</v>
+        <v>1116.126949</v>
       </c>
       <c r="E147">
-        <v>10998.780719</v>
+        <v>10549.171779</v>
       </c>
       <c r="F147">
-        <v>180586.54019900001</v>
+        <v>177598.735655</v>
       </c>
       <c r="G147">
         <v>34710.850745999996</v>
@@ -7135,7 +7135,7 @@
         <v>14588.753827</v>
       </c>
       <c r="I147">
-        <v>125596.90648000001</v>
+        <v>124896.564402</v>
       </c>
       <c r="J147">
         <v>13620.560876</v>
@@ -7158,19 +7158,19 @@
         <v>91250</v>
       </c>
       <c r="B148" s="1">
-        <v>849244086.30897105</v>
+        <v>739395966.61471295</v>
       </c>
       <c r="C148">
-        <v>218584617.728726</v>
+        <v>199180320.38684601</v>
       </c>
       <c r="D148">
-        <v>1205.8224310000001</v>
+        <v>1116.2198920000001</v>
       </c>
       <c r="E148">
-        <v>11070.606777999999</v>
+        <v>10608.429104000001</v>
       </c>
       <c r="F148">
-        <v>180355.778112</v>
+        <v>177315.95292000001</v>
       </c>
       <c r="G148">
         <v>34977.156005999997</v>
@@ -7179,7 +7179,7 @@
         <v>14637.39294</v>
       </c>
       <c r="I148">
-        <v>125897.87380299999</v>
+        <v>125175.596139</v>
       </c>
       <c r="J148">
         <v>13641.257783999999</v>
@@ -7202,19 +7202,19 @@
         <v>91875</v>
       </c>
       <c r="B149" s="1">
-        <v>856908377.04092097</v>
+        <v>744042868.45452201</v>
       </c>
       <c r="C149">
-        <v>218637171.40093899</v>
+        <v>198857733.21050301</v>
       </c>
       <c r="D149">
-        <v>1207.6490839999999</v>
+        <v>1116.172487</v>
       </c>
       <c r="E149">
-        <v>11141.424744</v>
+        <v>10666.475136999999</v>
       </c>
       <c r="F149">
-        <v>180125.14739</v>
+        <v>177032.95662700001</v>
       </c>
       <c r="G149">
         <v>35240.823112999999</v>
@@ -7223,7 +7223,7 @@
         <v>14684.498449999999</v>
       </c>
       <c r="I149">
-        <v>126199.329411</v>
+        <v>125454.65111200001</v>
       </c>
       <c r="J149">
         <v>13660.750556999999</v>
@@ -7246,19 +7246,19 @@
         <v>92500</v>
       </c>
       <c r="B150" s="1">
-        <v>864552158.54663098</v>
+        <v>748618776.228935</v>
       </c>
       <c r="C150">
-        <v>218666635.90928301</v>
+        <v>198510470.21006399</v>
       </c>
       <c r="D150">
-        <v>1209.3521499999999</v>
+        <v>1115.98801</v>
       </c>
       <c r="E150">
-        <v>11211.224</v>
+        <v>10723.300026999999</v>
       </c>
       <c r="F150">
-        <v>179894.65874000001</v>
+        <v>176749.76612399999</v>
       </c>
       <c r="G150">
         <v>35501.808333000001</v>
@@ -7267,7 +7267,7 @@
         <v>14730.090928</v>
       </c>
       <c r="I150">
-        <v>126501.24168200001</v>
+        <v>125733.694234</v>
       </c>
       <c r="J150">
         <v>13679.074861999999</v>
@@ -7290,19 +7290,19 @@
         <v>93125</v>
       </c>
       <c r="B151" s="1">
-        <v>872174492.78796995</v>
+        <v>753122765.91274905</v>
       </c>
       <c r="C151">
-        <v>218673644.376268</v>
+        <v>198139259.339241</v>
       </c>
       <c r="D151">
-        <v>1210.934573</v>
+        <v>1115.6697730000001</v>
       </c>
       <c r="E151">
-        <v>11279.994871000001</v>
+        <v>10778.894946</v>
       </c>
       <c r="F151">
-        <v>179664.322178</v>
+        <v>176466.400242</v>
       </c>
       <c r="G151">
         <v>35760.070481000002</v>
@@ -7311,7 +7311,7 @@
         <v>14774.191924000001</v>
       </c>
       <c r="I151">
-        <v>126803.57971999999</v>
+        <v>126012.69123700001</v>
       </c>
       <c r="J151">
         <v>13696.266530000001</v>
@@ -7334,19 +7334,19 @@
         <v>93750</v>
       </c>
       <c r="B152" s="1">
-        <v>879774460.89761603</v>
+        <v>757553947.99630296</v>
       </c>
       <c r="C152">
-        <v>218658833.23915699</v>
+        <v>197744830.300726</v>
       </c>
       <c r="D152">
-        <v>1212.3993330000001</v>
+        <v>1115.221125</v>
       </c>
       <c r="E152">
-        <v>11347.728621</v>
+        <v>10833.252078</v>
       </c>
       <c r="F152">
-        <v>179434.14706799999</v>
+        <v>176182.87731400001</v>
       </c>
       <c r="G152">
         <v>36015.570917999998</v>
@@ -7355,7 +7355,7 @@
         <v>14816.823904000001</v>
       </c>
       <c r="I152">
-        <v>127106.31336299999</v>
+        <v>126291.60868</v>
       </c>
       <c r="J152">
         <v>13712.361481</v>
@@ -7378,19 +7378,19 @@
         <v>94375</v>
       </c>
       <c r="B153" s="1">
-        <v>887351163.32455695</v>
+        <v>761911467.25266504</v>
       </c>
       <c r="C153">
-        <v>218622840.982499</v>
+        <v>197327913.17900801</v>
       </c>
       <c r="D153">
-        <v>1213.749444</v>
+        <v>1114.645438</v>
       </c>
       <c r="E153">
-        <v>11414.417441</v>
+        <v>10886.364607</v>
       </c>
       <c r="F153">
-        <v>179204.14215100001</v>
+        <v>175899.21520800001</v>
       </c>
       <c r="G153">
         <v>36268.273543000003</v>
@@ -7399,7 +7399,7 @@
         <v>14858.010178</v>
       </c>
       <c r="I153">
-        <v>127409.41319599999</v>
+        <v>126570.413961</v>
       </c>
       <c r="J153">
         <v>13727.395655</v>
@@ -7422,19 +7422,19 @@
         <v>95000</v>
       </c>
       <c r="B154" s="1">
-        <v>894903719.96321702</v>
+        <v>766194502.47655797</v>
       </c>
       <c r="C154">
-        <v>218566306.91547999</v>
+        <v>196889237.12700799</v>
       </c>
       <c r="D154">
-        <v>1214.9879430000001</v>
+        <v>1113.9461040000001</v>
       </c>
       <c r="E154">
-        <v>11480.054439</v>
+        <v>10938.226704000001</v>
       </c>
       <c r="F154">
-        <v>178974.31559099999</v>
+        <v>175615.43134800001</v>
       </c>
       <c r="G154">
         <v>36518.144782000003</v>
@@ -7443,7 +7443,7 @@
         <v>14897.774841</v>
       </c>
       <c r="I154">
-        <v>127712.850557</v>
+        <v>126849.07532</v>
       </c>
       <c r="J154">
         <v>13741.404934</v>
@@ -7466,19 +7466,19 @@
         <v>95625</v>
       </c>
       <c r="B155" s="1">
-        <v>902431270.26689899</v>
+        <v>770402266.19731796</v>
       </c>
       <c r="C155">
-        <v>218489869.996573</v>
+        <v>196429529.10900801</v>
       </c>
       <c r="D155">
-        <v>1216.1178870000001</v>
+        <v>1113.1265289999999</v>
       </c>
       <c r="E155">
-        <v>11544.633624</v>
+        <v>10988.833506999999</v>
       </c>
       <c r="F155">
-        <v>178744.67500399999</v>
+        <v>175331.54274899999</v>
       </c>
       <c r="G155">
         <v>36765.153568000002</v>
@@ -7487,7 +7487,7 @@
         <v>14936.142703</v>
       </c>
       <c r="I155">
-        <v>128016.597543</v>
+        <v>127127.561847</v>
       </c>
       <c r="J155">
         <v>13754.425080999999</v>
@@ -7510,19 +7510,19 @@
         <v>96250</v>
       </c>
       <c r="B156" s="1">
-        <v>909932973.34625196</v>
+        <v>774534004.36808503</v>
       </c>
       <c r="C156">
-        <v>218394167.707656</v>
+        <v>195949512.701987</v>
       </c>
       <c r="D156">
-        <v>1217.142343</v>
+        <v>1112.19012</v>
       </c>
       <c r="E156">
-        <v>11608.149895</v>
+        <v>11038.181108000001</v>
       </c>
       <c r="F156">
-        <v>178515.22750499999</v>
+        <v>175047.56604000001</v>
       </c>
       <c r="G156">
         <v>37009.271327000002</v>
@@ -7531,7 +7531,7 @@
         <v>14973.139223</v>
       </c>
       <c r="I156">
-        <v>128320.62701500001</v>
+        <v>127405.843479</v>
       </c>
       <c r="J156">
         <v>13766.491669999999</v>
@@ -7554,19 +7554,19 @@
         <v>96875</v>
       </c>
       <c r="B157" s="1">
-        <v>917408008.05336201</v>
+        <v>778588996.033355</v>
       </c>
       <c r="C157">
-        <v>218279834.97944501</v>
+        <v>195449906.95711899</v>
       </c>
       <c r="D157">
-        <v>1218.064386</v>
+        <v>1111.1402860000001</v>
       </c>
       <c r="E157">
-        <v>11670.599025</v>
+        <v>11086.266532</v>
       </c>
       <c r="F157">
-        <v>178285.97974000001</v>
+        <v>174763.51749299999</v>
       </c>
       <c r="G157">
         <v>37250.471948999999</v>
@@ -7575,7 +7575,7 @@
         <v>15008.790451000001</v>
       </c>
       <c r="I157">
-        <v>128624.9126</v>
+        <v>127683.891009</v>
       </c>
       <c r="J157">
         <v>13777.64003</v>
@@ -7598,19 +7598,19 @@
         <v>97500</v>
       </c>
       <c r="B158" s="1">
-        <v>924855573.05207098</v>
+        <v>782566552.97695696</v>
       </c>
       <c r="C158">
-        <v>218147503.16977099</v>
+        <v>194931425.32281801</v>
       </c>
       <c r="D158">
-        <v>1218.8870879999999</v>
+        <v>1109.9804260000001</v>
       </c>
       <c r="E158">
-        <v>11731.977640999999</v>
+        <v>11133.087717</v>
       </c>
       <c r="F158">
-        <v>178056.93792999999</v>
+        <v>174479.413053</v>
       </c>
       <c r="G158">
         <v>37488.731763000003</v>
@@ -7619,7 +7619,7 @@
         <v>15043.122959</v>
       </c>
       <c r="I158">
-        <v>128929.428697</v>
+        <v>127961.67608</v>
       </c>
       <c r="J158">
         <v>13787.905178999999</v>
@@ -7642,19 +7642,19 @@
         <v>98125</v>
       </c>
       <c r="B159" s="1">
-        <v>932274886.87507105</v>
+        <v>786466019.35241497</v>
       </c>
       <c r="C159">
-        <v>217997799.09592301</v>
+        <v>194394774.630362</v>
       </c>
       <c r="D159">
-        <v>1219.613519</v>
+        <v>1108.713929</v>
       </c>
       <c r="E159">
-        <v>11792.283212</v>
+        <v>11178.643496000001</v>
       </c>
       <c r="F159">
-        <v>177828.10790800001</v>
+        <v>174195.26836799999</v>
       </c>
       <c r="G159">
         <v>37724.029505999999</v>
@@ -7663,7 +7663,7 @@
         <v>15076.163783</v>
       </c>
       <c r="I159">
-        <v>129234.150469</v>
+        <v>128239.171187</v>
       </c>
       <c r="J159">
         <v>13797.321778</v>
@@ -7686,19 +7686,19 @@
         <v>98750</v>
       </c>
       <c r="B160" s="1">
-        <v>939665187.96826804</v>
+        <v>790286771.29755795</v>
       </c>
       <c r="C160">
-        <v>217831344.12197599</v>
+        <v>193840654.142795</v>
       </c>
       <c r="D160">
-        <v>1220.2467360000001</v>
+        <v>1107.3441620000001</v>
       </c>
       <c r="E160">
-        <v>11851.514025</v>
+        <v>11222.933572</v>
       </c>
       <c r="F160">
-        <v>177599.49515999999</v>
+        <v>173911.098811</v>
       </c>
       <c r="G160">
         <v>37956.346291000002</v>
@@ -7707,7 +7707,7 @@
         <v>15107.940359</v>
       </c>
       <c r="I160">
-        <v>129539.053849</v>
+        <v>128516.349669</v>
       </c>
       <c r="J160">
         <v>13805.924072</v>
@@ -7730,19 +7730,19 @@
         <v>99375</v>
       </c>
       <c r="B161" s="1">
-        <v>947025734.72287595</v>
+        <v>794028216.53518701</v>
       </c>
       <c r="C161">
-        <v>217648753.30172801</v>
+        <v>193269754.66749501</v>
       </c>
       <c r="D161">
-        <v>1220.789779</v>
+        <v>1105.8744690000001</v>
       </c>
       <c r="E161">
-        <v>11909.669167</v>
+        <v>11265.958497</v>
       </c>
       <c r="F161">
-        <v>177371.10485900001</v>
+        <v>173626.91951499999</v>
       </c>
       <c r="G161">
         <v>38185.665565000003</v>
@@ -7751,7 +7751,7 @@
         <v>15138.480468</v>
       </c>
       <c r="I161">
-        <v>129844.115532</v>
+        <v>128793.185709</v>
       </c>
       <c r="J161">
         <v>13813.745846</v>
@@ -7774,19 +7774,19 @@
         <v>29</v>
       </c>
       <c r="B162" s="1">
-        <v>954355805.49567103</v>
+        <v>797689793.96144497</v>
       </c>
       <c r="C162">
-        <v>217450634.57760099</v>
+        <v>192682757.73244399</v>
       </c>
       <c r="D162">
-        <v>1221.245668</v>
+        <v>1104.3081649999999</v>
       </c>
       <c r="E162">
-        <v>11966.748503999999</v>
+        <v>11307.719644999999</v>
       </c>
       <c r="F162">
-        <v>177142.94190999999</v>
+        <v>173342.745394</v>
       </c>
       <c r="G162">
         <v>38411.973073000001</v>
@@ -7795,7 +7795,7 @@
         <v>15167.812173</v>
       </c>
       <c r="I162">
-        <v>130149.31297699999</v>
+        <v>129069.654327</v>
       </c>
       <c r="J162">
         <v>13820.820378</v>

--- a/models/dissertation-model/modelo-ithink/dados_ithink_excel_stocks.xlsx
+++ b/models/dissertation-model/modelo-ithink/dados_ithink_excel_stocks.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>2082554.5641409999</v>
+        <v>2085809.772474</v>
       </c>
       <c r="C3">
         <v>50361604.164357997</v>
@@ -624,7 +624,7 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>4163265.4339620001</v>
+        <v>4169800.148879</v>
       </c>
       <c r="C4">
         <v>50398256.596965</v>
@@ -668,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>6249680.5272519998</v>
+        <v>6259516.4827380003</v>
       </c>
       <c r="C5">
         <v>50465438.491393</v>
@@ -712,7 +712,7 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>8348664.7302249996</v>
+        <v>8361822.4312890004</v>
       </c>
       <c r="C6">
         <v>50616857.664786004</v>
@@ -756,7 +756,7 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>10483430.731086001</v>
+        <v>10499923.780474</v>
       </c>
       <c r="C7">
         <v>50917235.553172</v>
@@ -800,7 +800,7 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>12695129.147833001</v>
+        <v>12714957.604956999</v>
       </c>
       <c r="C8">
         <v>51408408.688359</v>
@@ -844,7 +844,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>15035618.801077999</v>
+        <v>15058765.322287001</v>
       </c>
       <c r="C9">
         <v>52093181.624128997</v>
@@ -888,7 +888,7 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>17556798.516578998</v>
+        <v>17583228.827897001</v>
       </c>
       <c r="C10">
         <v>52935558.095628001</v>
@@ -932,7 +932,7 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>20300573.874968</v>
+        <v>20330241.176536001</v>
       </c>
       <c r="C11">
         <v>53872690.703296997</v>
@@ -976,7 +976,7 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>23292022.406845</v>
+        <v>23324874.060885999</v>
       </c>
       <c r="C12">
         <v>54832450.682957001</v>
@@ -1020,7 +1020,7 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>26536808.768374</v>
+        <v>26572793.329275001</v>
       </c>
       <c r="C13">
         <v>55750866.059184998</v>
@@ -1064,7 +1064,7 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>30022642.770507999</v>
+        <v>30061715.862179998</v>
       </c>
       <c r="C14">
         <v>56585191.257913001</v>
@@ -1108,7 +1108,7 @@
         <v>26</v>
       </c>
       <c r="B15">
-        <v>33723723.654477999</v>
+        <v>33765851.925924003</v>
       </c>
       <c r="C15">
         <v>57320288.770741999</v>
@@ -1152,7 +1152,7 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>37606691.850559004</v>
+        <v>37651854.881433003</v>
       </c>
       <c r="C16">
         <v>57967877.351430997</v>
@@ -1196,7 +1196,7 @@
         <v>28</v>
       </c>
       <c r="B17">
-        <v>41636565.369365998</v>
+        <v>41684755.816670999</v>
       </c>
       <c r="C17">
         <v>58559871.646394998</v>
@@ -1240,7 +1240,7 @@
         <v>10000</v>
       </c>
       <c r="B18">
-        <v>45781414.835864998</v>
+        <v>45832637.328920998</v>
       </c>
       <c r="C18">
         <v>59138283.721589997</v>
@@ -1284,7 +1284,7 @@
         <v>10625</v>
       </c>
       <c r="B19">
-        <v>50015044.200492002</v>
+        <v>50069313.563124001</v>
       </c>
       <c r="C19">
         <v>59744655.188400999</v>
@@ -1328,7 +1328,7 @@
         <v>11250</v>
       </c>
       <c r="B20">
-        <v>54317549.540733002</v>
+        <v>54374888.888581999</v>
       </c>
       <c r="C20">
         <v>60411612.105637997</v>
@@ -1372,7 +1372,7 @@
         <v>11875</v>
       </c>
       <c r="B21">
-        <v>58674154.969966002</v>
+        <v>58734594.117632002</v>
       </c>
       <c r="C21">
         <v>61158114.712545998</v>
@@ -1416,7 +1416,7 @@
         <v>12500</v>
       </c>
       <c r="B22">
-        <v>63073044.667332999</v>
+        <v>63136619.105659999</v>
       </c>
       <c r="C22">
         <v>61983206.816358</v>
@@ -1460,7 +1460,7 @@
         <v>13125</v>
       </c>
       <c r="B23">
-        <v>67501941.287453994</v>
+        <v>67568692.146098003</v>
       </c>
       <c r="C23">
         <v>62874001.558775</v>
@@ -1504,7 +1504,7 @@
         <v>13750</v>
       </c>
       <c r="B24">
-        <v>71947235.250542998</v>
+        <v>72017209.344015002</v>
       </c>
       <c r="C24">
         <v>63813449.838535003</v>
@@ -1548,7 +1548,7 @@
         <v>14375</v>
       </c>
       <c r="B25">
-        <v>76394630.834877998</v>
+        <v>76467880.345552996</v>
       </c>
       <c r="C25">
         <v>64785953.146682002</v>
@@ -1592,7 +1592,7 @@
         <v>15000</v>
       </c>
       <c r="B26">
-        <v>80830464.770644993</v>
+        <v>80907046.444867</v>
       </c>
       <c r="C26">
         <v>65780191.345100001</v>
@@ -1636,7 +1636,7 @@
         <v>15625</v>
       </c>
       <c r="B27">
-        <v>85243049.911899999</v>
+        <v>85323023.853961006</v>
       </c>
       <c r="C27">
         <v>66789539.468998998</v>
@@ -1680,7 +1680,7 @@
         <v>16250</v>
       </c>
       <c r="B28">
-        <v>89623630.321384996</v>
+        <v>89707058.578172997</v>
       </c>
       <c r="C28">
         <v>67810982.376350999</v>
@@ -1724,7 +1724,7 @@
         <v>16875</v>
       </c>
       <c r="B29">
-        <v>93966775.467565998</v>
+        <v>94053720.621994004</v>
       </c>
       <c r="C29">
         <v>68843511.044946</v>
@@ -1768,7 +1768,7 @@
         <v>17500</v>
       </c>
       <c r="B30">
-        <v>98270242.606784001</v>
+        <v>98360766.563755006</v>
       </c>
       <c r="C30">
         <v>69886741.637416005</v>
@@ -1812,7 +1812,7 @@
         <v>18125</v>
       </c>
       <c r="B31">
-        <v>102534463.315631</v>
+        <v>102628626.39600401</v>
       </c>
       <c r="C31">
         <v>70940128.940303996</v>
@@ -1856,7 +1856,7 @@
         <v>18750</v>
       </c>
       <c r="B32">
-        <v>106761854.89101</v>
+        <v>106859715.271937</v>
       </c>
       <c r="C32">
         <v>72002808.685606003</v>
@@ -1902,7 +1902,7 @@
         <v>19375</v>
       </c>
       <c r="B33">
-        <v>110956136.089421</v>
+        <v>111057749.563636</v>
       </c>
       <c r="C33">
         <v>73073885.968842</v>
@@ -1948,7 +1948,7 @@
         <v>20000</v>
       </c>
       <c r="B34">
-        <v>115121767.628289</v>
+        <v>115227187.61237399</v>
       </c>
       <c r="C34">
         <v>74152906.374552995</v>
@@ -1994,7 +1994,7 @@
         <v>20625</v>
       </c>
       <c r="B35">
-        <v>119263569.22448</v>
+        <v>119372846.92983299</v>
       </c>
       <c r="C35">
         <v>75240273.197334006</v>
@@ -2040,7 +2040,7 @@
         <v>21250</v>
       </c>
       <c r="B36">
-        <v>123386507.24624</v>
+        <v>123499691.932014</v>
       </c>
       <c r="C36">
         <v>76337460.686106995</v>
@@ -2086,7 +2086,7 @@
         <v>21875</v>
       </c>
       <c r="B37">
-        <v>127495610.674521</v>
+        <v>127612749.92102601</v>
       </c>
       <c r="C37" s="1">
         <v>77446974.326979995</v>
@@ -2132,7 +2132,7 @@
         <v>22500</v>
       </c>
       <c r="B38">
-        <v>131595959.40667599</v>
+        <v>131717099.371848</v>
       </c>
       <c r="C38" s="1">
         <v>78572092.882320002</v>
@@ -2180,7 +2180,7 @@
         <v>23125</v>
       </c>
       <c r="B39">
-        <v>135692693.42482099</v>
+        <v>135817879.068481</v>
       </c>
       <c r="C39" s="1">
         <v>79716477.347238004</v>
@@ -2228,7 +2228,7 @@
         <v>23750</v>
       </c>
       <c r="B40">
-        <v>139791006.739638</v>
+        <v>139920282.016285</v>
       </c>
       <c r="C40" s="1">
         <v>80883747.077203006</v>
@@ -2280,7 +2280,7 @@
         <v>24375</v>
       </c>
       <c r="B41">
-        <v>143896109.015735</v>
+        <v>144029517.04525599</v>
       </c>
       <c r="C41" s="1">
         <v>82077110.192965001</v>
@@ -2332,7 +2332,7 @@
         <v>25000</v>
       </c>
       <c r="B42">
-        <v>148013154.72623199</v>
+        <v>148150737.95399201</v>
       </c>
       <c r="C42" s="1">
         <v>83299105.395245999</v>
@@ -2384,7 +2384,7 @@
         <v>25625</v>
       </c>
       <c r="B43">
-        <v>152147151.250449</v>
+        <v>152288951.60571501</v>
       </c>
       <c r="C43" s="1">
         <v>84551477.193215996</v>
@@ -2436,7 +2436,7 @@
         <v>26250</v>
       </c>
       <c r="B44">
-        <v>156302862.48829699</v>
+        <v>156448921.545219</v>
       </c>
       <c r="C44" s="1">
         <v>85835175.532394007</v>
@@ -2488,7 +2488,7 @@
         <v>26875</v>
       </c>
       <c r="B45">
-        <v>160484724.05480301</v>
+        <v>160635083.19526401</v>
       </c>
       <c r="C45" s="1">
         <v>87150449.515983</v>
@@ -2540,7 +2540,7 @@
         <v>27500</v>
       </c>
       <c r="B46" s="1">
-        <v>164696781.71897101</v>
+        <v>164851482.29302099</v>
       </c>
       <c r="C46" s="1">
         <v>88496995.246224001</v>
@@ -2592,7 +2592,7 @@
         <v>28125</v>
       </c>
       <c r="B47" s="1">
-        <v>168942658.57772201</v>
+        <v>169101742.055565</v>
       </c>
       <c r="C47" s="1">
         <v>89874118.659743994</v>
@@ -2644,7 +2644,7 @@
         <v>28750</v>
       </c>
       <c r="B48" s="1">
-        <v>173225550.398866</v>
+        <v>173389058.50854701</v>
       </c>
       <c r="C48" s="1">
         <v>91280882.580562994</v>
@@ -2696,7 +2696,7 @@
         <v>29375</v>
       </c>
       <c r="B49" s="1">
-        <v>177548243.95297199</v>
+        <v>177716218.79947999</v>
       </c>
       <c r="C49" s="1">
         <v>92716219.314844996</v>
@@ -2748,7 +2748,7 @@
         <v>30000</v>
       </c>
       <c r="B50" s="1">
-        <v>181913150.62151599</v>
+        <v>182085634.785326</v>
       </c>
       <c r="C50" s="1">
         <v>94179002.455916002</v>
@@ -2800,7 +2800,7 @@
         <v>30625</v>
       </c>
       <c r="B51" s="1">
-        <v>186322347.12723401</v>
+        <v>186499383.74259999</v>
       </c>
       <c r="C51">
         <v>95668081.558073997</v>
@@ -2852,7 +2852,7 @@
         <v>31250</v>
       </c>
       <c r="B52" s="1">
-        <v>190777616.436524</v>
+        <v>190959249.25174499</v>
       </c>
       <c r="C52">
         <v>97182289.579289004</v>
@@ -2902,7 +2902,7 @@
         <v>31875</v>
       </c>
       <c r="B53" s="1">
-        <v>195280484.05433801</v>
+        <v>195466757.477292</v>
       </c>
       <c r="C53">
         <v>98720435.262439996</v>
@@ -2952,7 +2952,7 @@
         <v>32500</v>
       </c>
       <c r="B54" s="1">
-        <v>199832247.367901</v>
+        <v>200023206.50054201</v>
       </c>
       <c r="C54">
         <v>100281291.597279</v>
@@ -3002,7 +3002,7 @@
         <v>33125</v>
       </c>
       <c r="B55" s="1">
-        <v>204433997.82997799</v>
+        <v>204629688.49512801</v>
       </c>
       <c r="C55">
         <v>101863588.36509</v>
@@ -3052,7 +3052,7 @@
         <v>33750</v>
       </c>
       <c r="B56" s="1">
-        <v>209086637.25765499</v>
+        <v>209287106.02076399</v>
       </c>
       <c r="C56">
         <v>103466012.815055</v>
@@ -3102,7 +3102,7 @@
         <v>34375</v>
       </c>
       <c r="B57" s="1">
-        <v>213790890.244874</v>
+        <v>213996184.43249801</v>
       </c>
       <c r="C57">
         <v>105087218.86091401</v>
@@ -3152,7 +3152,7 @@
         <v>35000</v>
       </c>
       <c r="B58" s="1">
-        <v>218547314.72539401</v>
+        <v>218757482.441333</v>
       </c>
       <c r="C58">
         <v>106725842.544898</v>
@@ -3200,7 +3200,7 @@
         <v>35625</v>
       </c>
       <c r="B59" s="1">
-        <v>223356312.27908999</v>
+        <v>223571402.41849101</v>
       </c>
       <c r="C59">
         <v>108380520.189418</v>
@@ -3248,7 +3248,7 @@
         <v>36250</v>
       </c>
       <c r="B60" s="1">
-        <v>228218139.09491199</v>
+        <v>228438201.35625401</v>
       </c>
       <c r="C60">
         <v>110049905.56840301</v>
@@ -3296,7 +3296,7 @@
         <v>36875</v>
       </c>
       <c r="B61" s="1">
-        <v>233132917.813436</v>
+        <v>233358002.70818299</v>
       </c>
       <c r="C61">
         <v>111732683.250081</v>
@@ -3344,7 +3344,7 @@
         <v>37500</v>
       </c>
       <c r="B62" s="1">
-        <v>238100649.93244699</v>
+        <v>238330808.79219899</v>
       </c>
       <c r="C62">
         <v>113427576.553579</v>
@@ -3392,7 +3392,7 @@
         <v>38125</v>
       </c>
       <c r="B63" s="1">
-        <v>243121228.15115401</v>
+        <v>243356513.132274</v>
       </c>
       <c r="C63">
         <v>115133349.90274499</v>
@@ -3440,7 +3440,7 @@
         <v>38750</v>
       </c>
       <c r="B64" s="1">
-        <v>248194447.958345</v>
+        <v>248434912.044229</v>
       </c>
       <c r="C64">
         <v>116848806.43771701</v>
@@ -3488,7 +3488,7 @@
         <v>39375</v>
       </c>
       <c r="B65" s="1">
-        <v>253320017.88802099</v>
+        <v>253565714.889321</v>
       </c>
       <c r="C65">
         <v>118572782.388716</v>
@@ -3536,7 +3536,7 @@
         <v>40000</v>
       </c>
       <c r="B66" s="1">
-        <v>258497568.09542599</v>
+        <v>258748552.648628</v>
       </c>
       <c r="C66">
         <v>120304139.900389</v>
@@ -3582,7 +3582,7 @@
         <v>40625</v>
       </c>
       <c r="B67" s="1">
-        <v>263726657.16651601</v>
+        <v>263982984.73127699</v>
       </c>
       <c r="C67">
         <v>122041759.80000401</v>
@@ -3628,7 +3628,7 @@
         <v>41250</v>
       </c>
       <c r="B68" s="1">
-        <v>269006777.29969698</v>
+        <v>269268504.15530199</v>
       </c>
       <c r="C68">
         <v>123784535.37074</v>
@@ -3674,7 +3674,7 @@
         <v>41875</v>
       </c>
       <c r="B69" s="1">
-        <v>274337358.15057498</v>
+        <v>274604541.391792</v>
       </c>
       <c r="C69">
         <v>125531367.676378</v>
@@ -3720,7 +3720,7 @@
         <v>42500</v>
       </c>
       <c r="B70" s="1">
-        <v>279717769.69592798</v>
+        <v>279990467.22841901</v>
       </c>
       <c r="C70">
         <v>127281162.515264</v>
@@ -3766,7 +3766,7 @@
         <v>43125</v>
       </c>
       <c r="B71" s="1">
-        <v>285147324.46148002</v>
+        <v>285425594.99684298</v>
       </c>
       <c r="C71">
         <v>129032828.743268</v>
@@ -3812,7 +3812,7 @@
         <v>43750</v>
       </c>
       <c r="B72" s="1">
-        <v>290625279.39274001</v>
+        <v>290909182.44318098</v>
       </c>
       <c r="C72">
         <v>130785277.52955601</v>
@@ -3858,7 +3858,7 @@
         <v>44375</v>
       </c>
       <c r="B73" s="1">
-        <v>296150837.55723298</v>
+        <v>296440433.42983001</v>
       </c>
       <c r="C73">
         <v>132537422.084242</v>
@@ -3902,7 +3902,7 @@
         <v>45000</v>
       </c>
       <c r="B74" s="1">
-        <v>301723149.77548099</v>
+        <v>302018499.56596899</v>
       </c>
       <c r="C74">
         <v>134288177.482784</v>
@@ -3946,7 +3946,7 @@
         <v>45625</v>
       </c>
       <c r="B75" s="1">
-        <v>307341316.20522499</v>
+        <v>307642481.79125202</v>
       </c>
       <c r="C75">
         <v>136036460.356197</v>
@@ -3990,7 +3990,7 @@
         <v>46250</v>
       </c>
       <c r="B76" s="1">
-        <v>313004387.85777903</v>
+        <v>313311431.89160198</v>
       </c>
       <c r="C76">
         <v>137781188.369232</v>
@@ -4034,7 +4034,7 @@
         <v>46875</v>
       </c>
       <c r="B77" s="1">
-        <v>318711368.007604</v>
+        <v>319024353.90819901</v>
       </c>
       <c r="C77">
         <v>139521279.53371599</v>
@@ -4078,7 +4078,7 @@
         <v>47500</v>
       </c>
       <c r="B78" s="1">
-        <v>324461213.46073002</v>
+        <v>324780205.40533501</v>
       </c>
       <c r="C78">
         <v>141255651.48141399</v>
@@ -4122,7 +4122,7 @@
         <v>48125</v>
       </c>
       <c r="B79" s="1">
-        <v>330252835.66595</v>
+        <v>330577898.58104801</v>
       </c>
       <c r="C79">
         <v>142983220.84646201</v>
@@ -4166,7 +4166,7 @@
         <v>48750</v>
       </c>
       <c r="B80" s="1">
-        <v>336085101.67572403</v>
+        <v>336416301.22750998</v>
       </c>
       <c r="C80">
         <v>144702902.89047399</v>
@@ -4210,7 +4210,7 @@
         <v>49375</v>
       </c>
       <c r="B81" s="1">
-        <v>341956834.98425901</v>
+        <v>342294237.56858802</v>
       </c>
       <c r="C81">
         <v>146413611.459465</v>
@@ -4254,7 +4254,7 @@
         <v>50000</v>
       </c>
       <c r="B82" s="1">
-        <v>347866816.28363699</v>
+        <v>348210489.01550001</v>
       </c>
       <c r="C82">
         <v>148114259.30783701</v>
@@ -4298,7 +4298,7 @@
         <v>50625</v>
       </c>
       <c r="B83">
-        <v>353813784.18372202</v>
+        <v>354163794.88624299</v>
       </c>
       <c r="C83">
         <v>149803758.77520299</v>
@@ -4342,7 +4342,7 @@
         <v>51250</v>
       </c>
       <c r="B84">
-        <v>359796435.93854898</v>
+        <v>360152853.13151097</v>
       </c>
       <c r="C84">
         <v>151481022.76614699</v>
@@ -4386,7 +4386,7 @@
         <v>51875</v>
       </c>
       <c r="B85">
-        <v>365813428.21340698</v>
+        <v>366176321.10130602</v>
       </c>
       <c r="C85">
         <v>153144965.964789</v>
@@ -4430,7 +4430,7 @@
         <v>52500</v>
       </c>
       <c r="B86">
-        <v>371863377.91577899</v>
+        <v>372232816.37540102</v>
       </c>
       <c r="C86">
         <v>154794506.21416599</v>
@@ -4474,7 +4474,7 @@
         <v>53125</v>
       </c>
       <c r="B87">
-        <v>377944863.10228401</v>
+        <v>378320917.66979897</v>
       </c>
       <c r="C87">
         <v>156428566.000709</v>
@@ -4518,7 +4518,7 @@
         <v>53750</v>
       </c>
       <c r="B88">
-        <v>384056423.96479303</v>
+        <v>384439165.82236201</v>
       </c>
       <c r="C88">
         <v>158046074.00087401</v>
@@ -4562,7 +4562,7 @@
         <v>54375</v>
       </c>
       <c r="B89">
-        <v>390196563.89284402</v>
+        <v>390586064.85474497</v>
       </c>
       <c r="C89">
         <v>159645966.664906</v>
@@ -4606,7 +4606,7 @@
         <v>55000</v>
       </c>
       <c r="B90">
-        <v>396363750.60655898</v>
+        <v>396760083.10483301</v>
       </c>
       <c r="C90">
         <v>161227189.827775</v>
@@ -4650,7 +4650,7 @@
         <v>55625</v>
       </c>
       <c r="B91">
-        <v>402556417.35380298</v>
+        <v>402959654.423428</v>
       </c>
       <c r="C91">
         <v>162788700.34727001</v>
@@ -4694,7 +4694,7 @@
         <v>56250</v>
       </c>
       <c r="B92">
-        <v>408772964.16656899</v>
+        <v>409183179.43017697</v>
       </c>
       <c r="C92">
         <v>164329467.77361801</v>
@@ -4738,7 +4738,7 @@
         <v>56875</v>
       </c>
       <c r="B93">
-        <v>415011759.17344397</v>
+        <v>415429026.82560098</v>
       </c>
       <c r="C93">
         <v>165848476.054539</v>
@@ -4782,7 +4782,7 @@
         <v>57500</v>
       </c>
       <c r="B94">
-        <v>421271139.96687597</v>
+        <v>421695534.75792599</v>
       </c>
       <c r="C94">
         <v>167344725.276144</v>
@@ -4826,7 +4826,7 @@
         <v>58125</v>
       </c>
       <c r="B95">
-        <v>427549415.02512503</v>
+        <v>427981012.24463499</v>
       </c>
       <c r="C95">
         <v>168817233.435119</v>
@@ -4870,7 +4870,7 @@
         <v>58750</v>
       </c>
       <c r="B96">
-        <v>433844865.189273</v>
+        <v>434283740.64907902</v>
       </c>
       <c r="C96">
         <v>170265038.232903</v>
@@ -4914,7 +4914,7 @@
         <v>59375</v>
       </c>
       <c r="B97">
-        <v>440155745.19526303</v>
+        <v>440601975.21214902</v>
       </c>
       <c r="C97">
         <v>171687198.87904501</v>
@@ -4958,7 +4958,7 @@
         <v>60000</v>
       </c>
       <c r="B98">
-        <v>446480285.26007998</v>
+        <v>446933946.63810199</v>
       </c>
       <c r="C98">
         <v>173082797.88907701</v>
@@ -5002,7 +5002,7 @@
         <v>60625</v>
       </c>
       <c r="B99">
-        <v>452816692.719993</v>
+        <v>453277862.73246801</v>
       </c>
       <c r="C99">
         <v>174450942.86207399</v>
@@ -5046,7 +5046,7 @@
         <v>61250</v>
       </c>
       <c r="B100">
-        <v>459163153.71755803</v>
+        <v>459631910.08874297</v>
       </c>
       <c r="C100">
         <v>175790768.22417799</v>
@@ -5090,7 +5090,7 @@
         <v>61875</v>
       </c>
       <c r="B101">
-        <v>465517834.93308198</v>
+        <v>465994255.81956297</v>
       </c>
       <c r="C101">
         <v>177101436.926211</v>
@@ -5134,7 +5134,7 @@
         <v>62500</v>
       </c>
       <c r="B102">
-        <v>471878885.355497</v>
+        <v>472363049.32730901</v>
       </c>
       <c r="C102">
         <v>178382142.08560601</v>
@@ -5178,7 +5178,7 @@
         <v>63125</v>
       </c>
       <c r="B103">
-        <v>478244438.08717901</v>
+        <v>478736424.10868502</v>
       </c>
       <c r="C103">
         <v>179632108.564724</v>
@@ -5222,7 +5222,7 @@
         <v>63750</v>
       </c>
       <c r="B104">
-        <v>484612612.17708701</v>
+        <v>485112499.58764303</v>
       </c>
       <c r="C104">
         <v>180850594.479105</v>
@@ -5266,7 +5266,7 @@
         <v>64375</v>
       </c>
       <c r="B105">
-        <v>490981514.47667098</v>
+        <v>491489382.97109699</v>
       </c>
       <c r="C105">
         <v>182036892.63007399</v>
@@ -5310,7 +5310,7 @@
         <v>65000</v>
       </c>
       <c r="B106">
-        <v>497349241.51311201</v>
+        <v>497865171.12200898</v>
       </c>
       <c r="C106">
         <v>183190331.856594</v>
@@ -5354,7 +5354,7 @@
         <v>65625</v>
       </c>
       <c r="B107">
-        <v>503713881.37469399</v>
+        <v>504237952.44462502</v>
       </c>
       <c r="C107">
         <v>184310278.301384</v>
@@ -5398,7 +5398,7 @@
         <v>66250</v>
       </c>
       <c r="B108">
-        <v>510073515.60322797</v>
+        <v>510605808.77679199</v>
       </c>
       <c r="C108">
         <v>185396136.586294</v>
@@ -5442,7 +5442,7 @@
         <v>66875</v>
       </c>
       <c r="B109">
-        <v>516426221.08857399</v>
+        <v>516966817.28441501</v>
       </c>
       <c r="C109">
         <v>186447350.891913</v>
@@ -5486,7 +5486,7 @@
         <v>67500</v>
       </c>
       <c r="B110">
-        <v>522770071.96040303</v>
+        <v>523319052.353172</v>
       </c>
       <c r="C110">
         <v>187463405.936472</v>
@@ -5530,7 +5530,7 @@
         <v>68125</v>
       </c>
       <c r="B111">
-        <v>529103141.47231197</v>
+        <v>529660587.47261602</v>
       </c>
       <c r="C111">
         <v>188443827.84937599</v>
@@ -5574,7 +5574,7 @@
         <v>68750</v>
       </c>
       <c r="B112">
-        <v>535423503.873469</v>
+        <v>535989497.10784</v>
       </c>
       <c r="C112">
         <v>189388184.93512601</v>
@@ -5618,7 +5618,7 @@
         <v>69375</v>
       </c>
       <c r="B113">
-        <v>541729236.26297498</v>
+        <v>542303858.55388796</v>
       </c>
       <c r="C113">
         <v>190296088.32396999</v>
@@ -5662,7 +5662,7 @@
         <v>70000</v>
       </c>
       <c r="B114">
-        <v>548018420.42217004</v>
+        <v>548601753.76814198</v>
       </c>
       <c r="C114">
         <v>191167192.50632301</v>
@@ -5706,7 +5706,7 @@
         <v>70625</v>
       </c>
       <c r="B115">
-        <v>554289144.62024105</v>
+        <v>554881271.17603898</v>
       </c>
       <c r="C115">
         <v>192001195.74870101</v>
@@ -5750,7 +5750,7 @@
         <v>71250</v>
       </c>
       <c r="B116">
-        <v>560539505.38860404</v>
+        <v>561140507.445593</v>
       </c>
       <c r="C116">
         <v>192797840.38965899</v>
@@ -5794,7 +5794,7 @@
         <v>71875</v>
       </c>
       <c r="B117">
-        <v>566767609.25972795</v>
+        <v>567377569.22640002</v>
       </c>
       <c r="C117">
         <v>193556913.01491001</v>
@@ -5838,7 +5838,7 @@
         <v>72500</v>
       </c>
       <c r="B118">
-        <v>572971574.46631098</v>
+        <v>573590574.84900296</v>
       </c>
       <c r="C118">
         <v>194278244.511491</v>
@@ -5882,7 +5882,7 @@
         <v>73125</v>
       </c>
       <c r="B119" s="1">
-        <v>579149532.59691596</v>
+        <v>579777655.98076999</v>
       </c>
       <c r="C119">
         <v>194961710.00139099</v>
@@ -5926,7 +5926,7 @@
         <v>73750</v>
       </c>
       <c r="B120" s="1">
-        <v>585299630.20450199</v>
+        <v>585936959.23468399</v>
       </c>
       <c r="C120">
         <v>195607228.65570199</v>
@@ -5970,7 +5970,7 @@
         <v>74375</v>
       </c>
       <c r="B121" s="1">
-        <v>591420030.36452103</v>
+        <v>592066647.72772205</v>
       </c>
       <c r="C121">
         <v>196214763.39083299</v>
@@ -6014,7 +6014,7 @@
         <v>75000</v>
       </c>
       <c r="B122" s="1">
-        <v>597508914.17953897</v>
+        <v>598164902.58580399</v>
       </c>
       <c r="C122">
         <v>196784320.44886199</v>
@@ -6058,7 +6058,7 @@
         <v>75625</v>
       </c>
       <c r="B123" s="1">
-        <v>603564482.22765994</v>
+        <v>604229924.39254999</v>
       </c>
       <c r="C123">
         <v>197315948.86463699</v>
@@ -6102,7 +6102,7 @@
         <v>76250</v>
       </c>
       <c r="B124" s="1">
-        <v>609584955.95227098</v>
+        <v>610259934.57939804</v>
       </c>
       <c r="C124">
         <v>197809739.822685</v>
@@ -6146,7 +6146,7 @@
         <v>76875</v>
       </c>
       <c r="B125" s="1">
-        <v>615568578.99095702</v>
+        <v>616253176.75491703</v>
       </c>
       <c r="C125">
         <v>198265825.90750501</v>
@@ -6190,7 +6190,7 @@
         <v>77500</v>
       </c>
       <c r="B126" s="1">
-        <v>621513618.44171095</v>
+        <v>622207917.97142398</v>
       </c>
       <c r="C126">
         <v>198684380.25129101</v>
@@ -6234,7 +6234,7 @@
         <v>78125</v>
       </c>
       <c r="B127" s="1">
-        <v>627418366.06485903</v>
+        <v>628122449.927356</v>
       </c>
       <c r="C127">
         <v>199065615.583565</v>
@@ -6278,7 +6278,7 @@
         <v>78750</v>
       </c>
       <c r="B128" s="1">
-        <v>633281139.419415</v>
+        <v>633995090.10408103</v>
       </c>
       <c r="C128">
         <v>199409783.18763301</v>
@@ -6322,7 +6322,7 @@
         <v>79375</v>
       </c>
       <c r="B129" s="1">
-        <v>639100282.93288004</v>
+        <v>639824182.83617699</v>
       </c>
       <c r="C129">
         <v>199717171.769162</v>
@@ -6366,7 +6366,7 @@
         <v>80000</v>
       </c>
       <c r="B130" s="1">
-        <v>644874168.90378106</v>
+        <v>645608100.31446898</v>
       </c>
       <c r="C130">
         <v>199988106.24252701</v>
@@ -6410,7 +6410,7 @@
         <v>80625</v>
       </c>
       <c r="B131" s="1">
-        <v>650601198.436553</v>
+        <v>651345243.52142</v>
       </c>
       <c r="C131">
         <v>200222946.440882</v>
@@ -6454,7 +6454,7 @@
         <v>81250</v>
       </c>
       <c r="B132" s="1">
-        <v>656279802.30861294</v>
+        <v>657034043.09874105</v>
       </c>
       <c r="C132">
         <v>200422085.75615701</v>
@@ -6498,7 +6498,7 @@
         <v>81875</v>
       </c>
       <c r="B133" s="1">
-        <v>661908441.76979303</v>
+        <v>662672960.14735603</v>
       </c>
       <c r="C133">
         <v>200585949.715446</v>
@@ -6542,7 +6542,7 @@
         <v>82500</v>
       </c>
       <c r="B134" s="1">
-        <v>667485609.27451706</v>
+        <v>668260486.96013999</v>
       </c>
       <c r="C134">
         <v>200714994.50035</v>
@@ -6586,7 +6586,7 @@
         <v>83125</v>
       </c>
       <c r="B135" s="1">
-        <v>673009829.14738595</v>
+        <v>673795147.68806398</v>
       </c>
       <c r="C135">
         <v>200809705.41604599</v>
@@ -6630,7 +6630,7 @@
         <v>83750</v>
       </c>
       <c r="B136" s="1">
-        <v>678479658.183056</v>
+        <v>679275498.94064105</v>
       </c>
       <c r="C136">
         <v>200870595.31688499</v>
@@ -6674,7 +6674,7 @@
         <v>84375</v>
       </c>
       <c r="B137" s="1">
-        <v>683893686.18151104</v>
+        <v>684700130.32177901</v>
       </c>
       <c r="C137">
         <v>200898202.99538499</v>
@@ -6718,7 +6718,7 @@
         <v>85000</v>
       </c>
       <c r="B138" s="1">
-        <v>689250536.42005002</v>
+        <v>690067664.902354</v>
       </c>
       <c r="C138">
         <v>200893091.54149401</v>
@@ -6762,7 +6762,7 @@
         <v>85625</v>
       </c>
       <c r="B139" s="1">
-        <v>694548866.06348801</v>
+        <v>695376759.630988</v>
       </c>
       <c r="C139">
         <v>200855846.678951</v>
@@ -6806,7 +6806,7 @@
         <v>86250</v>
       </c>
       <c r="B140" s="1">
-        <v>699787366.51423395</v>
+        <v>700626105.68472004</v>
       </c>
       <c r="C140">
         <v>200787075.08550099</v>
@@ -6850,7 +6850,7 @@
         <v>86875</v>
       </c>
       <c r="B141" s="1">
-        <v>704964763.70407701</v>
+        <v>705814428.76137495</v>
       </c>
       <c r="C141">
         <v>200687402.70361701</v>
@@ -6894,7 +6894,7 @@
         <v>87500</v>
       </c>
       <c r="B142" s="1">
-        <v>710079818.32963896</v>
+        <v>710940489.31560302</v>
       </c>
       <c r="C142">
         <v>200557473.04821399</v>
@@ -6938,7 +6938,7 @@
         <v>88125</v>
       </c>
       <c r="B143" s="1">
-        <v>715131326.03357399</v>
+        <v>716003082.74065399</v>
       </c>
       <c r="C143">
         <v>200397945.51769</v>
@@ -6982,7 +6982,7 @@
         <v>88750</v>
       </c>
       <c r="B144" s="1">
-        <v>720118117.53369403</v>
+        <v>721001039.498088</v>
       </c>
       <c r="C144">
         <v>200209493.71438599</v>
@@ -7026,7 +7026,7 @@
         <v>89375</v>
       </c>
       <c r="B145" s="1">
-        <v>725039058.70229399</v>
+        <v>725933225.19765699</v>
       </c>
       <c r="C145">
         <v>199992803.78033099</v>
@@ -7070,7 +7070,7 @@
         <v>90000</v>
       </c>
       <c r="B146" s="1">
-        <v>729893050.597996</v>
+        <v>730798540.62971604</v>
       </c>
       <c r="C146">
         <v>199748572.75387499</v>
@@ -7114,7 +7114,7 @@
         <v>90625</v>
       </c>
       <c r="B147" s="1">
-        <v>734679029.45250797</v>
+        <v>735595921.75253296</v>
       </c>
       <c r="C147">
         <v>199477506.95250499</v>
@@ -7158,7 +7158,7 @@
         <v>91250</v>
       </c>
       <c r="B148" s="1">
-        <v>739395966.61471295</v>
+        <v>740324339.63691294</v>
       </c>
       <c r="C148">
         <v>199180320.38684601</v>
@@ -7202,7 +7202,7 @@
         <v>91875</v>
       </c>
       <c r="B149" s="1">
-        <v>744042868.45452201</v>
+        <v>744982800.370579</v>
       </c>
       <c r="C149">
         <v>198857733.21050301</v>
@@ -7246,7 +7246,7 @@
         <v>92500</v>
       </c>
       <c r="B150" s="1">
-        <v>748618776.228935</v>
+        <v>749570344.92474997</v>
       </c>
       <c r="C150">
         <v>198510470.21006399</v>
@@ -7290,7 +7290,7 @@
         <v>93125</v>
       </c>
       <c r="B151" s="1">
-        <v>753122765.91274905</v>
+        <v>754086048.98534095</v>
       </c>
       <c r="C151">
         <v>198139259.339241</v>
@@ -7334,7 +7334,7 @@
         <v>93750</v>
       </c>
       <c r="B152" s="1">
-        <v>757553947.99630296</v>
+        <v>758529022.75120103</v>
       </c>
       <c r="C152">
         <v>197744830.300726</v>
@@ -7378,7 +7378,7 @@
         <v>94375</v>
       </c>
       <c r="B153" s="1">
-        <v>761911467.25266504</v>
+        <v>762898410.70175302</v>
       </c>
       <c r="C153">
         <v>197327913.17900801</v>
@@ -7422,7 +7422,7 @@
         <v>95000</v>
       </c>
       <c r="B154" s="1">
-        <v>766194502.47655797</v>
+        <v>767193391.33638</v>
       </c>
       <c r="C154">
         <v>196889237.12700799</v>
@@ -7466,7 +7466,7 @@
         <v>95625</v>
       </c>
       <c r="B155" s="1">
-        <v>770402266.19731796</v>
+        <v>771413176.88781095</v>
       </c>
       <c r="C155">
         <v>196429529.10900801</v>
@@ -7510,7 +7510,7 @@
         <v>96250</v>
       </c>
       <c r="B156" s="1">
-        <v>774534004.36808503</v>
+        <v>775557013.01171601</v>
       </c>
       <c r="C156">
         <v>195949512.701987</v>
@@ -7554,7 +7554,7 @@
         <v>96875</v>
       </c>
       <c r="B157" s="1">
-        <v>778588996.033355</v>
+        <v>779624178.45466399</v>
       </c>
       <c r="C157">
         <v>195449906.95711899</v>
@@ -7598,7 +7598,7 @@
         <v>97500</v>
       </c>
       <c r="B158" s="1">
-        <v>782566552.97695696</v>
+        <v>783613984.70246005</v>
       </c>
       <c r="C158">
         <v>194931425.32281801</v>
@@ -7642,7 +7642,7 @@
         <v>98125</v>
       </c>
       <c r="B159" s="1">
-        <v>786466019.35241497</v>
+        <v>787525775.61085904</v>
       </c>
       <c r="C159">
         <v>194394774.630362</v>
@@ -7686,7 +7686,7 @@
         <v>98750</v>
       </c>
       <c r="B160" s="1">
-        <v>790286771.29755795</v>
+        <v>791358927.02051699</v>
       </c>
       <c r="C160">
         <v>193840654.142795</v>
@@ -7730,7 +7730,7 @@
         <v>99375</v>
       </c>
       <c r="B161" s="1">
-        <v>794028216.53518701</v>
+        <v>795112846.35795903</v>
       </c>
       <c r="C161">
         <v>193269754.66749501</v>
@@ -7774,7 +7774,7 @@
         <v>29</v>
       </c>
       <c r="B162" s="1">
-        <v>797689793.96144497</v>
+        <v>798786972.22423899</v>
       </c>
       <c r="C162">
         <v>192682757.73244399</v>

--- a/models/dissertation-model/modelo-ithink/dados_ithink_excel_stocks.xlsx
+++ b/models/dissertation-model/modelo-ithink/dados_ithink_excel_stocks.xlsx
@@ -469,9 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FV641"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -537,37 +535,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>50361604.164357997</v>
+        <v>41278720</v>
       </c>
       <c r="D2">
-        <v>251.808021</v>
+        <v>206.39359999999999</v>
       </c>
       <c r="E2">
-        <v>1383.026316</v>
+        <v>1456</v>
       </c>
       <c r="F2">
         <v>200000</v>
       </c>
       <c r="G2">
-        <v>2766.0526319999999</v>
+        <v>5200</v>
       </c>
       <c r="H2">
-        <v>2014.4641670000001</v>
+        <v>2948.48</v>
       </c>
       <c r="I2">
         <v>100000</v>
       </c>
       <c r="J2">
-        <v>1259.0401039999999</v>
+        <v>2653.6320000000001</v>
       </c>
       <c r="K2">
-        <v>1259.0401039999999</v>
+        <v>1031.9680000000001</v>
       </c>
       <c r="L2">
-        <v>1259.0401039999999</v>
+        <v>1031.9680000000001</v>
       </c>
       <c r="M2">
-        <v>1259.0401039999999</v>
+        <v>1031.9680000000001</v>
       </c>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
@@ -580,40 +578,40 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>2085809.772474</v>
+        <v>687978.66666700004</v>
       </c>
       <c r="C3">
-        <v>50361604.164357997</v>
+        <v>42096303.149752997</v>
       </c>
       <c r="D3">
-        <v>251.808021</v>
+        <v>210.481516</v>
       </c>
       <c r="E3">
-        <v>1417.1652730000001</v>
+        <v>1489.3984</v>
       </c>
       <c r="F3">
-        <v>200015.51280999999</v>
+        <v>199910.57748400001</v>
       </c>
       <c r="G3">
-        <v>2834.3305449999998</v>
+        <v>5319.28</v>
       </c>
       <c r="H3">
-        <v>2014.4641670000001</v>
+        <v>2948.48</v>
       </c>
       <c r="I3">
-        <v>100062.952005</v>
+        <v>100051.5984</v>
       </c>
       <c r="J3">
-        <v>1384.944115</v>
+        <v>2653.6320000000001</v>
       </c>
       <c r="K3">
-        <v>1259.0401039999999</v>
+        <v>1045.789</v>
       </c>
       <c r="L3">
-        <v>1259.0401039999999</v>
+        <v>1031.9680000000001</v>
       </c>
       <c r="M3">
-        <v>1259.0401039999999</v>
+        <v>1031.9680000000001</v>
       </c>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
@@ -624,40 +622,40 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>4169800.148879</v>
+        <v>1524253.2835899999</v>
       </c>
       <c r="C4">
-        <v>50398256.596965</v>
+        <v>42976774.681512997</v>
       </c>
       <c r="D4">
-        <v>251.98638600000001</v>
+        <v>214.90938</v>
       </c>
       <c r="E4">
-        <v>1450.593001</v>
+        <v>1523.4012990000001</v>
       </c>
       <c r="F4">
-        <v>200261.11073700001</v>
+        <v>200124.18846999999</v>
       </c>
       <c r="G4">
-        <v>2904.1199489999999</v>
+        <v>5440.9071750000003</v>
       </c>
       <c r="H4">
-        <v>2026.1999499999999</v>
+        <v>2963.8327009999998</v>
       </c>
       <c r="I4">
-        <v>100125.90401</v>
+        <v>100104.218779</v>
       </c>
       <c r="J4">
-        <v>1479.372122</v>
+        <v>2653.6320000000001</v>
       </c>
       <c r="K4">
-        <v>1235.433102</v>
+        <v>1057.018562</v>
       </c>
       <c r="L4">
-        <v>1259.0401039999999</v>
+        <v>1034.559438</v>
       </c>
       <c r="M4">
-        <v>1259.0401039999999</v>
+        <v>1031.9680000000001</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
@@ -668,40 +666,40 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>6259516.4827380003</v>
+        <v>2519255.230589</v>
       </c>
       <c r="C5">
-        <v>50465438.491393</v>
+        <v>44094953.085791998</v>
       </c>
       <c r="D5">
-        <v>252.24094199999999</v>
+        <v>220.457089</v>
       </c>
       <c r="E5">
-        <v>1483.3689099999999</v>
+        <v>1558.0861279999999</v>
       </c>
       <c r="F5">
-        <v>200578.92364699999</v>
+        <v>200579.95644400001</v>
       </c>
       <c r="G5">
-        <v>2975.4494840000002</v>
+        <v>5564.9130619999996</v>
       </c>
       <c r="H5">
-        <v>2046.733602</v>
+        <v>2990.7515239999998</v>
       </c>
       <c r="I5">
-        <v>100188.900607</v>
+        <v>100157.94612399999</v>
       </c>
       <c r="J5">
-        <v>1555.3424889999999</v>
+        <v>2660.6738089999999</v>
       </c>
       <c r="K5">
-        <v>1204.0643339999999</v>
+        <v>1068.307176</v>
       </c>
       <c r="L5">
-        <v>1254.613791</v>
+        <v>1038.7705229999999</v>
       </c>
       <c r="M5">
-        <v>1259.0401039999999</v>
+        <v>1032.4538950000001</v>
       </c>
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
@@ -712,40 +710,40 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>8361822.4312890004</v>
+        <v>3712427.104299</v>
       </c>
       <c r="C6">
-        <v>50616857.664786004</v>
+        <v>45494988.549419999</v>
       </c>
       <c r="D6">
-        <v>252.83534499999999</v>
+        <v>227.28207499999999</v>
       </c>
       <c r="E6">
-        <v>1515.525627</v>
+        <v>1593.724324</v>
       </c>
       <c r="F6">
-        <v>200879.533154</v>
+        <v>201279.74090599999</v>
       </c>
       <c r="G6">
-        <v>3048.348105</v>
+        <v>5691.3289530000002</v>
       </c>
       <c r="H6">
-        <v>2073.926532</v>
+        <v>3026.4444659999999</v>
       </c>
       <c r="I6">
-        <v>100251.96084299999</v>
+        <v>100213.060396</v>
       </c>
       <c r="J6">
-        <v>1621.4018579999999</v>
+        <v>2701.0940609999998</v>
       </c>
       <c r="K6">
-        <v>1174.0630450000001</v>
+        <v>1081.3016259999999</v>
       </c>
       <c r="L6">
-        <v>1245.1357680000001</v>
+        <v>1044.308646</v>
       </c>
       <c r="M6">
-        <v>1258.2101700000001</v>
+        <v>1033.6382619999999</v>
       </c>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
@@ -756,40 +754,40 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>10499923.780474</v>
+        <v>5150023.0449959999</v>
       </c>
       <c r="C7">
-        <v>50917235.553172</v>
+        <v>47127057.424171999</v>
       </c>
       <c r="D7">
-        <v>254.11586700000001</v>
+        <v>235.07718</v>
       </c>
       <c r="E7">
-        <v>1547.1610129999999</v>
+        <v>1630.623288</v>
       </c>
       <c r="F7">
-        <v>201146.11021799999</v>
+        <v>202211.00774999999</v>
       </c>
       <c r="G7">
-        <v>3122.845073</v>
+        <v>5820.1858560000001</v>
       </c>
       <c r="H7">
-        <v>2106.22298</v>
+        <v>3068.8528540000002</v>
       </c>
       <c r="I7">
-        <v>100315.169679</v>
+        <v>100269.880915</v>
       </c>
       <c r="J7">
-        <v>1683.114163</v>
+        <v>2768.2113100000001</v>
       </c>
       <c r="K7">
-        <v>1150.3377720000001</v>
+        <v>1100.1814549999999</v>
       </c>
       <c r="L7">
-        <v>1231.809632</v>
+        <v>1051.2448300000001</v>
       </c>
       <c r="M7">
-        <v>1255.75872</v>
+        <v>1035.6389590000001</v>
       </c>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
@@ -800,40 +798,40 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>12714957.604956999</v>
+        <v>6868797.2865909999</v>
       </c>
       <c r="C8">
-        <v>51408408.688359</v>
+        <v>49131505.403582998</v>
       </c>
       <c r="D8">
-        <v>256.31266599999998</v>
+        <v>244.48524399999999</v>
       </c>
       <c r="E8">
-        <v>1578.4574580000001</v>
+        <v>1669.0097920000001</v>
       </c>
       <c r="F8">
-        <v>201413.14037499999</v>
+        <v>203381.84866700001</v>
       </c>
       <c r="G8">
-        <v>3198.9699409999998</v>
+        <v>5951.514459</v>
       </c>
       <c r="H8">
-        <v>2142.4921559999998</v>
+        <v>3116.4560550000001</v>
       </c>
       <c r="I8">
-        <v>100378.698646</v>
+        <v>100328.65021000001</v>
       </c>
       <c r="J8">
-        <v>1744.05843</v>
+        <v>2850.4014550000002</v>
       </c>
       <c r="K8">
-        <v>1135.1971129999999</v>
+        <v>1123.484369</v>
       </c>
       <c r="L8">
-        <v>1216.5336589999999</v>
+        <v>1060.420447</v>
       </c>
       <c r="M8">
-        <v>1251.268266</v>
+        <v>1038.5650599999999</v>
       </c>
       <c r="AP8" s="1"/>
       <c r="AQ8" s="1"/>
@@ -844,40 +842,40 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>15058765.322287001</v>
+        <v>8930105.2493849993</v>
       </c>
       <c r="C9">
-        <v>52093181.624128997</v>
+        <v>51095645.439553</v>
       </c>
       <c r="D9">
-        <v>259.44399299999998</v>
+        <v>253.414512</v>
       </c>
       <c r="E9">
-        <v>1609.6510949999999</v>
+        <v>1709.2684810000001</v>
       </c>
       <c r="F9">
-        <v>201737.227232</v>
+        <v>204817.84723099999</v>
       </c>
       <c r="G9">
-        <v>3276.7525500000002</v>
+        <v>6085.3450890000004</v>
       </c>
       <c r="H9">
-        <v>2181.9131299999999</v>
+        <v>3168.0888289999998</v>
       </c>
       <c r="I9">
-        <v>100442.776812</v>
+        <v>100389.771521</v>
       </c>
       <c r="J9">
-        <v>1806.5000150000001</v>
+        <v>2944.0218890000001</v>
       </c>
       <c r="K9">
-        <v>1129.3969059999999</v>
+        <v>1150.4124420000001</v>
       </c>
       <c r="L9">
-        <v>1201.283056</v>
+        <v>1072.2449320000001</v>
       </c>
       <c r="M9">
-        <v>1244.755527</v>
+        <v>1042.662945</v>
       </c>
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1"/>
@@ -888,40 +886,40 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>17583228.827897001</v>
+        <v>11320037.527148999</v>
       </c>
       <c r="C10">
-        <v>52935558.095628001</v>
+        <v>52901943.074239999</v>
       </c>
       <c r="D10">
-        <v>263.31434400000001</v>
+        <v>261.24710700000003</v>
       </c>
       <c r="E10">
-        <v>1640.977695</v>
+        <v>1751.256253</v>
       </c>
       <c r="F10">
-        <v>202170.79679399999</v>
+        <v>206400.46463999999</v>
       </c>
       <c r="G10">
-        <v>3356.2230129999998</v>
+        <v>6221.7076699999998</v>
       </c>
       <c r="H10">
-        <v>2223.8908919999999</v>
+        <v>3222.9476880000002</v>
       </c>
       <c r="I10">
-        <v>100507.63781</v>
+        <v>100453.125149</v>
       </c>
       <c r="J10">
-        <v>1871.8427320000001</v>
+        <v>3047.1963900000001</v>
       </c>
       <c r="K10">
-        <v>1132.810219</v>
+        <v>1180.531295</v>
       </c>
       <c r="L10">
-        <v>1187.8044030000001</v>
+        <v>1086.9013399999999</v>
       </c>
       <c r="M10">
-        <v>1236.604439</v>
+        <v>1048.209568</v>
       </c>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
@@ -932,40 +930,40 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>20330241.176536001</v>
+        <v>14002380.424399</v>
       </c>
       <c r="C11">
-        <v>53872690.703296997</v>
+        <v>54629774.567075998</v>
       </c>
       <c r="D11">
-        <v>267.58006599999999</v>
+        <v>268.38341000000003</v>
       </c>
       <c r="E11">
-        <v>1672.619246</v>
+        <v>1794.677326</v>
       </c>
       <c r="F11">
-        <v>202744.07354499999</v>
+        <v>207998.640613</v>
       </c>
       <c r="G11">
-        <v>3437.4117080000001</v>
+        <v>6360.6316820000002</v>
       </c>
       <c r="H11">
-        <v>2267.9951430000001</v>
+        <v>3280.4413209999998</v>
       </c>
       <c r="I11">
-        <v>100573.466396</v>
+        <v>100518.43692599999</v>
       </c>
       <c r="J11">
-        <v>1940.9329720000001</v>
+        <v>3158.6749020000002</v>
       </c>
       <c r="K11">
-        <v>1144.849494</v>
+        <v>1213.5272729999999</v>
       </c>
       <c r="L11">
-        <v>1177.492994</v>
+        <v>1104.4569570000001</v>
       </c>
       <c r="M11">
-        <v>1227.454432</v>
+        <v>1055.464275</v>
       </c>
       <c r="AP11" s="1"/>
       <c r="AQ11" s="1"/>
@@ -976,40 +974,40 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>23324874.060885999</v>
+        <v>16789903.707582999</v>
       </c>
       <c r="C12">
-        <v>54832450.682957001</v>
+        <v>56251189.996073</v>
       </c>
       <c r="D12">
-        <v>271.84832699999998</v>
+        <v>274.768238</v>
       </c>
       <c r="E12">
-        <v>1704.668028</v>
+        <v>1838.2103770000001</v>
       </c>
       <c r="F12">
-        <v>203456.918687</v>
+        <v>209527.571509</v>
       </c>
       <c r="G12">
-        <v>3520.3492630000001</v>
+        <v>6502.1461170000002</v>
       </c>
       <c r="H12">
-        <v>2313.915657</v>
+        <v>3340.1098910000001</v>
       </c>
       <c r="I12">
-        <v>100640.36141300001</v>
+        <v>100584.403443</v>
       </c>
       <c r="J12">
-        <v>2014.26349</v>
+        <v>3277.5614099999998</v>
       </c>
       <c r="K12">
-        <v>1164.7264540000001</v>
+        <v>1249.1559110000001</v>
       </c>
       <c r="L12">
-        <v>1171.372337</v>
+        <v>1124.907641</v>
       </c>
       <c r="M12">
-        <v>1218.0866619999999</v>
+        <v>1064.6504030000001</v>
       </c>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
@@ -1020,40 +1018,40 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>26572793.329275001</v>
+        <v>19666133.883326001</v>
       </c>
       <c r="C13">
-        <v>55750866.059184998</v>
+        <v>57977907.356129996</v>
       </c>
       <c r="D13">
-        <v>275.776295</v>
+        <v>281.48321399999998</v>
       </c>
       <c r="E13">
-        <v>1737.116192</v>
+        <v>1881.773398</v>
       </c>
       <c r="F13">
-        <v>204279.73284899999</v>
+        <v>210921.81297</v>
       </c>
       <c r="G13">
-        <v>3605.0665429999999</v>
+        <v>6646.2794329999997</v>
       </c>
       <c r="H13">
-        <v>2361.4297299999998</v>
+        <v>3401.4843300000002</v>
       </c>
       <c r="I13">
-        <v>100708.323494</v>
+        <v>100650.944093</v>
       </c>
       <c r="J13">
-        <v>2092.109046</v>
+        <v>3403.1681290000001</v>
       </c>
       <c r="K13">
-        <v>1191.6066559999999</v>
+        <v>1287.2146379999999</v>
       </c>
       <c r="L13">
-        <v>1170.1262340000001</v>
+        <v>1148.2041919999999</v>
       </c>
       <c r="M13">
-        <v>1209.327726</v>
+        <v>1075.948635</v>
       </c>
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
@@ -1064,40 +1062,40 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>30061715.862179998</v>
+        <v>22642377.612714</v>
       </c>
       <c r="C14">
-        <v>56585191.257913001</v>
+        <v>59886696.140528001</v>
       </c>
       <c r="D14">
-        <v>279.14503200000001</v>
+        <v>288.95512300000001</v>
       </c>
       <c r="E14">
-        <v>1769.870345</v>
+        <v>1925.49802</v>
       </c>
       <c r="F14">
-        <v>205161.16805000001</v>
+        <v>212196.22701100001</v>
       </c>
       <c r="G14">
-        <v>3691.594638</v>
+        <v>6793.0595110000004</v>
       </c>
       <c r="H14">
-        <v>2410.3784380000002</v>
+        <v>3464.233052</v>
       </c>
       <c r="I14">
-        <v>100777.267568</v>
+        <v>100718.190883</v>
       </c>
       <c r="J14">
-        <v>2174.6158340000002</v>
+        <v>3534.7279370000001</v>
       </c>
       <c r="K14">
-        <v>1224.696443</v>
+        <v>1327.4760470000001</v>
       </c>
       <c r="L14">
-        <v>1174.1538129999999</v>
+        <v>1174.26865</v>
       </c>
       <c r="M14">
-        <v>1201.977447</v>
+        <v>1089.4965520000001</v>
       </c>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
@@ -1108,40 +1106,40 @@
         <v>26</v>
       </c>
       <c r="B15">
-        <v>33765851.925924003</v>
+        <v>25727856.439753</v>
       </c>
       <c r="C15">
-        <v>57320288.770741999</v>
+        <v>61909476.555950999</v>
       </c>
       <c r="D15">
-        <v>281.89391999999998</v>
+        <v>296.90130799999997</v>
       </c>
       <c r="E15">
-        <v>1802.784304</v>
+        <v>1969.522829</v>
       </c>
       <c r="F15">
-        <v>206039.60268099999</v>
+        <v>213383.23760200001</v>
       </c>
       <c r="G15">
-        <v>3779.9648430000002</v>
+        <v>6942.5136039999998</v>
       </c>
       <c r="H15">
-        <v>2460.649324</v>
+        <v>3528.1380570000001</v>
       </c>
       <c r="I15">
-        <v>100847.053826</v>
+        <v>100786.284418</v>
       </c>
       <c r="J15">
-        <v>2261.8596309999998</v>
+        <v>3671.7100610000002</v>
       </c>
       <c r="K15">
-        <v>1263.287272</v>
+        <v>1369.7665079999999</v>
       </c>
       <c r="L15">
-        <v>1183.630557</v>
+        <v>1202.9950369999999</v>
       </c>
       <c r="M15">
-        <v>1196.7605149999999</v>
+        <v>1105.39132</v>
       </c>
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
@@ -1152,40 +1150,40 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>37651854.881433003</v>
+        <v>28929992.728619002</v>
       </c>
       <c r="C16">
-        <v>57967877.351430997</v>
+        <v>63976396.957167</v>
       </c>
       <c r="D16">
-        <v>284.11355600000002</v>
+        <v>305.012745</v>
       </c>
       <c r="E16">
-        <v>1835.6997779999999</v>
+        <v>2013.990751</v>
       </c>
       <c r="F16">
-        <v>206855.140751</v>
+        <v>214487.80911900001</v>
       </c>
       <c r="G16">
-        <v>3870.20865</v>
+        <v>7094.6682899999996</v>
       </c>
       <c r="H16">
-        <v>2512.1637639999999</v>
+        <v>3593.0666350000001</v>
       </c>
       <c r="I16">
-        <v>100917.527306</v>
+        <v>100855.371375</v>
       </c>
       <c r="J16">
-        <v>2353.8829270000001</v>
+        <v>3813.7898930000001</v>
       </c>
       <c r="K16">
-        <v>1306.7738750000001</v>
+        <v>1413.9633180000001</v>
       </c>
       <c r="L16">
-        <v>1198.5661909999999</v>
+        <v>1234.264688</v>
       </c>
       <c r="M16">
-        <v>1194.298648</v>
+        <v>1123.6920170000001</v>
       </c>
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
@@ -1196,40 +1194,40 @@
         <v>28</v>
       </c>
       <c r="B17">
-        <v>41684755.816670999</v>
+        <v>32255502.542856999</v>
       </c>
       <c r="C17">
-        <v>58559871.646394998</v>
+        <v>66032427.379658997</v>
       </c>
       <c r="D17">
-        <v>286.00558699999999</v>
+        <v>313.04716200000001</v>
       </c>
       <c r="E17">
-        <v>1868.484422</v>
+        <v>2059.0466179999999</v>
       </c>
       <c r="F17">
-        <v>207559.314958</v>
+        <v>215494.700236</v>
       </c>
       <c r="G17">
-        <v>3962.35772</v>
+        <v>7249.5494209999997</v>
       </c>
       <c r="H17">
-        <v>2564.8677520000001</v>
+        <v>3658.949822</v>
       </c>
       <c r="I17">
-        <v>100988.555695</v>
+        <v>100925.602126</v>
       </c>
       <c r="J17">
-        <v>2450.7179980000001</v>
+        <v>3960.8051660000001</v>
       </c>
       <c r="K17">
-        <v>1354.6569420000001</v>
+        <v>1459.987075</v>
       </c>
       <c r="L17">
-        <v>1218.8551319999999</v>
+        <v>1267.958181</v>
       </c>
       <c r="M17">
-        <v>1195.098812</v>
+        <v>1144.424393</v>
       </c>
       <c r="AP17" s="1"/>
       <c r="AQ17" s="1"/>
@@ -1240,40 +1238,40 @@
         <v>10000</v>
       </c>
       <c r="B18">
-        <v>45832637.328920998</v>
+        <v>35710805.904624999</v>
       </c>
       <c r="C18">
-        <v>59138283.721589997</v>
+        <v>68035395.423145995</v>
       </c>
       <c r="D18">
-        <v>287.82482099999999</v>
+        <v>320.82827400000002</v>
       </c>
       <c r="E18">
-        <v>1901.05906</v>
+        <v>2104.8350599999999</v>
       </c>
       <c r="F18">
-        <v>208120.65599900001</v>
+        <v>216379.38828899999</v>
       </c>
       <c r="G18">
-        <v>4056.4438770000002</v>
+        <v>7407.1820760000001</v>
       </c>
       <c r="H18">
-        <v>2618.7251740000002</v>
+        <v>3725.7656200000001</v>
       </c>
       <c r="I18">
-        <v>101060.057092</v>
+        <v>100997.12865100001</v>
       </c>
       <c r="J18">
-        <v>2552.4007040000001</v>
+        <v>4112.7221989999998</v>
       </c>
       <c r="K18">
-        <v>1406.5372179999999</v>
+        <v>1507.795273</v>
       </c>
       <c r="L18">
-        <v>1244.3179709999999</v>
+        <v>1303.9635989999999</v>
       </c>
       <c r="M18">
-        <v>1199.553122</v>
+        <v>1167.586978</v>
       </c>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
@@ -1284,40 +1282,40 @@
         <v>10625</v>
       </c>
       <c r="B19">
-        <v>50069313.563124001</v>
+        <v>39301943.692299001</v>
       </c>
       <c r="C19">
-        <v>59744655.188400999</v>
+        <v>69953558.158960998</v>
       </c>
       <c r="D19">
-        <v>289.82063299999999</v>
+        <v>328.23694799999998</v>
       </c>
       <c r="E19">
-        <v>1933.409868</v>
+        <v>2151.4988079999998</v>
       </c>
       <c r="F19">
-        <v>208525.61352099999</v>
+        <v>217115.999217</v>
       </c>
       <c r="G19">
-        <v>4152.4990770000004</v>
+        <v>7567.5905059999996</v>
       </c>
       <c r="H19">
-        <v>2673.7129020000002</v>
+        <v>3793.5255000000002</v>
       </c>
       <c r="I19">
-        <v>101132.013297</v>
+        <v>101070.102837</v>
       </c>
       <c r="J19">
-        <v>2658.9782500000001</v>
+        <v>4269.6088570000002</v>
       </c>
       <c r="K19">
-        <v>1462.1053449999999</v>
+        <v>1557.3766539999999</v>
       </c>
       <c r="L19">
-        <v>1274.7340799999999</v>
+        <v>1342.1820379999999</v>
       </c>
       <c r="M19">
-        <v>1207.946531</v>
+        <v>1193.1575949999999</v>
       </c>
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1"/>
@@ -1328,40 +1326,40 @@
         <v>11250</v>
       </c>
       <c r="B20">
-        <v>54374888.888581999</v>
+        <v>43034286.628362</v>
       </c>
       <c r="C20">
-        <v>60411612.105637997</v>
+        <v>71763569.824265003</v>
       </c>
       <c r="D20">
-        <v>292.191394</v>
+        <v>335.20074799999998</v>
       </c>
       <c r="E20">
-        <v>1965.585654</v>
+        <v>2199.1774220000002</v>
       </c>
       <c r="F20">
-        <v>208775.58923899999</v>
+        <v>217682.35542199999</v>
       </c>
       <c r="G20">
-        <v>4250.5553989999999</v>
+        <v>7730.7980809999999</v>
       </c>
       <c r="H20">
-        <v>2729.8172039999999</v>
+        <v>3862.2631900000001</v>
       </c>
       <c r="I20">
-        <v>101204.468456</v>
+        <v>101144.675187</v>
       </c>
       <c r="J20">
-        <v>2770.5130829999998</v>
+        <v>4431.6116949999996</v>
       </c>
       <c r="K20">
-        <v>1521.130095</v>
+        <v>1608.7459879999999</v>
       </c>
       <c r="L20">
-        <v>1309.866192</v>
+        <v>1382.5310280000001</v>
       </c>
       <c r="M20">
-        <v>1220.4691969999999</v>
+        <v>1221.099678</v>
       </c>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
@@ -1372,40 +1370,40 @@
         <v>11875</v>
       </c>
       <c r="B21">
-        <v>58734594.117632002</v>
+        <v>46912203.892930001</v>
       </c>
       <c r="C21">
-        <v>61158114.712545998</v>
+        <v>73448018.027285993</v>
       </c>
       <c r="D21">
-        <v>295.05953599999998</v>
+        <v>341.67984300000001</v>
       </c>
       <c r="E21">
-        <v>1997.683802</v>
+        <v>2248.0064339999999</v>
       </c>
       <c r="F21">
-        <v>208899.89731100001</v>
+        <v>218058.54695300001</v>
       </c>
       <c r="G21">
-        <v>4350.6450130000003</v>
+        <v>7896.8272390000002</v>
       </c>
       <c r="H21">
-        <v>2787.0311230000002</v>
+        <v>3932.0252449999998</v>
       </c>
       <c r="I21">
-        <v>101277.516304</v>
+        <v>101220.99391600001</v>
       </c>
       <c r="J21">
-        <v>2882.3974929999999</v>
+        <v>4574.3665620000002</v>
       </c>
       <c r="K21">
-        <v>1578.4248720000001</v>
+        <v>1660.9914650000001</v>
       </c>
       <c r="L21">
-        <v>1349.4781740000001</v>
+        <v>1424.9463330000001</v>
       </c>
       <c r="M21">
-        <v>1237.231133</v>
+        <v>1251.368056</v>
       </c>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
@@ -1416,40 +1414,40 @@
         <v>12500</v>
       </c>
       <c r="B22">
-        <v>63136619.105659999</v>
+        <v>50938773.245539002</v>
       </c>
       <c r="C22">
-        <v>61983206.816358</v>
+        <v>75004272.476964995</v>
       </c>
       <c r="D22">
-        <v>298.43504799999999</v>
+        <v>347.70590499999997</v>
       </c>
       <c r="E22">
-        <v>2029.830273</v>
+        <v>2298.116857</v>
       </c>
       <c r="F22">
-        <v>208917.536525</v>
+        <v>218236.27923499999</v>
       </c>
       <c r="G22">
-        <v>4452.8001670000003</v>
+        <v>8065.6994279999999</v>
       </c>
       <c r="H22">
-        <v>2845.3525639999998</v>
+        <v>4002.8633770000001</v>
       </c>
       <c r="I22">
-        <v>101351.28118799999</v>
+        <v>101299.20441999999</v>
       </c>
       <c r="J22">
-        <v>2991.9745119999998</v>
+        <v>4697.333138</v>
       </c>
       <c r="K22">
-        <v>1631.4953840000001</v>
+        <v>1713.0391500000001</v>
       </c>
       <c r="L22">
-        <v>1392.4056800000001</v>
+        <v>1469.2047950000001</v>
       </c>
       <c r="M22">
-        <v>1258.2774529999999</v>
+        <v>1283.9139829999999</v>
       </c>
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1"/>
@@ -1460,40 +1458,40 @@
         <v>13125</v>
       </c>
       <c r="B23">
-        <v>67568692.146098003</v>
+        <v>55115525.822260998</v>
       </c>
       <c r="C23">
-        <v>62874001.558775</v>
+        <v>76415670.620112002</v>
       </c>
       <c r="D23">
-        <v>302.262001</v>
+        <v>353.24496399999998</v>
       </c>
       <c r="E23">
-        <v>2062.150905</v>
+        <v>2349.6350210000001</v>
       </c>
       <c r="F23">
-        <v>208838.20666</v>
+        <v>218217.244091</v>
       </c>
       <c r="G23">
-        <v>4557.0531570000003</v>
+        <v>8237.4350539999996</v>
       </c>
       <c r="H23">
-        <v>2904.7828869999998</v>
+        <v>4074.8286509999998</v>
       </c>
       <c r="I23">
-        <v>101425.88995</v>
+        <v>101379.44904399999</v>
       </c>
       <c r="J23">
-        <v>3097.9199229999999</v>
+        <v>4810.9785910000001</v>
       </c>
       <c r="K23">
-        <v>1679.5294630000001</v>
+        <v>1764.100017</v>
       </c>
       <c r="L23">
-        <v>1437.234999</v>
+        <v>1514.9237370000001</v>
       </c>
       <c r="M23">
-        <v>1283.426496</v>
+        <v>1318.6560099999999</v>
       </c>
       <c r="AP23" s="1"/>
       <c r="AQ23" s="1"/>
@@ -1504,40 +1502,40 @@
         <v>13750</v>
       </c>
       <c r="B24">
-        <v>72017209.344015002</v>
+        <v>59442176.706272997</v>
       </c>
       <c r="C24">
-        <v>63813449.838535003</v>
+        <v>77665140.059688002</v>
       </c>
       <c r="D24">
-        <v>306.46135299999997</v>
+        <v>358.25605999999999</v>
       </c>
       <c r="E24">
-        <v>2094.7549279999998</v>
+        <v>2402.6805829999998</v>
       </c>
       <c r="F24">
-        <v>208666.46719</v>
+        <v>218006.80910099999</v>
       </c>
       <c r="G24">
-        <v>4663.4363030000004</v>
+        <v>8412.0534229999994</v>
       </c>
       <c r="H24">
-        <v>2965.3258740000001</v>
+        <v>4147.9676749999999</v>
       </c>
       <c r="I24">
-        <v>101501.455451</v>
+        <v>101461.865045</v>
       </c>
       <c r="J24">
-        <v>3199.7767829999998</v>
+        <v>4919.9185299999999</v>
       </c>
       <c r="K24">
-        <v>1722.690032</v>
+        <v>1813.7616310000001</v>
       </c>
       <c r="L24">
-        <v>1482.665211</v>
+        <v>1561.6442890000001</v>
       </c>
       <c r="M24">
-        <v>1312.26559</v>
+        <v>1355.4562089999999</v>
       </c>
       <c r="AP24" s="1"/>
       <c r="AQ24" s="1"/>
@@ -1548,40 +1546,40 @@
         <v>14375</v>
       </c>
       <c r="B25">
-        <v>76467880.345552996</v>
+        <v>63916465.925502002</v>
       </c>
       <c r="C25">
-        <v>64785953.146682002</v>
+        <v>78746728.737473994</v>
       </c>
       <c r="D25">
-        <v>310.960465</v>
+        <v>362.74318499999998</v>
       </c>
       <c r="E25">
-        <v>2127.729538</v>
+        <v>2457.3630889999999</v>
       </c>
       <c r="F25">
-        <v>208406.24962799999</v>
+        <v>217613.383153</v>
       </c>
       <c r="G25">
-        <v>4771.9819269999998</v>
+        <v>8589.5726830000003</v>
       </c>
       <c r="H25">
-        <v>3026.986973</v>
+        <v>4222.3192390000004</v>
       </c>
       <c r="I25">
-        <v>101578.070789</v>
+        <v>101546.581058</v>
       </c>
       <c r="J25">
-        <v>3297.6203369999998</v>
+        <v>5023.7246150000001</v>
       </c>
       <c r="K25">
-        <v>1761.642951</v>
+        <v>1861.8694620000001</v>
       </c>
       <c r="L25">
-        <v>1527.6698650000001</v>
+        <v>1608.916291</v>
       </c>
       <c r="M25">
-        <v>1344.2155190000001</v>
+        <v>1394.1164739999999</v>
       </c>
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
@@ -1592,40 +1590,40 @@
         <v>15000</v>
       </c>
       <c r="B26">
-        <v>80907046.444867</v>
+        <v>68534015.373794004</v>
       </c>
       <c r="C26">
-        <v>65780191.345100001</v>
+        <v>79658729.081796005</v>
       </c>
       <c r="D26">
-        <v>315.70696600000002</v>
+        <v>366.72323</v>
       </c>
       <c r="E26">
-        <v>2161.1419559999999</v>
+        <v>2513.7783300000001</v>
       </c>
       <c r="F26">
-        <v>208064.13288799999</v>
+        <v>217050.00964500001</v>
       </c>
       <c r="G26">
-        <v>4882.7223199999999</v>
+        <v>8770.0097729999998</v>
       </c>
       <c r="H26">
-        <v>3089.7727399999999</v>
+        <v>4297.9117900000001</v>
       </c>
       <c r="I26">
-        <v>101655.81090500001</v>
+        <v>101633.71333699999</v>
       </c>
       <c r="J26">
-        <v>3391.8263969999998</v>
+        <v>5122.290328</v>
       </c>
       <c r="K26">
-        <v>1797.2573110000001</v>
+        <v>1908.442763</v>
       </c>
       <c r="L26">
-        <v>1571.5398190000001</v>
+        <v>1656.3450110000001</v>
       </c>
       <c r="M26">
-        <v>1378.6132090000001</v>
+        <v>1434.3914400000001</v>
       </c>
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1"/>
@@ -1636,40 +1634,40 @@
         <v>15625</v>
       </c>
       <c r="B27">
-        <v>85323023.853961006</v>
+        <v>73288229.904219002</v>
       </c>
       <c r="C27">
-        <v>66789539.468998998</v>
+        <v>80397011.992238</v>
       </c>
       <c r="D27">
-        <v>320.66972399999997</v>
+        <v>370.19387999999998</v>
       </c>
       <c r="E27">
-        <v>2195.044907</v>
+        <v>2572.0055659999998</v>
       </c>
       <c r="F27">
-        <v>207650.78034100001</v>
+        <v>216333.52625200001</v>
       </c>
       <c r="G27">
-        <v>4995.6897200000003</v>
+        <v>8953.3803559999997</v>
       </c>
       <c r="H27">
-        <v>3153.6904159999999</v>
+        <v>4374.7625550000002</v>
       </c>
       <c r="I27">
-        <v>101734.737647</v>
+        <v>101723.362802</v>
       </c>
       <c r="J27">
-        <v>3482.917512</v>
+        <v>5216.3874059999998</v>
       </c>
       <c r="K27">
-        <v>1830.4266660000001</v>
+        <v>1953.5997540000001</v>
       </c>
       <c r="L27">
-        <v>1613.861848</v>
+        <v>1703.613339</v>
       </c>
       <c r="M27">
-        <v>1414.7869479999999</v>
+        <v>1476.007734</v>
       </c>
       <c r="AP27" s="1"/>
       <c r="AQ27" s="1"/>
@@ -1680,40 +1678,40 @@
         <v>16250</v>
       </c>
       <c r="B28">
-        <v>89707058.578172997</v>
+        <v>78170348.168348998</v>
       </c>
       <c r="C28">
-        <v>67810982.376350999</v>
+        <v>80955785.430160999</v>
       </c>
       <c r="D28">
-        <v>325.83222899999998</v>
+        <v>373.13581299999998</v>
       </c>
       <c r="E28">
-        <v>2229.4822349999999</v>
+        <v>2632.1059799999998</v>
       </c>
       <c r="F28">
-        <v>207180.67344099999</v>
+        <v>215482.224774</v>
       </c>
       <c r="G28">
-        <v>5110.9162740000002</v>
+        <v>9139.6987680000002</v>
       </c>
       <c r="H28">
-        <v>3218.7476270000002</v>
+        <v>4452.8780820000002</v>
       </c>
       <c r="I28">
-        <v>101814.905078</v>
+        <v>101815.61328600001</v>
       </c>
       <c r="J28">
-        <v>3571.465193</v>
+        <v>5307.1287080000002</v>
       </c>
       <c r="K28">
-        <v>1861.971481</v>
+        <v>1997.5126290000001</v>
       </c>
       <c r="L28">
-        <v>1654.467752</v>
+        <v>1750.4857919999999</v>
       </c>
       <c r="M28">
-        <v>1452.113492</v>
+        <v>1518.6837849999999</v>
       </c>
       <c r="AP28" s="1"/>
       <c r="AQ28" s="1"/>
@@ -1724,40 +1722,40 @@
         <v>16875</v>
       </c>
       <c r="B29">
-        <v>94053720.621994004</v>
+        <v>82923938.509699002</v>
       </c>
       <c r="C29">
-        <v>68843511.044946</v>
+        <v>81031180.267609999</v>
       </c>
       <c r="D29">
-        <v>331.183785</v>
+        <v>374.12572</v>
       </c>
       <c r="E29">
-        <v>2264.4927459999999</v>
+        <v>2692.4886080000001</v>
       </c>
       <c r="F29">
-        <v>206670.70028799999</v>
+        <v>214507.699708</v>
       </c>
       <c r="G29">
-        <v>5228.4340160000002</v>
+        <v>9328.9779600000002</v>
       </c>
       <c r="H29">
-        <v>3284.952139</v>
+        <v>4532.2554220000002</v>
       </c>
       <c r="I29">
-        <v>101896.36313500001</v>
+        <v>101908.897239</v>
       </c>
       <c r="J29">
-        <v>3658.0311200000001</v>
+        <v>5395.6864109999997</v>
       </c>
       <c r="K29">
-        <v>1892.5937750000001</v>
+        <v>2040.379923</v>
       </c>
       <c r="L29">
-        <v>1693.374701</v>
+        <v>1796.803324</v>
       </c>
       <c r="M29">
-        <v>1490.054916</v>
+        <v>1562.146661</v>
       </c>
       <c r="AP29" s="1"/>
       <c r="AQ29" s="1"/>
@@ -1768,40 +1766,40 @@
         <v>17500</v>
       </c>
       <c r="B30">
-        <v>98360766.563755006</v>
+        <v>87414577.773127005</v>
       </c>
       <c r="C30">
-        <v>69886741.637416005</v>
+        <v>81042699.778501004</v>
       </c>
       <c r="D30">
-        <v>336.712446</v>
+        <v>375.08653700000002</v>
       </c>
       <c r="E30">
-        <v>2300.1117599999998</v>
+        <v>2752.3639309999999</v>
       </c>
       <c r="F30">
-        <v>206138.27762099999</v>
+        <v>213371.20384199999</v>
       </c>
       <c r="G30">
-        <v>5348.2748279999996</v>
+        <v>9521.2294330000004</v>
       </c>
       <c r="H30">
-        <v>3352.3116879999998</v>
+        <v>4612.7463260000004</v>
       </c>
       <c r="I30">
-        <v>101979.15908100001</v>
+        <v>102002.428669</v>
       </c>
       <c r="J30">
-        <v>3743.1345729999998</v>
+        <v>5483.2360369999997</v>
       </c>
       <c r="K30">
-        <v>1922.8636429999999</v>
+        <v>2082.4212309999998</v>
       </c>
       <c r="L30">
-        <v>1730.728278</v>
+        <v>1842.4739360000001</v>
       </c>
       <c r="M30">
-        <v>1528.1773760000001</v>
+        <v>1606.1447860000001</v>
       </c>
       <c r="AP30" s="1"/>
       <c r="AQ30" s="1"/>
@@ -1812,40 +1810,40 @@
         <v>18125</v>
       </c>
       <c r="B31">
-        <v>102628626.39600401</v>
+        <v>91627398.720892996</v>
       </c>
       <c r="C31">
-        <v>70940128.940303996</v>
+        <v>81257279.674722999</v>
       </c>
       <c r="D31">
-        <v>342.40154799999999</v>
+        <v>377.27562499999999</v>
       </c>
       <c r="E31">
-        <v>2336.3708769999998</v>
+        <v>2811.7310160000002</v>
       </c>
       <c r="F31">
-        <v>205599.583251</v>
+        <v>212128.93966500001</v>
       </c>
       <c r="G31">
-        <v>5470.4704099999999</v>
+        <v>9716.4631869999994</v>
       </c>
       <c r="H31">
-        <v>3420.8338389999999</v>
+        <v>4694.1524019999997</v>
       </c>
       <c r="I31">
-        <v>102063.337193</v>
+        <v>102096.20030300001</v>
       </c>
       <c r="J31">
-        <v>3827.236883</v>
+        <v>5570.6169040000004</v>
       </c>
       <c r="K31">
-        <v>1953.2239279999999</v>
+        <v>2123.8288429999998</v>
       </c>
       <c r="L31">
-        <v>1766.753659</v>
+        <v>1887.464054</v>
       </c>
       <c r="M31">
-        <v>1566.1556700000001</v>
+        <v>1650.4565009999999</v>
       </c>
       <c r="AP31" s="1"/>
       <c r="AQ31" s="1"/>
@@ -1856,40 +1854,40 @@
         <v>18750</v>
       </c>
       <c r="B32">
-        <v>106859715.271937</v>
+        <v>95594707.455210999</v>
       </c>
       <c r="C32">
-        <v>72002808.685606003</v>
+        <v>81831453.151208997</v>
       </c>
       <c r="D32">
-        <v>348.22990700000003</v>
+        <v>381.427458</v>
       </c>
       <c r="E32">
-        <v>2373.2968700000001</v>
+        <v>2870.9032849999999</v>
       </c>
       <c r="F32">
-        <v>205068.26431900001</v>
+        <v>210874.568149</v>
       </c>
       <c r="G32">
-        <v>5595.0522430000001</v>
+        <v>9914.6876589999993</v>
       </c>
       <c r="H32">
-        <v>3490.5258749999998</v>
+        <v>4776.3140700000004</v>
       </c>
       <c r="I32">
-        <v>102148.93758</v>
+        <v>102190.51921</v>
       </c>
       <c r="J32">
-        <v>3910.7365180000002</v>
+        <v>5658.2728479999996</v>
       </c>
       <c r="K32">
-        <v>1984.0041570000001</v>
+        <v>2164.7492590000002</v>
       </c>
       <c r="L32">
-        <v>1801.7168340000001</v>
+        <v>1931.7824519999999</v>
       </c>
       <c r="M32">
-        <v>1603.767793</v>
+        <v>1694.8954180000001</v>
       </c>
       <c r="AP32" s="1"/>
       <c r="AQ32" s="1"/>
@@ -1902,40 +1900,40 @@
         <v>19375</v>
       </c>
       <c r="B33">
-        <v>111057749.563636</v>
+        <v>99376500.106547996</v>
       </c>
       <c r="C33">
-        <v>73073885.968842</v>
+        <v>82709340.076003</v>
       </c>
       <c r="D33">
-        <v>354.174531</v>
+        <v>387.24803900000001</v>
       </c>
       <c r="E33">
-        <v>2410.9106619999998</v>
+        <v>2930.3738579999999</v>
       </c>
       <c r="F33">
-        <v>204554.76153600001</v>
+        <v>209701.51797799999</v>
       </c>
       <c r="G33">
-        <v>5722.0515530000002</v>
+        <v>10115.909667</v>
       </c>
       <c r="H33">
-        <v>3561.3947159999998</v>
+        <v>4859.1097589999999</v>
       </c>
       <c r="I33">
-        <v>102235.99505699999</v>
+        <v>102285.876074</v>
       </c>
       <c r="J33">
-        <v>3993.9704390000002</v>
+        <v>5746.3664760000001</v>
       </c>
       <c r="K33">
-        <v>2015.438191</v>
+        <v>2205.2884130000002</v>
       </c>
       <c r="L33">
-        <v>1835.8957069999999</v>
+        <v>1975.4637279999999</v>
       </c>
       <c r="M33">
-        <v>1640.8832379999999</v>
+        <v>1739.3117360000001</v>
       </c>
       <c r="AP33" s="1"/>
       <c r="AQ33" s="1"/>
@@ -1948,40 +1946,40 @@
         <v>20000</v>
       </c>
       <c r="B34">
-        <v>115227187.61237399</v>
+        <v>103024011.799642</v>
       </c>
       <c r="C34">
-        <v>74152906.374552995</v>
+        <v>83798705.788653001</v>
       </c>
       <c r="D34">
-        <v>360.21433300000001</v>
+        <v>394.23451899999998</v>
       </c>
       <c r="E34">
-        <v>2449.2269900000001</v>
+        <v>2990.5561950000001</v>
       </c>
       <c r="F34">
-        <v>204066.2114</v>
+        <v>208663.23077200001</v>
       </c>
       <c r="G34">
-        <v>5851.4992769999999</v>
+        <v>10320.13435</v>
       </c>
       <c r="H34">
-        <v>3633.4468409999999</v>
+        <v>4942.4684520000001</v>
       </c>
       <c r="I34">
-        <v>102324.53869</v>
+        <v>102382.68808399999</v>
       </c>
       <c r="J34">
-        <v>4077.2188639999999</v>
+        <v>5834.8763280000003</v>
       </c>
       <c r="K34">
-        <v>2047.682325</v>
+        <v>2245.5184869999998</v>
       </c>
       <c r="L34">
-        <v>1869.559923</v>
+        <v>2018.5558570000001</v>
       </c>
       <c r="M34">
-        <v>1677.4480759999999</v>
+        <v>1783.5902349999999</v>
       </c>
       <c r="AP34" s="1"/>
       <c r="AQ34" s="1"/>
@@ -1994,40 +1992,40 @@
         <v>20625</v>
       </c>
       <c r="B35">
-        <v>119372846.92983299</v>
+        <v>106573706.277639</v>
       </c>
       <c r="C35">
-        <v>75240273.197334006</v>
+        <v>84998638.658726007</v>
       </c>
       <c r="D35">
-        <v>366.33342499999998</v>
+        <v>401.82592399999999</v>
       </c>
       <c r="E35">
-        <v>2488.2550110000002</v>
+        <v>3051.732872</v>
       </c>
       <c r="F35">
-        <v>203606.78110600001</v>
+        <v>207776.46452099999</v>
       </c>
       <c r="G35">
-        <v>5983.4260180000001</v>
+        <v>10527.365114</v>
       </c>
       <c r="H35">
-        <v>3706.6882300000002</v>
+        <v>5026.3498479999998</v>
       </c>
       <c r="I35">
-        <v>102414.592273</v>
+        <v>102481.246713</v>
       </c>
       <c r="J35">
-        <v>4160.7116150000002</v>
+        <v>5923.6935160000003</v>
       </c>
       <c r="K35">
-        <v>2080.8320659999999</v>
+        <v>2285.487905</v>
       </c>
       <c r="L35">
-        <v>1902.9578730000001</v>
+        <v>2061.1113500000001</v>
       </c>
       <c r="M35">
-        <v>1713.469047</v>
+        <v>1827.646289</v>
       </c>
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1"/>
@@ -2040,40 +2038,40 @@
         <v>21250</v>
       </c>
       <c r="B36">
-        <v>123499691.932014</v>
+        <v>110045889.08458</v>
       </c>
       <c r="C36">
-        <v>76337460.686106995</v>
+        <v>86222772.450764999</v>
       </c>
       <c r="D36">
-        <v>372.52311800000001</v>
+        <v>409.53276899999997</v>
       </c>
       <c r="E36">
-        <v>2527.9997210000001</v>
+        <v>3114.042692</v>
       </c>
       <c r="F36">
-        <v>203178.25191399999</v>
+        <v>207030.25746299999</v>
       </c>
       <c r="G36">
-        <v>6117.8620110000002</v>
+        <v>10737.603573</v>
       </c>
       <c r="H36">
-        <v>3781.124311</v>
+        <v>5110.7313000000004</v>
       </c>
       <c r="I36">
-        <v>102506.175629</v>
+        <v>102581.703194</v>
       </c>
       <c r="J36">
-        <v>4244.6349019999998</v>
+        <v>6012.6703479999996</v>
       </c>
       <c r="K36">
-        <v>2114.9367590000002</v>
+        <v>2325.2274389999998</v>
       </c>
       <c r="L36">
-        <v>1936.3092839999999</v>
+        <v>2103.1819540000001</v>
       </c>
       <c r="M36">
-        <v>1748.998202</v>
+        <v>1871.4209880000001</v>
       </c>
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
@@ -2086,40 +2084,40 @@
         <v>21875</v>
       </c>
       <c r="B37">
-        <v>127612749.92102601</v>
+        <v>113447133.77434801</v>
       </c>
       <c r="C37" s="1">
-        <v>77446974.326979995</v>
+        <v>87413061.156515002</v>
       </c>
       <c r="D37">
-        <v>378.78230100000002</v>
+        <v>417.01748700000002</v>
       </c>
       <c r="E37">
-        <v>2568.463839</v>
+        <v>3177.5003510000001</v>
       </c>
       <c r="F37">
-        <v>202780.679485</v>
+        <v>206397.41143800001</v>
       </c>
       <c r="G37">
-        <v>6254.8370770000001</v>
+        <v>10950.849496999999</v>
       </c>
       <c r="H37">
-        <v>3856.759912</v>
+        <v>5195.5993529999996</v>
       </c>
       <c r="I37">
-        <v>102599.306408</v>
+        <v>102684.086387</v>
       </c>
       <c r="J37">
-        <v>4329.137909</v>
+        <v>6101.6442029999998</v>
       </c>
       <c r="K37">
-        <v>2150.011786</v>
+        <v>2364.7541369999999</v>
       </c>
       <c r="L37">
-        <v>1969.8019360000001</v>
+        <v>2144.815482</v>
       </c>
       <c r="M37">
-        <v>1784.1190300000001</v>
+        <v>1914.8761689999999</v>
       </c>
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
@@ -2132,40 +2130,40 @@
         <v>22500</v>
       </c>
       <c r="B38">
-        <v>131717099.371848</v>
+        <v>116774911.997697</v>
       </c>
       <c r="C38" s="1">
-        <v>78572092.882320002</v>
+        <v>88543529.592148006</v>
       </c>
       <c r="D38">
-        <v>385.11638099999999</v>
+        <v>424.11981100000003</v>
       </c>
       <c r="E38">
-        <v>2609.6497509999999</v>
+        <v>3242.0359680000001</v>
       </c>
       <c r="F38">
-        <v>202413.00273599999</v>
+        <v>205845.46218100001</v>
       </c>
       <c r="G38">
-        <v>6394.3805830000001</v>
+        <v>11167.100753999999</v>
       </c>
       <c r="H38">
-        <v>3933.5992209999999</v>
+        <v>5280.9443840000004</v>
       </c>
       <c r="I38">
-        <v>102694.00198299999</v>
+        <v>102788.340759</v>
       </c>
       <c r="J38">
-        <v>4414.3388150000001</v>
+        <v>6190.4496470000004</v>
       </c>
       <c r="K38">
-        <v>2186.0484139999999</v>
+        <v>2404.0741309999999</v>
       </c>
       <c r="L38">
-        <v>2003.591283</v>
+        <v>2186.0539800000001</v>
       </c>
       <c r="M38">
-        <v>1818.934575</v>
+        <v>1957.9897900000001</v>
       </c>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
@@ -2180,40 +2178,40 @@
         <v>23125</v>
       </c>
       <c r="B39">
-        <v>135817879.068481</v>
+        <v>120022769.755706</v>
       </c>
       <c r="C39" s="1">
-        <v>79716477.347238004</v>
+        <v>89616051.459711999</v>
       </c>
       <c r="D39">
-        <v>391.53527100000002</v>
+        <v>430.83659599999999</v>
       </c>
       <c r="E39">
-        <v>2651.5611429999999</v>
+        <v>3307.5404709999998</v>
       </c>
       <c r="F39">
-        <v>202073.52669100001</v>
+        <v>205345.046459</v>
       </c>
       <c r="G39">
-        <v>6536.5213979999999</v>
+        <v>11386.353259</v>
       </c>
       <c r="H39">
-        <v>4011.6457409999998</v>
+        <v>5366.7573119999997</v>
       </c>
       <c r="I39">
-        <v>102790.28107899999</v>
+        <v>102894.370711</v>
       </c>
       <c r="J39">
-        <v>4500.3301099999999</v>
+        <v>6278.9253609999996</v>
       </c>
       <c r="K39">
-        <v>2223.021522</v>
+        <v>2443.184874</v>
       </c>
       <c r="L39">
-        <v>2037.801995</v>
+        <v>2226.9327579999999</v>
       </c>
       <c r="M39">
-        <v>1853.557708</v>
+        <v>2000.7518259999999</v>
       </c>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
@@ -2228,40 +2226,40 @@
         <v>23750</v>
       </c>
       <c r="B40">
-        <v>139920282.016285</v>
+        <v>123184763.30935</v>
       </c>
       <c r="C40" s="1">
-        <v>80883747.077203006</v>
+        <v>90651315.675081998</v>
       </c>
       <c r="D40">
-        <v>398.05102199999999</v>
+        <v>437.273259</v>
       </c>
       <c r="E40">
-        <v>2694.2041039999999</v>
+        <v>3373.9053640000002</v>
       </c>
       <c r="F40">
-        <v>201760.25465399999</v>
+        <v>204874.75766800001</v>
       </c>
       <c r="G40">
-        <v>6681.2878440000004</v>
+        <v>11608.600924</v>
       </c>
       <c r="H40">
-        <v>4090.9022580000001</v>
+        <v>5453.0276640000002</v>
       </c>
       <c r="I40">
-        <v>102888.164896</v>
+        <v>103002.07986</v>
       </c>
       <c r="J40">
-        <v>4587.1831560000001</v>
+        <v>6366.9187279999996</v>
       </c>
       <c r="K40">
-        <v>2260.8954910000002</v>
+        <v>2482.0770830000001</v>
       </c>
       <c r="L40">
-        <v>2072.5306559999999</v>
+        <v>2267.4800300000002</v>
       </c>
       <c r="M40">
-        <v>1888.103511</v>
+        <v>2043.1607509999999</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -2280,40 +2278,40 @@
         <v>24375</v>
       </c>
       <c r="B41">
-        <v>144029517.04525599</v>
+        <v>126258399.999658</v>
       </c>
       <c r="C41" s="1">
-        <v>82077110.192965001</v>
+        <v>91678255.659406006</v>
       </c>
       <c r="D41">
-        <v>404.67562199999998</v>
+        <v>443.58543600000002</v>
       </c>
       <c r="E41">
-        <v>2737.5876069999999</v>
+        <v>3441.0498619999998</v>
       </c>
       <c r="F41">
-        <v>201471.08235099999</v>
+        <v>204422.60790900001</v>
       </c>
       <c r="G41">
-        <v>6828.7076559999996</v>
+        <v>11833.835601000001</v>
       </c>
       <c r="H41">
-        <v>4171.3708020000004</v>
+        <v>5539.7425300000004</v>
       </c>
       <c r="I41">
-        <v>102987.677652</v>
+        <v>103111.39817499999</v>
       </c>
       <c r="J41">
-        <v>4674.9520279999997</v>
+        <v>6454.2889260000002</v>
       </c>
       <c r="K41">
-        <v>2299.628596</v>
+        <v>2520.7364219999999</v>
       </c>
       <c r="L41">
-        <v>2107.8490630000001</v>
+        <v>2307.7169779999999</v>
       </c>
       <c r="M41">
-        <v>1922.683601</v>
+        <v>2085.2206160000001</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -2332,40 +2330,40 @@
         <v>25000</v>
       </c>
       <c r="B42">
-        <v>148150737.95399201</v>
+        <v>129245863.642079</v>
       </c>
       <c r="C42" s="1">
-        <v>83299105.395245999</v>
+        <v>92724670.622598007</v>
       </c>
       <c r="D42">
-        <v>411.41933899999998</v>
+        <v>449.92649499999999</v>
       </c>
       <c r="E42">
-        <v>2781.723438</v>
+        <v>3508.933098</v>
       </c>
       <c r="F42">
-        <v>201203.88808800001</v>
+        <v>203984.89973100001</v>
       </c>
       <c r="G42">
-        <v>6978.8079289999996</v>
+        <v>12062.047044000001</v>
       </c>
       <c r="H42">
-        <v>4253.0526099999997</v>
+        <v>5626.8860699999996</v>
       </c>
       <c r="I42">
-        <v>103088.846558</v>
+        <v>103222.294534</v>
       </c>
       <c r="J42">
-        <v>4763.6766980000002</v>
+        <v>6540.9097819999997</v>
       </c>
       <c r="K42">
-        <v>2339.176168</v>
+        <v>2559.145098</v>
       </c>
       <c r="L42">
-        <v>2143.8077250000001</v>
+        <v>2347.6581230000002</v>
       </c>
       <c r="M42">
-        <v>1957.4021250000001</v>
+        <v>2126.9386829999999</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
@@ -2384,40 +2382,40 @@
         <v>25625</v>
       </c>
       <c r="B43">
-        <v>152288951.60571501</v>
+        <v>132153741.11001299</v>
       </c>
       <c r="C43" s="1">
-        <v>84551477.193215996</v>
+        <v>93810795.559694007</v>
       </c>
       <c r="D43">
-        <v>418.28976</v>
+        <v>456.41099400000002</v>
       </c>
       <c r="E43">
-        <v>2826.6257009999999</v>
+        <v>3577.553058</v>
       </c>
       <c r="F43">
-        <v>200956.55972300001</v>
+        <v>203563.61358599999</v>
       </c>
       <c r="G43">
-        <v>7131.6150719999996</v>
+        <v>12293.222852999999</v>
       </c>
       <c r="H43">
-        <v>4335.9480960000001</v>
+        <v>5714.4393650000002</v>
       </c>
       <c r="I43">
-        <v>103191.701392</v>
+        <v>103334.77615799999</v>
       </c>
       <c r="J43">
-        <v>4853.3856450000003</v>
+        <v>6626.6724119999999</v>
       </c>
       <c r="K43">
-        <v>2379.4928150000001</v>
+        <v>2597.2833580000001</v>
       </c>
       <c r="L43">
-        <v>2180.439308</v>
+        <v>2387.3119310000002</v>
       </c>
       <c r="M43">
-        <v>1992.353175</v>
+        <v>2168.323578</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
@@ -2436,40 +2434,40 @@
         <v>26250</v>
       </c>
       <c r="B44">
-        <v>156448921.545219</v>
+        <v>134991741.87944701</v>
       </c>
       <c r="C44" s="1">
-        <v>85835175.532394007</v>
+        <v>94946447.597498998</v>
       </c>
       <c r="D44">
-        <v>425.29152099999999</v>
+        <v>463.09776399999998</v>
       </c>
       <c r="E44">
-        <v>2872.310105</v>
+        <v>3646.936393</v>
       </c>
       <c r="F44">
-        <v>200726.994978</v>
+        <v>203163.387735</v>
       </c>
       <c r="G44">
-        <v>7287.1547559999999</v>
+        <v>12527.348434</v>
       </c>
       <c r="H44">
-        <v>4420.0568160000003</v>
+        <v>5802.3804749999999</v>
       </c>
       <c r="I44">
-        <v>103296.27383200001</v>
+        <v>103448.878906</v>
       </c>
       <c r="J44">
-        <v>4944.0979699999998</v>
+        <v>6711.4867439999998</v>
       </c>
       <c r="K44">
-        <v>2420.5338919999999</v>
+        <v>2635.130776</v>
       </c>
       <c r="L44">
-        <v>2217.761841</v>
+        <v>2426.6815740000002</v>
       </c>
       <c r="M44">
-        <v>2027.6193249999999</v>
+        <v>2209.3838949999999</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
@@ -2488,40 +2486,40 @@
         <v>26875</v>
       </c>
       <c r="B45">
-        <v>160635083.19526401</v>
+        <v>137770993.25827801</v>
       </c>
       <c r="C45" s="1">
-        <v>87150449.515983</v>
+        <v>96131382.41144</v>
       </c>
       <c r="D45">
-        <v>432.42656399999998</v>
+        <v>469.99083200000001</v>
       </c>
       <c r="E45">
-        <v>2918.7931920000001</v>
+        <v>3717.1241289999998</v>
       </c>
       <c r="F45">
-        <v>200513.10109000001</v>
+        <v>202788.91118299999</v>
       </c>
       <c r="G45">
-        <v>7445.451865</v>
+        <v>12764.406956000001</v>
       </c>
       <c r="H45">
-        <v>4505.3774329999997</v>
+        <v>5890.6845929999999</v>
       </c>
       <c r="I45">
-        <v>103402.59671300001</v>
+        <v>103564.653347</v>
       </c>
       <c r="J45">
-        <v>5035.8250950000001</v>
+        <v>6795.2813850000002</v>
       </c>
       <c r="K45">
-        <v>2462.256437</v>
+        <v>2672.6672199999998</v>
       </c>
       <c r="L45">
-        <v>2255.7815999999998</v>
+        <v>2465.7657989999998</v>
       </c>
       <c r="M45">
-        <v>2063.2710470000002</v>
+        <v>2250.1272090000002</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -2540,40 +2538,40 @@
         <v>27500</v>
       </c>
       <c r="B46" s="1">
-        <v>164851482.29302099</v>
+        <v>140502425.206779</v>
       </c>
       <c r="C46" s="1">
-        <v>88496995.246224001</v>
+        <v>97357851.888044998</v>
       </c>
       <c r="D46">
-        <v>439.69471900000002</v>
+        <v>477.05277100000001</v>
       </c>
       <c r="E46">
-        <v>2966.091641</v>
+        <v>3788.1577860000002</v>
       </c>
       <c r="F46">
-        <v>200312.80737900001</v>
+        <v>202443.192091</v>
       </c>
       <c r="G46">
-        <v>7606.530444</v>
+        <v>13004.379311999999</v>
       </c>
       <c r="H46">
-        <v>4591.9076869999999</v>
+        <v>5979.3242710000004</v>
       </c>
       <c r="I46">
-        <v>103510.703354</v>
+        <v>103682.15105499999</v>
       </c>
       <c r="J46">
-        <v>5128.5721210000002</v>
+        <v>6878.0020969999996</v>
       </c>
       <c r="K46">
-        <v>2504.619686</v>
+        <v>2709.8735040000001</v>
       </c>
       <c r="L46">
-        <v>2294.4956320000001</v>
+        <v>2504.5598150000001</v>
       </c>
       <c r="M46">
-        <v>2099.3667759999998</v>
+        <v>2290.5594449999999</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
@@ -2592,40 +2590,40 @@
         <v>28125</v>
       </c>
       <c r="B47" s="1">
-        <v>169101742.055565</v>
+        <v>143195589.192716</v>
       </c>
       <c r="C47" s="1">
-        <v>89874118.659743994</v>
+        <v>98614135.748986006</v>
       </c>
       <c r="D47">
-        <v>447.094402</v>
+        <v>484.22379699999999</v>
       </c>
       <c r="E47">
-        <v>3014.2217449999998</v>
+        <v>3860.0690060000002</v>
       </c>
       <c r="F47">
-        <v>200124.093437</v>
+        <v>202126.816024</v>
       </c>
       <c r="G47">
-        <v>7770.4136449999996</v>
+        <v>13247.24408</v>
       </c>
       <c r="H47">
-        <v>4679.6443630000003</v>
+        <v>6068.2696480000004</v>
       </c>
       <c r="I47">
-        <v>103620.627033</v>
+        <v>103801.414248</v>
       </c>
       <c r="J47">
-        <v>5222.3389029999998</v>
+        <v>6959.7224759999999</v>
       </c>
       <c r="K47">
-        <v>2547.5853059999999</v>
+        <v>2746.747977</v>
       </c>
       <c r="L47">
-        <v>2333.8938920000001</v>
+        <v>2543.0561320000002</v>
       </c>
       <c r="M47">
-        <v>2135.9534359999998</v>
+        <v>2330.684514</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
@@ -2644,40 +2642,40 @@
         <v>28750</v>
       </c>
       <c r="B48" s="1">
-        <v>173389058.50854701</v>
+        <v>145858055.203711</v>
       </c>
       <c r="C48" s="1">
-        <v>91280882.580562994</v>
+        <v>99887954.624864995</v>
       </c>
       <c r="D48">
-        <v>454.62324599999999</v>
+        <v>491.44054899999998</v>
       </c>
       <c r="E48">
-        <v>3063.199059</v>
+        <v>3932.8740929999999</v>
       </c>
       <c r="F48">
-        <v>199945.02812999999</v>
+        <v>201838.04614399999</v>
       </c>
       <c r="G48">
-        <v>7937.1236710000003</v>
+        <v>13492.977492</v>
       </c>
       <c r="H48">
-        <v>4768.5832600000003</v>
+        <v>6157.4886839999999</v>
       </c>
       <c r="I48">
-        <v>103732.40063400001</v>
+        <v>103922.470197</v>
       </c>
       <c r="J48">
-        <v>5317.1208969999998</v>
+        <v>7040.6302580000001</v>
       </c>
       <c r="K48">
-        <v>2591.1174310000001</v>
+        <v>2783.3083940000001</v>
       </c>
       <c r="L48">
-        <v>2373.9610320000002</v>
+        <v>2581.248353</v>
       </c>
       <c r="M48">
-        <v>2173.0672719999998</v>
+        <v>2370.5041930000002</v>
       </c>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -2696,40 +2694,40 @@
         <v>29375</v>
       </c>
       <c r="B49" s="1">
-        <v>177716218.79947999</v>
+        <v>148495356.58175299</v>
       </c>
       <c r="C49" s="1">
-        <v>92716219.314844996</v>
+        <v>101169037.22623</v>
       </c>
       <c r="D49">
-        <v>462.27856500000001</v>
+        <v>498.650395</v>
       </c>
       <c r="E49">
-        <v>3113.0382239999999</v>
+        <v>4006.573304</v>
       </c>
       <c r="F49">
-        <v>199773.81109500001</v>
+        <v>201573.47274699999</v>
       </c>
       <c r="G49">
-        <v>8106.6817259999998</v>
+        <v>13741.553397</v>
       </c>
       <c r="H49">
-        <v>4858.7191579999999</v>
+        <v>6246.9473770000004</v>
       </c>
       <c r="I49">
-        <v>103846.05644499999</v>
+        <v>104045.33033500001</v>
       </c>
       <c r="J49">
-        <v>5412.9098260000001</v>
+        <v>7120.9429920000002</v>
       </c>
       <c r="K49">
-        <v>2635.1825520000002</v>
+        <v>2819.582903</v>
       </c>
       <c r="L49">
-        <v>2414.6778570000001</v>
+        <v>2619.1346109999999</v>
       </c>
       <c r="M49">
-        <v>2210.734852</v>
+        <v>2410.0187230000001</v>
       </c>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
@@ -2748,40 +2746,40 @@
         <v>30000</v>
       </c>
       <c r="B50" s="1">
-        <v>182085634.785326</v>
+        <v>151111336.117055</v>
       </c>
       <c r="C50" s="1">
-        <v>94179002.455916002</v>
+        <v>102450521.865753</v>
       </c>
       <c r="D50">
-        <v>470.057614</v>
+        <v>505.81934899999999</v>
       </c>
       <c r="E50">
-        <v>3163.7529020000002</v>
+        <v>4081.1537360000002</v>
       </c>
       <c r="F50">
-        <v>199608.80833299999</v>
+        <v>201328.88639999999</v>
       </c>
       <c r="G50">
-        <v>8279.1079570000002</v>
+        <v>13992.943240000001</v>
       </c>
       <c r="H50">
-        <v>4950.0457919999999</v>
+        <v>6336.6099649999996</v>
       </c>
       <c r="I50">
-        <v>103961.626087</v>
+        <v>104169.99293399999</v>
       </c>
       <c r="J50">
-        <v>5509.6941999999999</v>
+        <v>7200.8563039999999</v>
       </c>
       <c r="K50">
-        <v>2679.7493340000001</v>
+        <v>2855.6029659999999</v>
       </c>
       <c r="L50">
-        <v>2456.0224870000002</v>
+        <v>2656.7186649999999</v>
       </c>
       <c r="M50">
-        <v>2248.9741650000001</v>
+        <v>2449.2279520000002</v>
       </c>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
@@ -2800,40 +2798,40 @@
         <v>30625</v>
       </c>
       <c r="B51" s="1">
-        <v>186499383.74259999</v>
+        <v>153708701.11675799</v>
       </c>
       <c r="C51">
-        <v>95668081.558073997</v>
+        <v>103729222.326141</v>
       </c>
       <c r="D51">
-        <v>477.95766500000002</v>
+        <v>512.93367499999999</v>
       </c>
       <c r="E51">
-        <v>3215.355787</v>
+        <v>4156.5941519999997</v>
       </c>
       <c r="F51">
-        <v>199448.57580799999</v>
+        <v>201100.10266599999</v>
       </c>
       <c r="G51">
-        <v>8454.4213980000004</v>
+        <v>14247.116032</v>
       </c>
       <c r="H51">
-        <v>5042.5558179999998</v>
+        <v>6426.4391029999997</v>
       </c>
       <c r="I51">
-        <v>104079.14049000001</v>
+        <v>104296.44777100001</v>
       </c>
       <c r="J51">
-        <v>5607.4597130000002</v>
+        <v>7280.5032099999999</v>
       </c>
       <c r="K51">
-        <v>2724.7883830000001</v>
+        <v>2891.3963330000001</v>
       </c>
       <c r="L51">
-        <v>2497.9712709999999</v>
+        <v>2694.0094720000002</v>
       </c>
       <c r="M51">
-        <v>2287.7957259999998</v>
+        <v>2488.1324599999998</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
@@ -2852,40 +2850,40 @@
         <v>31250</v>
       </c>
       <c r="B52" s="1">
-        <v>190959249.25174499</v>
+        <v>156289606.73161501</v>
       </c>
       <c r="C52">
-        <v>97182289.579289004</v>
+        <v>105005028.700325</v>
       </c>
       <c r="D52">
-        <v>485.97594500000002</v>
+        <v>519.99661700000001</v>
       </c>
       <c r="E52">
-        <v>3267.858624</v>
+        <v>4232.8701440000004</v>
       </c>
       <c r="F52">
-        <v>199291.86832899999</v>
+        <v>200883.56456</v>
       </c>
       <c r="G52">
-        <v>8632.6399110000002</v>
+        <v>14504.038329999999</v>
       </c>
       <c r="H52">
-        <v>5136.2407890000004</v>
+        <v>6516.3960269999998</v>
       </c>
       <c r="I52">
-        <v>104198.629906</v>
+        <v>104424.68119</v>
       </c>
       <c r="J52">
-        <v>5706.1895640000002</v>
+        <v>7359.9474600000003</v>
       </c>
       <c r="K52">
-        <v>2770.2719860000002</v>
+        <v>2926.9838</v>
       </c>
       <c r="L52">
-        <v>2540.4994799999999</v>
+        <v>2731.0195079999999</v>
       </c>
       <c r="M52">
-        <v>2327.2036410000001</v>
+        <v>2526.7343999999998</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
@@ -2902,40 +2900,40 @@
         <v>31875</v>
       </c>
       <c r="B53" s="1">
-        <v>195466757.477292</v>
+        <v>158856133.97904301</v>
       </c>
       <c r="C53">
-        <v>98720435.262439996</v>
+        <v>106279821.39289001</v>
       </c>
       <c r="D53">
-        <v>494.10951599999999</v>
+        <v>527.02236000000005</v>
       </c>
       <c r="E53">
-        <v>3321.2722220000001</v>
+        <v>4309.9584210000003</v>
       </c>
       <c r="F53">
-        <v>199137.634254</v>
+        <v>200676.65352200001</v>
       </c>
       <c r="G53">
-        <v>8813.7801330000002</v>
+        <v>14763.674222</v>
       </c>
       <c r="H53">
-        <v>5231.0911260000003</v>
+        <v>6606.4406989999998</v>
       </c>
       <c r="I53">
-        <v>104320.123892</v>
+        <v>104554.68034399999</v>
       </c>
       <c r="J53">
-        <v>5805.8646909999998</v>
+        <v>7439.1924079999999</v>
       </c>
       <c r="K53">
-        <v>2816.1738570000002</v>
+        <v>2962.3782110000002</v>
       </c>
       <c r="L53">
-        <v>2583.5818239999999</v>
+        <v>2767.7628129999998</v>
       </c>
       <c r="M53">
-        <v>2367.19661</v>
+        <v>2565.0378580000001</v>
       </c>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
@@ -2952,40 +2950,40 @@
         <v>32500</v>
       </c>
       <c r="B54" s="1">
-        <v>200023206.50054201</v>
+        <v>161410591.01989999</v>
       </c>
       <c r="C54">
-        <v>100281291.597279</v>
+        <v>107556272.61887699</v>
       </c>
       <c r="D54">
-        <v>502.35514499999999</v>
+        <v>534.02933199999995</v>
       </c>
       <c r="E54">
-        <v>3375.6064299999998</v>
+        <v>4387.8395309999996</v>
       </c>
       <c r="F54">
-        <v>198984.999056</v>
+        <v>200477.72635499999</v>
       </c>
       <c r="G54">
-        <v>8997.8574150000004</v>
+        <v>15025.98531</v>
       </c>
       <c r="H54">
-        <v>5327.0960880000002</v>
+        <v>6696.5319360000003</v>
       </c>
       <c r="I54">
-        <v>104443.651271</v>
+        <v>104686.43593399999</v>
       </c>
       <c r="J54">
-        <v>5906.4639580000003</v>
+        <v>7518.1952929999998</v>
       </c>
       <c r="K54">
-        <v>2862.4688860000001</v>
+        <v>2997.5846889999998</v>
       </c>
       <c r="L54">
-        <v>2627.1928309999998</v>
+        <v>2804.2532000000001</v>
       </c>
       <c r="M54">
-        <v>2407.768838</v>
+        <v>2603.0487870000002</v>
       </c>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
@@ -3002,40 +3000,40 @@
         <v>33125</v>
       </c>
       <c r="B55" s="1">
-        <v>204629688.49512801</v>
+        <v>163955625.278036</v>
       </c>
       <c r="C55">
-        <v>101863588.36509</v>
+        <v>108836826.157047</v>
       </c>
       <c r="D55">
-        <v>510.70921800000002</v>
+        <v>541.03447500000004</v>
       </c>
       <c r="E55">
-        <v>3430.8700819999999</v>
+        <v>4466.4988700000004</v>
       </c>
       <c r="F55">
-        <v>198833.24201399999</v>
+        <v>200285.95069</v>
       </c>
       <c r="G55">
-        <v>9184.8857650000009</v>
+        <v>15290.930700999999</v>
       </c>
       <c r="H55">
-        <v>5424.2437529999997</v>
+        <v>6786.627528</v>
       </c>
       <c r="I55">
-        <v>104569.240058</v>
+        <v>104819.943267</v>
       </c>
       <c r="J55">
-        <v>6007.9642970000004</v>
+        <v>7596.8817909999998</v>
       </c>
       <c r="K55">
-        <v>2909.1329009999999</v>
+        <v>3032.6014890000001</v>
       </c>
       <c r="L55">
-        <v>2671.3070910000001</v>
+        <v>2840.5028539999998</v>
       </c>
       <c r="M55">
-        <v>2448.9108369999999</v>
+        <v>2640.7746139999999</v>
       </c>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
@@ -3052,40 +3050,40 @@
         <v>33750</v>
       </c>
       <c r="B56" s="1">
-        <v>209287106.02076399</v>
+        <v>166494178.479882</v>
       </c>
       <c r="C56">
-        <v>103466012.815055</v>
+        <v>110123023.70215601</v>
       </c>
       <c r="D56">
-        <v>519.16770899999995</v>
+        <v>548.04946099999995</v>
       </c>
       <c r="E56">
-        <v>3487.0709270000002</v>
+        <v>4545.9262529999996</v>
       </c>
       <c r="F56">
-        <v>198681.77044600001</v>
+        <v>200101.03360200001</v>
       </c>
       <c r="G56">
-        <v>9374.8777900000005</v>
+        <v>15558.467005</v>
       </c>
       <c r="H56">
-        <v>5522.5209889999996</v>
+        <v>6876.6843470000003</v>
       </c>
       <c r="I56">
-        <v>104696.91736199999</v>
+        <v>104955.201886</v>
       </c>
       <c r="J56">
-        <v>6110.3408200000003</v>
+        <v>7675.1585370000003</v>
       </c>
       <c r="K56">
-        <v>2956.1424590000001</v>
+        <v>3067.421092</v>
       </c>
       <c r="L56">
-        <v>2715.8994299999999</v>
+        <v>2876.5213480000002</v>
       </c>
       <c r="M56">
-        <v>2490.610134</v>
+        <v>2678.2236590000002</v>
       </c>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
@@ -3102,40 +3100,40 @@
         <v>34375</v>
       </c>
       <c r="B57" s="1">
-        <v>213996184.43249801</v>
+        <v>169029341.36962101</v>
       </c>
       <c r="C57">
-        <v>105087218.86091401</v>
+        <v>111415222.4508</v>
       </c>
       <c r="D57">
-        <v>527.72621600000002</v>
+        <v>555.07910300000003</v>
       </c>
       <c r="E57">
-        <v>3544.2155429999998</v>
+        <v>4626.1145399999996</v>
       </c>
       <c r="F57">
-        <v>198530.09511600001</v>
+        <v>199922.93251099999</v>
       </c>
       <c r="G57">
-        <v>9567.8446390000008</v>
+        <v>15828.548328000001</v>
       </c>
       <c r="H57">
-        <v>5621.9134329999997</v>
+        <v>6966.658445</v>
       </c>
       <c r="I57">
-        <v>104826.70928900001</v>
+        <v>105092.214251</v>
       </c>
       <c r="J57">
-        <v>6213.5669029999999</v>
+        <v>7752.9228810000004</v>
       </c>
       <c r="K57">
-        <v>3003.4746530000002</v>
+        <v>3102.0313350000001</v>
       </c>
       <c r="L57">
-        <v>2760.9449979999999</v>
+        <v>2912.3150500000002</v>
       </c>
       <c r="M57">
-        <v>2532.8518770000001</v>
+        <v>2715.4044760000002</v>
       </c>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
@@ -3152,40 +3150,40 @@
         <v>35000</v>
       </c>
       <c r="B58" s="1">
-        <v>218757482.441333</v>
+        <v>171564170.12934601</v>
       </c>
       <c r="C58">
-        <v>106725842.544898</v>
+        <v>112712650.90320601</v>
       </c>
       <c r="D58">
-        <v>536.38004000000001</v>
+        <v>562.12168499999996</v>
       </c>
       <c r="E58">
-        <v>3602.3092729999998</v>
+        <v>4707.0578839999998</v>
       </c>
       <c r="F58">
-        <v>198377.809198</v>
+        <v>199751.61444999999</v>
       </c>
       <c r="G58">
-        <v>9763.7959389999996</v>
+        <v>16101.126281000001</v>
       </c>
       <c r="H58">
-        <v>5722.4054690000003</v>
+        <v>7056.5051540000004</v>
       </c>
       <c r="I58">
-        <v>104958.640843</v>
+        <v>105230.984027</v>
       </c>
       <c r="J58">
-        <v>6317.6142499999996</v>
+        <v>7830.0699160000004</v>
       </c>
       <c r="K58">
-        <v>3051.1069389999998</v>
+        <v>3136.4164660000001</v>
       </c>
       <c r="L58">
-        <v>2806.419308</v>
+        <v>2947.8868539999999</v>
       </c>
       <c r="M58">
-        <v>2575.6193370000001</v>
+        <v>2752.3252090000001</v>
       </c>
       <c r="AP58" s="1"/>
       <c r="AQ58" s="1"/>
@@ -3200,40 +3198,40 @@
         <v>35625</v>
       </c>
       <c r="B59" s="1">
-        <v>223571402.41849101</v>
+        <v>174101516.87983501</v>
       </c>
       <c r="C59">
-        <v>108380520.189418</v>
+        <v>114013692.18791699</v>
       </c>
       <c r="D59">
-        <v>545.12428399999999</v>
+        <v>569.17056600000001</v>
       </c>
       <c r="E59">
-        <v>3661.3561730000001</v>
+        <v>4788.7500819999996</v>
       </c>
       <c r="F59">
-        <v>198224.57187000001</v>
+        <v>199586.89941799999</v>
       </c>
       <c r="G59">
-        <v>9962.7397440000004</v>
+        <v>16376.149984</v>
       </c>
       <c r="H59">
-        <v>5823.9802090000003</v>
+        <v>7146.1791679999997</v>
       </c>
       <c r="I59">
-        <v>105092.73585300001</v>
+        <v>105371.514448</v>
       </c>
       <c r="J59">
-        <v>6422.4529510000002</v>
+        <v>7906.4971779999996</v>
       </c>
       <c r="K59">
-        <v>3099.0169980000001</v>
+        <v>3170.5580599999998</v>
       </c>
       <c r="L59">
-        <v>2852.2982390000002</v>
+        <v>2983.2361559999999</v>
       </c>
       <c r="M59">
-        <v>2618.8943319999998</v>
+        <v>2788.9930169999998</v>
       </c>
       <c r="AP59" s="1"/>
       <c r="AQ59" s="1"/>
@@ -3248,40 +3246,40 @@
         <v>36250</v>
       </c>
       <c r="B60" s="1">
-        <v>228438201.35625401</v>
+        <v>176643908.50329199</v>
       </c>
       <c r="C60">
-        <v>110049905.56840301</v>
+        <v>115316267.53752699</v>
       </c>
       <c r="D60">
-        <v>553.95395799999994</v>
+        <v>576.21637599999997</v>
       </c>
       <c r="E60">
-        <v>3721.3589900000002</v>
+        <v>4871.1833470000001</v>
       </c>
       <c r="F60">
-        <v>198070.096452</v>
+        <v>199428.394856</v>
       </c>
       <c r="G60">
-        <v>10164.682475</v>
+        <v>16653.566080000001</v>
       </c>
       <c r="H60">
-        <v>5926.6194740000001</v>
+        <v>7235.6346389999999</v>
       </c>
       <c r="I60">
-        <v>105229.016924</v>
+        <v>105513.80709</v>
       </c>
       <c r="J60">
-        <v>6528.0515189999996</v>
+        <v>7982.1074959999996</v>
       </c>
       <c r="K60">
-        <v>3147.1826030000002</v>
+        <v>3204.4357920000002</v>
       </c>
       <c r="L60">
-        <v>2898.5580070000001</v>
+        <v>3018.3590129999998</v>
       </c>
       <c r="M60">
-        <v>2662.657565</v>
+        <v>2825.4136060000001</v>
       </c>
       <c r="AP60" s="1"/>
       <c r="AQ60" s="1"/>
@@ -3296,40 +3294,40 @@
         <v>36875</v>
       </c>
       <c r="B61" s="1">
-        <v>233358002.70818299</v>
+        <v>179193487.838157</v>
       </c>
       <c r="C61">
-        <v>111732683.250081</v>
+        <v>116618208.427573</v>
       </c>
       <c r="D61">
-        <v>562.86406499999998</v>
+        <v>583.24913100000003</v>
       </c>
       <c r="E61">
-        <v>3782.319168</v>
+        <v>4954.3476490000003</v>
       </c>
       <c r="F61">
-        <v>197914.14227800001</v>
+        <v>199275.50684099999</v>
       </c>
       <c r="G61">
-        <v>10369.628859</v>
+        <v>16933.318751999999</v>
       </c>
       <c r="H61">
-        <v>6030.3037800000002</v>
+        <v>7324.8252540000003</v>
       </c>
       <c r="I61">
-        <v>105367.505414</v>
+        <v>105657.86118399999</v>
       </c>
       <c r="J61">
-        <v>6634.3769329999996</v>
+        <v>8056.8104990000002</v>
       </c>
       <c r="K61">
-        <v>3195.5815200000002</v>
+        <v>3238.0280680000001</v>
       </c>
       <c r="L61">
-        <v>2945.1751180000001</v>
+        <v>3053.2484089999998</v>
       </c>
       <c r="M61">
-        <v>2706.8888969999998</v>
+        <v>2861.5908690000001</v>
       </c>
       <c r="AP61" s="1"/>
       <c r="AQ61" s="1"/>
@@ -3344,40 +3342,40 @@
         <v>37500</v>
       </c>
       <c r="B62" s="1">
-        <v>238330808.79219899</v>
+        <v>181752014.02063599</v>
       </c>
       <c r="C62">
-        <v>113427576.553579</v>
+        <v>117917541.181632</v>
       </c>
       <c r="D62">
-        <v>571.84965</v>
+        <v>590.25986899999998</v>
       </c>
       <c r="E62">
-        <v>3844.236868</v>
+        <v>5038.230587</v>
       </c>
       <c r="F62">
-        <v>197756.50912599999</v>
+        <v>199127.50179400001</v>
       </c>
       <c r="G62">
-        <v>10577.581878000001</v>
+        <v>17215.349747</v>
       </c>
       <c r="H62">
-        <v>6135.0123219999996</v>
+        <v>7413.704326</v>
       </c>
       <c r="I62">
-        <v>105508.22143000001</v>
+        <v>105803.67346599999</v>
       </c>
       <c r="J62">
-        <v>6741.3946649999998</v>
+        <v>8130.5231729999996</v>
       </c>
       <c r="K62">
-        <v>3244.1914160000001</v>
+        <v>3271.312527</v>
       </c>
       <c r="L62">
-        <v>2992.126319</v>
+        <v>3087.8945950000002</v>
       </c>
       <c r="M62">
-        <v>2751.5675639999999</v>
+        <v>2897.5266580000002</v>
       </c>
       <c r="AP62" s="1"/>
       <c r="AQ62" s="1"/>
@@ -3392,40 +3390,40 @@
         <v>38125</v>
       </c>
       <c r="B63" s="1">
-        <v>243356513.132274</v>
+        <v>184320907.23872</v>
       </c>
       <c r="C63">
-        <v>115133349.90274499</v>
+        <v>119212649.08480699</v>
       </c>
       <c r="D63">
-        <v>580.90583700000002</v>
+        <v>597.24157600000001</v>
       </c>
       <c r="E63">
-        <v>3907.1110119999998</v>
+        <v>5122.8176709999998</v>
       </c>
       <c r="F63">
-        <v>197597.033054</v>
+        <v>198983.58989500001</v>
       </c>
       <c r="G63">
-        <v>10788.542707000001</v>
+        <v>17499.598397999998</v>
       </c>
       <c r="H63">
-        <v>6240.7229600000001</v>
+        <v>7502.22487</v>
       </c>
       <c r="I63">
-        <v>105651.183842</v>
+        <v>105951.238434</v>
       </c>
       <c r="J63">
-        <v>6849.0687150000003</v>
+        <v>8203.1698149999993</v>
       </c>
       <c r="K63">
-        <v>3292.9897930000002</v>
+        <v>3304.2664300000001</v>
       </c>
       <c r="L63">
-        <v>3039.3885249999998</v>
+        <v>3122.285457</v>
       </c>
       <c r="M63">
-        <v>2796.6723299999999</v>
+        <v>2933.2206460000002</v>
       </c>
       <c r="AP63" s="1"/>
       <c r="AQ63" s="1"/>
@@ -3440,40 +3438,40 @@
         <v>38750</v>
       </c>
       <c r="B64" s="1">
-        <v>248434912.044229</v>
+        <v>186901318.16771701</v>
       </c>
       <c r="C64">
-        <v>116848806.43771701</v>
+        <v>120502313.564494</v>
       </c>
       <c r="D64">
-        <v>590.02781900000002</v>
+        <v>604.18942800000002</v>
       </c>
       <c r="E64">
-        <v>3970.9393249999998</v>
+        <v>5208.0928450000001</v>
       </c>
       <c r="F64">
-        <v>197435.58273699999</v>
+        <v>198843.00568100001</v>
       </c>
       <c r="G64">
-        <v>11002.510663999999</v>
+        <v>17786.001660999998</v>
       </c>
       <c r="H64">
-        <v>6347.4122150000003</v>
+        <v>7590.3396929999999</v>
       </c>
       <c r="I64">
-        <v>105796.410302</v>
+        <v>106100.548828</v>
       </c>
       <c r="J64">
-        <v>6957.3616330000004</v>
+        <v>8274.6816139999992</v>
       </c>
       <c r="K64">
-        <v>3341.9539260000001</v>
+        <v>3336.8669629999999</v>
       </c>
       <c r="L64">
-        <v>3086.9387620000002</v>
+        <v>3156.4068900000002</v>
       </c>
       <c r="M64">
-        <v>2842.1816170000002</v>
+        <v>2968.670298</v>
       </c>
       <c r="AP64" s="1"/>
       <c r="AQ64" s="1"/>
@@ -3488,40 +3486,40 @@
         <v>39375</v>
       </c>
       <c r="B65" s="1">
-        <v>253565714.889321</v>
+        <v>189494202.99435499</v>
       </c>
       <c r="C65">
-        <v>118572782.388716</v>
+        <v>121785661.37217499</v>
       </c>
       <c r="D65">
-        <v>599.21084399999995</v>
+        <v>611.10048700000004</v>
       </c>
       <c r="E65">
-        <v>4035.7183770000001</v>
+        <v>5294.039041</v>
       </c>
       <c r="F65">
-        <v>197272.05574899999</v>
+        <v>198705.06941299999</v>
       </c>
       <c r="G65">
-        <v>11219.483152999999</v>
+        <v>18074.494148999998</v>
       </c>
       <c r="H65">
-        <v>6455.0552559999996</v>
+        <v>7678.0014719999999</v>
       </c>
       <c r="I65">
-        <v>105943.917256</v>
+        <v>106251.596185</v>
       </c>
       <c r="J65">
-        <v>7066.234555</v>
+        <v>8344.9960570000003</v>
       </c>
       <c r="K65">
-        <v>3391.0608280000001</v>
+        <v>3369.0914640000001</v>
       </c>
       <c r="L65">
-        <v>3134.7541059999999</v>
+        <v>3190.2431539999998</v>
       </c>
       <c r="M65">
-        <v>2888.073582</v>
+        <v>3003.8709090000002</v>
       </c>
       <c r="AP65" s="1"/>
       <c r="AQ65" s="1"/>
@@ -3536,40 +3534,40 @@
         <v>40000</v>
       </c>
       <c r="B66" s="1">
-        <v>258748552.648628</v>
+        <v>192100389.39345601</v>
       </c>
       <c r="C66">
-        <v>120304139.900389</v>
+        <v>123062056.829155</v>
       </c>
       <c r="D66">
-        <v>608.45018800000003</v>
+        <v>617.97308299999997</v>
       </c>
       <c r="E66">
-        <v>4101.4436219999998</v>
+        <v>5380.6386750000001</v>
       </c>
       <c r="F66">
-        <v>197106.374602</v>
+        <v>198569.221865</v>
       </c>
       <c r="G66">
-        <v>11439.455613</v>
+        <v>18365.008178</v>
       </c>
       <c r="H66">
-        <v>6563.6258969999999</v>
+        <v>7765.1628389999996</v>
       </c>
       <c r="I66">
-        <v>106093.719967</v>
+        <v>106404.371306</v>
       </c>
       <c r="J66">
-        <v>7175.6472309999999</v>
+        <v>8414.0562609999997</v>
       </c>
       <c r="K66">
-        <v>3440.2872080000002</v>
+        <v>3400.9175959999998</v>
       </c>
       <c r="L66">
-        <v>3182.811616</v>
+        <v>3223.777212</v>
       </c>
       <c r="M66">
-        <v>2934.32618</v>
+        <v>3038.815705</v>
       </c>
       <c r="AP66" s="1"/>
       <c r="AQ66" s="1"/>
@@ -3582,40 +3580,40 @@
         <v>40625</v>
       </c>
       <c r="B67" s="1">
-        <v>263982984.73127699</v>
+        <v>194720625.01569501</v>
       </c>
       <c r="C67">
-        <v>122041759.80000401</v>
+        <v>124330978.42318501</v>
       </c>
       <c r="D67">
-        <v>617.74112100000002</v>
+        <v>624.80610200000001</v>
       </c>
       <c r="E67">
-        <v>4168.1094270000003</v>
+        <v>5467.8739619999997</v>
       </c>
       <c r="F67">
-        <v>196938.48259900001</v>
+        <v>198435.03300900001</v>
       </c>
       <c r="G67">
-        <v>11662.421464999999</v>
+        <v>18657.473806999998</v>
       </c>
       <c r="H67">
-        <v>6673.0965960000003</v>
+        <v>7851.7764669999997</v>
       </c>
       <c r="I67">
-        <v>106245.83251399999</v>
+        <v>106558.864577</v>
       </c>
       <c r="J67">
-        <v>7285.5580529999997</v>
+        <v>8481.8103179999998</v>
       </c>
       <c r="K67">
-        <v>3489.6094619999999</v>
+        <v>3432.323468</v>
       </c>
       <c r="L67">
-        <v>3231.0882900000001</v>
+        <v>3256.9910340000001</v>
       </c>
       <c r="M67">
-        <v>2980.917199</v>
+        <v>3073.4959880000001</v>
       </c>
       <c r="AP67" s="1"/>
       <c r="AQ67" s="1"/>
@@ -3628,40 +3626,40 @@
         <v>41250</v>
       </c>
       <c r="B68" s="1">
-        <v>269268504.15530199</v>
+        <v>197355606.15016201</v>
       </c>
       <c r="C68">
-        <v>123784535.37074</v>
+        <v>125591910.829493</v>
       </c>
       <c r="D68">
-        <v>627.078889</v>
+        <v>631.59836099999995</v>
       </c>
       <c r="E68">
-        <v>4235.7090950000002</v>
+        <v>5555.7270630000003</v>
       </c>
       <c r="F68">
-        <v>196768.33972700001</v>
+        <v>198302.19030700001</v>
       </c>
       <c r="G68">
-        <v>11888.372063000001</v>
+        <v>18951.818895</v>
       </c>
       <c r="H68">
-        <v>6783.4384520000003</v>
+        <v>7937.7951510000003</v>
       </c>
       <c r="I68">
-        <v>106400.26779500001</v>
+        <v>106715.066102</v>
       </c>
       <c r="J68">
-        <v>7395.9240980000004</v>
+        <v>8548.2106999999996</v>
       </c>
       <c r="K68">
-        <v>3539.0036500000001</v>
+        <v>3463.2877349999999</v>
       </c>
       <c r="L68">
-        <v>3279.561009</v>
+        <v>3289.8658650000002</v>
       </c>
       <c r="M68">
-        <v>3027.8242789999999</v>
+        <v>3107.9013089999999</v>
       </c>
       <c r="AP68" s="1"/>
       <c r="AQ68" s="1"/>
@@ -3674,40 +3672,40 @@
         <v>41875</v>
       </c>
       <c r="B69" s="1">
-        <v>274604541.391792</v>
+        <v>200005988.97927099</v>
       </c>
       <c r="C69">
-        <v>125531367.676378</v>
+        <v>126844271.013594</v>
       </c>
       <c r="D69">
-        <v>636.45869100000004</v>
+        <v>638.34817699999996</v>
       </c>
       <c r="E69">
-        <v>4304.2348769999999</v>
+        <v>5644.1800649999996</v>
       </c>
       <c r="F69">
-        <v>196595.91886999999</v>
+        <v>198170.47481099999</v>
       </c>
       <c r="G69">
-        <v>12117.296646000001</v>
+        <v>19247.969159</v>
       </c>
       <c r="H69">
-        <v>6894.6212130000004</v>
+        <v>8023.1718959999998</v>
       </c>
       <c r="I69">
-        <v>106557.037517</v>
+        <v>106872.96569300001</v>
       </c>
       <c r="J69">
-        <v>7506.7011540000003</v>
+        <v>8613.2137359999997</v>
       </c>
       <c r="K69">
-        <v>3588.4454989999999</v>
+        <v>3493.7896649999998</v>
       </c>
       <c r="L69">
-        <v>3328.2065050000001</v>
+        <v>3322.382466</v>
       </c>
       <c r="M69">
-        <v>3075.0249159999998</v>
+        <v>3142.019663</v>
       </c>
       <c r="AP69" s="1"/>
       <c r="AQ69" s="1"/>
@@ -3720,40 +3718,40 @@
         <v>42500</v>
       </c>
       <c r="B70" s="1">
-        <v>279990467.22841901</v>
+        <v>202672388.64640799</v>
       </c>
       <c r="C70">
-        <v>127281162.515264</v>
+        <v>128087374.336446</v>
       </c>
       <c r="D70">
-        <v>645.87567999999999</v>
+        <v>645.05316500000004</v>
       </c>
       <c r="E70">
-        <v>4373.6779900000001</v>
+        <v>5733.2148580000003</v>
       </c>
       <c r="F70">
-        <v>196421.20254599999</v>
+        <v>198039.733209</v>
       </c>
       <c r="G70">
-        <v>12349.182292</v>
+        <v>19545.848232</v>
       </c>
       <c r="H70">
-        <v>7006.613276</v>
+        <v>8107.86</v>
       </c>
       <c r="I70">
-        <v>106716.15218999999</v>
+        <v>107032.55273700001</v>
       </c>
       <c r="J70">
-        <v>7617.8437729999996</v>
+        <v>8676.7791830000006</v>
       </c>
       <c r="K70">
-        <v>3637.910402</v>
+        <v>3523.8091909999998</v>
       </c>
       <c r="L70">
-        <v>3377.0013159999999</v>
+        <v>3354.5213159999998</v>
       </c>
       <c r="M70">
-        <v>3122.4964639999998</v>
+        <v>3175.837689</v>
       </c>
       <c r="AP70" s="1"/>
       <c r="AQ70" s="1"/>
@@ -3766,40 +3764,40 @@
         <v>43125</v>
       </c>
       <c r="B71" s="1">
-        <v>285425594.99684298</v>
+        <v>205355372.20189601</v>
       </c>
       <c r="C71">
-        <v>129032828.743268</v>
+        <v>129320436.33372501</v>
       </c>
       <c r="D71">
-        <v>655.32495200000005</v>
+        <v>651.71024599999998</v>
       </c>
       <c r="E71">
-        <v>4444.0286189999997</v>
+        <v>5822.8129639999997</v>
       </c>
       <c r="F71">
-        <v>196244.180311</v>
+        <v>197909.852251</v>
       </c>
       <c r="G71">
-        <v>12584.013874</v>
+        <v>19845.377731</v>
       </c>
       <c r="H71">
-        <v>7119.3817019999997</v>
+        <v>8191.8131400000002</v>
       </c>
       <c r="I71">
-        <v>106877.62110999999</v>
+        <v>107193.816028</v>
       </c>
       <c r="J71">
-        <v>7729.3053040000004</v>
+        <v>8738.8698769999992</v>
       </c>
       <c r="K71">
-        <v>3687.373431</v>
+        <v>3553.3269479999999</v>
       </c>
       <c r="L71">
-        <v>3425.9217699999999</v>
+        <v>3386.262792</v>
       </c>
       <c r="M71">
-        <v>3170.2161230000002</v>
+        <v>3209.3408690000001</v>
       </c>
       <c r="AP71" s="1"/>
       <c r="AQ71" s="1"/>
@@ -3812,40 +3810,40 @@
         <v>43750</v>
       </c>
       <c r="B72" s="1">
-        <v>290909182.44318098</v>
+        <v>208055450.79127601</v>
       </c>
       <c r="C72">
-        <v>130785277.52955601</v>
+        <v>130542599.53059401</v>
       </c>
       <c r="D72">
-        <v>664.801559</v>
+        <v>658.31579199999999</v>
       </c>
       <c r="E72">
-        <v>4515.2759269999997</v>
+        <v>5912.955363</v>
       </c>
       <c r="F72">
-        <v>196064.84684000001</v>
+        <v>197780.739474</v>
       </c>
       <c r="G72">
-        <v>12821.774017</v>
+        <v>20146.477329000001</v>
       </c>
       <c r="H72">
-        <v>7232.8922240000002</v>
+        <v>8274.9854599999999</v>
       </c>
       <c r="I72">
-        <v>107041.45234800001</v>
+        <v>107356.74359</v>
       </c>
       <c r="J72">
-        <v>7841.037945</v>
+        <v>8799.4514639999998</v>
       </c>
       <c r="K72">
-        <v>3736.8093469999999</v>
+        <v>3582.3243069999999</v>
       </c>
       <c r="L72">
-        <v>3474.9439560000001</v>
+        <v>3417.587321</v>
       </c>
       <c r="M72">
-        <v>3218.1609319999998</v>
+        <v>3242.5137289999998</v>
       </c>
       <c r="AP72" s="1"/>
       <c r="AQ72" s="1"/>
@@ -3858,40 +3856,40 @@
         <v>44375</v>
       </c>
       <c r="B73" s="1">
-        <v>296440433.42983001</v>
+        <v>210773074.818077</v>
       </c>
       <c r="C73">
-        <v>132537422.084242</v>
+        <v>131752972.461887</v>
       </c>
       <c r="D73">
-        <v>674.30050800000004</v>
+        <v>664.86585700000001</v>
       </c>
       <c r="E73">
-        <v>4587.4080679999997</v>
+        <v>6003.6223689999997</v>
       </c>
       <c r="F73">
-        <v>195883.20063400001</v>
+        <v>197652.31158800001</v>
       </c>
       <c r="G73">
-        <v>13062.443062</v>
+        <v>20449.064833</v>
       </c>
       <c r="H73">
-        <v>7347.1092650000001</v>
+        <v>8357.3316500000001</v>
       </c>
       <c r="I73">
-        <v>107207.652737</v>
+        <v>107521.322537</v>
       </c>
       <c r="J73">
-        <v>7952.9927960000005</v>
+        <v>8858.4922000000006</v>
       </c>
       <c r="K73">
-        <v>3786.1926269999999</v>
+        <v>3610.783398</v>
       </c>
       <c r="L73">
-        <v>3524.043717</v>
+        <v>3448.4755060000002</v>
       </c>
       <c r="M73">
-        <v>3266.3077490000001</v>
+        <v>3275.3400280000001</v>
       </c>
       <c r="AP73" s="1"/>
       <c r="AQ73" s="1"/>
@@ -3902,40 +3900,40 @@
         <v>45000</v>
       </c>
       <c r="B74" s="1">
-        <v>302018499.56596899</v>
+        <v>213508633.880348</v>
       </c>
       <c r="C74">
-        <v>134288177.482784</v>
+        <v>132950669.24248099</v>
       </c>
       <c r="D74">
-        <v>683.81676800000002</v>
+        <v>671.356404</v>
       </c>
       <c r="E74">
-        <v>4660.4121940000005</v>
+        <v>6094.7935539999999</v>
       </c>
       <c r="F74">
-        <v>195699.24320600001</v>
+        <v>197524.48988899999</v>
       </c>
       <c r="G74">
-        <v>13305.999027</v>
+        <v>20753.056261000002</v>
       </c>
       <c r="H74">
-        <v>7461.9959559999998</v>
+        <v>8438.8070389999993</v>
       </c>
       <c r="I74">
-        <v>107376.227864</v>
+        <v>107687.539002</v>
       </c>
       <c r="J74">
-        <v>8065.1199100000003</v>
+        <v>8915.9628059999995</v>
       </c>
       <c r="K74">
-        <v>3835.4974809999999</v>
+        <v>3638.6871299999998</v>
       </c>
       <c r="L74">
-        <v>3573.1966379999999</v>
+        <v>3478.9082360000002</v>
       </c>
       <c r="M74">
-        <v>3314.6332430000002</v>
+        <v>3307.8029299999998</v>
       </c>
       <c r="AP74" s="1"/>
       <c r="AQ74" s="1"/>
@@ -3946,40 +3944,40 @@
         <v>45625</v>
       </c>
       <c r="B75" s="1">
-        <v>307642481.79125202</v>
+        <v>216262461.549658</v>
       </c>
       <c r="C75">
-        <v>136036460.356197</v>
+        <v>134134841.326772</v>
       </c>
       <c r="D75">
-        <v>693.34527300000002</v>
+        <v>677.78348800000003</v>
       </c>
       <c r="E75">
-        <v>4734.2744650000004</v>
+        <v>6186.4477349999997</v>
       </c>
       <c r="F75">
-        <v>195512.978622</v>
+        <v>197397.20079</v>
       </c>
       <c r="G75">
-        <v>13552.417573000001</v>
+        <v>21058.36593</v>
       </c>
       <c r="H75">
-        <v>7577.5141560000002</v>
+        <v>8519.3676730000007</v>
       </c>
       <c r="I75">
-        <v>107547.18205600001</v>
+        <v>107855.378103</v>
       </c>
       <c r="J75">
-        <v>8177.3683520000004</v>
+        <v>8971.8363709999994</v>
       </c>
       <c r="K75">
-        <v>3884.697885</v>
+        <v>3666.0192139999999</v>
       </c>
       <c r="L75">
-        <v>3622.3780459999998</v>
+        <v>3508.866779</v>
       </c>
       <c r="M75">
-        <v>3363.1138799999999</v>
+        <v>3339.8851749999999</v>
       </c>
       <c r="AP75" s="1"/>
       <c r="AQ75" s="1"/>
@@ -3990,40 +3988,40 @@
         <v>46250</v>
       </c>
       <c r="B76" s="1">
-        <v>313311431.89160198</v>
+        <v>219034843.841535</v>
       </c>
       <c r="C76">
-        <v>137781188.369232</v>
+        <v>135304697.18257099</v>
       </c>
       <c r="D76">
-        <v>702.88092300000005</v>
+        <v>684.14338299999997</v>
       </c>
       <c r="E76">
-        <v>4808.9800649999997</v>
+        <v>6278.5630110000002</v>
       </c>
       <c r="F76">
-        <v>195324.41323000001</v>
+        <v>197270.37914999999</v>
       </c>
       <c r="G76">
-        <v>13801.671974999999</v>
+        <v>21364.906542000001</v>
       </c>
       <c r="H76">
-        <v>7693.6244820000002</v>
+        <v>8598.9704010000005</v>
       </c>
       <c r="I76">
-        <v>107720.518375</v>
+        <v>108024.82397500001</v>
       </c>
       <c r="J76">
-        <v>8289.6862669999991</v>
+        <v>9026.0882920000004</v>
       </c>
       <c r="K76">
-        <v>3933.7676110000002</v>
+        <v>3692.764173</v>
       </c>
       <c r="L76">
-        <v>3671.5630150000002</v>
+        <v>3538.33286</v>
       </c>
       <c r="M76">
-        <v>3411.725911</v>
+        <v>3371.5692260000001</v>
       </c>
       <c r="AP76" s="1"/>
       <c r="AQ76" s="1"/>
@@ -4034,40 +4032,40 @@
         <v>46875</v>
       </c>
       <c r="B77" s="1">
-        <v>319024353.90819901</v>
+        <v>221826029.623873</v>
       </c>
       <c r="C77">
-        <v>139521279.53371599</v>
+        <v>136459509.384262</v>
       </c>
       <c r="D77">
-        <v>712.41858000000002</v>
+        <v>690.43262100000004</v>
       </c>
       <c r="E77">
-        <v>4884.5132110000004</v>
+        <v>6371.1168189999999</v>
       </c>
       <c r="F77">
-        <v>195133.55549200001</v>
+        <v>197143.97225399999</v>
       </c>
       <c r="G77">
-        <v>14053.733095</v>
+        <v>21672.589283000001</v>
       </c>
       <c r="H77">
-        <v>7810.2863340000004</v>
+        <v>8677.5729599999995</v>
       </c>
       <c r="I77">
-        <v>107896.23860500001</v>
+        <v>108195.85982</v>
       </c>
       <c r="J77">
-        <v>8402.0209379999997</v>
+        <v>9078.6962399999993</v>
       </c>
       <c r="K77">
-        <v>3982.6802640000001</v>
+        <v>3718.907365</v>
       </c>
       <c r="L77">
-        <v>3720.726377</v>
+        <v>3567.2887310000001</v>
       </c>
       <c r="M77">
-        <v>3460.4453680000001</v>
+        <v>3402.837407</v>
       </c>
       <c r="AP77" s="1"/>
       <c r="AQ77" s="1"/>
@@ -4078,40 +4076,40 @@
         <v>47500</v>
       </c>
       <c r="B78" s="1">
-        <v>324780205.40533501</v>
+        <v>224636241.16791701</v>
       </c>
       <c r="C78">
-        <v>141255651.48141399</v>
+        <v>137598611.396586</v>
       </c>
       <c r="D78">
-        <v>721.95307100000002</v>
+        <v>696.64798699999994</v>
       </c>
       <c r="E78">
-        <v>4960.857164</v>
+        <v>6464.0860140000004</v>
       </c>
       <c r="F78">
-        <v>194940.41582699999</v>
+        <v>197017.94286899999</v>
       </c>
       <c r="G78">
-        <v>14308.569357</v>
+        <v>21981.323915000001</v>
       </c>
       <c r="H78">
-        <v>7927.4579279999998</v>
+        <v>8755.1340479999999</v>
       </c>
       <c r="I78">
-        <v>108074.34325000001</v>
+        <v>108368.467976</v>
       </c>
       <c r="J78">
-        <v>8514.3188640000008</v>
+        <v>9129.6401480000004</v>
       </c>
       <c r="K78">
-        <v>4031.4093170000001</v>
+        <v>3744.4349940000002</v>
       </c>
       <c r="L78">
-        <v>3769.8427310000002</v>
+        <v>3595.7172249999999</v>
       </c>
       <c r="M78">
-        <v>3509.2480569999998</v>
+        <v>3433.6720300000002</v>
       </c>
       <c r="AP78" s="1"/>
       <c r="AQ78" s="1"/>
@@ -4122,40 +4120,40 @@
         <v>48125</v>
       </c>
       <c r="B79" s="1">
-        <v>330577898.58104801</v>
+        <v>227465683.40629101</v>
       </c>
       <c r="C79">
-        <v>142983220.84646201</v>
+        <v>138721387.79315901</v>
       </c>
       <c r="D79">
-        <v>731.47918300000003</v>
+        <v>702.78646800000001</v>
       </c>
       <c r="E79">
-        <v>5037.9942410000003</v>
+        <v>6557.4469349999999</v>
       </c>
       <c r="F79">
-        <v>194745.00644299999</v>
+        <v>196892.270563</v>
       </c>
       <c r="G79">
-        <v>14566.146726999999</v>
+        <v>22291.01888</v>
       </c>
       <c r="H79">
-        <v>8045.0963350000002</v>
+        <v>8831.6134129999991</v>
       </c>
       <c r="I79">
-        <v>108254.83151800001</v>
+        <v>108542.629972</v>
       </c>
       <c r="J79">
-        <v>8626.5258269999995</v>
+        <v>9178.9022089999999</v>
       </c>
       <c r="K79">
-        <v>4079.9281540000002</v>
+        <v>3769.3341270000001</v>
       </c>
       <c r="L79">
-        <v>3818.8864659999999</v>
+        <v>3623.601807</v>
       </c>
       <c r="M79">
-        <v>3558.1095580000001</v>
+        <v>3464.0555039999999</v>
       </c>
       <c r="AP79" s="1"/>
       <c r="AQ79" s="1"/>
@@ -4166,40 +4164,40 @@
         <v>48750</v>
       </c>
       <c r="B80" s="1">
-        <v>336416301.22750998</v>
+        <v>230314551.028285</v>
       </c>
       <c r="C80">
-        <v>144702902.89047399</v>
+        <v>139827261.908786</v>
       </c>
       <c r="D80">
-        <v>740.99166200000002</v>
+        <v>708.84518800000001</v>
       </c>
       <c r="E80">
-        <v>5115.9058240000004</v>
+        <v>6651.1754650000003</v>
       </c>
       <c r="F80">
-        <v>194547.341147</v>
+        <v>196766.95111200001</v>
       </c>
       <c r="G80">
-        <v>14826.428696000001</v>
+        <v>22601.581402</v>
       </c>
       <c r="H80">
-        <v>8163.1575169999996</v>
+        <v>8906.9719229999992</v>
       </c>
       <c r="I80">
-        <v>108437.70131400001</v>
+        <v>108718.326589</v>
       </c>
       <c r="J80">
-        <v>8738.5869770000008</v>
+        <v>9226.466891</v>
       </c>
       <c r="K80">
-        <v>4128.2101110000003</v>
+        <v>3793.5927080000001</v>
       </c>
       <c r="L80">
-        <v>3867.8317820000002</v>
+        <v>3650.9266170000001</v>
       </c>
       <c r="M80">
-        <v>3607.0052289999999</v>
+        <v>3493.9704360000001</v>
       </c>
       <c r="AP80" s="1"/>
       <c r="AQ80" s="1"/>
@@ -4210,40 +4208,40 @@
         <v>49375</v>
       </c>
       <c r="B81" s="1">
-        <v>342294237.56858802</v>
+        <v>233183033.13371301</v>
       </c>
       <c r="C81">
-        <v>146413611.459465</v>
+        <v>140915684.27127901</v>
       </c>
       <c r="D81">
-        <v>750.48521200000005</v>
+        <v>714.82135100000005</v>
       </c>
       <c r="E81">
-        <v>5194.5723680000001</v>
+        <v>6745.247069</v>
       </c>
       <c r="F81">
-        <v>194347.43514300001</v>
+        <v>196641.994359</v>
       </c>
       <c r="G81">
-        <v>15089.376267</v>
+        <v>22912.917597</v>
       </c>
       <c r="H81">
-        <v>8281.5963709999996</v>
+        <v>8981.1716429999997</v>
       </c>
       <c r="I81">
-        <v>108622.94923</v>
+        <v>108895.53788600001</v>
       </c>
       <c r="J81">
-        <v>8850.4469069999996</v>
+        <v>9272.3209449999995</v>
       </c>
       <c r="K81">
-        <v>4176.2285220000003</v>
+        <v>3817.1995689999999</v>
       </c>
       <c r="L81">
-        <v>3916.6527190000002</v>
+        <v>3677.6765089999999</v>
       </c>
       <c r="M81">
-        <v>3655.9102069999999</v>
+        <v>3523.3997199999999</v>
       </c>
       <c r="AP81" s="1"/>
       <c r="AQ81" s="1"/>
@@ -4254,40 +4252,40 @@
         <v>50000</v>
       </c>
       <c r="B82" s="1">
-        <v>348210489.01550001</v>
+        <v>236071315.651512</v>
       </c>
       <c r="C82">
-        <v>148114259.30783701</v>
+        <v>141986124.00459501</v>
       </c>
       <c r="D82">
-        <v>759.95449900000006</v>
+        <v>720.71219199999996</v>
       </c>
       <c r="E82">
-        <v>5273.9734129999997</v>
+        <v>6839.6368190000003</v>
       </c>
       <c r="F82">
-        <v>194145.30484500001</v>
+        <v>196517.42110800001</v>
       </c>
       <c r="G82">
-        <v>15354.94795</v>
+        <v>23224.932583000002</v>
       </c>
       <c r="H82">
-        <v>8400.3667769999993</v>
+        <v>9054.1759110000003</v>
       </c>
       <c r="I82">
-        <v>108810.570532</v>
+        <v>109074.24322400001</v>
       </c>
       <c r="J82">
-        <v>8962.0497400000004</v>
+        <v>9317.9840590000003</v>
       </c>
       <c r="K82">
-        <v>4223.9567649999999</v>
+        <v>3840.1444470000001</v>
       </c>
       <c r="L82">
-        <v>3965.3231820000001</v>
+        <v>3703.8370829999999</v>
       </c>
       <c r="M82">
-        <v>3704.7994279999998</v>
+        <v>3552.3266180000001</v>
       </c>
       <c r="AP82" s="1"/>
       <c r="AQ82" s="1"/>
@@ -4298,40 +4296,40 @@
         <v>50625</v>
       </c>
       <c r="B83">
-        <v>354163794.88624299</v>
+        <v>238979582.03812101</v>
       </c>
       <c r="C83">
-        <v>149803758.77520299</v>
+        <v>143037902.18310201</v>
       </c>
       <c r="D83">
-        <v>769.39415499999996</v>
+        <v>726.51414</v>
       </c>
       <c r="E83">
-        <v>5354.0875919999999</v>
+        <v>6934.3194059999996</v>
       </c>
       <c r="F83">
-        <v>193940.96772300001</v>
+        <v>196393.259735</v>
       </c>
       <c r="G83">
-        <v>15623.099751</v>
+        <v>23537.530592999999</v>
       </c>
       <c r="H83">
-        <v>8519.4216450000004</v>
+        <v>9125.9494009999999</v>
       </c>
       <c r="I83">
-        <v>109000.559157</v>
+        <v>109254.42127200001</v>
       </c>
       <c r="J83">
-        <v>9073.3392170000006</v>
+        <v>9363.8500550000008</v>
       </c>
       <c r="K83">
-        <v>4271.3683080000001</v>
+        <v>3862.4179909999998</v>
       </c>
       <c r="L83">
-        <v>4013.8169790000002</v>
+        <v>3729.3947130000001</v>
       </c>
       <c r="M83">
-        <v>3753.6476320000002</v>
+        <v>3580.7348299999999</v>
       </c>
       <c r="AP83" s="1"/>
       <c r="AQ83" s="1"/>
@@ -4342,40 +4340,40 @@
         <v>51250</v>
       </c>
       <c r="B84">
-        <v>360152853.13151097</v>
+        <v>241907988.77382001</v>
       </c>
       <c r="C84">
-        <v>151481022.76614699</v>
+        <v>144070348.94545901</v>
       </c>
       <c r="D84">
-        <v>778.79877899999997</v>
+        <v>732.223614</v>
       </c>
       <c r="E84">
-        <v>5434.8926389999997</v>
+        <v>7029.2689490000002</v>
       </c>
       <c r="F84">
-        <v>193734.44218000001</v>
+        <v>196269.528326</v>
       </c>
       <c r="G84">
-        <v>15893.785178</v>
+        <v>23850.615088999999</v>
       </c>
       <c r="H84">
-        <v>8638.712974</v>
+        <v>9196.4581959999996</v>
       </c>
       <c r="I84">
-        <v>109192.90769599999</v>
+        <v>109436.049807</v>
       </c>
       <c r="J84">
-        <v>9184.2587860000003</v>
+        <v>9409.4384559999999</v>
       </c>
       <c r="K84">
-        <v>4318.4367609999999</v>
+        <v>3884.0117789999999</v>
       </c>
       <c r="L84">
-        <v>4062.107853</v>
+        <v>3754.3365779999999</v>
       </c>
       <c r="M84">
-        <v>3802.4293849999999</v>
+        <v>3608.6085579999999</v>
       </c>
       <c r="AP84" s="1"/>
       <c r="AQ84" s="1"/>
@@ -4386,40 +4384,40 @@
         <v>51875</v>
       </c>
       <c r="B85">
-        <v>366176321.10130602</v>
+        <v>244856664.12568</v>
       </c>
       <c r="C85">
-        <v>153144965.964789</v>
+        <v>145082903.64067701</v>
       </c>
       <c r="D85">
-        <v>788.16294800000003</v>
+        <v>737.83755799999994</v>
       </c>
       <c r="E85">
-        <v>5516.3654040000001</v>
+        <v>7124.4589900000001</v>
       </c>
       <c r="F85">
-        <v>193525.74748699999</v>
+        <v>196146.23605100001</v>
       </c>
       <c r="G85">
-        <v>16166.955243</v>
+        <v>24164.088883</v>
       </c>
       <c r="H85">
-        <v>8758.1919020000005</v>
+        <v>9265.6698489999999</v>
       </c>
       <c r="I85">
-        <v>109387.607391</v>
+        <v>109619.105711</v>
       </c>
       <c r="J85">
-        <v>9294.7516959999994</v>
+        <v>9454.3868340000008</v>
       </c>
       <c r="K85">
-        <v>4365.1359240000002</v>
+        <v>3904.918318</v>
       </c>
       <c r="L85">
-        <v>4110.1695229999996</v>
+        <v>3778.650678</v>
       </c>
       <c r="M85">
-        <v>3851.1190969999998</v>
+        <v>3635.932562</v>
       </c>
       <c r="AP85" s="1"/>
       <c r="AQ85" s="1"/>
@@ -4430,40 +4428,40 @@
         <v>52500</v>
       </c>
       <c r="B86">
-        <v>372232816.37540102</v>
+        <v>247825721.351219</v>
       </c>
       <c r="C86">
-        <v>154794506.21416599</v>
+        <v>146075079.22939</v>
       </c>
       <c r="D86">
-        <v>797.481222</v>
+        <v>743.35327199999995</v>
       </c>
       <c r="E86">
-        <v>5598.4818619999996</v>
+        <v>7219.8626430000004</v>
       </c>
       <c r="F86">
-        <v>193314.90374899999</v>
+        <v>196023.39337500001</v>
       </c>
       <c r="G86">
-        <v>16442.558467999999</v>
+        <v>24477.854253000001</v>
       </c>
       <c r="H86">
-        <v>8877.808771</v>
+        <v>9333.5534399999997</v>
       </c>
       <c r="I86">
-        <v>109584.648128</v>
+        <v>109803.56510000001</v>
       </c>
       <c r="J86">
-        <v>9404.7610939999995</v>
+        <v>9498.4218880000008</v>
       </c>
       <c r="K86">
-        <v>4411.4398410000003</v>
+        <v>3925.1310589999998</v>
       </c>
       <c r="L86">
-        <v>4157.9757239999999</v>
+        <v>3802.3258609999998</v>
       </c>
       <c r="M86">
-        <v>3899.6910520000001</v>
+        <v>3662.6922089999998</v>
       </c>
       <c r="AP86" s="1"/>
       <c r="AQ86" s="1"/>
@@ -4474,40 +4472,40 @@
         <v>53125</v>
       </c>
       <c r="B87">
-        <v>378320917.66979897</v>
+        <v>250815266.155303</v>
       </c>
       <c r="C87">
-        <v>156428566.000709</v>
+        <v>147046430.75312701</v>
       </c>
       <c r="D87">
-        <v>806.74814800000001</v>
+        <v>748.76825599999995</v>
       </c>
       <c r="E87">
-        <v>5681.2171280000002</v>
+        <v>7315.4526770000002</v>
       </c>
       <c r="F87">
-        <v>193101.93190299999</v>
+        <v>195901.01628499999</v>
       </c>
       <c r="G87">
-        <v>16720.540905000002</v>
+        <v>24791.813069</v>
       </c>
       <c r="H87">
-        <v>8997.5131870000005</v>
+        <v>9400.0796389999996</v>
       </c>
       <c r="I87">
-        <v>109784.018433</v>
+        <v>109989.403418</v>
       </c>
       <c r="J87">
-        <v>9514.2301210000005</v>
+        <v>9541.3377419999997</v>
       </c>
       <c r="K87">
-        <v>4457.3228449999997</v>
+        <v>3944.6444000000001</v>
       </c>
       <c r="L87">
-        <v>4205.5002450000002</v>
+        <v>3825.3518349999999</v>
       </c>
       <c r="M87">
-        <v>3948.119428</v>
+        <v>3688.8735190000002</v>
       </c>
       <c r="AP87" s="1"/>
       <c r="AQ87" s="1"/>
@@ -4518,40 +4516,40 @@
         <v>53750</v>
       </c>
       <c r="B88">
-        <v>384439165.82236201</v>
+        <v>253825399.19827101</v>
       </c>
       <c r="C88">
-        <v>158046074.00087401</v>
+        <v>147996533.21873099</v>
       </c>
       <c r="D88">
-        <v>815.95827299999996</v>
+        <v>754.08009500000003</v>
       </c>
       <c r="E88">
-        <v>5764.5454749999999</v>
+        <v>7411.201583</v>
       </c>
       <c r="F88">
-        <v>192886.853745</v>
+        <v>195779.12637099999</v>
       </c>
       <c r="G88">
-        <v>17000.846150000001</v>
+        <v>25105.866910000001</v>
       </c>
       <c r="H88">
-        <v>9117.2540900000004</v>
+        <v>9465.2207500000004</v>
       </c>
       <c r="I88">
-        <v>109985.70547</v>
+        <v>110176.595482</v>
       </c>
       <c r="J88">
-        <v>9623.1020150000004</v>
+        <v>9582.9796709999991</v>
       </c>
       <c r="K88">
-        <v>4502.759618</v>
+        <v>3963.4536889999999</v>
       </c>
       <c r="L88">
-        <v>4252.7169830000003</v>
+        <v>3847.7191910000001</v>
       </c>
       <c r="M88">
-        <v>3996.3783309999999</v>
+        <v>3714.4632029999998</v>
       </c>
       <c r="AP88" s="1"/>
       <c r="AQ88" s="1"/>
@@ -4562,40 +4560,40 @@
         <v>54375</v>
       </c>
       <c r="B89">
-        <v>390586064.85474497</v>
+        <v>256856215.16467801</v>
       </c>
       <c r="C89">
-        <v>159645966.664906</v>
+        <v>148924969.55992499</v>
       </c>
       <c r="D89">
-        <v>825.10614999999996</v>
+        <v>759.28639099999998</v>
       </c>
       <c r="E89">
-        <v>5848.4403460000003</v>
+        <v>7507.0815869999997</v>
       </c>
       <c r="F89">
-        <v>192669.69194300001</v>
+        <v>195657.74870200001</v>
       </c>
       <c r="G89">
-        <v>17283.415366000001</v>
+        <v>25419.91719</v>
       </c>
       <c r="H89">
-        <v>9236.9798210000008</v>
+        <v>9528.9507659999999</v>
       </c>
       <c r="I89">
-        <v>110189.695039</v>
+        <v>110365.115506</v>
       </c>
       <c r="J89">
-        <v>9731.3202089999995</v>
+        <v>9623.2318880000003</v>
       </c>
       <c r="K89">
-        <v>4547.725238</v>
+        <v>3981.5552269999998</v>
       </c>
       <c r="L89">
-        <v>4299.5999769999999</v>
+        <v>3869.41941</v>
       </c>
       <c r="M89">
-        <v>4044.4418289999999</v>
+        <v>3739.4487009999998</v>
       </c>
       <c r="AP89" s="1"/>
       <c r="AQ89" s="1"/>
@@ -4606,40 +4604,40 @@
         <v>55000</v>
       </c>
       <c r="B90">
-        <v>396760083.10483301</v>
+        <v>259907799.93846801</v>
       </c>
       <c r="C90">
-        <v>161227189.827775</v>
+        <v>149831327.072914</v>
       </c>
       <c r="D90">
-        <v>834.18634199999997</v>
+        <v>764.38475000000005</v>
       </c>
       <c r="E90">
-        <v>5932.8743759999998</v>
+        <v>7603.0646649999999</v>
       </c>
       <c r="F90">
-        <v>192450.47007400001</v>
+        <v>195536.90906400001</v>
       </c>
       <c r="G90">
-        <v>17568.187312999999</v>
+        <v>25733.865279000001</v>
       </c>
       <c r="H90">
-        <v>9356.6381920000003</v>
+        <v>9591.2454089999992</v>
       </c>
       <c r="I90">
-        <v>110395.971576</v>
+        <v>110554.937104</v>
       </c>
       <c r="J90">
-        <v>9838.8284380000005</v>
+        <v>9662.0083799999993</v>
       </c>
       <c r="K90">
-        <v>4592.195232</v>
+        <v>3998.9462669999998</v>
       </c>
       <c r="L90">
-        <v>4346.1234629999999</v>
+        <v>3890.4448750000001</v>
       </c>
       <c r="M90">
-        <v>4092.283981</v>
+        <v>3763.818209</v>
       </c>
       <c r="AP90" s="1"/>
       <c r="AQ90" s="1"/>
@@ -4650,40 +4648,40 @@
         <v>55625</v>
       </c>
       <c r="B91">
-        <v>402959654.423428</v>
+        <v>262980227.15533501</v>
       </c>
       <c r="C91">
-        <v>162788700.34727001</v>
+        <v>150715199.92273501</v>
       </c>
       <c r="D91">
-        <v>843.19343700000002</v>
+        <v>769.372794</v>
       </c>
       <c r="E91">
-        <v>6017.8194130000002</v>
+        <v>7699.1225439999998</v>
       </c>
       <c r="F91">
-        <v>192229.21262599999</v>
+        <v>195416.631555</v>
       </c>
       <c r="G91">
-        <v>17855.098382</v>
+        <v>26047.612634000001</v>
       </c>
       <c r="H91">
-        <v>9476.1765680000008</v>
+        <v>9652.082171</v>
       </c>
       <c r="I91">
-        <v>110604.51816199999</v>
+        <v>110746.033291</v>
       </c>
       <c r="J91">
-        <v>9945.570839</v>
+        <v>9699.2460279999996</v>
       </c>
       <c r="K91">
-        <v>4636.1456269999999</v>
+        <v>4015.625012</v>
       </c>
       <c r="L91">
-        <v>4392.2619199999999</v>
+        <v>3910.7888859999998</v>
       </c>
       <c r="M91">
-        <v>4139.8788839999997</v>
+        <v>3787.5607089999999</v>
       </c>
       <c r="AP91" s="1"/>
       <c r="AQ91" s="1"/>
@@ -4694,40 +4692,40 @@
         <v>56250</v>
       </c>
       <c r="B92">
-        <v>409183179.43017697</v>
+        <v>266073555.02960899</v>
       </c>
       <c r="C92">
-        <v>164329467.77361801</v>
+        <v>151576195.32434401</v>
       </c>
       <c r="D92">
-        <v>852.12204799999995</v>
+        <v>774.2482</v>
       </c>
       <c r="E92">
-        <v>6103.2465339999999</v>
+        <v>7795.2267110000003</v>
       </c>
       <c r="F92">
-        <v>192005.94501200001</v>
+        <v>195296.93703100001</v>
       </c>
       <c r="G92">
-        <v>18144.082628</v>
+        <v>26361.060912000001</v>
       </c>
       <c r="H92">
-        <v>9595.541937</v>
+        <v>9711.4403450000009</v>
       </c>
       <c r="I92">
-        <v>110815.316521</v>
+        <v>110938.37649</v>
       </c>
       <c r="J92">
-        <v>10051.492061000001</v>
+        <v>9734.8994419999999</v>
       </c>
       <c r="K92">
-        <v>4679.5530019999997</v>
+        <v>4031.5906089999999</v>
       </c>
       <c r="L92">
-        <v>4437.9901149999996</v>
+        <v>3930.4456599999999</v>
       </c>
       <c r="M92">
-        <v>4187.2007030000004</v>
+        <v>3810.6659920000002</v>
       </c>
       <c r="AP92" s="1"/>
       <c r="AQ92" s="1"/>
@@ -4738,40 +4736,40 @@
         <v>56875</v>
       </c>
       <c r="B93">
-        <v>415429026.82560098</v>
+        <v>269187823.994452</v>
       </c>
       <c r="C93">
-        <v>165848476.054539</v>
+        <v>152413941.389806</v>
       </c>
       <c r="D93">
-        <v>860.96682899999996</v>
+        <v>779.00874299999998</v>
       </c>
       <c r="E93">
-        <v>6189.1260769999999</v>
+        <v>7891.3484269999999</v>
       </c>
       <c r="F93">
-        <v>191780.69355900001</v>
+        <v>195177.84252599999</v>
       </c>
       <c r="G93">
-        <v>18435.071822000002</v>
+        <v>26674.112101999999</v>
       </c>
       <c r="H93">
-        <v>9714.6809919999996</v>
+        <v>9769.3010610000001</v>
       </c>
       <c r="I93">
-        <v>111028.347033</v>
+        <v>111131.93854</v>
       </c>
       <c r="J93">
-        <v>10156.537366</v>
+        <v>9768.9370650000001</v>
       </c>
       <c r="K93">
-        <v>4722.3945389999999</v>
+        <v>4046.8431460000002</v>
       </c>
       <c r="L93">
-        <v>4483.2831560000004</v>
+        <v>3949.4103380000001</v>
       </c>
       <c r="M93">
-        <v>4234.2237180000002</v>
+        <v>3833.1246799999999</v>
       </c>
       <c r="AP93" s="1"/>
       <c r="AQ93" s="1"/>
@@ -4782,40 +4780,40 @@
         <v>57500</v>
       </c>
       <c r="B94">
-        <v>421695534.75792599</v>
+        <v>272323055.40052402</v>
       </c>
       <c r="C94">
-        <v>167344725.276144</v>
+        <v>153228095.14281601</v>
       </c>
       <c r="D94">
-        <v>869.72247700000003</v>
+        <v>783.65234199999998</v>
       </c>
       <c r="E94">
-        <v>6275.4276570000002</v>
+        <v>7987.4587570000003</v>
       </c>
       <c r="F94">
-        <v>191553.48549299999</v>
+        <v>195059.361539</v>
       </c>
       <c r="G94">
-        <v>18727.995489000001</v>
+        <v>26986.668644000001</v>
       </c>
       <c r="H94">
-        <v>9833.5402130000002</v>
+        <v>9825.6473069999993</v>
       </c>
       <c r="I94">
-        <v>111243.58874000001</v>
+        <v>111326.690726</v>
       </c>
       <c r="J94">
-        <v>10260.652737</v>
+        <v>9801.3382550000006</v>
       </c>
       <c r="K94">
-        <v>4764.6480700000002</v>
+        <v>4061.3836369999999</v>
       </c>
       <c r="L94">
-        <v>4528.1165410000003</v>
+        <v>3967.678989</v>
       </c>
       <c r="M94">
-        <v>4280.9223629999997</v>
+        <v>3854.9282400000002</v>
       </c>
       <c r="AP94" s="1"/>
       <c r="AQ94" s="1"/>
@@ -4826,40 +4824,40 @@
         <v>58125</v>
       </c>
       <c r="B95">
-        <v>427981012.24463499</v>
+        <v>275479251.303137</v>
       </c>
       <c r="C95">
-        <v>168817233.435119</v>
+        <v>154018349.695232</v>
       </c>
       <c r="D95">
-        <v>878.38374699999997</v>
+        <v>788.17710299999999</v>
       </c>
       <c r="E95">
-        <v>6362.1202000000003</v>
+        <v>8083.5286079999996</v>
       </c>
       <c r="F95">
-        <v>191324.348914</v>
+        <v>194941.50494000001</v>
       </c>
       <c r="G95">
-        <v>19022.780968999999</v>
+        <v>27298.633551999999</v>
       </c>
       <c r="H95">
-        <v>9952.0659529999994</v>
+        <v>9880.4639490000009</v>
       </c>
       <c r="I95">
-        <v>111461.019359</v>
+        <v>111522.60381099999</v>
       </c>
       <c r="J95">
-        <v>10363.784981000001</v>
+        <v>9832.0910750000003</v>
       </c>
       <c r="K95">
-        <v>4806.2921269999997</v>
+        <v>4075.2140119999999</v>
       </c>
       <c r="L95">
-        <v>4572.4662019999996</v>
+        <v>3985.248611</v>
       </c>
       <c r="M95">
-        <v>4327.2712709999996</v>
+        <v>3876.0690060000002</v>
       </c>
       <c r="AP95" s="1"/>
       <c r="AQ95" s="1"/>
@@ -4870,40 +4868,40 @@
         <v>58750</v>
       </c>
       <c r="B96">
-        <v>434283740.64907902</v>
+        <v>278656395.22595</v>
       </c>
       <c r="C96">
-        <v>170265038.232903</v>
+        <v>154784439.995693</v>
       </c>
       <c r="D96">
-        <v>886.94545700000003</v>
+        <v>792.58134800000005</v>
       </c>
       <c r="E96">
-        <v>6449.1719659999999</v>
+        <v>8179.5287770000004</v>
       </c>
       <c r="F96">
-        <v>191093.312772</v>
+        <v>194824.28224</v>
       </c>
       <c r="G96">
-        <v>19319.353470999999</v>
+        <v>27609.910529000001</v>
       </c>
       <c r="H96">
-        <v>10070.204518</v>
+        <v>9933.7377489999999</v>
       </c>
       <c r="I96">
-        <v>111680.615296</v>
+        <v>111719.64808699999</v>
       </c>
       <c r="J96">
-        <v>10465.881834</v>
+        <v>9861.1906170000002</v>
       </c>
       <c r="K96">
-        <v>4847.3059890000004</v>
+        <v>4088.3371069999998</v>
       </c>
       <c r="L96">
-        <v>4616.3085629999996</v>
+        <v>4002.117123</v>
       </c>
       <c r="M96">
-        <v>4373.2453210000003</v>
+        <v>3896.5401820000002</v>
       </c>
       <c r="AP96" s="1"/>
       <c r="AQ96" s="1"/>
@@ -4914,40 +4912,40 @@
         <v>59375</v>
       </c>
       <c r="B97">
-        <v>440601975.21214902</v>
+        <v>281854453.70726699</v>
       </c>
       <c r="C97">
-        <v>171687198.87904501</v>
+        <v>155526146.88150001</v>
       </c>
       <c r="D97">
-        <v>895.40249700000004</v>
+        <v>796.86363600000004</v>
       </c>
       <c r="E97">
-        <v>6536.5505810000004</v>
+        <v>8275.4300039999998</v>
       </c>
       <c r="F97">
-        <v>190860.406839</v>
+        <v>194707.702968</v>
       </c>
       <c r="G97">
-        <v>19617.636138999998</v>
+        <v>27920.404093000001</v>
       </c>
       <c r="H97">
-        <v>10187.902259</v>
+        <v>9985.4573729999993</v>
       </c>
       <c r="I97">
-        <v>111902.35166</v>
+        <v>111917.793424</v>
       </c>
       <c r="J97">
-        <v>10566.892064</v>
+        <v>9888.6377439999997</v>
       </c>
       <c r="K97">
-        <v>4887.6697249999997</v>
+        <v>4100.7566440000001</v>
       </c>
       <c r="L97">
-        <v>4659.6205810000001</v>
+        <v>4018.2833700000001</v>
       </c>
       <c r="M97">
-        <v>4418.8196790000002</v>
+        <v>3916.3358579999999</v>
       </c>
       <c r="AP97" s="1"/>
       <c r="AQ97" s="1"/>
@@ -4958,40 +4956,40 @@
         <v>60000</v>
       </c>
       <c r="B98">
-        <v>446933946.63810199</v>
+        <v>285073378.3987</v>
       </c>
       <c r="C98">
-        <v>173082797.88907701</v>
+        <v>156243299.398321</v>
       </c>
       <c r="D98">
-        <v>903.74984099999995</v>
+        <v>801.02277900000001</v>
       </c>
       <c r="E98">
-        <v>6624.2230680000002</v>
+        <v>8371.2030379999997</v>
       </c>
       <c r="F98">
-        <v>190625.661673</v>
+        <v>194591.777948</v>
       </c>
       <c r="G98">
-        <v>19917.550116999999</v>
+        <v>28230.019688</v>
       </c>
       <c r="H98">
-        <v>10305.105654999999</v>
+        <v>10035.613396000001</v>
       </c>
       <c r="I98">
-        <v>112126.20228500001</v>
+        <v>112117.00933299999</v>
       </c>
       <c r="J98">
-        <v>10666.765574999999</v>
+        <v>9914.4381130000002</v>
       </c>
       <c r="K98">
-        <v>4927.3642390000005</v>
+        <v>4112.4772119999998</v>
       </c>
       <c r="L98">
-        <v>4702.3797949999998</v>
+        <v>4033.7471089999999</v>
       </c>
       <c r="M98">
-        <v>4463.9698479999997</v>
+        <v>3935.4510169999999</v>
       </c>
       <c r="AP98" s="1"/>
       <c r="AQ98" s="1"/>
@@ -5002,40 +5000,40 @@
         <v>60625</v>
       </c>
       <c r="B99">
-        <v>453277862.73246801</v>
+        <v>288313108.48216099</v>
       </c>
       <c r="C99">
-        <v>174450942.86207399</v>
+        <v>156935775.51259801</v>
       </c>
       <c r="D99">
-        <v>911.98255500000005</v>
+        <v>805.05783799999995</v>
       </c>
       <c r="E99">
-        <v>6712.1558809999997</v>
+        <v>8466.8186949999999</v>
       </c>
       <c r="F99">
-        <v>190389.10859300001</v>
+        <v>194476.520361</v>
       </c>
       <c r="G99">
-        <v>20219.014620999998</v>
+        <v>28538.663798000001</v>
       </c>
       <c r="H99">
-        <v>10421.761404999999</v>
+        <v>10084.198305</v>
       </c>
       <c r="I99">
-        <v>112352.13974499999</v>
+        <v>112317.26502799999</v>
       </c>
       <c r="J99">
-        <v>10765.453501</v>
+        <v>9938.6014350000005</v>
       </c>
       <c r="K99">
-        <v>4966.3713129999996</v>
+        <v>4123.50425</v>
       </c>
       <c r="L99">
-        <v>4744.564378</v>
+        <v>4048.5090030000001</v>
       </c>
       <c r="M99">
-        <v>4508.6717129999997</v>
+        <v>3953.8815340000001</v>
       </c>
       <c r="AP99" s="1"/>
       <c r="AQ99" s="1"/>
@@ -5046,40 +5044,40 @@
         <v>61250</v>
       </c>
       <c r="B100">
-        <v>459631910.08874297</v>
+        <v>291573573.18968999</v>
       </c>
       <c r="C100">
-        <v>175790768.22417799</v>
+        <v>157603501.44393</v>
       </c>
       <c r="D100">
-        <v>920.09580600000004</v>
+        <v>808.96812</v>
       </c>
       <c r="E100">
-        <v>6800.3149389999999</v>
+        <v>8562.2479210000001</v>
       </c>
       <c r="F100">
-        <v>190150.779641</v>
+        <v>194361.946471</v>
       </c>
       <c r="G100">
-        <v>20521.947022</v>
+        <v>28846.244061000001</v>
       </c>
       <c r="H100">
-        <v>10537.816516999999</v>
+        <v>10131.206491000001</v>
       </c>
       <c r="I100">
-        <v>112580.13538399999</v>
+        <v>112518.52948700001</v>
       </c>
       <c r="J100">
-        <v>10862.908308</v>
+        <v>9961.1409010000007</v>
       </c>
       <c r="K100">
-        <v>5004.6736410000003</v>
+        <v>4133.844024</v>
       </c>
       <c r="L100">
-        <v>4786.1531789999999</v>
+        <v>4062.570612</v>
       </c>
       <c r="M100">
-        <v>4552.9015879999997</v>
+        <v>3971.6241850000001</v>
       </c>
       <c r="AP100" s="1"/>
       <c r="AQ100" s="1"/>
@@ -5090,40 +5088,40 @@
         <v>61875</v>
       </c>
       <c r="B101">
-        <v>465994255.81956297</v>
+        <v>294854694.24300897</v>
       </c>
       <c r="C101">
-        <v>177101436.926211</v>
+        <v>158246449.90146601</v>
       </c>
       <c r="D101">
-        <v>928.08487200000002</v>
+        <v>812.75316799999996</v>
       </c>
       <c r="E101">
-        <v>6888.6656629999998</v>
+        <v>8657.4618520000004</v>
       </c>
       <c r="F101">
-        <v>189910.70755200001</v>
+        <v>194248.07602800001</v>
       </c>
       <c r="G101">
-        <v>20826.262921000001</v>
+        <v>29152.669374000001</v>
       </c>
       <c r="H101">
-        <v>10653.218396</v>
+        <v>10176.634242</v>
       </c>
       <c r="I101">
-        <v>112810.159335</v>
+        <v>112720.771517</v>
       </c>
       <c r="J101">
-        <v>10959.083887000001</v>
+        <v>9982.072725</v>
       </c>
       <c r="K101">
-        <v>5042.2548720000004</v>
+        <v>4143.5035969999999</v>
       </c>
       <c r="L101">
-        <v>4827.1257649999998</v>
+        <v>4075.934377</v>
       </c>
       <c r="M101">
-        <v>4596.6362609999996</v>
+        <v>3988.6766400000001</v>
       </c>
       <c r="AP101" s="1"/>
       <c r="AQ101" s="1"/>
@@ -5134,40 +5132,40 @@
         <v>62500</v>
       </c>
       <c r="B102">
-        <v>472363049.32730901</v>
+        <v>298156388.06991303</v>
       </c>
       <c r="C102">
-        <v>178382142.08560601</v>
+        <v>158864637.52894899</v>
       </c>
       <c r="D102">
-        <v>935.94514900000001</v>
+        <v>816.41274199999998</v>
       </c>
       <c r="E102">
-        <v>6977.1730129999996</v>
+        <v>8752.4318700000003</v>
       </c>
       <c r="F102">
-        <v>189668.92571700001</v>
+        <v>194134.932321</v>
       </c>
       <c r="G102">
-        <v>21131.876239000001</v>
+        <v>29457.85</v>
       </c>
       <c r="H102">
-        <v>10767.914932</v>
+        <v>10220.479729000001</v>
       </c>
       <c r="I102">
-        <v>113042.180553</v>
+        <v>112923.95980900001</v>
       </c>
       <c r="J102">
-        <v>11053.935647</v>
+        <v>10001.415789000001</v>
       </c>
       <c r="K102">
-        <v>5079.0996379999997</v>
+        <v>4152.490812</v>
       </c>
       <c r="L102">
-        <v>4867.4624729999996</v>
+        <v>4088.6036060000001</v>
       </c>
       <c r="M102">
-        <v>4639.8530430000001</v>
+        <v>4005.0374649999999</v>
       </c>
       <c r="AP102" s="1"/>
       <c r="AQ102" s="1"/>
@@ -5178,40 +5176,40 @@
         <v>63125</v>
       </c>
       <c r="B103">
-        <v>478736424.10868502</v>
+        <v>301478567.69739199</v>
       </c>
       <c r="C103">
-        <v>179632108.564724</v>
+        <v>159458121.85487199</v>
       </c>
       <c r="D103">
-        <v>943.67216199999996</v>
+        <v>819.94680800000003</v>
       </c>
       <c r="E103">
-        <v>7065.8015290000003</v>
+        <v>8847.1296579999998</v>
       </c>
       <c r="F103">
-        <v>189425.46814300001</v>
+        <v>194022.54195899999</v>
       </c>
       <c r="G103">
-        <v>21438.699305999999</v>
+        <v>29761.697671000002</v>
       </c>
       <c r="H103">
-        <v>10881.854595999999</v>
+        <v>10262.742984</v>
       </c>
       <c r="I103">
-        <v>113276.166841</v>
+        <v>113128.062995</v>
       </c>
       <c r="J103">
-        <v>11147.420599999999</v>
+        <v>10019.191349000001</v>
       </c>
       <c r="K103">
-        <v>5115.1935919999996</v>
+        <v>4160.8142550000002</v>
       </c>
       <c r="L103">
-        <v>4907.1444410000004</v>
+        <v>4100.5824570000004</v>
       </c>
       <c r="M103">
-        <v>4682.5298110000003</v>
+        <v>4020.7061170000002</v>
       </c>
       <c r="AP103" s="1"/>
       <c r="AQ103" s="1"/>
@@ -5222,40 +5220,40 @@
         <v>63750</v>
       </c>
       <c r="B104">
-        <v>485112499.58764303</v>
+        <v>304821144.26290399</v>
       </c>
       <c r="C104">
-        <v>180850594.479105</v>
+        <v>160026998.01400501</v>
       </c>
       <c r="D104">
-        <v>951.261573</v>
+        <v>823.35551299999997</v>
       </c>
       <c r="E104">
-        <v>7154.5153710000004</v>
+        <v>8941.5272389999991</v>
       </c>
       <c r="F104">
-        <v>189180.36941399999</v>
+        <v>193910.93440200001</v>
       </c>
       <c r="G104">
-        <v>21746.642956</v>
+        <v>30064.125682999998</v>
       </c>
       <c r="H104">
-        <v>10994.986521999999</v>
+        <v>10303.425880999999</v>
       </c>
       <c r="I104">
-        <v>113512.084881</v>
+        <v>113333.04969699999</v>
       </c>
       <c r="J104">
-        <v>11239.497449</v>
+        <v>10035.422796999999</v>
       </c>
       <c r="K104">
-        <v>5150.5234300000002</v>
+        <v>4168.4832340000003</v>
       </c>
       <c r="L104">
-        <v>4946.1536569999998</v>
+        <v>4111.8759190000001</v>
       </c>
       <c r="M104">
-        <v>4724.6450539999996</v>
+        <v>4035.6829299999999</v>
       </c>
       <c r="AP104" s="1"/>
       <c r="AQ104" s="1"/>
@@ -5266,40 +5264,40 @@
         <v>64375</v>
       </c>
       <c r="B105">
-        <v>491489382.97109699</v>
+        <v>308184028.12242198</v>
       </c>
       <c r="C105">
-        <v>182036892.63007399</v>
+        <v>160571395.46104199</v>
       </c>
       <c r="D105">
-        <v>958.70919000000004</v>
+        <v>826.63917400000003</v>
       </c>
       <c r="E105">
-        <v>7243.2783609999997</v>
+        <v>9035.5970269999998</v>
       </c>
       <c r="F105">
-        <v>188933.664644</v>
+        <v>193800.14134199999</v>
       </c>
       <c r="G105">
-        <v>22055.616624999999</v>
+        <v>30365.048991</v>
       </c>
       <c r="H105">
-        <v>11107.260597</v>
+        <v>10342.532101999999</v>
       </c>
       <c r="I105">
-        <v>113749.900274</v>
+        <v>113538.888575</v>
       </c>
       <c r="J105">
-        <v>11330.126668000001</v>
+        <v>10050.135457</v>
       </c>
       <c r="K105">
-        <v>5185.0769229999996</v>
+        <v>4175.50774</v>
       </c>
       <c r="L105">
-        <v>4984.4729900000002</v>
+        <v>4122.489791</v>
       </c>
       <c r="M105">
-        <v>4766.177917</v>
+        <v>4049.9691160000002</v>
       </c>
       <c r="AP105" s="1"/>
       <c r="AQ105" s="1"/>
@@ -5310,40 +5308,40 @@
         <v>65000</v>
       </c>
       <c r="B106">
-        <v>497865171.12200898</v>
+        <v>311567129.56455302</v>
       </c>
       <c r="C106">
-        <v>183190331.856594</v>
+        <v>161091474.84301001</v>
       </c>
       <c r="D106">
-        <v>966.01097100000004</v>
+        <v>829.79825900000003</v>
       </c>
       <c r="E106">
-        <v>7332.0540259999998</v>
+        <v>9129.3118570000006</v>
       </c>
       <c r="F106">
-        <v>188685.389433</v>
+        <v>193690.19598300001</v>
       </c>
       <c r="G106">
-        <v>22365.528451999999</v>
+        <v>30664.384300000002</v>
       </c>
       <c r="H106">
-        <v>11218.627549999999</v>
+        <v>10380.067111</v>
       </c>
       <c r="I106">
-        <v>113989.57757199999</v>
+        <v>113745.548368</v>
       </c>
       <c r="J106">
-        <v>11419.270574</v>
+        <v>10063.356411000001</v>
       </c>
       <c r="K106">
-        <v>5218.8429349999997</v>
+        <v>4181.8984200000004</v>
       </c>
       <c r="L106">
-        <v>5022.0862269999998</v>
+        <v>4132.4306560000005</v>
       </c>
       <c r="M106">
-        <v>4807.1082429999997</v>
+        <v>4063.566742</v>
       </c>
       <c r="AP106" s="1"/>
       <c r="AQ106" s="1"/>
@@ -5354,40 +5352,40 @@
         <v>65625</v>
       </c>
       <c r="B107">
-        <v>504237952.44462502</v>
+        <v>314970359.16313797</v>
       </c>
       <c r="C107">
-        <v>184310278.301384</v>
+        <v>161587425.14103001</v>
       </c>
       <c r="D107">
-        <v>973.16303700000003</v>
+        <v>832.83337400000005</v>
       </c>
       <c r="E107">
-        <v>7420.8056429999997</v>
+        <v>9222.6450239999995</v>
       </c>
       <c r="F107">
-        <v>188435.57981699999</v>
+        <v>193581.132293</v>
       </c>
       <c r="G107">
-        <v>22676.285387</v>
+        <v>30962.050150999999</v>
       </c>
       <c r="H107">
-        <v>11329.039033999999</v>
+        <v>10416.038114000001</v>
       </c>
       <c r="I107">
-        <v>114231.08031400001</v>
+        <v>113952.99793300001</v>
       </c>
       <c r="J107">
-        <v>11506.893402</v>
+        <v>10075.114345</v>
       </c>
       <c r="K107">
-        <v>5251.8114429999996</v>
+        <v>4187.6665400000002</v>
       </c>
       <c r="L107">
-        <v>5058.97811</v>
+        <v>4141.7058619999998</v>
       </c>
       <c r="M107">
-        <v>4847.4166150000001</v>
+        <v>4076.4787259999998</v>
       </c>
       <c r="AP107" s="1"/>
       <c r="AQ107" s="1"/>
@@ -5398,40 +5396,40 @@
         <v>66250</v>
       </c>
       <c r="B108">
-        <v>510605808.77679199</v>
+        <v>318393627.81593299</v>
       </c>
       <c r="C108">
-        <v>185396136.586294</v>
+        <v>162059461.13968399</v>
       </c>
       <c r="D108">
-        <v>980.16167600000006</v>
+        <v>835.74525600000004</v>
       </c>
       <c r="E108">
-        <v>7509.4962839999998</v>
+        <v>9315.5703040000008</v>
       </c>
       <c r="F108">
-        <v>188184.27221699999</v>
+        <v>193472.98426900001</v>
       </c>
       <c r="G108">
-        <v>22987.793293999999</v>
+        <v>31257.967002000001</v>
       </c>
       <c r="H108">
-        <v>11438.44771</v>
+        <v>10450.454019999999</v>
       </c>
       <c r="I108">
-        <v>114474.371073</v>
+        <v>114161.206277</v>
       </c>
       <c r="J108">
-        <v>11592.961372</v>
+        <v>10085.439409000001</v>
       </c>
       <c r="K108">
-        <v>5283.9735570000003</v>
+        <v>4192.8239540000004</v>
       </c>
       <c r="L108">
-        <v>5095.13436</v>
+        <v>4150.3234890000003</v>
       </c>
       <c r="M108">
-        <v>4887.0843960000002</v>
+        <v>4088.7088140000001</v>
       </c>
       <c r="AP108" s="1"/>
       <c r="AQ108" s="1"/>
@@ -5442,40 +5440,40 @@
         <v>66875</v>
       </c>
       <c r="B109">
-        <v>516966817.28441501</v>
+        <v>321836846.52480203</v>
       </c>
       <c r="C109">
-        <v>186447350.891913</v>
+        <v>162507821.23800099</v>
       </c>
       <c r="D109">
-        <v>987.00334999999995</v>
+        <v>838.53475800000001</v>
       </c>
       <c r="E109">
-        <v>7598.0888640000003</v>
+        <v>9408.0619900000002</v>
       </c>
       <c r="F109">
-        <v>187931.503387</v>
+        <v>193365.785267</v>
       </c>
       <c r="G109">
-        <v>23299.957069</v>
+        <v>31552.057303000001</v>
       </c>
       <c r="H109">
-        <v>11546.807333999999</v>
+        <v>10483.325396</v>
       </c>
       <c r="I109">
-        <v>114719.411492</v>
+        <v>114370.142591</v>
       </c>
       <c r="J109">
-        <v>11677.442745</v>
+        <v>10094.363089</v>
       </c>
       <c r="K109">
-        <v>5315.3215250000003</v>
+        <v>4197.3830669999998</v>
       </c>
       <c r="L109">
-        <v>5130.5417090000001</v>
+        <v>4158.2923259999998</v>
       </c>
       <c r="M109">
-        <v>4926.0937640000002</v>
+        <v>4100.2615660000001</v>
       </c>
       <c r="AP109" s="1"/>
       <c r="AQ109" s="1"/>
@@ -5486,40 +5484,40 @@
         <v>67500</v>
       </c>
       <c r="B110">
-        <v>523319052.353172</v>
+        <v>325299925.97454101</v>
       </c>
       <c r="C110">
-        <v>187463405.936472</v>
+        <v>162932765.58254799</v>
       </c>
       <c r="D110">
-        <v>993.68470400000001</v>
+        <v>841.20284400000003</v>
       </c>
       <c r="E110">
-        <v>7686.5461830000004</v>
+        <v>9500.0949039999996</v>
       </c>
       <c r="F110">
-        <v>187677.310363</v>
+        <v>193259.567411</v>
       </c>
       <c r="G110">
-        <v>23612.680748999999</v>
+        <v>31844.245572</v>
       </c>
       <c r="H110">
-        <v>11654.072824999999</v>
+        <v>10514.664420999999</v>
       </c>
       <c r="I110">
-        <v>114966.16233000001</v>
+        <v>114579.77628000001</v>
       </c>
       <c r="J110">
-        <v>11760.307885</v>
+        <v>10101.918087</v>
       </c>
       <c r="K110">
-        <v>5345.8487519999999</v>
+        <v>4201.3567949999997</v>
       </c>
       <c r="L110">
-        <v>5165.1879250000002</v>
+        <v>4165.6218399999998</v>
       </c>
       <c r="M110">
-        <v>4964.4277540000003</v>
+        <v>4111.1423329999998</v>
       </c>
       <c r="AP110" s="1"/>
       <c r="AQ110" s="1"/>
@@ -5530,40 +5528,40 @@
         <v>68125</v>
       </c>
       <c r="B111">
-        <v>529660587.47261602</v>
+        <v>328782775.96437001</v>
       </c>
       <c r="C111">
-        <v>188443827.84937599</v>
+        <v>163334574.48107499</v>
       </c>
       <c r="D111">
-        <v>1000.202569</v>
+        <v>843.75058799999999</v>
       </c>
       <c r="E111">
-        <v>7774.8309810000001</v>
+        <v>9591.6444289999999</v>
       </c>
       <c r="F111">
-        <v>187421.730408</v>
+        <v>193154.36110899999</v>
       </c>
       <c r="G111">
-        <v>23925.867629</v>
+        <v>32134.458458000001</v>
       </c>
       <c r="H111">
-        <v>11760.200355000001</v>
+        <v>10544.484833</v>
       </c>
       <c r="I111">
-        <v>115214.583506</v>
+        <v>114790.07699099999</v>
       </c>
       <c r="J111">
-        <v>11841.529301</v>
+        <v>10108.138208</v>
       </c>
       <c r="K111">
-        <v>5375.549798</v>
+        <v>4204.7585339999996</v>
       </c>
       <c r="L111">
-        <v>5199.0618299999996</v>
+        <v>4172.3221439999998</v>
       </c>
       <c r="M111">
-        <v>5002.0702860000001</v>
+        <v>4121.3572409999997</v>
       </c>
       <c r="AP111" s="1"/>
       <c r="AQ111" s="1"/>
@@ -5574,40 +5572,40 @@
         <v>68750</v>
       </c>
       <c r="B112">
-        <v>535989497.10784</v>
+        <v>332285304.739986</v>
       </c>
       <c r="C112">
-        <v>189388184.93512601</v>
+        <v>163713547.04403099</v>
       </c>
       <c r="D112">
-        <v>1006.5539669999999</v>
+        <v>846.17916200000002</v>
       </c>
       <c r="E112">
-        <v>7862.9059770000003</v>
+        <v>9682.6865209999996</v>
       </c>
       <c r="F112">
-        <v>187164.80095999999</v>
+        <v>193050.19466499999</v>
       </c>
       <c r="G112">
-        <v>24239.420382</v>
+        <v>32422.624806</v>
       </c>
       <c r="H112">
-        <v>11865.14741</v>
+        <v>10572.801877</v>
       </c>
       <c r="I112">
-        <v>115464.634148</v>
+        <v>115001.01463799999</v>
       </c>
       <c r="J112">
-        <v>11921.081695999999</v>
+        <v>10113.05825</v>
       </c>
       <c r="K112">
-        <v>5404.4203820000002</v>
+        <v>4207.6021199999996</v>
       </c>
       <c r="L112">
-        <v>5232.1533239999999</v>
+        <v>4178.4039670000002</v>
       </c>
       <c r="M112">
-        <v>5039.0061999999998</v>
+        <v>4130.9131600000001</v>
       </c>
       <c r="AP112" s="1"/>
       <c r="AQ112" s="1"/>
@@ -5618,40 +5616,40 @@
         <v>69375</v>
       </c>
       <c r="B113">
-        <v>542303858.55388796</v>
+        <v>335807418.26632899</v>
       </c>
       <c r="C113">
-        <v>190296088.32396999</v>
+        <v>164069999.99903899</v>
       </c>
       <c r="D113">
-        <v>1012.736119</v>
+        <v>848.48983999999996</v>
       </c>
       <c r="E113">
-        <v>7950.7339279999997</v>
+        <v>9773.1977299999999</v>
       </c>
       <c r="F113">
-        <v>186906.55957799999</v>
+        <v>192947.09398800001</v>
       </c>
       <c r="G113">
-        <v>24553.241177</v>
+        <v>32708.675712</v>
       </c>
       <c r="H113">
-        <v>11968.872871</v>
+        <v>10599.632251000001</v>
       </c>
       <c r="I113">
-        <v>115716.27264</v>
+        <v>115212.559429</v>
       </c>
       <c r="J113">
-        <v>11998.942005000001</v>
+        <v>10116.713900000001</v>
       </c>
       <c r="K113">
-        <v>5432.4573840000003</v>
+        <v>4209.9017889999996</v>
       </c>
       <c r="L113">
-        <v>5264.4533970000002</v>
+        <v>4183.8786209999998</v>
       </c>
       <c r="M113">
-        <v>5075.221286</v>
+        <v>4139.8176860000003</v>
       </c>
       <c r="AP113" s="1"/>
       <c r="AQ113" s="1"/>
@@ -5662,40 +5660,40 @@
         <v>70000</v>
       </c>
       <c r="B114">
-        <v>548601753.76814198</v>
+        <v>339349019.473095</v>
       </c>
       <c r="C114">
-        <v>191167192.50632301</v>
+        <v>164404266.62777799</v>
       </c>
       <c r="D114">
-        <v>1018.746451</v>
+        <v>850.683987</v>
       </c>
       <c r="E114">
-        <v>8038.2776679999997</v>
+        <v>9863.1552179999999</v>
       </c>
       <c r="F114">
-        <v>186647.04389100001</v>
+        <v>192845.08240099999</v>
       </c>
       <c r="G114">
-        <v>24867.231802999999</v>
+        <v>32992.544580000002</v>
       </c>
       <c r="H114">
-        <v>12071.337073000001</v>
+        <v>10624.994038999999</v>
       </c>
       <c r="I114">
-        <v>115969.45667</v>
+        <v>115424.681889</v>
       </c>
       <c r="J114">
-        <v>12075.089421000001</v>
+        <v>10119.141632000001</v>
       </c>
       <c r="K114">
-        <v>5459.6588380000003</v>
+        <v>4211.6721429999998</v>
       </c>
       <c r="L114">
-        <v>5295.9541449999997</v>
+        <v>4188.7579649999998</v>
       </c>
       <c r="M114">
-        <v>5110.7023069999996</v>
+        <v>4148.0791120000004</v>
       </c>
       <c r="AP114" s="1"/>
       <c r="AQ114" s="1"/>
@@ -5706,40 +5704,40 @@
         <v>70625</v>
       </c>
       <c r="B115">
-        <v>554881271.17603898</v>
+        <v>342910007.49745399</v>
       </c>
       <c r="C115">
-        <v>192001195.74870101</v>
+        <v>164716695.78298399</v>
       </c>
       <c r="D115">
-        <v>1024.5825890000001</v>
+        <v>852.76306499999998</v>
       </c>
       <c r="E115">
-        <v>8125.5001620000003</v>
+        <v>9952.5367750000005</v>
       </c>
       <c r="F115">
-        <v>186386.291543</v>
+        <v>192744.18051000001</v>
       </c>
       <c r="G115">
-        <v>25181.293787999999</v>
+        <v>33274.167160999998</v>
       </c>
       <c r="H115">
-        <v>12172.501872999999</v>
+        <v>10648.906659</v>
       </c>
       <c r="I115">
-        <v>116224.143282</v>
+        <v>115637.35288599999</v>
       </c>
       <c r="J115">
-        <v>12149.505424000001</v>
+        <v>10120.378606</v>
       </c>
       <c r="K115">
-        <v>5486.0239240000001</v>
+        <v>4212.9281110000002</v>
       </c>
       <c r="L115">
-        <v>5326.6487749999997</v>
+        <v>4193.0543729999999</v>
       </c>
       <c r="M115">
-        <v>5145.4370259999996</v>
+        <v>4155.7063969999999</v>
       </c>
       <c r="AP115" s="1"/>
       <c r="AQ115" s="1"/>
@@ -5750,40 +5748,40 @@
         <v>71250</v>
       </c>
       <c r="B116">
-        <v>561140507.445593</v>
+        <v>346490276.941939</v>
       </c>
       <c r="C116">
-        <v>192797840.38965899</v>
+        <v>165007650.95320299</v>
       </c>
       <c r="D116">
-        <v>1030.2423739999999</v>
+        <v>854.72862199999997</v>
       </c>
       <c r="E116">
-        <v>8212.3645560000004</v>
+        <v>10041.320831000001</v>
       </c>
       <c r="F116">
-        <v>186124.34014099999</v>
+        <v>192644.406147</v>
       </c>
       <c r="G116">
-        <v>25495.328523</v>
+        <v>33553.481604000001</v>
       </c>
       <c r="H116">
-        <v>12272.33071</v>
+        <v>10671.390793</v>
       </c>
       <c r="I116">
-        <v>116480.288929</v>
+        <v>115850.54365199999</v>
       </c>
       <c r="J116">
-        <v>12222.1738</v>
+        <v>10120.462573000001</v>
       </c>
       <c r="K116">
-        <v>5511.5529550000001</v>
+        <v>4213.6849080000002</v>
       </c>
       <c r="L116">
-        <v>5356.5316149999999</v>
+        <v>4196.7806989999999</v>
       </c>
       <c r="M116">
-        <v>5179.414229</v>
+        <v>4162.7091419999997</v>
       </c>
       <c r="AP116" s="1"/>
       <c r="AQ116" s="1"/>
@@ -5794,40 +5792,40 @@
         <v>71875</v>
       </c>
       <c r="B117">
-        <v>567377569.22640002</v>
+        <v>350089717.160281</v>
       </c>
       <c r="C117">
-        <v>193556913.01491001</v>
+        <v>165277509.35266501</v>
       </c>
       <c r="D117">
-        <v>1035.7238560000001</v>
+        <v>856.58229200000005</v>
       </c>
       <c r="E117">
-        <v>8298.8342209999992</v>
+        <v>10129.486476</v>
       </c>
       <c r="F117">
-        <v>185861.227208</v>
+        <v>192545.77435299999</v>
       </c>
       <c r="G117">
-        <v>25809.237389999998</v>
+        <v>33830.428487999998</v>
       </c>
       <c r="H117">
-        <v>12370.788656999999</v>
+        <v>10692.468323999999</v>
       </c>
       <c r="I117">
-        <v>116737.849523</v>
+        <v>116064.225807</v>
       </c>
       <c r="J117">
-        <v>12293.080649</v>
+        <v>10119.431778</v>
       </c>
       <c r="K117">
-        <v>5536.2473669999999</v>
+        <v>4213.9580029999997</v>
       </c>
       <c r="L117">
-        <v>5385.5981169999995</v>
+        <v>4199.9502380000004</v>
       </c>
       <c r="M117">
-        <v>5212.6237389999997</v>
+        <v>4169.0975589999998</v>
       </c>
       <c r="AP117" s="1"/>
       <c r="AQ117" s="1"/>
@@ -5838,40 +5836,40 @@
         <v>72500</v>
       </c>
       <c r="B118">
-        <v>573590574.84900296</v>
+        <v>353708211.58006197</v>
       </c>
       <c r="C118">
-        <v>194278244.511491</v>
+        <v>165526661.022053</v>
       </c>
       <c r="D118">
-        <v>1041.0253009999999</v>
+        <v>858.32579299999998</v>
       </c>
       <c r="E118">
-        <v>8384.8728059999994</v>
+        <v>10217.013467999999</v>
       </c>
       <c r="F118">
-        <v>185596.990127</v>
+        <v>192448.297399</v>
       </c>
       <c r="G118">
-        <v>26122.921880000002</v>
+        <v>34104.950853000002</v>
       </c>
       <c r="H118">
-        <v>12467.842474999999</v>
+        <v>10712.162272</v>
       </c>
       <c r="I118">
-        <v>116996.780487</v>
+        <v>116278.37138</v>
       </c>
       <c r="J118">
-        <v>12362.214395000001</v>
+        <v>10117.324869</v>
       </c>
       <c r="K118">
-        <v>5560.1096939999998</v>
+        <v>4213.7630760000002</v>
       </c>
       <c r="L118">
-        <v>5413.8448509999998</v>
+        <v>4202.5766940000003</v>
       </c>
       <c r="M118">
-        <v>5245.0564350000004</v>
+        <v>4174.8824359999999</v>
       </c>
       <c r="AP118" s="1"/>
       <c r="AQ118" s="1"/>
@@ -5882,40 +5880,40 @@
         <v>73125</v>
       </c>
       <c r="B119" s="1">
-        <v>579777655.98076999</v>
+        <v>357345637.068277</v>
       </c>
       <c r="C119">
-        <v>194961710.00139099</v>
+        <v>165755507.93244001</v>
       </c>
       <c r="D119">
-        <v>1046.14519</v>
+        <v>859.96092199999998</v>
       </c>
       <c r="E119">
-        <v>8470.444281</v>
+        <v>10303.882248</v>
       </c>
       <c r="F119">
-        <v>185331.66609799999</v>
+        <v>192351.98483500001</v>
       </c>
       <c r="G119">
-        <v>26436.283719999999</v>
+        <v>34376.994228000003</v>
       </c>
       <c r="H119">
-        <v>12563.460660999999</v>
+        <v>10730.496719999999</v>
       </c>
       <c r="I119">
-        <v>117257.03681200001</v>
+        <v>116492.952829</v>
       </c>
       <c r="J119">
-        <v>12429.565782</v>
+        <v>10114.180807999999</v>
       </c>
       <c r="K119">
-        <v>5583.1435549999997</v>
+        <v>4213.1159850000004</v>
       </c>
       <c r="L119">
-        <v>5441.2695089999997</v>
+        <v>4204.6741410000004</v>
       </c>
       <c r="M119">
-        <v>5276.7042629999996</v>
+        <v>4180.0751099999998</v>
       </c>
       <c r="AP119" s="1"/>
       <c r="AQ119" s="1"/>
@@ -5926,40 +5924,40 @@
         <v>73750</v>
       </c>
       <c r="B120" s="1">
-        <v>585936959.23468399</v>
+        <v>361001863.34395999</v>
       </c>
       <c r="C120">
-        <v>195607228.65570199</v>
+        <v>165964463.08913699</v>
       </c>
       <c r="D120">
-        <v>1051.082222</v>
+        <v>861.48955000000001</v>
       </c>
       <c r="E120">
-        <v>8555.5129890000007</v>
+        <v>10390.073951</v>
       </c>
       <c r="F120">
-        <v>185065.29208300001</v>
+        <v>192256.84354999999</v>
       </c>
       <c r="G120">
-        <v>26749.224997000001</v>
+        <v>34646.506655999998</v>
       </c>
       <c r="H120">
-        <v>12657.613486</v>
+        <v>10747.496752999999</v>
       </c>
       <c r="I120">
-        <v>117518.573109</v>
+        <v>116707.943059</v>
       </c>
       <c r="J120">
-        <v>12495.127866000001</v>
+        <v>10110.038780000001</v>
       </c>
       <c r="K120">
-        <v>5605.3536219999996</v>
+        <v>4212.0327299999999</v>
       </c>
       <c r="L120">
-        <v>5467.8708930000003</v>
+        <v>4206.2569869999998</v>
       </c>
       <c r="M120">
-        <v>5307.5602470000003</v>
+        <v>4184.6874280000002</v>
       </c>
       <c r="AP120" s="1"/>
       <c r="AQ120" s="1"/>
@@ -5970,40 +5968,40 @@
         <v>74375</v>
       </c>
       <c r="B121" s="1">
-        <v>592066647.72772205</v>
+        <v>364676752.440754</v>
       </c>
       <c r="C121">
-        <v>196214763.39083299</v>
+        <v>166153949.63495201</v>
       </c>
       <c r="D121">
-        <v>1055.8353139999999</v>
+        <v>862.91361800000004</v>
       </c>
       <c r="E121">
-        <v>8640.0436900000004</v>
+        <v>10475.570414</v>
       </c>
       <c r="F121">
-        <v>184797.90476800001</v>
+        <v>192162.87784500001</v>
       </c>
       <c r="G121">
-        <v>27061.648277</v>
+        <v>34913.438704</v>
       </c>
       <c r="H121">
-        <v>12750.273037999999</v>
+        <v>10763.18838</v>
       </c>
       <c r="I121">
-        <v>117781.34366499999</v>
+        <v>116923.315447</v>
       </c>
       <c r="J121">
-        <v>12558.896005000001</v>
+        <v>10104.938112</v>
       </c>
       <c r="K121">
-        <v>5626.7455980000004</v>
+        <v>4210.5294139999996</v>
       </c>
       <c r="L121">
-        <v>5493.6489039999997</v>
+        <v>4207.3399380000001</v>
       </c>
       <c r="M121">
-        <v>5337.6184929999999</v>
+        <v>4188.7317199999998</v>
       </c>
       <c r="AP121" s="1"/>
       <c r="AQ121" s="1"/>
@@ -6014,40 +6012,40 @@
         <v>75000</v>
       </c>
       <c r="B122" s="1">
-        <v>598164902.58580399</v>
+        <v>368370158.22135198</v>
       </c>
       <c r="C122">
-        <v>196784320.44886199</v>
+        <v>166324399.953722</v>
       </c>
       <c r="D122">
-        <v>1060.4035980000001</v>
+        <v>864.23513600000001</v>
       </c>
       <c r="E122">
-        <v>8724.0016090000008</v>
+        <v>10560.354187999999</v>
       </c>
       <c r="F122">
-        <v>184529.54051300001</v>
+        <v>192070.089519</v>
       </c>
       <c r="G122">
-        <v>27373.456727000001</v>
+        <v>35177.743479999997</v>
       </c>
       <c r="H122">
-        <v>12841.41325</v>
+        <v>10777.598472</v>
       </c>
       <c r="I122">
-        <v>118045.302493</v>
+        <v>117139.04385099999</v>
       </c>
       <c r="J122">
-        <v>12620.867833</v>
+        <v>10098.918186000001</v>
       </c>
       <c r="K122">
-        <v>5647.3261860000002</v>
+        <v>4208.6222120000002</v>
       </c>
       <c r="L122">
-        <v>5518.6045340000001</v>
+        <v>4207.9379650000001</v>
       </c>
       <c r="M122">
-        <v>5366.8741950000003</v>
+        <v>4192.2207609999996</v>
       </c>
       <c r="AP122" s="1"/>
       <c r="AQ122" s="1"/>
@@ -6058,40 +6056,40 @@
         <v>75625</v>
       </c>
       <c r="B123" s="1">
-        <v>604229924.39254999</v>
+        <v>372081925.94505</v>
       </c>
       <c r="C123">
-        <v>197315948.86463699</v>
+        <v>166476254.77554801</v>
       </c>
       <c r="D123">
-        <v>1064.786427</v>
+        <v>865.45617400000003</v>
       </c>
       <c r="E123">
-        <v>8807.3524749999997</v>
+        <v>10644.408545</v>
       </c>
       <c r="F123">
-        <v>184260.23530900001</v>
+        <v>191978.47794700001</v>
       </c>
       <c r="G123">
-        <v>27684.554237</v>
+        <v>35439.376640000002</v>
       </c>
       <c r="H123">
-        <v>12931.009935</v>
+        <v>10790.754686</v>
       </c>
       <c r="I123">
-        <v>118310.403393</v>
+        <v>117355.102635</v>
       </c>
       <c r="J123">
-        <v>12681.043240000001</v>
+        <v>10092.018361</v>
       </c>
       <c r="K123">
-        <v>5667.1030559999999</v>
+        <v>4206.3273349999999</v>
       </c>
       <c r="L123">
-        <v>5542.7398439999997</v>
+        <v>4208.0662609999999</v>
       </c>
       <c r="M123">
-        <v>5395.3236340000003</v>
+        <v>4195.1677369999998</v>
       </c>
       <c r="AP123" s="1"/>
       <c r="AQ123" s="1"/>
@@ -6102,40 +6100,40 @@
         <v>76250</v>
       </c>
       <c r="B124" s="1">
-        <v>610259934.57939804</v>
+        <v>375811891.88904101</v>
       </c>
       <c r="C124">
-        <v>197809739.822685</v>
+        <v>166609962.285218</v>
       </c>
       <c r="D124">
-        <v>1068.983365</v>
+        <v>866.57885899999997</v>
       </c>
       <c r="E124">
-        <v>8890.0625710000004</v>
+        <v>10727.717482</v>
       </c>
       <c r="F124">
-        <v>183990.02474299999</v>
+        <v>191888.04017299999</v>
       </c>
       <c r="G124">
-        <v>27994.845537000001</v>
+        <v>35698.296387000002</v>
       </c>
       <c r="H124">
-        <v>13019.040799</v>
+        <v>10802.6854</v>
       </c>
       <c r="I124">
-        <v>118576.6</v>
+        <v>117571.466679</v>
       </c>
       <c r="J124">
-        <v>12739.424335</v>
+        <v>10084.277897</v>
       </c>
       <c r="K124">
-        <v>5686.0848100000003</v>
+        <v>4203.6609989999997</v>
       </c>
       <c r="L124">
-        <v>5566.0579459999999</v>
+        <v>4207.740213</v>
       </c>
       <c r="M124">
-        <v>5422.9641730000003</v>
+        <v>4197.5862100000004</v>
       </c>
       <c r="AP124" s="1"/>
       <c r="AQ124" s="1"/>
@@ -6146,40 +6144,40 @@
         <v>76875</v>
       </c>
       <c r="B125" s="1">
-        <v>616253176.75491703</v>
+        <v>379559883.02355099</v>
       </c>
       <c r="C125">
-        <v>198265825.90750501</v>
+        <v>166725977.23524201</v>
       </c>
       <c r="D125">
-        <v>1072.9941920000001</v>
+        <v>867.60537299999999</v>
       </c>
       <c r="E125">
-        <v>8972.0987760000007</v>
+        <v>10810.265728</v>
       </c>
       <c r="F125">
-        <v>183718.94395399999</v>
+        <v>191798.77098900001</v>
       </c>
       <c r="G125">
-        <v>28304.236309</v>
+        <v>35954.463471000003</v>
       </c>
       <c r="H125">
-        <v>13105.48547</v>
+        <v>10813.419636000001</v>
       </c>
       <c r="I125">
-        <v>118843.845841</v>
+        <v>117788.11139400001</v>
       </c>
       <c r="J125">
-        <v>12796.015412000001</v>
+        <v>10075.73588</v>
       </c>
       <c r="K125">
-        <v>5704.2809459999999</v>
+        <v>4200.639392</v>
       </c>
       <c r="L125">
-        <v>5588.5629829999998</v>
+        <v>4206.9753600000004</v>
       </c>
       <c r="M125">
-        <v>5449.7942549999998</v>
+        <v>4199.4900859999998</v>
       </c>
       <c r="AP125" s="1"/>
       <c r="AQ125" s="1"/>
@@ -6190,40 +6188,40 @@
         <v>77500</v>
       </c>
       <c r="B126" s="1">
-        <v>622207917.97142398</v>
+        <v>383325716.740403</v>
       </c>
       <c r="C126">
-        <v>198684380.25129101</v>
+        <v>166824760.064872</v>
       </c>
       <c r="D126">
-        <v>1076.8188970000001</v>
+        <v>868.53794500000004</v>
       </c>
       <c r="E126">
-        <v>9053.4285990000008</v>
+        <v>10892.03875</v>
       </c>
       <c r="F126">
-        <v>183447.0276</v>
+        <v>191710.66302899999</v>
       </c>
       <c r="G126">
-        <v>28612.633306</v>
+        <v>36207.841181999996</v>
       </c>
       <c r="H126">
-        <v>13190.325503</v>
+        <v>10822.986999999999</v>
       </c>
       <c r="I126">
-        <v>119112.09438900001</v>
+        <v>118005.012737</v>
       </c>
       <c r="J126">
-        <v>12850.822902</v>
+        <v>10066.431151000001</v>
       </c>
       <c r="K126">
-        <v>5721.7018179999995</v>
+        <v>4197.278644</v>
       </c>
       <c r="L126">
-        <v>5610.2601009999998</v>
+        <v>4205.7873659999996</v>
       </c>
       <c r="M126">
-        <v>5475.813392</v>
+        <v>4200.8935750000001</v>
       </c>
       <c r="AP126" s="1"/>
       <c r="AQ126" s="1"/>
@@ -6234,40 +6232,40 @@
         <v>78125</v>
       </c>
       <c r="B127" s="1">
-        <v>628122449.927356</v>
+        <v>387109200.63414198</v>
       </c>
       <c r="C127">
-        <v>199065615.583565</v>
+        <v>166906776.02658701</v>
       </c>
       <c r="D127">
-        <v>1080.45768</v>
+        <v>869.37884599999995</v>
       </c>
       <c r="E127">
-        <v>9134.0202279999994</v>
+        <v>10973.022752000001</v>
       </c>
       <c r="F127">
-        <v>183174.309824</v>
+        <v>191623.70684999999</v>
       </c>
       <c r="G127">
-        <v>28919.944456000001</v>
+        <v>36458.395340000003</v>
       </c>
       <c r="H127">
-        <v>13273.544395000001</v>
+        <v>10831.417603</v>
       </c>
       <c r="I127">
-        <v>119381.299113</v>
+        <v>118222.14722300001</v>
       </c>
       <c r="J127">
-        <v>12903.855329</v>
+        <v>10056.402237</v>
       </c>
       <c r="K127">
-        <v>5738.358596</v>
+        <v>4193.5947969999997</v>
       </c>
       <c r="L127">
-        <v>5631.1554230000002</v>
+        <v>4204.1919809999999</v>
       </c>
       <c r="M127">
-        <v>5501.0221499999998</v>
+        <v>4201.8111609999996</v>
       </c>
       <c r="AP127" s="1"/>
       <c r="AQ127" s="1"/>
@@ -6278,40 +6276,40 @@
         <v>78750</v>
       </c>
       <c r="B128" s="1">
-        <v>633995090.10408103</v>
+        <v>390910132.334436</v>
       </c>
       <c r="C128">
-        <v>199409783.18763301</v>
+        <v>166972494.321686</v>
       </c>
       <c r="D128">
-        <v>1083.9109430000001</v>
+        <v>870.13038700000004</v>
       </c>
       <c r="E128">
-        <v>9213.8425599999991</v>
+        <v>11053.204679</v>
       </c>
       <c r="F128">
-        <v>182900.824222</v>
+        <v>191537.89102000001</v>
       </c>
       <c r="G128">
-        <v>29226.078978000001</v>
+        <v>36706.094277999997</v>
       </c>
       <c r="H128">
-        <v>13355.127581000001</v>
+        <v>10838.742002999999</v>
       </c>
       <c r="I128">
-        <v>119651.413533</v>
+        <v>118439.491935</v>
       </c>
       <c r="J128">
-        <v>12955.123251999999</v>
+        <v>10045.687292000001</v>
       </c>
       <c r="K128">
-        <v>5754.2632229999999</v>
+        <v>4189.6037770000003</v>
       </c>
       <c r="L128">
-        <v>5651.256018</v>
+        <v>4202.2050090000002</v>
       </c>
       <c r="M128">
-        <v>5525.4221390000002</v>
+        <v>4202.2575639999995</v>
       </c>
       <c r="AP128" s="1"/>
       <c r="AQ128" s="1"/>
@@ -6322,40 +6320,40 @@
         <v>79375</v>
       </c>
       <c r="B129" s="1">
-        <v>639824182.83617699</v>
+        <v>394728299.388179</v>
       </c>
       <c r="C129">
-        <v>199717171.769162</v>
+        <v>167022387.24691701</v>
       </c>
       <c r="D129">
-        <v>1087.1792889999999</v>
+        <v>870.79491199999995</v>
       </c>
       <c r="E129">
-        <v>9292.8652419999999</v>
+        <v>11132.572217000001</v>
       </c>
       <c r="F129">
-        <v>182626.603818</v>
+        <v>191453.202204</v>
       </c>
       <c r="G129">
-        <v>29530.947476000001</v>
+        <v>36950.908824999999</v>
       </c>
       <c r="H129">
-        <v>13435.062438999999</v>
+        <v>10844.991131000001</v>
       </c>
       <c r="I129">
-        <v>119922.391269</v>
+        <v>118657.024531</v>
       </c>
       <c r="J129">
-        <v>13004.639209000001</v>
+        <v>10034.32403</v>
       </c>
       <c r="K129">
-        <v>5769.4283690000002</v>
+        <v>4185.3213690000002</v>
       </c>
       <c r="L129">
-        <v>5670.5698689999999</v>
+        <v>4199.8422780000001</v>
       </c>
       <c r="M129">
-        <v>5549.0159910000002</v>
+        <v>4202.2477099999996</v>
       </c>
       <c r="AP129" s="1"/>
       <c r="AQ129" s="1"/>
@@ -6366,40 +6364,40 @@
         <v>80000</v>
       </c>
       <c r="B130" s="1">
-        <v>645608100.31446898</v>
+        <v>398563479.18941599</v>
       </c>
       <c r="C130">
-        <v>199988106.24252701</v>
+        <v>167056929.354305</v>
       </c>
       <c r="D130">
-        <v>1090.2635170000001</v>
+        <v>871.37479399999995</v>
       </c>
       <c r="E130">
-        <v>9371.0587049999995</v>
+        <v>11211.113792</v>
       </c>
       <c r="F130">
-        <v>182351.681033</v>
+        <v>191369.62524600001</v>
       </c>
       <c r="G130">
-        <v>29834.462049000002</v>
+        <v>37192.812282999999</v>
       </c>
       <c r="H130">
-        <v>13513.338281</v>
+        <v>10850.19623</v>
       </c>
       <c r="I130">
-        <v>120194.186091</v>
+        <v>118874.72325900001</v>
       </c>
       <c r="J130">
-        <v>13052.417653</v>
+        <v>10022.349671</v>
       </c>
       <c r="K130">
-        <v>5783.8673909999998</v>
+        <v>4180.7631899999997</v>
       </c>
       <c r="L130">
-        <v>5689.1058380000004</v>
+        <v>4197.1196069999996</v>
       </c>
       <c r="M130">
-        <v>5571.8073430000004</v>
+        <v>4201.7966919999999</v>
       </c>
       <c r="AP130" s="1"/>
       <c r="AQ130" s="1"/>
@@ -6410,40 +6408,40 @@
         <v>80625</v>
       </c>
       <c r="B131" s="1">
-        <v>651345243.52142</v>
+        <v>402415438.95509797</v>
       </c>
       <c r="C131">
-        <v>200222946.440882</v>
+        <v>167076596.62657601</v>
       </c>
       <c r="D131">
-        <v>1093.1646169999999</v>
+        <v>871.87243100000001</v>
       </c>
       <c r="E131">
-        <v>9448.3941950000008</v>
+        <v>11288.818568000001</v>
       </c>
       <c r="F131">
-        <v>182076.087669</v>
+        <v>191287.143254</v>
       </c>
       <c r="G131">
-        <v>30136.536383999999</v>
+        <v>37431.780396000002</v>
       </c>
       <c r="H131">
-        <v>13589.946341999999</v>
+        <v>10854.388788</v>
       </c>
       <c r="I131">
-        <v>120466.75197</v>
+        <v>119092.566958</v>
       </c>
       <c r="J131">
-        <v>13098.474883999999</v>
+        <v>10009.800885000001</v>
       </c>
       <c r="K131">
-        <v>5797.5942789999999</v>
+        <v>4175.9446639999996</v>
       </c>
       <c r="L131">
-        <v>5706.8736289999997</v>
+        <v>4194.0527789999996</v>
       </c>
       <c r="M131">
-        <v>5593.8008110000001</v>
+        <v>4200.9197379999996</v>
       </c>
       <c r="AP131" s="1"/>
       <c r="AQ131" s="1"/>
@@ -6454,40 +6452,40 @@
         <v>81250</v>
       </c>
       <c r="B132" s="1">
-        <v>657034043.09874105</v>
+        <v>406283935.74452901</v>
       </c>
       <c r="C132">
-        <v>200422085.75615701</v>
+        <v>167081865.670672</v>
       </c>
       <c r="D132">
-        <v>1095.883765</v>
+        <v>872.29024100000004</v>
       </c>
       <c r="E132">
-        <v>9524.8438029999998</v>
+        <v>11365.676444000001</v>
       </c>
       <c r="F132">
-        <v>181799.85488500001</v>
+        <v>191205.73768200001</v>
       </c>
       <c r="G132">
-        <v>30437.085846999998</v>
+        <v>37667.791327999999</v>
       </c>
       <c r="H132">
-        <v>13664.879763999999</v>
+        <v>10857.600478</v>
       </c>
       <c r="I132">
-        <v>120740.043125</v>
+        <v>119310.535066</v>
       </c>
       <c r="J132">
-        <v>13142.828981000001</v>
+        <v>9996.7137440000006</v>
       </c>
       <c r="K132">
-        <v>5810.6236159999999</v>
+        <v>4170.8810020000001</v>
       </c>
       <c r="L132">
-        <v>5723.8837510000003</v>
+        <v>4190.6575069999999</v>
       </c>
       <c r="M132">
-        <v>5615.001964</v>
+        <v>4199.6321840000001</v>
       </c>
       <c r="AP132" s="1"/>
       <c r="AQ132" s="1"/>
@@ -6498,40 +6496,40 @@
         <v>81875</v>
       </c>
       <c r="B133" s="1">
-        <v>662672960.14735603</v>
+        <v>410168716.52033699</v>
       </c>
       <c r="C133">
-        <v>200585949.715446</v>
+        <v>167073212.93186</v>
       </c>
       <c r="D133">
-        <v>1098.422315</v>
+        <v>872.63065400000005</v>
       </c>
       <c r="E133">
-        <v>9600.3804990000008</v>
+        <v>11441.678048</v>
       </c>
       <c r="F133">
-        <v>181523.013179</v>
+        <v>191125.38841499999</v>
       </c>
       <c r="G133">
-        <v>30736.027578000001</v>
+        <v>37900.825622999997</v>
       </c>
       <c r="H133">
-        <v>13738.133575</v>
+        <v>10859.863096999999</v>
       </c>
       <c r="I133">
-        <v>121014.014066</v>
+        <v>119528.607626</v>
       </c>
       <c r="J133">
-        <v>13185.499723999999</v>
+        <v>9983.1236769999996</v>
       </c>
       <c r="K133">
-        <v>5822.9705270000004</v>
+        <v>4165.5871800000004</v>
       </c>
       <c r="L133">
-        <v>5740.1474749999998</v>
+        <v>4186.9494130000003</v>
       </c>
       <c r="M133">
-        <v>5635.4172989999997</v>
+        <v>4197.9494320000003</v>
       </c>
       <c r="AP133" s="1"/>
       <c r="AQ133" s="1"/>
@@ -6542,40 +6540,40 @@
         <v>82500</v>
       </c>
       <c r="B134" s="1">
-        <v>668260486.96013999</v>
+        <v>414069518.248788</v>
       </c>
       <c r="C134">
-        <v>200714994.50035</v>
+        <v>167051113.93085599</v>
       </c>
       <c r="D134">
-        <v>1100.781796</v>
+        <v>872.89611300000001</v>
       </c>
       <c r="E134">
-        <v>9674.9781500000008</v>
+        <v>11516.814736</v>
       </c>
       <c r="F134">
-        <v>181245.592378</v>
+        <v>191046.07385099999</v>
       </c>
       <c r="G134">
-        <v>31033.280569999999</v>
+        <v>38130.866170000001</v>
       </c>
       <c r="H134">
-        <v>13809.704669000001</v>
+        <v>10861.208505000001</v>
       </c>
       <c r="I134">
-        <v>121288.619645</v>
+        <v>119746.765289</v>
       </c>
       <c r="J134">
-        <v>13226.508517</v>
+        <v>9969.0654200000008</v>
       </c>
       <c r="K134">
-        <v>5834.6506310000004</v>
+        <v>4160.0779149999998</v>
       </c>
       <c r="L134">
-        <v>5755.6767980000004</v>
+        <v>4182.9439940000002</v>
       </c>
       <c r="M134">
-        <v>5655.0542070000001</v>
+        <v>4195.8869279999999</v>
       </c>
       <c r="AP134" s="1"/>
       <c r="AQ134" s="1"/>
@@ -6586,40 +6584,40 @@
         <v>83125</v>
       </c>
       <c r="B135" s="1">
-        <v>673795147.68806398</v>
+        <v>417986068.03727198</v>
       </c>
       <c r="C135">
-        <v>200809705.41604599</v>
+        <v>167016042.52620199</v>
       </c>
       <c r="D135">
-        <v>1102.963904</v>
+        <v>873.089068</v>
       </c>
       <c r="E135">
-        <v>9748.6115539999992</v>
+        <v>11591.078579999999</v>
       </c>
       <c r="F135">
-        <v>180967.62162399999</v>
+        <v>190967.77098100001</v>
       </c>
       <c r="G135">
-        <v>31328.765753</v>
+        <v>38357.898168</v>
       </c>
       <c r="H135">
-        <v>13879.591770000001</v>
+        <v>10861.668572</v>
       </c>
       <c r="I135">
-        <v>121563.81509400001</v>
+        <v>119964.989317</v>
       </c>
       <c r="J135">
-        <v>13265.878309</v>
+        <v>9954.5729840000004</v>
       </c>
       <c r="K135">
-        <v>5845.6799920000003</v>
+        <v>4154.3676560000004</v>
       </c>
       <c r="L135">
-        <v>5770.484391</v>
+        <v>4178.6566039999998</v>
       </c>
       <c r="M135">
-        <v>5673.9209430000001</v>
+        <v>4193.4601279999997</v>
       </c>
       <c r="AP135" s="1"/>
       <c r="AQ135" s="1"/>
@@ -6630,40 +6628,40 @@
         <v>83750</v>
       </c>
       <c r="B136" s="1">
-        <v>679275498.94064105</v>
+        <v>421918083.30681503</v>
       </c>
       <c r="C136">
-        <v>200870595.31688499</v>
+        <v>166968470.203888</v>
       </c>
       <c r="D136">
-        <v>1104.970493</v>
+        <v>873.21196799999996</v>
       </c>
       <c r="E136">
-        <v>9821.2564559999992</v>
+        <v>11664.462364999999</v>
       </c>
       <c r="F136">
-        <v>180689.12936600001</v>
+        <v>190890.45547399999</v>
       </c>
       <c r="G136">
-        <v>31622.406067</v>
+        <v>38581.909076999997</v>
       </c>
       <c r="H136">
-        <v>13947.795405000001</v>
+        <v>10861.275119</v>
       </c>
       <c r="I136">
-        <v>121839.556069</v>
+        <v>120183.26158400001</v>
       </c>
       <c r="J136">
-        <v>13303.633511</v>
+        <v>9939.6796149999991</v>
       </c>
       <c r="K136">
-        <v>5856.0750740000003</v>
+        <v>4148.4705569999996</v>
       </c>
       <c r="L136">
-        <v>5784.5835660000002</v>
+        <v>4174.1024260000004</v>
       </c>
       <c r="M136">
-        <v>5692.0265900000004</v>
+        <v>4190.684467</v>
       </c>
       <c r="AP136" s="1"/>
       <c r="AQ136" s="1"/>
@@ -6674,40 +6672,40 @@
         <v>84375</v>
       </c>
       <c r="B137" s="1">
-        <v>684700130.32177901</v>
+        <v>425865271.99749398</v>
       </c>
       <c r="C137">
-        <v>200898202.99538499</v>
+        <v>166908865.395991</v>
       </c>
       <c r="D137">
-        <v>1106.803572</v>
+        <v>873.26726299999996</v>
       </c>
       <c r="E137">
-        <v>9892.8895699999994</v>
+        <v>11736.959578</v>
       </c>
       <c r="F137">
-        <v>180410.14335500001</v>
+        <v>190814.101761</v>
       </c>
       <c r="G137">
-        <v>31914.126536</v>
+        <v>38802.888580999999</v>
       </c>
       <c r="H137">
-        <v>14014.317865999999</v>
+        <v>10860.059868</v>
       </c>
       <c r="I137">
-        <v>122115.798693</v>
+        <v>120401.564577</v>
       </c>
       <c r="J137">
-        <v>13339.799908999999</v>
+        <v>9924.4177610000006</v>
       </c>
       <c r="K137">
-        <v>5865.8526879999999</v>
+        <v>4142.4004679999998</v>
       </c>
       <c r="L137">
-        <v>5797.9882239999997</v>
+        <v>4169.2964510000002</v>
       </c>
       <c r="M137">
-        <v>5709.3810229999999</v>
+        <v>4187.5753350000005</v>
       </c>
       <c r="AP137" s="1"/>
       <c r="AQ137" s="1"/>
@@ -6718,40 +6716,40 @@
         <v>85000</v>
       </c>
       <c r="B138" s="1">
-        <v>690067664.902354</v>
+        <v>429827332.80467802</v>
       </c>
       <c r="C138">
-        <v>200893091.54149401</v>
+        <v>166837692.82978401</v>
       </c>
       <c r="D138">
-        <v>1108.4652940000001</v>
+        <v>873.25739299999998</v>
       </c>
       <c r="E138">
-        <v>9963.4885969999996</v>
+        <v>11808.564399000001</v>
       </c>
       <c r="F138">
-        <v>180130.69063999999</v>
+        <v>190738.68311499999</v>
       </c>
       <c r="G138">
-        <v>32203.854329999998</v>
+        <v>39020.828534</v>
       </c>
       <c r="H138">
-        <v>14079.163168999999</v>
+        <v>10858.054393</v>
       </c>
       <c r="I138">
-        <v>122392.49958600001</v>
+        <v>120619.881392</v>
       </c>
       <c r="J138">
-        <v>13374.404579</v>
+        <v>9908.8190460000005</v>
       </c>
       <c r="K138">
-        <v>5875.0299480000003</v>
+        <v>4136.1709199999996</v>
       </c>
       <c r="L138">
-        <v>5810.7128110000003</v>
+        <v>4164.2534539999997</v>
       </c>
       <c r="M138">
-        <v>5725.9948729999996</v>
+        <v>4184.1480439999996</v>
       </c>
       <c r="AP138" s="1"/>
       <c r="AQ138" s="1"/>
@@ -6762,40 +6760,40 @@
         <v>85625</v>
       </c>
       <c r="B139" s="1">
-        <v>695376759.630988</v>
+        <v>433803955.44401801</v>
       </c>
       <c r="C139">
-        <v>200855846.678951</v>
+        <v>166755412.90855101</v>
       </c>
       <c r="D139">
-        <v>1109.9579510000001</v>
+        <v>873.18479100000002</v>
       </c>
       <c r="E139">
-        <v>10033.032241000001</v>
+        <v>11879.271692</v>
       </c>
       <c r="F139">
-        <v>179850.79757299999</v>
+        <v>190664.171737</v>
       </c>
       <c r="G139">
-        <v>32491.518830000001</v>
+        <v>39235.722915999999</v>
       </c>
       <c r="H139">
-        <v>14142.337009999999</v>
+        <v>10855.290069000001</v>
       </c>
       <c r="I139">
-        <v>122669.615909</v>
+        <v>120838.19574</v>
       </c>
       <c r="J139">
-        <v>13407.475801000001</v>
+        <v>9892.9142429999993</v>
       </c>
       <c r="K139">
-        <v>5883.6242249999996</v>
+        <v>4129.7951089999997</v>
       </c>
       <c r="L139">
-        <v>5822.7722739999999</v>
+        <v>4158.9879790000005</v>
       </c>
       <c r="M139">
-        <v>5741.8794859999998</v>
+        <v>4180.4178080000002</v>
       </c>
       <c r="AP139" s="1"/>
       <c r="AQ139" s="1"/>
@@ -6806,40 +6804,40 @@
         <v>86250</v>
       </c>
       <c r="B140" s="1">
-        <v>700626105.68472004</v>
+        <v>437794820.94314098</v>
       </c>
       <c r="C140">
-        <v>200787075.08550099</v>
+        <v>166662481.125083</v>
       </c>
       <c r="D140">
-        <v>1111.2839630000001</v>
+        <v>873.051875</v>
       </c>
       <c r="E140">
-        <v>10101.500223999999</v>
+        <v>11949.076993000001</v>
       </c>
       <c r="F140">
-        <v>179570.48980400001</v>
+        <v>190590.53883599999</v>
       </c>
       <c r="G140">
-        <v>32777.051682999998</v>
+        <v>39447.567779999998</v>
       </c>
       <c r="H140">
-        <v>14203.846721</v>
+        <v>10851.798027000001</v>
       </c>
       <c r="I140">
-        <v>122947.10539700001</v>
+        <v>121056.49193800001</v>
       </c>
       <c r="J140">
-        <v>13439.042966999999</v>
+        <v>9876.7332499999993</v>
       </c>
       <c r="K140">
-        <v>5891.6530940000002</v>
+        <v>4123.2858910000004</v>
       </c>
       <c r="L140">
-        <v>5834.1820150000003</v>
+        <v>4153.5143159999998</v>
       </c>
       <c r="M140">
-        <v>5757.0468840000003</v>
+        <v>4176.3997149999996</v>
       </c>
       <c r="AP140" s="1"/>
       <c r="AQ140" s="1"/>
@@ -6850,40 +6848,40 @@
         <v>86875</v>
       </c>
       <c r="B141" s="1">
-        <v>705814428.76137495</v>
+        <v>441799601.95804799</v>
       </c>
       <c r="C141">
-        <v>200687402.70361701</v>
+        <v>166559347.50862101</v>
       </c>
       <c r="D141">
-        <v>1112.445874</v>
+        <v>872.86104599999999</v>
       </c>
       <c r="E141">
-        <v>10168.873293000001</v>
+        <v>12017.976500000001</v>
       </c>
       <c r="F141">
-        <v>179289.79229300001</v>
+        <v>190517.75471800001</v>
       </c>
       <c r="G141">
-        <v>33060.386851000003</v>
+        <v>39656.361198999999</v>
       </c>
       <c r="H141">
-        <v>14263.701215999999</v>
+        <v>10847.609113</v>
       </c>
       <c r="I141">
-        <v>123224.926387</v>
+        <v>121274.754907</v>
       </c>
       <c r="J141">
-        <v>13469.136490999999</v>
+        <v>9860.3050739999999</v>
       </c>
       <c r="K141">
-        <v>5899.1342960000002</v>
+        <v>4116.6557670000002</v>
       </c>
       <c r="L141">
-        <v>5844.9578419999998</v>
+        <v>4147.8464860000004</v>
       </c>
       <c r="M141">
-        <v>5771.5097210000004</v>
+        <v>4172.1087029999999</v>
       </c>
       <c r="AP141" s="1"/>
       <c r="AQ141" s="1"/>
@@ -6894,40 +6892,40 @@
         <v>87500</v>
       </c>
       <c r="B142" s="1">
-        <v>710940489.31560302</v>
+        <v>445817963.11219198</v>
       </c>
       <c r="C142">
-        <v>200557473.04821399</v>
+        <v>166446456.10580799</v>
       </c>
       <c r="D142">
-        <v>1113.446342</v>
+        <v>872.61468500000001</v>
       </c>
       <c r="E142">
-        <v>10235.133234999999</v>
+        <v>12085.967054999999</v>
       </c>
       <c r="F142">
-        <v>179008.72931600001</v>
+        <v>190445.788864</v>
       </c>
       <c r="G142">
-        <v>33341.460658999997</v>
+        <v>39862.103215000003</v>
       </c>
       <c r="H142">
-        <v>14321.910942</v>
+        <v>10842.753843</v>
       </c>
       <c r="I142">
-        <v>123503.037856</v>
+        <v>121492.97016899999</v>
       </c>
       <c r="J142">
-        <v>13497.787722999999</v>
+        <v>9843.6578100000006</v>
       </c>
       <c r="K142">
-        <v>5906.0856899999999</v>
+        <v>4109.9168739999996</v>
       </c>
       <c r="L142">
-        <v>5855.1159269999998</v>
+        <v>4141.9982259999997</v>
       </c>
       <c r="M142">
-        <v>5785.2812439999998</v>
+        <v>4167.5595370000001</v>
       </c>
       <c r="AP142" s="1"/>
       <c r="AQ142" s="1"/>
@@ -6938,40 +6936,40 @@
         <v>88125</v>
       </c>
       <c r="B143" s="1">
-        <v>716003082.74065399</v>
+        <v>449849561.35629898</v>
       </c>
       <c r="C143">
-        <v>200397945.51769</v>
+        <v>166324244.49601901</v>
       </c>
       <c r="D143">
-        <v>1114.2881279999999</v>
+        <v>872.31514800000002</v>
       </c>
       <c r="E143">
-        <v>10300.262878</v>
+        <v>12153.046138</v>
       </c>
       <c r="F143">
-        <v>178727.32447299999</v>
+        <v>190374.610021</v>
       </c>
       <c r="G143">
-        <v>33620.211834000002</v>
+        <v>40064.795776999999</v>
       </c>
       <c r="H143">
-        <v>14378.487822999999</v>
+        <v>10837.26237</v>
       </c>
       <c r="I143">
-        <v>123781.399441</v>
+        <v>121711.12384</v>
       </c>
       <c r="J143">
-        <v>13525.028858</v>
+        <v>9826.8186349999996</v>
       </c>
       <c r="K143">
-        <v>5912.5252099999998</v>
+        <v>4103.0809849999996</v>
       </c>
       <c r="L143">
-        <v>5864.6727579999997</v>
+        <v>4135.9829730000001</v>
       </c>
       <c r="M143">
-        <v>5798.3752469999999</v>
+        <v>4162.766791</v>
       </c>
       <c r="AP143" s="1"/>
       <c r="AQ143" s="1"/>
@@ -6982,40 +6980,40 @@
         <v>88750</v>
       </c>
       <c r="B144" s="1">
-        <v>721001039.498088</v>
+        <v>453894046.34696299</v>
       </c>
       <c r="C144">
-        <v>200209493.71438599</v>
+        <v>166193143.341295</v>
       </c>
       <c r="D144">
-        <v>1114.9740919999999</v>
+        <v>871.96476500000006</v>
       </c>
       <c r="E144">
-        <v>10364.2461</v>
+        <v>12219.211848000001</v>
       </c>
       <c r="F144">
-        <v>178445.600706</v>
+        <v>190304.18627899999</v>
       </c>
       <c r="G144">
-        <v>33896.581545000001</v>
+        <v>40264.442691999997</v>
       </c>
       <c r="H144">
-        <v>14433.445204</v>
+        <v>10831.164444</v>
       </c>
       <c r="I144">
-        <v>124059.971473</v>
+        <v>121929.20262700001</v>
       </c>
       <c r="J144">
-        <v>13550.892844</v>
+        <v>9809.8137920000008</v>
       </c>
       <c r="K144">
-        <v>5918.4708229999997</v>
+        <v>4096.1594919999998</v>
       </c>
       <c r="L144">
-        <v>5873.6450919999997</v>
+        <v>4129.8138499999995</v>
       </c>
       <c r="M144">
-        <v>5810.8060299999997</v>
+        <v>4157.7448249999998</v>
       </c>
       <c r="AP144" s="1"/>
       <c r="AQ144" s="1"/>
@@ -7026,40 +7024,40 @@
         <v>89375</v>
       </c>
       <c r="B145" s="1">
-        <v>725933225.19765699</v>
+        <v>457951060.84213102</v>
       </c>
       <c r="C145">
-        <v>199992803.78033099</v>
+        <v>166053575.970893</v>
       </c>
       <c r="D145">
-        <v>1115.5071849999999</v>
+        <v>871.56583599999999</v>
       </c>
       <c r="E145">
-        <v>10427.067829</v>
+        <v>12284.462892</v>
       </c>
       <c r="F145">
-        <v>178163.58030599999</v>
+        <v>190234.485159</v>
       </c>
       <c r="G145">
-        <v>34170.513426999998</v>
+        <v>40461.049558999999</v>
       </c>
       <c r="H145">
-        <v>14486.797788</v>
+        <v>10824.489380000001</v>
       </c>
       <c r="I145">
-        <v>124338.714996</v>
+        <v>122147.193818</v>
       </c>
       <c r="J145">
-        <v>13575.413297999999</v>
+        <v>9792.6685849999994</v>
       </c>
       <c r="K145">
-        <v>5923.94049</v>
+        <v>4089.1634130000002</v>
       </c>
       <c r="L145">
-        <v>5882.0499170000003</v>
+        <v>4123.5036579999996</v>
       </c>
       <c r="M145">
-        <v>5822.5883540000004</v>
+        <v>4152.5077680000004</v>
       </c>
       <c r="AP145" s="1"/>
       <c r="AQ145" s="1"/>
@@ -7070,40 +7068,40 @@
         <v>90000</v>
       </c>
       <c r="B146" s="1">
-        <v>730798540.62971604</v>
+        <v>462020241.11159599</v>
       </c>
       <c r="C146">
-        <v>199748572.75387499</v>
+        <v>165905958.00036299</v>
       </c>
       <c r="D146">
-        <v>1115.890437</v>
+        <v>871.12063000000001</v>
       </c>
       <c r="E146">
-        <v>10488.714045999999</v>
+        <v>12348.798564000001</v>
       </c>
       <c r="F146">
-        <v>177881.284938</v>
+        <v>190165.47369799999</v>
       </c>
       <c r="G146">
-        <v>34441.953611999998</v>
+        <v>40654.623716000002</v>
       </c>
       <c r="H146">
-        <v>14538.561581</v>
+        <v>10817.266027</v>
       </c>
       <c r="I146">
-        <v>124617.591793</v>
+        <v>122365.08527700001</v>
       </c>
       <c r="J146">
-        <v>13598.624411999999</v>
+        <v>9775.4073759999992</v>
       </c>
       <c r="K146">
-        <v>5928.9521249999998</v>
+        <v>4082.1033779999998</v>
       </c>
       <c r="L146">
-        <v>5889.904399</v>
+        <v>4117.0648620000002</v>
       </c>
       <c r="M146">
-        <v>5833.7373969999999</v>
+        <v>4147.0694970000004</v>
       </c>
       <c r="AP146" s="1"/>
       <c r="AQ146" s="1"/>
@@ -7114,40 +7112,40 @@
         <v>90625</v>
       </c>
       <c r="B147" s="1">
-        <v>735595921.75253296</v>
+        <v>466101217.36068499</v>
       </c>
       <c r="C147">
-        <v>199477506.95250499</v>
+        <v>165750696.984855</v>
       </c>
       <c r="D147">
-        <v>1116.126949</v>
+        <v>870.63138100000003</v>
       </c>
       <c r="E147">
-        <v>10549.171779</v>
+        <v>12412.21874</v>
       </c>
       <c r="F147">
-        <v>177598.735655</v>
+        <v>190097.11852600001</v>
       </c>
       <c r="G147">
-        <v>34710.850745999996</v>
+        <v>40845.174181000002</v>
       </c>
       <c r="H147">
-        <v>14588.753827</v>
+        <v>10809.522736999999</v>
       </c>
       <c r="I147">
-        <v>124896.564402</v>
+        <v>122582.86543400001</v>
       </c>
       <c r="J147">
-        <v>13620.560876</v>
+        <v>9758.0535789999994</v>
       </c>
       <c r="K147">
-        <v>5933.5235599999996</v>
+        <v>4074.9896349999999</v>
       </c>
       <c r="L147">
-        <v>5897.225848</v>
+        <v>4110.5095840000004</v>
       </c>
       <c r="M147">
-        <v>5844.2687100000003</v>
+        <v>4141.443628</v>
       </c>
       <c r="AP147" s="1"/>
       <c r="AQ147" s="1"/>
@@ -7158,40 +7156,40 @@
         <v>91250</v>
       </c>
       <c r="B148" s="1">
-        <v>740324339.63691294</v>
+        <v>470193614.16534001</v>
       </c>
       <c r="C148">
-        <v>199180320.38684601</v>
+        <v>165588192.106262</v>
       </c>
       <c r="D148">
-        <v>1116.2198920000001</v>
+        <v>870.10028499999999</v>
       </c>
       <c r="E148">
-        <v>10608.429104000001</v>
+        <v>12474.723851000001</v>
       </c>
       <c r="F148">
-        <v>177315.95292000001</v>
+        <v>190029.385954</v>
       </c>
       <c r="G148">
-        <v>34977.156005999997</v>
+        <v>41032.711584999997</v>
       </c>
       <c r="H148">
-        <v>14637.39294</v>
+        <v>10801.287344</v>
       </c>
       <c r="I148">
-        <v>125175.596139</v>
+        <v>122800.52327999999</v>
       </c>
       <c r="J148">
-        <v>13641.257783999999</v>
+        <v>9740.6296650000004</v>
       </c>
       <c r="K148">
-        <v>5937.6725070000002</v>
+        <v>4067.8320410000001</v>
       </c>
       <c r="L148">
-        <v>5904.031669</v>
+        <v>4103.8495929999999</v>
       </c>
       <c r="M148">
-        <v>5854.1981729999998</v>
+        <v>4135.6434950000003</v>
       </c>
       <c r="AP148" s="1"/>
       <c r="AQ148" s="1"/>
@@ -7202,40 +7200,40 @@
         <v>91875</v>
       </c>
       <c r="B149" s="1">
-        <v>744982800.370579</v>
+        <v>474297050.91685599</v>
       </c>
       <c r="C149">
-        <v>198857733.21050301</v>
+        <v>165418833.89362401</v>
       </c>
       <c r="D149">
-        <v>1116.172487</v>
+        <v>869.52949999999998</v>
       </c>
       <c r="E149">
-        <v>10666.475136999999</v>
+        <v>12536.314874</v>
       </c>
       <c r="F149">
-        <v>177032.95662700001</v>
+        <v>189962.24205199999</v>
       </c>
       <c r="G149">
-        <v>35240.823112999999</v>
+        <v>41217.248119999997</v>
       </c>
       <c r="H149">
-        <v>14684.498449999999</v>
+        <v>10792.587136</v>
       </c>
       <c r="I149">
-        <v>125454.65111200001</v>
+        <v>123018.048351</v>
       </c>
       <c r="J149">
-        <v>13660.750556999999</v>
+        <v>9723.1571619999995</v>
       </c>
       <c r="K149">
-        <v>5941.4165270000003</v>
+        <v>4060.640069</v>
       </c>
       <c r="L149">
-        <v>5910.3393260000003</v>
+        <v>4097.0963019999999</v>
       </c>
       <c r="M149">
-        <v>5863.5419540000003</v>
+        <v>4129.6821380000001</v>
       </c>
       <c r="AP149" s="1"/>
       <c r="AQ149" s="1"/>
@@ -7246,40 +7244,40 @@
         <v>92500</v>
       </c>
       <c r="B150" s="1">
-        <v>749570344.92474997</v>
+        <v>478411142.27459598</v>
       </c>
       <c r="C150">
-        <v>198510470.21006399</v>
+        <v>165243003.97611701</v>
       </c>
       <c r="D150">
-        <v>1115.98801</v>
+        <v>868.92114300000003</v>
       </c>
       <c r="E150">
-        <v>10723.300026999999</v>
+        <v>12596.993313000001</v>
       </c>
       <c r="F150">
-        <v>176749.76612399999</v>
+        <v>189895.65273199999</v>
       </c>
       <c r="G150">
-        <v>35501.808333000001</v>
+        <v>41398.797473999999</v>
       </c>
       <c r="H150">
-        <v>14730.090928</v>
+        <v>10783.448834000001</v>
       </c>
       <c r="I150">
-        <v>125733.694234</v>
+        <v>123235.43072600001</v>
       </c>
       <c r="J150">
-        <v>13679.074861999999</v>
+        <v>9705.6566590000002</v>
       </c>
       <c r="K150">
-        <v>5944.7729959999997</v>
+        <v>4053.422802</v>
       </c>
       <c r="L150">
-        <v>5916.1663010000002</v>
+        <v>4090.2607579999999</v>
       </c>
       <c r="M150">
-        <v>5872.3164610000003</v>
+        <v>4123.5722939999996</v>
       </c>
       <c r="AP150" s="1"/>
       <c r="AQ150" s="1"/>
@@ -7290,40 +7288,40 @@
         <v>93125</v>
       </c>
       <c r="B151" s="1">
-        <v>754086048.98534095</v>
+        <v>482535498.62499797</v>
       </c>
       <c r="C151">
-        <v>198139259.339241</v>
+        <v>165061074.867838</v>
       </c>
       <c r="D151">
-        <v>1115.6697730000001</v>
+        <v>868.27728999999999</v>
       </c>
       <c r="E151">
-        <v>10778.894946</v>
+        <v>12656.761182</v>
       </c>
       <c r="F151">
-        <v>176466.400242</v>
+        <v>189829.583824</v>
       </c>
       <c r="G151">
-        <v>35760.070481000002</v>
+        <v>41577.374770000002</v>
       </c>
       <c r="H151">
-        <v>14774.191924000001</v>
+        <v>10773.898572</v>
       </c>
       <c r="I151">
-        <v>126012.69123700001</v>
+        <v>123452.661012</v>
       </c>
       <c r="J151">
-        <v>13696.266530000001</v>
+        <v>9688.1478160000006</v>
       </c>
       <c r="K151">
-        <v>5947.7590760000003</v>
+        <v>4046.18894</v>
       </c>
       <c r="L151">
-        <v>5921.5300559999996</v>
+        <v>4083.353642</v>
       </c>
       <c r="M151">
-        <v>5880.5383060000004</v>
+        <v>4117.3263809999999</v>
       </c>
       <c r="AP151" s="1"/>
       <c r="AQ151" s="1"/>
@@ -7334,40 +7332,40 @@
         <v>93750</v>
       </c>
       <c r="B152" s="1">
-        <v>758529022.75120103</v>
+        <v>486669726.545313</v>
       </c>
       <c r="C152">
-        <v>197744830.300726</v>
+        <v>164873409.783461</v>
       </c>
       <c r="D152">
-        <v>1115.221125</v>
+        <v>867.59996899999999</v>
       </c>
       <c r="E152">
-        <v>10833.252078</v>
+        <v>12715.620989999999</v>
       </c>
       <c r="F152">
-        <v>176182.87731400001</v>
+        <v>189764.00115699999</v>
       </c>
       <c r="G152">
-        <v>36015.570917999998</v>
+        <v>41752.996506000003</v>
       </c>
       <c r="H152">
-        <v>14816.823904000001</v>
+        <v>10763.961883</v>
       </c>
       <c r="I152">
-        <v>126291.60868</v>
+        <v>123669.73033400001</v>
       </c>
       <c r="J152">
-        <v>13712.361481</v>
+        <v>9670.6493709999995</v>
       </c>
       <c r="K152">
-        <v>5950.3916859999999</v>
+        <v>4038.9467970000001</v>
       </c>
       <c r="L152">
-        <v>5926.4479979999996</v>
+        <v>4076.38526</v>
       </c>
       <c r="M152">
-        <v>5888.2242589999996</v>
+        <v>4110.9564920000003</v>
       </c>
       <c r="AP152" s="1"/>
       <c r="AQ152" s="1"/>
@@ -7378,40 +7376,40 @@
         <v>94375</v>
       </c>
       <c r="B153" s="1">
-        <v>762898410.70175302</v>
+        <v>490813429.27049202</v>
       </c>
       <c r="C153">
-        <v>197327913.17900801</v>
+        <v>164680362.483785</v>
       </c>
       <c r="D153">
-        <v>1114.645438</v>
+        <v>866.891166</v>
       </c>
       <c r="E153">
-        <v>10886.364607</v>
+        <v>12773.575720000001</v>
       </c>
       <c r="F153">
-        <v>175899.21520800001</v>
+        <v>189698.87062999999</v>
       </c>
       <c r="G153">
-        <v>36268.273543000003</v>
+        <v>41925.680498000002</v>
       </c>
       <c r="H153">
-        <v>14858.010178</v>
+        <v>10753.663681</v>
       </c>
       <c r="I153">
-        <v>126570.413961</v>
+        <v>123886.630326</v>
       </c>
       <c r="J153">
-        <v>13727.395655</v>
+        <v>9653.1791499999999</v>
       </c>
       <c r="K153">
-        <v>5952.6874790000002</v>
+        <v>4031.704311</v>
       </c>
       <c r="L153">
-        <v>5930.9374390000003</v>
+        <v>4069.3655480000002</v>
       </c>
       <c r="M153">
-        <v>5895.3912099999998</v>
+        <v>4104.4743859999999</v>
       </c>
       <c r="AP153" s="1"/>
       <c r="AQ153" s="1"/>
@@ -7422,40 +7420,40 @@
         <v>95000</v>
       </c>
       <c r="B154" s="1">
-        <v>767193391.33638</v>
+        <v>494966207.16172898</v>
       </c>
       <c r="C154">
-        <v>196889237.12700799</v>
+        <v>164482277.150103</v>
       </c>
       <c r="D154">
-        <v>1113.9461040000001</v>
+        <v>866.15282000000002</v>
       </c>
       <c r="E154">
-        <v>10938.226704000001</v>
+        <v>12830.628815</v>
       </c>
       <c r="F154">
-        <v>175615.43134800001</v>
+        <v>189634.158291</v>
       </c>
       <c r="G154">
-        <v>36518.144782000003</v>
+        <v>42095.445812999998</v>
       </c>
       <c r="H154">
-        <v>14897.774841</v>
+        <v>10743.028249000001</v>
       </c>
       <c r="I154">
-        <v>126849.07532</v>
+        <v>124103.353118</v>
       </c>
       <c r="J154">
-        <v>13741.404934</v>
+        <v>9635.7540809999991</v>
       </c>
       <c r="K154">
-        <v>5954.6628119999996</v>
+        <v>4024.4690399999999</v>
       </c>
       <c r="L154">
-        <v>5935.0155720000002</v>
+        <v>4062.3040660000001</v>
       </c>
       <c r="M154">
-        <v>5902.0561280000002</v>
+        <v>4097.8914789999999</v>
       </c>
       <c r="AP154" s="1"/>
       <c r="AQ154" s="1"/>
@@ -7466,40 +7464,40 @@
         <v>95625</v>
       </c>
       <c r="B155" s="1">
-        <v>771413176.88781095</v>
+        <v>499127658.17521697</v>
       </c>
       <c r="C155">
-        <v>196429529.10900801</v>
+        <v>164279488.286248</v>
       </c>
       <c r="D155">
-        <v>1113.1265289999999</v>
+        <v>865.38681899999995</v>
       </c>
       <c r="E155">
-        <v>10988.833506999999</v>
+        <v>12886.784159999999</v>
       </c>
       <c r="F155">
-        <v>175331.54274899999</v>
+        <v>189569.83040599999</v>
       </c>
       <c r="G155">
-        <v>36765.153568000002</v>
+        <v>42262.312714</v>
       </c>
       <c r="H155">
-        <v>14936.142703</v>
+        <v>10732.079228000001</v>
       </c>
       <c r="I155">
-        <v>127127.561847</v>
+        <v>124319.891323</v>
       </c>
       <c r="J155">
-        <v>13754.425080999999</v>
+        <v>9618.390206</v>
       </c>
       <c r="K155">
-        <v>5956.3337320000001</v>
+        <v>4017.2481710000002</v>
       </c>
       <c r="L155">
-        <v>5938.6994290000002</v>
+        <v>4055.2099990000002</v>
       </c>
       <c r="M155">
-        <v>5908.2360239999998</v>
+        <v>4091.2188390000001</v>
       </c>
       <c r="AP155" s="1"/>
       <c r="AQ155" s="1"/>
@@ -7510,40 +7508,40 @@
         <v>96250</v>
       </c>
       <c r="B156" s="1">
-        <v>775557013.01171601</v>
+        <v>503297378.32970798</v>
       </c>
       <c r="C156">
-        <v>195949512.701987</v>
+        <v>164072320.64713901</v>
       </c>
       <c r="D156">
-        <v>1112.19012</v>
+        <v>864.59500700000001</v>
       </c>
       <c r="E156">
-        <v>11038.181108000001</v>
+        <v>12942.046063</v>
       </c>
       <c r="F156">
-        <v>175047.56604000001</v>
+        <v>189505.85353200001</v>
       </c>
       <c r="G156">
-        <v>37009.271327000002</v>
+        <v>42426.302599000002</v>
       </c>
       <c r="H156">
-        <v>14973.139223</v>
+        <v>10720.839608</v>
       </c>
       <c r="I156">
-        <v>127405.843479</v>
+        <v>124536.23802800001</v>
       </c>
       <c r="J156">
-        <v>13766.491669999999</v>
+        <v>9601.1026999999995</v>
       </c>
       <c r="K156">
-        <v>5957.7159469999997</v>
+        <v>4010.0485279999998</v>
       </c>
       <c r="L156">
-        <v>5942.0058609999996</v>
+        <v>4048.0921560000002</v>
       </c>
       <c r="M156">
-        <v>5913.9479119999996</v>
+        <v>4084.4671819999999</v>
       </c>
       <c r="AP156" s="1"/>
       <c r="AQ156" s="1"/>
@@ -7554,40 +7552,40 @@
         <v>96875</v>
       </c>
       <c r="B157" s="1">
-        <v>779624178.45466399</v>
+        <v>507474962.17154902</v>
       </c>
       <c r="C157">
-        <v>195449906.95711899</v>
+        <v>163861089.19259</v>
       </c>
       <c r="D157">
-        <v>1111.1402860000001</v>
+        <v>863.77917500000001</v>
       </c>
       <c r="E157">
-        <v>11086.266532</v>
+        <v>12996.419239000001</v>
       </c>
       <c r="F157">
-        <v>174763.51749299999</v>
+        <v>189442.194579</v>
       </c>
       <c r="G157">
-        <v>37250.471948999999</v>
+        <v>42587.437943999998</v>
       </c>
       <c r="H157">
-        <v>15008.790451000001</v>
+        <v>10709.33172</v>
       </c>
       <c r="I157">
-        <v>127683.891009</v>
+        <v>124752.38677899999</v>
       </c>
       <c r="J157">
-        <v>13777.64003</v>
+        <v>9583.9058810000006</v>
       </c>
       <c r="K157">
-        <v>5958.8248149999999</v>
+        <v>4002.8765720000001</v>
       </c>
       <c r="L157">
-        <v>5944.9515019999999</v>
+        <v>4040.9589759999999</v>
       </c>
       <c r="M157">
-        <v>5919.2087780000002</v>
+        <v>4077.6468639999998</v>
       </c>
       <c r="AP157" s="1"/>
       <c r="AQ157" s="1"/>
@@ -7598,40 +7596,40 @@
         <v>97500</v>
       </c>
       <c r="B158" s="1">
-        <v>783613984.70246005</v>
+        <v>511660003.23589998</v>
       </c>
       <c r="C158">
-        <v>194931425.32281801</v>
+        <v>163646099.06513399</v>
       </c>
       <c r="D158">
-        <v>1109.9804260000001</v>
+        <v>862.94106499999998</v>
       </c>
       <c r="E158">
-        <v>11133.087717</v>
+        <v>13049.908792</v>
       </c>
       <c r="F158">
-        <v>174479.413053</v>
+        <v>189378.82087900001</v>
       </c>
       <c r="G158">
-        <v>37488.731763000003</v>
+        <v>42745.742243000001</v>
       </c>
       <c r="H158">
-        <v>15043.122959</v>
+        <v>10697.577235000001</v>
       </c>
       <c r="I158">
-        <v>127961.67608</v>
+        <v>124968.331573</v>
       </c>
       <c r="J158">
-        <v>13787.905178999999</v>
+        <v>9566.8132330000008</v>
       </c>
       <c r="K158">
-        <v>5959.6753250000002</v>
+        <v>3995.738409</v>
       </c>
       <c r="L158">
-        <v>5947.5527480000001</v>
+        <v>4033.8185250000001</v>
       </c>
       <c r="M158">
-        <v>5924.0355380000001</v>
+        <v>4070.7678850000002</v>
       </c>
       <c r="AP158" s="1"/>
       <c r="AQ158" s="1"/>
@@ -7642,40 +7640,40 @@
         <v>98125</v>
       </c>
       <c r="B159" s="1">
-        <v>787525775.61085904</v>
+        <v>515852094.50292701</v>
       </c>
       <c r="C159">
-        <v>194394774.630362</v>
+        <v>163427645.59057301</v>
       </c>
       <c r="D159">
-        <v>1108.713929</v>
+        <v>862.08236799999997</v>
       </c>
       <c r="E159">
-        <v>11178.643496000001</v>
+        <v>13102.520198</v>
       </c>
       <c r="F159">
-        <v>174195.26836799999</v>
+        <v>189315.70024599999</v>
       </c>
       <c r="G159">
-        <v>37724.029505999999</v>
+        <v>42901.239950000003</v>
       </c>
       <c r="H159">
-        <v>15076.163783</v>
+        <v>10685.597152</v>
       </c>
       <c r="I159">
-        <v>128239.171187</v>
+        <v>125184.06683900001</v>
       </c>
       <c r="J159">
-        <v>13797.321778</v>
+        <v>9549.8374220000005</v>
       </c>
       <c r="K159">
-        <v>5960.2820810000003</v>
+        <v>3988.6397999999999</v>
       </c>
       <c r="L159">
-        <v>5949.8257309999999</v>
+        <v>4026.6785030000001</v>
       </c>
       <c r="M159">
-        <v>5928.4450150000002</v>
+        <v>4063.83988</v>
       </c>
       <c r="AP159" s="1"/>
       <c r="AQ159" s="1"/>
@@ -7686,40 +7684,40 @@
         <v>98750</v>
       </c>
       <c r="B160" s="1">
-        <v>791358927.02051699</v>
+        <v>520050828.84779203</v>
       </c>
       <c r="C160">
-        <v>193840654.142795</v>
+        <v>163206014.299972</v>
       </c>
       <c r="D160">
-        <v>1107.3441620000001</v>
+        <v>861.20472400000006</v>
       </c>
       <c r="E160">
-        <v>11222.933572</v>
+        <v>13154.259287000001</v>
       </c>
       <c r="F160">
-        <v>173911.098811</v>
+        <v>189252.80103800001</v>
       </c>
       <c r="G160">
-        <v>37956.346291000002</v>
+        <v>43053.956425999997</v>
       </c>
       <c r="H160">
-        <v>15107.940359</v>
+        <v>10673.411803000001</v>
       </c>
       <c r="I160">
-        <v>128516.349669</v>
+        <v>125399.58743100001</v>
       </c>
       <c r="J160">
-        <v>13805.924072</v>
+        <v>9532.9903190000005</v>
       </c>
       <c r="K160">
-        <v>5960.6592909999999</v>
+        <v>3981.5861669999999</v>
       </c>
       <c r="L160">
-        <v>5951.7862969999996</v>
+        <v>4019.5462470000002</v>
       </c>
       <c r="M160">
-        <v>5932.4539000000004</v>
+        <v>4056.8721220000002</v>
       </c>
       <c r="AP160" s="1"/>
       <c r="AQ160" s="1"/>
@@ -7730,40 +7728,40 @@
         <v>99375</v>
       </c>
       <c r="B161" s="1">
-        <v>795112846.35795903</v>
+        <v>524255799.48335201</v>
       </c>
       <c r="C161">
-        <v>193269754.66749501</v>
+        <v>162981480.97178701</v>
       </c>
       <c r="D161">
-        <v>1105.8744690000001</v>
+        <v>860.30972399999996</v>
       </c>
       <c r="E161">
-        <v>11265.958497</v>
+        <v>13205.132227</v>
       </c>
       <c r="F161">
-        <v>173626.91951499999</v>
+        <v>189190.09220799999</v>
       </c>
       <c r="G161">
-        <v>38185.665565000003</v>
+        <v>43203.917883000002</v>
       </c>
       <c r="H161">
-        <v>15138.480468</v>
+        <v>10661.040852</v>
       </c>
       <c r="I161">
-        <v>128793.185709</v>
+        <v>125614.888612</v>
       </c>
       <c r="J161">
-        <v>13813.745846</v>
+        <v>9516.2830150000009</v>
       </c>
       <c r="K161">
-        <v>5960.8207590000002</v>
+        <v>3974.5825970000001</v>
       </c>
       <c r="L161">
-        <v>5953.4499830000004</v>
+        <v>4012.4287319999999</v>
       </c>
       <c r="M161">
-        <v>5936.078724</v>
+        <v>4049.8735200000001</v>
       </c>
       <c r="AP161" s="1"/>
       <c r="AQ161" s="1"/>
@@ -7774,40 +7772,40 @@
         <v>29</v>
       </c>
       <c r="B162" s="1">
-        <v>798786972.22423899</v>
+        <v>528466600.39453697</v>
       </c>
       <c r="C162">
-        <v>192682757.73244399</v>
+        <v>162754311.69283599</v>
       </c>
       <c r="D162">
-        <v>1104.3081649999999</v>
+        <v>859.39890400000002</v>
       </c>
       <c r="E162">
-        <v>11307.719644999999</v>
+        <v>13255.145505</v>
       </c>
       <c r="F162">
-        <v>173342.745394</v>
+        <v>189127.543362</v>
       </c>
       <c r="G162">
-        <v>38411.973073000001</v>
+        <v>43351.151324999999</v>
       </c>
       <c r="H162">
-        <v>15167.812173</v>
+        <v>10648.503290000001</v>
       </c>
       <c r="I162">
-        <v>129069.654327</v>
+        <v>125829.96604299999</v>
       </c>
       <c r="J162">
-        <v>13820.820378</v>
+        <v>9499.7258459999994</v>
       </c>
       <c r="K162">
-        <v>5960.7798709999997</v>
+        <v>3967.633855</v>
       </c>
       <c r="L162">
-        <v>5954.8320039999999</v>
+        <v>4005.3325810000001</v>
       </c>
       <c r="M162">
-        <v>5939.3358349999999</v>
+        <v>4042.8526230000002</v>
       </c>
       <c r="AP162" s="1"/>
       <c r="AQ162" s="1"/>
